--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,33 +23,40 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Cross references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$168</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$G$177</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$145</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$F$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$F$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$145</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$145</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$145</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$145</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$G$177</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$G$177</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$G$177</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$168</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$168</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$R$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Cross references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Cross references'!$A$1:$J$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Cross references'!$A$1:$J$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -63,3973 +70,3973 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="1323">
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Mpn_Karr_2016</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Karr et al., 2016 Mycoplasma pneumoniae M129 model</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>0.0.1</t>
-  </si>
-  <si>
-    <t>wc_lang version</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Mpn</t>
-  </si>
-  <si>
-    <t>Mycoplasma pneumoniae M129</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>variety</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>Metabolism</t>
-  </si>
-  <si>
-    <t>dfba</t>
-  </si>
-  <si>
-    <t>RnaDegradation</t>
-  </si>
-  <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
-    <t>ssa</t>
-  </si>
-  <si>
-    <t>Transcription</t>
-  </si>
-  <si>
-    <t>Translation</t>
-  </si>
-  <si>
-    <t>Initial volume</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref_0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>Ref_0001</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref_0002].</t>
-  </si>
-  <si>
-    <t>Ref_0002</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>adenine</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>Media concentration set to concentration in SP4 media [Ref_0013].</t>
-  </si>
-  <si>
-    <t>Ref_0013</t>
-  </si>
-  <si>
-    <t>Adk_Protein</t>
-  </si>
-  <si>
-    <t>Adenylate kinase (Protein)</t>
-  </si>
-  <si>
-    <t>MTVRSDHTSALSGVRRTTDEPSVERSMVSSVRGDEPHATRRVRVTYTLDTAEPKGFLKDTCHYKLVTLIQLEPQWQMLSGICCGASTPLTNPRRLRLTPT</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>Adk_Rna</t>
-  </si>
-  <si>
-    <t>Adenylate kinase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGACGGUACGAAGCGAUCACACGUCUGCGCUGAGCGGAGUAAGGCGAACCACAGACGAACCUAGCGUCGAGAGAAGCAUGGUAUCGAGUGUUCGUGGGGAUGAACCGCAUGCUACGCGGCGGGUGCGGGUGACCUACACUCUUGAUACAGCCGAACCGAAAGGCUUCCUCAAGGACACGUGUCAUUACAAGCUAGUAACAUUGAUCCAACUAGAACCCCAGUGGCAAAUGUUGUCGGGGAUUUGUUGUGGGGCUUCUACACCCUUAACCAACCCCAGAAGGUUAAGGUUGACGCCAACUUAG</t>
-  </si>
-  <si>
-    <t>rna</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>D-alanine</t>
-  </si>
-  <si>
-    <t>AlaAla</t>
-  </si>
-  <si>
-    <t>L-alanyl-L-alanine</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>Apt_Protein</t>
-  </si>
-  <si>
-    <t>Adenine phosphoribosyltransferase  (Protein)</t>
-  </si>
-  <si>
-    <t>MMAGEFTNLADSQCVASWLKSERTYRTSYRFSRCRPHCAYPSHVCGRLVCCSLRINCRGISSNFRNTVLFDSVILRDTRTWYDFFTTARLALLRTGLSIF</t>
-  </si>
-  <si>
-    <t>Apt_Rna</t>
-  </si>
-  <si>
-    <t>Adenine phosphoribosyltransferase  (RNA)</t>
-  </si>
-  <si>
-    <t>AUGAUGGCCGGCGAAUUCACUAAUCUUGCCGAUUCCCAAUGCGUUGCUUCUUGAUUGAAGUCGGAGCGGACCUACCGUACUAGCUACAGGUUCUCACGGUGCAGGCCCCACUGUGCGUAUCCCUCGCACGUAUGUGGGCGCCUUGUAUGUUGCUCUCUUCGUAUAAACUGCCGUGGCAUCUCGUCUAAUUUUCGCAACACAGUACUCUUUGACAGCGUCAUCUUGCGCGACACCAGAACGUGAUAUGACUUUUUCACGACAGCGCGAUUGGCGUUAUUACGAACGGGAUUAUCUAUCUUCUAG</t>
-  </si>
-  <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>D-arginine</t>
-  </si>
-  <si>
-    <t>ArgArg</t>
-  </si>
-  <si>
-    <t>L-arginyl-L-arginine</t>
-  </si>
-  <si>
-    <t>ASN</t>
-  </si>
-  <si>
-    <t>D-aspartic acid</t>
-  </si>
-  <si>
-    <t>AsnAsn</t>
-  </si>
-  <si>
-    <t>L-asparaginyl-L-asparagine</t>
-  </si>
-  <si>
-    <t>Media concentration fit to support cellular growth.</t>
-  </si>
-  <si>
-    <t>ASP</t>
-  </si>
-  <si>
-    <t>D-asparagine</t>
-  </si>
-  <si>
-    <t>AspAsp</t>
-  </si>
-  <si>
-    <t>L-aspartyl-L-aspartic Acid</t>
-  </si>
-  <si>
-    <t>ATP</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>CDP</t>
-  </si>
-  <si>
-    <t>Cmk_Protein</t>
-  </si>
-  <si>
-    <t>Cytidylate kinase (Protein)</t>
-  </si>
-  <si>
-    <t>MAGTLTSQRVEAQYPLWLVVCITNIGTLPTRLPLCNMVHNYKFKHLWDSTSAPAQIWGDANSSCNWPRESPGRVPYTGEDLHRCQGLYIRSGRLCCNCLL</t>
-  </si>
-  <si>
-    <t>Cmk_Rna</t>
-  </si>
-  <si>
-    <t>Cytidylate kinase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGGCUGGAACCCUCACGAGUCAGAGAGUGGAGGCGCAGUAUCCUUUAUGACUCGUCGUGUGCAUUACUAACAUCGGUACGCUUCCUACGAGACUGCCUUUGUGUAACAUGGUGCAUAAUUAUAAAUUCAAACACCUCUGAGACUCAACAAGCGCGCCCGCACAGAUAUGAGGUGAUGCUAACUCUUCCUGUAACUGGCCCCGAGAAAGUCCUGGUAGAGUCCCGUACACAGGAGAGGACCUUCAUCGCUGCCAGGGCCUAUAUAUCAGAUCAGGGCGAUUAUGCUGUAAUUGUCUACUGUAG</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>carbon dioxide</t>
-  </si>
-  <si>
-    <t>Media concentration set according to ~5% CO2 = 38 mmHg [Ref_0019]. Equilbrium constant of solvation is 29.49 L*atm/mol [Ref_0019].</t>
-  </si>
-  <si>
-    <t>Ref_0019</t>
-  </si>
-  <si>
-    <t>CTP</t>
-  </si>
-  <si>
-    <t>CYS</t>
-  </si>
-  <si>
-    <t>D-cysteine</t>
-  </si>
-  <si>
-    <t>CysCys</t>
-  </si>
-  <si>
-    <t>L-cysteinyl-L-cysteine</t>
-  </si>
-  <si>
-    <t>CYTD</t>
-  </si>
-  <si>
-    <t>cytidine</t>
-  </si>
-  <si>
-    <t>DPG</t>
-  </si>
-  <si>
-    <t>3-Phospho-D-glyceroyl phosphate</t>
-  </si>
-  <si>
-    <t>E4P</t>
-  </si>
-  <si>
-    <t>D-Erythrose 4-phosphate</t>
-  </si>
-  <si>
-    <t>Eno_Protein</t>
-  </si>
-  <si>
-    <t>Enolase (Protein)</t>
-  </si>
-  <si>
-    <t>MNKEEEIICRFMPPNTSVSLPHSIAKLMKSPAYSGLPVFYSQLRPGATYQRPRANGRCVTHLQWLQWRQTTCNSIGTASARFEPIWHRYALDLCTTSKNE</t>
-  </si>
-  <si>
-    <t>Eno_Rna</t>
-  </si>
-  <si>
-    <t>Enolase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGAAUAAGGAAGAAGAGAUUAUUUGUCGCUUCAUGCCUCCGAACACAAGCGUAUCCCUUCCUCACAGUAUUGCAAAGCUUAUGAAAAGUCCAGCCUAUUCAGGGCUUCCGGUAUUUUACUCACAACUGCGUCCAGGCGCCACGUAUCAACGCCCCCGAGCAAAUGGGCGUUGUGUAACACAUCUUCAAUGGCUCCAAUGACGACAAACCACAUGCAAUAGCAUCGGAACAGCUUCAGCCAGGUUCGAACCGAUUUGGCAUAGAUAUGCUCUCGAUUUGUGCACAACUUCGAAAAAUGAGUAG</t>
-  </si>
-  <si>
-    <t>F6P</t>
-  </si>
-  <si>
-    <t>D-Fructose 6-phosphate</t>
-  </si>
-  <si>
-    <t>Fba_Protein</t>
-  </si>
-  <si>
-    <t>Fructose-biphosphate aldolase (Protein)</t>
-  </si>
-  <si>
-    <t>MRGSRLWYRQGVSSFIPQGHGSAWPRVIGRLPLFRSSRQPVDGYVLCQTARVTFRLPLLICVDFRLSVIPVPTFTDPSKNCKSSPTVCALVQRVALSRTR</t>
-  </si>
-  <si>
-    <t>Fba_Rna</t>
-  </si>
-  <si>
-    <t>Fructose-biphosphate aldolase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGCGUGGCAGUCGGCUUUGGUAUCGCCAAGGGGUGUCCAGCUUUAUACCUCAAGGACAUGGCAGCGCGUGACCGAGGGUCAUUGGGCGUCUCCCUCUAUUCCGAAGUUCACGACAACCAGUAGACGGAUAUGUCUUGUGCCAAACUGCUAGAGUCACUUUCCGCCUGCCUCUGUUGAUCUGCGUGGAUUUUCGUCUGUCCGUCAUACCGGUCCCCACGUUUACUGACCCCAGCAAGAAUUGUAAGAGUUCUCCCACUGUGUGUGCGCUGGUCCAAAGGGUAGCACUGAGUCGGACUAGGUAG</t>
-  </si>
-  <si>
-    <t>FDP</t>
-  </si>
-  <si>
-    <t>D-Fructose 1,6-bisphosphate</t>
-  </si>
-  <si>
-    <t>G2P</t>
-  </si>
-  <si>
-    <t>D-Glycerate 2-phosphate</t>
-  </si>
-  <si>
-    <t>G3P</t>
-  </si>
-  <si>
-    <t>3-Phospho-D-glycerate</t>
-  </si>
-  <si>
-    <t>G6P</t>
-  </si>
-  <si>
-    <t>D-Glucose 6-phosphate</t>
-  </si>
-  <si>
-    <t>Gap_Protein</t>
-  </si>
-  <si>
-    <t>Glyceraldehyde-3-phosphate-dehydrogenase (Protein)</t>
-  </si>
-  <si>
-    <t>MLVRYTIQYDERHHFWVACSPYTQVPYVLWTIAVGRIHGHTAKKTACLMADRWHLGFSWSPLSSMTITRMLHAPLLFRIRCIDATQTGGCGLRSRNSQLQ</t>
-  </si>
-  <si>
-    <t>Gap_Rna</t>
-  </si>
-  <si>
-    <t>Glyceraldehyde-3-phosphate-dehydrogenase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGCUUGUACGUUAUACGAUUCAGUAUGAUGAACGACAUCAUUUCUGAGUUGCUUGUUCCCCCUAUACUCAGGUACCGUACGUGCUGUGGACGAUUGCUGUAGGGAGGAUACAUGGACACACCGCGAAAAAGACUGCUUGCUUGAUGGCGGAUCGCUGGCAUUUGGGCUUUAGUUGGUCCCCACUUUCGUCAAUGACCAUUACGCGGAUGCUUCAUGCGCCUCUCUUAUUUAGGAUUCGUUGUAUUGACGCCACACAGACCGGGGGCUGUGGGCUCAGGUCCCGUAACUCCCAACUACAGUAG</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>Gk_Protein</t>
-  </si>
-  <si>
-    <t>Guanylate kinase (Protein)</t>
-  </si>
-  <si>
-    <t>MVSPSVTALHSVFPLLSSWQPSCSSGFSVLELEPQTSCWTVIDLNNRMAIPGVTSAWLGTTAICPLNGESTVQKLWGCPDCCFQRVKGQDPGGPCPYPKS</t>
-  </si>
-  <si>
-    <t>Gk_Rna</t>
-  </si>
-  <si>
-    <t>Guanylate kinase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGGUUUCCCCAAGCGUCACUGCAUUGCACAGUGUCUUCCCACUACUAUCCAGUUGGCAGCCUAGCUGCUCUUCGGGAUUUUCUGUUUUAGAGUUGGAACCACAAACGUCUUGCUGGACUGUCAUAGAUCUUAAUAACCGUAUGGCAAUCCCAGGAGUAACAUCCGCUUGAUUGGGAACUACAGCAAUAUGCCCACUCAAUGGCGAGAGUACCGUACAGAAGCUUUGAGGAUGUCCUGAUUGUUGUUUCCAAAGGGUGAAAGGACAGGAUCCGGGAGGGCCUUGCCCCUACCCCAAGUCCUAG</t>
-  </si>
-  <si>
-    <t>GLC</t>
-  </si>
-  <si>
-    <t>D-Glucose</t>
-  </si>
-  <si>
-    <t>Media concentration set to the concentration in Hayflict medium. The composition of Hayflick media was curated from the modified Hayflick recipe used reported by Yus et al., 2009 [Ref_0014], the reported PPLO broth recipe [Ref_0015], and the characterized compositions of beef heart [Ref_0016], horse serum [Ref_0017], and peptone [Ref_0018].</t>
-  </si>
-  <si>
-    <t>Ref_0014, Ref_0015, Ref_0016, Ref_0017, Ref_0018</t>
-  </si>
-  <si>
-    <t>GLN</t>
-  </si>
-  <si>
-    <t>D-glutamine</t>
-  </si>
-  <si>
-    <t>GlnGln</t>
-  </si>
-  <si>
-    <t>L-glutaminyl-L-glutamine</t>
-  </si>
-  <si>
-    <t>GLU</t>
-  </si>
-  <si>
-    <t>D-glutamic acid</t>
-  </si>
-  <si>
-    <t>GluGlu</t>
-  </si>
-  <si>
-    <t>L-glutamyl-L-glutamic acid</t>
-  </si>
-  <si>
-    <t>GLY</t>
-  </si>
-  <si>
-    <t>Glycine</t>
-  </si>
-  <si>
-    <t>GlyGly</t>
-  </si>
-  <si>
-    <t>L-glycyl-L-glycine</t>
-  </si>
-  <si>
-    <t>GMP</t>
-  </si>
-  <si>
-    <t>GN</t>
-  </si>
-  <si>
-    <t>guanine</t>
-  </si>
-  <si>
-    <t>Media concentration set to concentration in minimal media [Ref_0014].</t>
-  </si>
-  <si>
-    <t>Ref_0014</t>
-  </si>
-  <si>
-    <t>GTP</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>H+</t>
-  </si>
-  <si>
-    <t>Media concentration set corresponding to pH=7.75 typically used to culture Mycoplasma pneumoniae.</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>HIS</t>
-  </si>
-  <si>
-    <t>D-histidine</t>
-  </si>
-  <si>
-    <t>HisHis</t>
-  </si>
-  <si>
-    <t>L-histidyl-L-histidine</t>
-  </si>
-  <si>
-    <t>Hpt_Protein</t>
-  </si>
-  <si>
-    <t>Hypoxanthine-guanine phosphoribosyltransferase (Protein)</t>
-  </si>
-  <si>
-    <t>MEMAKSLPERMRVQMICILRPGLSCYTALCLAPSWVPTRVFFAGAKMNAHDRTLPYEELPQYFDAIEVGRQASWGSRYSMAEAVPGGSDLSYPRAPMHRS</t>
-  </si>
-  <si>
-    <t>Hpt_Rna</t>
-  </si>
-  <si>
-    <t>Hypoxanthine-guanine phosphoribosyltransferase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGGAGAUGGCGAAGAGUCUUCCCGAGAGAAUGCGCGUACAAAUGAUUUGCAUCCUGCGGCCCGGCUUGUCGUGUUAUACAGCACUCUGUUUAGCUCCUAGUUGAGUGCCCACGAGAGUAUUUUUUGCAGGGGCCAAGAUGAAUGCGCACGACCGAACCCUACCAUAUGAAGAGCUUCCGCAGUAUUUUGACGCGAUCGAAGUGGGUCGACAAGCGAGUUGGGGGUCGCGCUACUCUAUGGCGGAGGCGGUUCCCGGGGGGUCCGAUCUGUCUUAUCCCCGAGCUCCAAUGCAUCGGAGUUAG</t>
-  </si>
-  <si>
-    <t>ILE</t>
-  </si>
-  <si>
-    <t>D-isoleucine</t>
-  </si>
-  <si>
-    <t>IleIle</t>
-  </si>
-  <si>
-    <t>L-isoleucyl-L-isoleucine</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>D-lactate</t>
-  </si>
-  <si>
-    <t>LacA_Protein</t>
-  </si>
-  <si>
-    <t>Probable ribose-5-phosphate isomerase B  (Protein)</t>
-  </si>
-  <si>
-    <t>MNSHFLLWLLDRFREKVLGCNVLPATPTHEQTAPTHSGPISIVTDKGGSVIGNGRPVTEVGLKRIAILATVDFWQDLLNSNGVTINIIESHSAVTFMYDG</t>
-  </si>
-  <si>
-    <t>LacA_Rna</t>
-  </si>
-  <si>
-    <t>Probable ribose-5-phosphate isomerase B  (RNA)</t>
-  </si>
-  <si>
-    <t>AUGAACUCCCAUUUUCUCCUUUGACUACUGGAUCGUUUCCGGGAAAAGGUGCUGGGGUGUAAUGUUCUCCCUGCUACCCCUACACAUGAACAAACGGCGCCUACGCAUAGUGGACCUAUCUCCAUCGUAACUGACAAAGGGGGGUCGGUUAUAGGAAACGGUAGACCUGUCACAGAGGUAGGCCUUAAGCGAAUCGCUAUACUCGCGACCGUGGACUUCUGACAGGAUUUAUUAAAUAGUAACGGUGUAACAAUCAACAUUAUAGAAAGCCACAGCGCGGUAACGUUCAUGUACGAUGGCUAG</t>
-  </si>
-  <si>
-    <t>Ldh_Protein</t>
-  </si>
-  <si>
-    <t>L-lactate dehydrogenase (Protein)</t>
-  </si>
-  <si>
-    <t>MTLLPPTGYGVKLLFIGIADDPYVESEPSRPQRPRDCTWGVNVVYVCTVPIFLHQRQSRTSGMTGAIWLQTYLLLLMEDSVSTGGWVKPSSENPRDLRIA</t>
-  </si>
-  <si>
-    <t>Ldh_Rna</t>
-  </si>
-  <si>
-    <t>L-lactate dehydrogenase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGACAUUGCUGCCUCCGACGGGUUAUGGAGUGAAACUACUCUUUAUCGGUAUCGCCGACGACCCCUACGUGGAGUCCGAACCGAGCCGACCACAACGCCCUCGGGAUUGUACGUGGGGCGUUAAUGUAGUCUAUGUAUGUACUGUUCCAAUCUUUCUCCAUCAACGACAGUCUAGGACCAGUGGGAUGACCGGUGCAAUAUGAUUGCAGACAUAUCUGUUGUUGUUAAUGGAGGACAGUGUUUCCACUGGUGGCUGGGUUAAGCCUUCAAGCGAAAAUCCCCGGGAUCUCCGAAUAGCUUAG</t>
-  </si>
-  <si>
-    <t>LEU</t>
-  </si>
-  <si>
-    <t>D-leucine</t>
-  </si>
-  <si>
-    <t>LeuLeu</t>
-  </si>
-  <si>
-    <t>L-leucyl-L-leucine</t>
-  </si>
-  <si>
-    <t>LYS</t>
-  </si>
-  <si>
-    <t>D-lysine</t>
-  </si>
-  <si>
-    <t>LysLys</t>
-  </si>
-  <si>
-    <t>L-lysyl-L-lysine</t>
-  </si>
-  <si>
-    <t>MET</t>
-  </si>
-  <si>
-    <t>D-methionine</t>
-  </si>
-  <si>
-    <t>MetMet</t>
-  </si>
-  <si>
-    <t>L-methionyl-L-methionine</t>
-  </si>
-  <si>
-    <t>NAD</t>
-  </si>
-  <si>
-    <t>nicotinamide adenine dinucleotide, oxidized</t>
-  </si>
-  <si>
-    <t>NADH</t>
-  </si>
-  <si>
-    <t>nicotinamide adenine dinucleotide, reduced</t>
-  </si>
-  <si>
-    <t>Nox_Protein</t>
-  </si>
-  <si>
-    <t>Probable NADH oxidase (Protein)</t>
-  </si>
-  <si>
-    <t>MAFITIFTKAMFWTVGNARFYASPDSSQISEDDARDFLEADSTLWVLEGPLLAEIWSVVWYGGRIGGRLRGLASQTPAYLSLDEPMHSTDSIRFGALIRA</t>
-  </si>
-  <si>
-    <t>Nox_Rna</t>
-  </si>
-  <si>
-    <t>Probable NADH oxidase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGGCAUUCAUAACGAUUUUCACGAAAGCAAUGUUCUGGACAGUAGGCAACGCCCGUUUCUAUGCCUCCCCAGAUUCCUCACAGAUUUCAGAAGAUGACGCACGAGAUUUCCUGGAGGCGGAUUCCACAUUAUGGGUCCUUGAAGGACCAUUGCUUGCUGAAAUAUGAUCGGUUGUAUGAUAUGGAGGAAGAAUCGGUGGGAGGCUUAGGGGACUCGCCUCCCAAACACCAGCCUAUCUCUCAUUGGACGAACCUAUGCAUUCGACUGAUUCUAUCCGGUUUGGUGCGCUCAUCCGCGCCUAG</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>oxygen</t>
-  </si>
-  <si>
-    <t>Media concentration set according to ~21% O2 = 160 mmHg [Ref_0019]. Equilbrium constant of solvation is 769.2 L*atm/mol [Ref_0019].</t>
-  </si>
-  <si>
-    <t>PEP</t>
-  </si>
-  <si>
-    <t>phosphoenolpyruvate</t>
-  </si>
-  <si>
-    <t>PeptAbcTransporter_Protein</t>
-  </si>
-  <si>
-    <t>Peptide ABC transporter (Protein)</t>
-  </si>
-  <si>
-    <t>MYVIWVLVRGSFGQTRNLVGVHFRENWSLVNVKLAFGPGWHQHANRQTVQSLRATSGQGLCPNGQVTLEELGLGSSYQFSRSIRRYVPIGVNSQLYFSVP</t>
-  </si>
-  <si>
-    <t>PeptAbcTransporter_Rna</t>
-  </si>
-  <si>
-    <t>Peptide ABC transporter (RNA)</t>
-  </si>
-  <si>
-    <t>AUGUAUGUUAUUUGGGUUUUGGUACGGGGUAGCUUCGGGCAAACCAGGAACCUCGUCGGUGUUCACUUCCGGGAAAACUGGUCUCUUGUGAACGUGAAGCUAGCGUUUGGUCCUGGCUGGCAUCAACAUGCUAACCGACAAACUGUACAGAGCCUCAGAGCUACUUCGGGACAGGGCCUUUGUCCUAAUGGUCAAGUUACAUUAGAGGAGCUUGGAUUAGGGUCAUCAUACCAAUUCUCACGAUCGAUACGCCGCUAUGUCCCUAUAGGAGUUAAUUCGCAGCUAUAUUUCUCCGUGCCAUAG</t>
-  </si>
-  <si>
-    <t>Pfk_Protein</t>
-  </si>
-  <si>
-    <t>6-phosphofructokinase /Phosphohexokinase (Protein)</t>
-  </si>
-  <si>
-    <t>MDLDNRVKLLTSISRYHFQACALSFWGRQIVSDFWTVLYSFWDKATTHRCSLSLSPYRVVSSSGIRIITLSSGAIQRWGTNRRQEQSSRQGSGEVLFGTI</t>
-  </si>
-  <si>
-    <t>Pfk_Rna</t>
-  </si>
-  <si>
-    <t>6-phosphofructokinase /Phosphohexokinase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGGACCUGGAUAACCGUGUGAAACUUCUGACAUCUAUCUCCCGUUACCAUUUCCAGGCUUGUGCCUUGUCUUUCUGAGGGCGUCAGAUUGUUUCAGACUUCUGGACCGUCCUCUAUUCUUUUUGGGACAAGGCUACUACACAUAGAUGUUCUUUGAGUUUGUCGCCGUAUCGCGUUGUUAGCUCAUCAGGGAUCCGCAUUAUAACACUGUCAUCUGGUGCAAUUCAACGAUGAGGAACUAAUCGUCGUCAAGAGCAGUCAAGUAGACAGGGUUCAGGAGAAGUAUUGUUUGGAACAAUAUAG</t>
-  </si>
-  <si>
-    <t>PgiB_Protein</t>
-  </si>
-  <si>
-    <t>Glucose-6-phosphate isomerase  (Protein)</t>
-  </si>
-  <si>
-    <t>MPKMSSPFNTSSHRWEISATRSGLDACCGIFWDAYQDRQSVLPQHTETARPGRYRPHQRQYPLTGYPIGGTNIIKARVGIGSNRTAASRAVLALVRELAR</t>
-  </si>
-  <si>
-    <t>PgiB_Rna</t>
-  </si>
-  <si>
-    <t>Glucose-6-phosphate isomerase  (RNA)</t>
-  </si>
-  <si>
-    <t>AUGCCUAAGAUGAGCUCACCGUUCAACACUAGCAGUCAUCGCUGGGAGAUUAGCGCGACGCGAAGCGGGCUGGAUGCUUGCUGUGGCAUUUUUUGGGAUGCUUACCAAGAUCGACAGUCAGUAUUGCCACAACAUACUGAAACUGCCCGCCCGGGGCGUUACAGACCUCACCAGCGGCAGUACCCCCUCACUGGCUACCCCAUUGGGGGGACAAAUAUAAUCAAGGCUAGAGUUGGGAUCGGCAGCAAUAGGACAGCGGCAAGCCGCGCAGUCCUCGCCCUGGUUAGGGAACUUGCCCGGUAG</t>
-  </si>
-  <si>
-    <t>Pgk_Protein</t>
-  </si>
-  <si>
-    <t>Phosphoglycerate kinase (Protein)</t>
-  </si>
-  <si>
-    <t>MIPDPSAPRCVLLATFVRRQRAICNGKNSLTVNQRRVVGSFITTVNHTDSSRLGIPGTSHSRLSNGVSRVLSRCADHSGWPGAPTQWPVLISPASLHLTF</t>
-  </si>
-  <si>
-    <t>Pgk_Rna</t>
-  </si>
-  <si>
-    <t>Phosphoglycerate kinase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGAUACCUGAUCCUAGCGCGCCUCGAUGUGUGCUCUUGGCUACUUUCGUGCGCAGACAGAGAGCAAUAUGUAAUGGUAAGAAUUCUCUUACCGUUAACCAGAGAAGGGUUGUGGGCAGUUUCAUAACCACCGUCAACCAUACCGACUCCAGUCGAUUGGGAAUUCCCGGGACUAGUCAUUCCCGGCUGAGCAAUGGUGUCUCGAGAGUUCUAUCAAGAUGCGCCGAUCACUCCGGCUGGCCUGGCGCACCCACCCAAUGACCUGUGCUGAUCUCACCAGCAAGUUUGCACUUAACCUUUUAG</t>
-  </si>
-  <si>
-    <t>Pgm_Protein</t>
-  </si>
-  <si>
-    <t>2,3-bisphosphoglycerate-independent phosphoglycerate mutase  (Protein)</t>
-  </si>
-  <si>
-    <t>MDIPAHSLNATCSPNAARRGTNSTWYLTVSPRVSSREKRPQLVNIVWMPYFVFGYSPFRSVAEGLIHSLGVLFIFFDPRQRTLKNPGYLHLENAETRSHP</t>
-  </si>
-  <si>
-    <t>Pgm_Rna</t>
-  </si>
-  <si>
-    <t>2,3-bisphosphoglycerate-independent phosphoglycerate mutase  (RNA)</t>
-  </si>
-  <si>
-    <t>AUGGACAUCCCCGCGCAUUCGCUAAAUGCGACUUGCAGUCCUAAUGCCGCGCGCCGAGGUACAAAUUCGACCUGGUAUCUGACCGUCUCGCCACGCGUGUCGAGUCGGGAAAAACGGCCCCAGCUCGUCAAUAUCGUCUGAAUGCCCUAUUUCGUCUUCGGAUACUCACCGUUUCGAUCGGUGGCAGAGGGUUUAAUACACUCUUUAGGCGUGCUAUUCAUAUUCUUUGACCCUAGGCAGCGGACGUUGAAGAAUCCGGGUUAUCUGCACUUAGAAAAUGCGGAGACACGAUCGCAUCCCUAG</t>
-  </si>
-  <si>
-    <t>PHE</t>
-  </si>
-  <si>
-    <t>D-phenylalanine</t>
-  </si>
-  <si>
-    <t>PhePhe</t>
-  </si>
-  <si>
-    <t>L-phenylalanyl-L-phenylalanine</t>
-  </si>
-  <si>
-    <t>Pi</t>
-  </si>
-  <si>
-    <t>phosphate</t>
-  </si>
-  <si>
-    <t>PiAbcTransporter_Protein</t>
-  </si>
-  <si>
-    <t>Phosphate ABC transporter (Protein)</t>
-  </si>
-  <si>
-    <t>MSAGASLRHAWSCSISRISMARIRVISDRRYSGTVPTGSPRIVAAYTRAKYLSAVAADSAKQNEDHAKEDSTLLPCPFLTHAWVFGAIQASAAQYLLEAD</t>
-  </si>
-  <si>
-    <t>PiAbcTransporter_Rna</t>
-  </si>
-  <si>
-    <t>Phosphate ABC transporter (RNA)</t>
-  </si>
-  <si>
-    <t>AUGUCAGCCGGUGCCUCGCUACGUCACGCCUGGUCUUGUUCCAUUUCUCGAAUAUCAAUGGCCCGAAUUAGGGUGAUUAGUGACCGGCGCUAUAGCGGUACCGUACCGACAGGUUCACCUAGAAUCGUUGCCGCUUAUACACGCGCCAAAUACUUAUCCGCAGUGGCAGCCGAUUCUGCAAAACAGAAUGAAGACCACGCAAAAGAGGACUCCACGCUGCUGCCUUGUCCUUUCUUAACUCAUGCCUGGGUUUUCGGAGCCAUCCAGGCUAGCGCGGCGCAGUAUCUGUUGGAGGCGGAUUAG</t>
-  </si>
-  <si>
-    <t>Ppa_Protein</t>
-  </si>
-  <si>
-    <t>Inorganic pyrophosphatase  (Protein)</t>
-  </si>
-  <si>
-    <t>MSSLVMRFSQPSSTHQQDAWWSSRRMRKRGWDLLTLQNLLLTWEEVRKIIRKCFPQAAHSINGWSPFTPSILRVSQKNRQYFKSSYVPIELTPGSPTSAI</t>
-  </si>
-  <si>
-    <t>Ppa_Rna</t>
-  </si>
-  <si>
-    <t>Inorganic pyrophosphatase  (RNA)</t>
-  </si>
-  <si>
-    <t>AUGUCGUCUUUGGUAAUGAGGUUUUCGCAGCCUUCGAGUACGCACCAACAGGAUGCAUGAUGAUCUUCUAGGAGGAUGCGUAAACGAGGGUGGGAUCUACUAACACUCCAGAAUCUUCUGCUGACAUGGGAGGAAGUUCGCAAAAUAAUACGGAAAUGCUUUCCGCAAGCGGCUCACUCAAUUAACGGUUGAUCGCCAUUUACCCCUUCCAUUCUUCGGGUAUCACAAAAGAACCGACAAUACUUCAAAUCUAGCUACGUUCCCAUCGAGUUGACCCCCGGAUCUCCGACUAGCGCUAUCUAG</t>
-  </si>
-  <si>
-    <t>PPi</t>
-  </si>
-  <si>
-    <t>diphosphate</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>D-proline</t>
-  </si>
-  <si>
-    <t>ProPro</t>
-  </si>
-  <si>
-    <t>L-prolyl-L-proline</t>
-  </si>
-  <si>
-    <t>PRPP</t>
-  </si>
-  <si>
-    <t>5-Phospho-alpha-D-ribose 1-diphosphate</t>
-  </si>
-  <si>
-    <t>Prs_Protein</t>
-  </si>
-  <si>
-    <t>Ribose-phosphate pyrophosphokinase  (Protein)</t>
-  </si>
-  <si>
-    <t>MRYCVPQGQERPNCAGAARSKASLNRGWSLRRASIIHAIVCNPYRISLKSSLLPMATLVNWNGRACIRILMQWIPLGVASSPSAFSPRSVFPSSRLEHLL</t>
-  </si>
-  <si>
-    <t>Prs_Rna</t>
-  </si>
-  <si>
-    <t>Ribose-phosphate pyrophosphokinase  (RNA)</t>
-  </si>
-  <si>
-    <t>AUGCGAUACUGCGUUCCGCAAGGCCAGGAGCGGCCAAAUUGCGCCGGUGCCGCUCGCAGUAAAGCGAGUUUAAAUAGAGGGUGGAGUUUGCGGCGAGCGAGUAUUAUCCAUGCCAUCGUCUGUAAUCCUUACCGCAUAAGUCUGAAAAGUAGCCUUCUGCCAAUGGCAACCCUGGUAAAUUGAAAUGGCAGAGCGUGUAUAAGAAUCUUAAUGCAAUGAAUACCCUUAGGAGUGGCGUCAAGUCCAUCAGCAUUCAGCCCCAGGAGCGUCUUCCCUAGCUCUAGACUCGAGCAUCUGCUAUAG</t>
-  </si>
-  <si>
-    <t>Pts_Protein</t>
-  </si>
-  <si>
-    <t>PTS EIIABC (glucose) (Protein)</t>
-  </si>
-  <si>
-    <t>MGREDHYSESCTCSLFALVHSIQGTRAFTTPCSYSEHNELAQALLGLRTINQPRDSPRAHRAPNHIGNQQLAKVAFAGDLVTYVTRDVTLTAIGPLMRFS</t>
-  </si>
-  <si>
-    <t>Pts_Rna</t>
-  </si>
-  <si>
-    <t>PTS EIIABC (glucose) (RNA)</t>
-  </si>
-  <si>
-    <t>AUGGGCAGAGAAGACCACUAUUCUGAAUCUUGUACCUGUUCGCUGUUCGCGUUAGUCCACAGCAUACAAGGGACGCGAGCAUUCACGACACCAUGUAGCUAUAGUGAACAUAACGAACUAGCUCAAGCCCUCCUGGGCUUGCGAACGAUCAAUCAACCCCGUGAUUCACCGAGAGCCCACAGGGCACCCAACCACAUUGGCAACCAGCAGCUGGCUAAAGUGGCCUUCGCCGGUGAUCUCGUGACGUACGUCACUAGAGACGUUACUCUUACUGCCAUUGGCCCUCUAAUGCGAUUUUCCUAG</t>
-  </si>
-  <si>
-    <t>Pyk_Protein</t>
-  </si>
-  <si>
-    <t>Pyruvate kinase (Protein)</t>
-  </si>
-  <si>
-    <t>MFRPVRLQATKKPVTTKRSALSPISTPVVAHALSKFRYLLTKMNLLRKIDKMYYPQLESADNAPSTPVIVHACGFTAGIVVERYCTAVVKGVKRFPLTRP</t>
-  </si>
-  <si>
-    <t>Pyk_Rna</t>
-  </si>
-  <si>
-    <t>Pyruvate kinase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGUUUCGUCCGGUUCGACUGCAAGCAACUAAAAAGCCGGUUACUACGAAGCGAUCAGCACUUUCUCCGAUAAGUACACCCGUAGUCGCCCAUGCGCUGUCGAAAUUCCGGUACCUUCUCACCAAGAUGAACCUACUGAGAAAAAUCGACAAGAUGUACUAUCCCCAACUCGAGUCGGCGGACAACGCCCCGAGUACGCCCGUCAUCGUGCACGCCUGUGGGUUUACGGCAGGUAUAGUGGUCGAAAGGUACUGUACAGCCGUGGUCAAAGGAGUGAAGCGCUUCCCCUUGACCCGACCGUAG</t>
-  </si>
-  <si>
-    <t>PYR</t>
-  </si>
-  <si>
-    <t>pyruvate</t>
-  </si>
-  <si>
-    <t>PyrH_Protein</t>
-  </si>
-  <si>
-    <t>Uridylate kinase  (Protein)</t>
-  </si>
-  <si>
-    <t>MTDIDNRLVPRKTRPPVGAPRHEFDSCPAAERSITRLLARSTVTSIRNLTSSSIKRYISLHVPRTPRLIWLIMTSFNSIAQVSSLFGKPLYSVLCETISG</t>
-  </si>
-  <si>
-    <t>PyrH_Rna</t>
-  </si>
-  <si>
-    <t>Uridylate kinase  (RNA)</t>
-  </si>
-  <si>
-    <t>AUGACCGACAUUGAUAACCGAUUAGUCCCACGCAAAACUCGACCACCAGUGGGUGCUCCGCGCCACGAAUUCGACUCAUGCCCGGCCGCCGAACGCUCCAUUACGAGGUUGCUAGCCCGGUCUACUGUUACAAGCAUUAGGAAUCUUACUUCAAGCUCAAUUAAGAGAUACAUCUCAUUGCAUGUUCCCCGGACCCCCCGCUUGAUAUGGCUCAUUAUGACGUCGUUUAAUUCUAUUGCUCAAGUAUCGUCCCUAUUUGGAAAACCACUCUACAGUGUACUAUGUGAAACAAUCUCUGGAUAG</t>
-  </si>
-  <si>
-    <t>R5P</t>
-  </si>
-  <si>
-    <t>alpha-D-Ribose 5-phosphate</t>
-  </si>
-  <si>
-    <t>Ribosome_Protein</t>
-  </si>
-  <si>
-    <t>Ribosome (Protein)</t>
-  </si>
-  <si>
-    <t>MSSLTFPLGFVFPGPCARPINLWPATPTVLWRDSRPIIRVENLICIFAIQGRVLPNSIRSFRVRARQMRTGTDHATKAKTGTLPLGPDNTWQKCSFSILA</t>
-  </si>
-  <si>
-    <t>Ribosome_Rna</t>
-  </si>
-  <si>
-    <t>Ribosome (RNA)</t>
-  </si>
-  <si>
-    <t>AUGAGUUCUCUGACCUUUCCCUUGGGAUUCGUCUUCCCAGGACCAUGCGCGAGACCCAUAAACUUAUGGCCCGCCACGCCAACCGUUCUUUGGCGUGAUUCCCGCCCGAUCAUCCGAGUAGAGAAUUUAAUCUGUAUAUUCGCAAUACAGGGAAGAGUGUUACCCAAUUCUAUACGGAGCUUUCGCGUGCGUGCUCGGCAGAUGCGCACCGGUACAGAUCAUGCUACGAAAGCUAAAACUGGCACCCUUCCUCUUGGUCCCGAUAACACAUGGCAAAAAUGCAGUUUUAGCAUUUUAGCGUAG</t>
-  </si>
-  <si>
-    <t>RL5P</t>
-  </si>
-  <si>
-    <t>D-Ribulose 5-phosphate</t>
-  </si>
-  <si>
-    <t>RnaPolymerase_Protein</t>
-  </si>
-  <si>
-    <t>Protein polymerase (Protein)</t>
-  </si>
-  <si>
-    <t>MIIFSMKALTPHIVSTLVPYDCVETELRYLLLVVTIDYKSMFPPYRRDWHPRCLRCWYVRRYVRVVNDVVKLGIRIPTATPQIRSNRVVPEHVEWPYKVH</t>
-  </si>
-  <si>
-    <t>RnaPolymerase_Rna</t>
-  </si>
-  <si>
-    <t>RNA polymerase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGAUCAUUUUCUCGAUGAAAGCGUUGACCCCACAUAUCGUUAGUACUCUUGUACCCUAUGAUUGUGUAGAAACCGAACUACGGUACCUCCUGUUGGUAGUCACGAUAGAUUAUAAAAGUAUGUUCCCACCCUAUCGACGAGACUGGCAUCCUAGGUGUUUGCGGUGUUGGUACGUGCGCAGGUAUGUAAGAGUGGUAAACGACGUGGUCAAAUUAGGAAUACGAAUCCCCACCGCAACGCCUCAAAUUCGCUCUAAUCGAGUUGUCCCUGAACAUGUUGAGUGGCCUUAUAAGGUCCAUUAG</t>
-  </si>
-  <si>
-    <t>Rnase_Protein</t>
-  </si>
-  <si>
-    <t>Proteinse (Protein)</t>
-  </si>
-  <si>
-    <t>MAAIDRATRTPLEILWFTCFQWMRVMDASPPLTLRRAVVGWWTWSLAVAVPELIERNRSSNTVSLEMEAPSLLWAPTSPRWDPCGSRRPDQATRSESQGV</t>
-  </si>
-  <si>
-    <t>Rnase_Rna</t>
-  </si>
-  <si>
-    <t>RNase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGGCUGCCAUAGAUCGUGCAACAAGAACUCCCCUCGAGAUUCUAUGAUUUACUUGCUUCCAAUGAAUGCGUGUUAUGGAUGCAUCGCCACCUCUGACCUUACGACGCGCUGUCGUGGGAUGGUGGACAUGAAGUCUGGCCGUCGCUGUACCGGAGCUGAUCGAGCGCAACAGAUCGAGUAACACAGUUAGCUUAGAGAUGGAAGCUCCCAGCCUUCUCUGAGCCCCGACGUCUCCGAGGUGGGAUCCUUGUGGCUCUCGGCGACCUGAUCAAGCUACGCGCUCUGAAUCCCAGGGAGUUUAG</t>
-  </si>
-  <si>
-    <t>Rpe_Protein</t>
-  </si>
-  <si>
-    <t>Probable ribulose-phosphate 3-epimerase (Protein)</t>
-  </si>
-  <si>
-    <t>MQRDTQTIGRSPNAWRWLNLRNAVTDAPATTSVIHLRKEKKQRTNRVPTKTSQPLRMVCPITGSSFLLSEDPLRWTAILDTPRRVDWWSGTSMSTQHNRV</t>
-  </si>
-  <si>
-    <t>Rpe_Rna</t>
-  </si>
-  <si>
-    <t>Probable ribulose-phosphate 3-epimerase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGCAACGAGAUACACAAACUAUAGGACGCAGUCCGAAUGCGUGGCGUUGGUUGAACCUGCGAAACGCUGUCACAGACGCUCCAGCUACGACCAGUGUGAUACAUCUUAGGAAGGAGAAAAAACAACGAACGAAUCGGGUGCCAACGAAGACUUCACAACCCUUACGAAUGGUAUGUCCAAUCACUGGGAGCUCCUUCCUGCUGUCAGAGGACCCUCUGCGGUGAACUGCUAUAUUAGAUACCCCAAGACGGGUGGACUGAUGAAGCGGCACGAGUAUGAGUACGCAACAUAAUCGUGUGUAG</t>
-  </si>
-  <si>
-    <t>S7P</t>
-  </si>
-  <si>
-    <t>D-sedoheptulose-7-phosphate</t>
-  </si>
-  <si>
-    <t>SER</t>
-  </si>
-  <si>
-    <t>D-serine</t>
-  </si>
-  <si>
-    <t>SerSer</t>
-  </si>
-  <si>
-    <t>L-seryl-L-serine</t>
-  </si>
-  <si>
-    <t>T3P1</t>
-  </si>
-  <si>
-    <t>D-glyceraldehdye-3-phosphate</t>
-  </si>
-  <si>
-    <t>T3P2</t>
-  </si>
-  <si>
-    <t>Dihydroxyacetone phosphate</t>
-  </si>
-  <si>
-    <t>THR</t>
-  </si>
-  <si>
-    <t>D-threonine</t>
-  </si>
-  <si>
-    <t>ThrThr</t>
-  </si>
-  <si>
-    <t>L-threonyl-L-threonine</t>
-  </si>
-  <si>
-    <t>Tim_Protein</t>
-  </si>
-  <si>
-    <t>Triosephosphate isomerase  (Protein)</t>
-  </si>
-  <si>
-    <t>MLCLTCTESHFVIRCLCETALRRDSRLTLICSQRLGVSIPAFCGMSIAGRDHLDWRVTRSWIWIFTEVWVVRAPSSVYQGPTFWQNTSATLLQGRRVQSG</t>
-  </si>
-  <si>
-    <t>Tim_Rna</t>
-  </si>
-  <si>
-    <t>Triosephosphate isomerase  (RNA)</t>
-  </si>
-  <si>
-    <t>AUGUUAUGUCUUACAUGCACGGAAAGUCAUUUCGUCAUAAGGUGCUUAUGUGAAACCGCGUUACGGCGAGAUUCUCGCCUAACCUUGAUCUGUUCCCAACGCCUAGGAGUGUCGAUUCCAGCUUUUUGUGGUAUGUCCAUCGCAGGACGCGAUCAUUUAGACUGGAGAGUCACCCGUUCCUGGAUUUGGAUAUUUACGGAAGUAUGGGUAGUUCGAGCGCCGAGUUCUGUGUAUCAAGGCCCCACUUUCUGACAGAACACGUCGGCCACUUUGUUACAAGGGCGUAGAGUACAAUCCGGCUAG</t>
-  </si>
-  <si>
-    <t>TklB_Protein</t>
-  </si>
-  <si>
-    <t>Transketolase  (Protein)</t>
-  </si>
-  <si>
-    <t>MPVSTGRSVSAIARLKIYFTEELGGRAGARSRGWLPLTAQKNSLDSDVLPPAARSHSTRHYRKVLSPWTSKPDFTATDHISNGLPDLRGNNWSSDASTPT</t>
-  </si>
-  <si>
-    <t>TklB_Rna</t>
-  </si>
-  <si>
-    <t>Transketolase  (RNA)</t>
-  </si>
-  <si>
-    <t>AUGCCGGUCUCUACUGGUCGUUCAGUGUCCGCGAUAGCGCGAUUAAAGAUCUACUUUACAGAAGAGCUCGGGGGAAGAGCUGGCGCCCGCUCGCGUGGUUGACUGCCAUUAACCGCACAAAAAAACUCGUUGGACUCCGACGUUUUGCCCCCUGCGGCUCGUUCGCACUCAACCAGACAUUACAGAAAAGUCCUCUCUCCCUGAACUUCAAAGCCCGAUUUCACAGCCACUGAUCAUAUUUCAAAUGGGCUACCGGACCUUAGGGGAAAUAAUUGGUCGUCGGAUGCAAGUACCCCUACCUAG</t>
-  </si>
-  <si>
-    <t>TRP</t>
-  </si>
-  <si>
-    <t>D-tryptophan</t>
-  </si>
-  <si>
-    <t>TrpTrp</t>
-  </si>
-  <si>
-    <t>L-trytophanyl-L-trytophan</t>
-  </si>
-  <si>
-    <t>TYR</t>
-  </si>
-  <si>
-    <t>D-tyrosine</t>
-  </si>
-  <si>
-    <t>TyrTyr</t>
-  </si>
-  <si>
-    <t>L-tyrosyl-L-tyrosine</t>
-  </si>
-  <si>
-    <t>Udk_Protein</t>
-  </si>
-  <si>
-    <t>Uridine kinase (Protein)</t>
-  </si>
-  <si>
-    <t>MSCIRMRGVQQKHKVNSSILGARMLGCAVASPSQMGDGLNPSDVYKDTCKIIETLAGVSWTKVIRSALSDFAQARGIFAPHTGTFTDTQYYGIHIALKGM</t>
-  </si>
-  <si>
-    <t>Udk_Rna</t>
-  </si>
-  <si>
-    <t>Uridine kinase (RNA)</t>
-  </si>
-  <si>
-    <t>AUGUCGUGUAUCAGGAUGCGCGGAGUACAGCAAAAGCAUAAGGUUAACUCGAGUAUUCUCGGUGCAAGAAUGCUGGGAUGUGCCGUCGCGUCACCGUCUCAGAUGGGCGACGGUCUUAACCCCUCUGACGUCUAUAAAGACACGUGCAAAAUAAUAGAAACUUUAGCCGGCGUAUCCUGAACGAAGGUCAUCCGUAGUGCAUUGUCAGACUUCGCCCAGGCCAGAGGAAUCUUUGCGCCGCAUACGGGCACUUUUACCGACACACAGUACUACGGCAUUCAUAUUGCACUCAAAGGAAUGUAG</t>
-  </si>
-  <si>
-    <t>UDP</t>
-  </si>
-  <si>
-    <t>UMP</t>
-  </si>
-  <si>
-    <t>Upp_Protein</t>
-  </si>
-  <si>
-    <t>Uracil phosphoribosyltransferase  (Protein)</t>
-  </si>
-  <si>
-    <t>MGSAARFPIPSLDSCQPLNLTRSRSSPHLWSGSPGGPLYFVPCIATRRLKTVLGAIRHPMSSFKPNTDKAHSDVPSKNREDSSESKDTWLERPYTHIYPQ</t>
-  </si>
-  <si>
-    <t>Upp_Rna</t>
-  </si>
-  <si>
-    <t>Uracil phosphoribosyltransferase  (RNA)</t>
-  </si>
-  <si>
-    <t>AUGGGCUCCGCUGCGCGGUUCCCAAUUCCAUCCUUAGAUUCCUGCCAACCCCUGAACCUCACUCGUAGUCGGAGCUCUCCACAUCUAUGGUCGGGGAGUCCGGGUGGACCAUUAUACUUCGUACCGUGCAUUGCGACUAGAAGACUGAAGACUGUCCUCGGCGCCAUUCGCCAUCCAAUGUCCAGCUUCAAACCGAAUACGGACAAGGCUCACUCCGAUGUGCCAUCUAAAAAUCGAGAGGACUCCUCUGAAUCUAAAGAUACGUGAUUAGAACGCCCGUACACACAUAUCUAUCCGCAAUAG</t>
-  </si>
-  <si>
-    <t>URA</t>
-  </si>
-  <si>
-    <t>uracil</t>
-  </si>
-  <si>
-    <t>Media concentration set to value in minimal media [Ref_0014].</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>uridine</t>
-  </si>
-  <si>
-    <t>UTP</t>
-  </si>
-  <si>
-    <t>VAL</t>
-  </si>
-  <si>
-    <t>D-valine</t>
-  </si>
-  <si>
-    <t>ValVal</t>
-  </si>
-  <si>
-    <t>L-valyl-L-valine</t>
-  </si>
-  <si>
-    <t>X5P</t>
-  </si>
-  <si>
-    <t>D-Xylulose 5-phosphate</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>AD[e]</t>
-  </si>
-  <si>
-    <t>Adk_Protein[c]</t>
-  </si>
-  <si>
-    <t>Adk_Rna[c]</t>
-  </si>
-  <si>
-    <t>ALA[c]</t>
-  </si>
-  <si>
-    <t>AlaAla[e]</t>
-  </si>
-  <si>
-    <t>AMP[c]</t>
-  </si>
-  <si>
-    <t>Apt_Protein[c]</t>
-  </si>
-  <si>
-    <t>Apt_Rna[c]</t>
-  </si>
-  <si>
-    <t>ARG[c]</t>
-  </si>
-  <si>
-    <t>ArgArg[e]</t>
-  </si>
-  <si>
-    <t>ASN[c]</t>
-  </si>
-  <si>
-    <t>AsnAsn[e]</t>
-  </si>
-  <si>
-    <t>ASP[c]</t>
-  </si>
-  <si>
-    <t>AspAsp[e]</t>
-  </si>
-  <si>
-    <t>ATP[c]</t>
-  </si>
-  <si>
-    <t>Cmk_Protein[c]</t>
-  </si>
-  <si>
-    <t>Cmk_Rna[c]</t>
-  </si>
-  <si>
-    <t>CMP[c]</t>
-  </si>
-  <si>
-    <t>CO2[e]</t>
-  </si>
-  <si>
-    <t>CTP[c]</t>
-  </si>
-  <si>
-    <t>CYS[c]</t>
-  </si>
-  <si>
-    <t>CysCys[e]</t>
-  </si>
-  <si>
-    <t>CYTD[e]</t>
-  </si>
-  <si>
-    <t>Eno_Protein[c]</t>
-  </si>
-  <si>
-    <t>Eno_Rna[c]</t>
-  </si>
-  <si>
-    <t>Fba_Protein[c]</t>
-  </si>
-  <si>
-    <t>Fba_Rna[c]</t>
-  </si>
-  <si>
-    <t>Gap_Protein[c]</t>
-  </si>
-  <si>
-    <t>Gap_Rna[c]</t>
-  </si>
-  <si>
-    <t>GDP[c]</t>
-  </si>
-  <si>
-    <t>Gk_Protein[c]</t>
-  </si>
-  <si>
-    <t>Gk_Rna[c]</t>
-  </si>
-  <si>
-    <t>GLC[e]</t>
-  </si>
-  <si>
-    <t>GLN[c]</t>
-  </si>
-  <si>
-    <t>GlnGln[e]</t>
-  </si>
-  <si>
-    <t>GLU[c]</t>
-  </si>
-  <si>
-    <t>GluGlu[e]</t>
-  </si>
-  <si>
-    <t>GLY[c]</t>
-  </si>
-  <si>
-    <t>GlyGly[e]</t>
-  </si>
-  <si>
-    <t>GMP[c]</t>
-  </si>
-  <si>
-    <t>GN[e]</t>
-  </si>
-  <si>
-    <t>GTP[c]</t>
-  </si>
-  <si>
-    <t>H2O[c]</t>
-  </si>
-  <si>
-    <t>H2O[e]</t>
-  </si>
-  <si>
-    <t>H[c]</t>
-  </si>
-  <si>
-    <t>H[e]</t>
-  </si>
-  <si>
-    <t>HIS[c]</t>
-  </si>
-  <si>
-    <t>HisHis[e]</t>
-  </si>
-  <si>
-    <t>Hpt_Protein[c]</t>
-  </si>
-  <si>
-    <t>Hpt_Rna[c]</t>
-  </si>
-  <si>
-    <t>ILE[c]</t>
-  </si>
-  <si>
-    <t>IleIle[e]</t>
-  </si>
-  <si>
-    <t>LacA_Protein[c]</t>
-  </si>
-  <si>
-    <t>LacA_Rna[c]</t>
-  </si>
-  <si>
-    <t>Ldh_Protein[c]</t>
-  </si>
-  <si>
-    <t>Ldh_Rna[c]</t>
-  </si>
-  <si>
-    <t>LEU[c]</t>
-  </si>
-  <si>
-    <t>LeuLeu[e]</t>
-  </si>
-  <si>
-    <t>LYS[c]</t>
-  </si>
-  <si>
-    <t>LysLys[e]</t>
-  </si>
-  <si>
-    <t>MET[c]</t>
-  </si>
-  <si>
-    <t>MetMet[e]</t>
-  </si>
-  <si>
-    <t>NAD[e]</t>
-  </si>
-  <si>
-    <t>Nox_Protein[c]</t>
-  </si>
-  <si>
-    <t>Nox_Rna[c]</t>
-  </si>
-  <si>
-    <t>O2[e]</t>
-  </si>
-  <si>
-    <t>PeptAbcTransporter_Protein[c]</t>
-  </si>
-  <si>
-    <t>PeptAbcTransporter_Rna[c]</t>
-  </si>
-  <si>
-    <t>Pfk_Protein[c]</t>
-  </si>
-  <si>
-    <t>Pfk_Rna[c]</t>
-  </si>
-  <si>
-    <t>PgiB_Protein[c]</t>
-  </si>
-  <si>
-    <t>PgiB_Rna[c]</t>
-  </si>
-  <si>
-    <t>Pgk_Protein[c]</t>
-  </si>
-  <si>
-    <t>Pgk_Rna[c]</t>
-  </si>
-  <si>
-    <t>Pgm_Protein[c]</t>
-  </si>
-  <si>
-    <t>Pgm_Rna[c]</t>
-  </si>
-  <si>
-    <t>PHE[c]</t>
-  </si>
-  <si>
-    <t>PhePhe[e]</t>
-  </si>
-  <si>
-    <t>Pi[c]</t>
-  </si>
-  <si>
-    <t>Pi[e]</t>
-  </si>
-  <si>
-    <t>PiAbcTransporter_Protein[c]</t>
-  </si>
-  <si>
-    <t>PiAbcTransporter_Rna[c]</t>
-  </si>
-  <si>
-    <t>Ppa_Protein[c]</t>
-  </si>
-  <si>
-    <t>Ppa_Rna[c]</t>
-  </si>
-  <si>
-    <t>PPi[c]</t>
-  </si>
-  <si>
-    <t>PRO[c]</t>
-  </si>
-  <si>
-    <t>ProPro[e]</t>
-  </si>
-  <si>
-    <t>Prs_Protein[c]</t>
-  </si>
-  <si>
-    <t>Prs_Rna[c]</t>
-  </si>
-  <si>
-    <t>Pts_Protein[c]</t>
-  </si>
-  <si>
-    <t>Pts_Rna[c]</t>
-  </si>
-  <si>
-    <t>Pyk_Protein[c]</t>
-  </si>
-  <si>
-    <t>Pyk_Rna[c]</t>
-  </si>
-  <si>
-    <t>PyrH_Protein[c]</t>
-  </si>
-  <si>
-    <t>PyrH_Rna[c]</t>
-  </si>
-  <si>
-    <t>Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>Ribosome_Rna[c]</t>
-  </si>
-  <si>
-    <t>RnaPolymerase_Protein[c]</t>
-  </si>
-  <si>
-    <t>RnaPolymerase_Rna[c]</t>
-  </si>
-  <si>
-    <t>Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>Rnase_Rna[c]</t>
-  </si>
-  <si>
-    <t>Rpe_Protein[c]</t>
-  </si>
-  <si>
-    <t>Rpe_Rna[c]</t>
-  </si>
-  <si>
-    <t>SER[c]</t>
-  </si>
-  <si>
-    <t>SerSer[e]</t>
-  </si>
-  <si>
-    <t>THR[c]</t>
-  </si>
-  <si>
-    <t>ThrThr[e]</t>
-  </si>
-  <si>
-    <t>Tim_Protein[c]</t>
-  </si>
-  <si>
-    <t>Tim_Rna[c]</t>
-  </si>
-  <si>
-    <t>TklB_Protein[c]</t>
-  </si>
-  <si>
-    <t>TklB_Rna[c]</t>
-  </si>
-  <si>
-    <t>TRP[c]</t>
-  </si>
-  <si>
-    <t>TrpTrp[e]</t>
-  </si>
-  <si>
-    <t>TYR[c]</t>
-  </si>
-  <si>
-    <t>TyrTyr[e]</t>
-  </si>
-  <si>
-    <t>Udk_Protein[c]</t>
-  </si>
-  <si>
-    <t>Udk_Rna[c]</t>
-  </si>
-  <si>
-    <t>UMP[c]</t>
-  </si>
-  <si>
-    <t>Upp_Protein[c]</t>
-  </si>
-  <si>
-    <t>Upp_Rna[c]</t>
-  </si>
-  <si>
-    <t>URA[e]</t>
-  </si>
-  <si>
-    <t>UTP[c]</t>
-  </si>
-  <si>
-    <t>UTP[e]</t>
-  </si>
-  <si>
-    <t>VAL[c]</t>
-  </si>
-  <si>
-    <t>ValVal[e]</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>AdnTransport</t>
-  </si>
-  <si>
-    <t>Adenine reversible transport via proton symport</t>
-  </si>
-  <si>
-    <t>AD[e] + H[e] ==&gt; AD[c] + H[c]</t>
-  </si>
-  <si>
-    <t>AK_AMP</t>
-  </si>
-  <si>
-    <t>adenylate kinase</t>
-  </si>
-  <si>
-    <t>[c]: AMP + ATP ==&gt; (2) ADP</t>
-  </si>
-  <si>
-    <t>AK_GTP</t>
-  </si>
-  <si>
-    <t>GTP:AMP phosphotransferase</t>
-  </si>
-  <si>
-    <t>[c]: AMP + GTP ==&gt; ADP + GDP</t>
-  </si>
-  <si>
-    <t>AlaAbcTransport</t>
-  </si>
-  <si>
-    <t>Alanine transport via ABC system</t>
-  </si>
-  <si>
-    <t>AlaAla[e] + ATP[c] + H2O[c] ==&gt; ADP[c] + AlaAla[c] + H[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>APRT</t>
-  </si>
-  <si>
-    <t>AMP:pyrophosphate phosphoribosyltransferase</t>
-  </si>
-  <si>
-    <t>[c]: AMP + H + PPi ==&gt; AD + PRPP</t>
-  </si>
-  <si>
-    <t>ArgAbcTransport</t>
-  </si>
-  <si>
-    <t>Arginine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ArgArg[e] + ATP[c] + H2O[c] ==&gt; ADP[c] + ArgArg[c] + H[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>AsnAbcTransport</t>
-  </si>
-  <si>
-    <t>Asparagine transport via ABC system</t>
-  </si>
-  <si>
-    <t>AsnAsn[e] + ATP[c] + H2O[c] ==&gt; ADP[c] + AsnAsn[c] + H[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>AspAbcTransport</t>
-  </si>
-  <si>
-    <t>Aspartate transport via ABC system</t>
-  </si>
-  <si>
-    <t>AspAsp[e] + ATP[c] + H2O[c] ==&gt; ADP[c] + AspAsp[c] + H[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>CmpK_CMP</t>
-  </si>
-  <si>
-    <t>ATP:CMP phosphotransferase</t>
-  </si>
-  <si>
-    <t>[c]: ATP + CMP ==&gt; ADP + CDP</t>
-  </si>
-  <si>
-    <t>CO2Transport</t>
-  </si>
-  <si>
-    <t>Carbon dioxide transporter via diffusion</t>
-  </si>
-  <si>
-    <t>CO2[e] ==&gt; CO2[c]</t>
-  </si>
-  <si>
-    <t>CysAbcTransport</t>
-  </si>
-  <si>
-    <t>Cysteine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + CysCys[e] + H2O[c] ==&gt; ADP[c] + CysCys[c] + H[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>CytdTransport</t>
-  </si>
-  <si>
-    <t>Cytidine reversible transport via proton symport</t>
-  </si>
-  <si>
-    <t>CYTD[e] + H[e] ==&gt; CYTD[c] + H[c]</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Ala</t>
-  </si>
-  <si>
-    <t>Depeptidase (Ala)</t>
-  </si>
-  <si>
-    <t>[c]: AlaAla + H2O ==&gt; (2) ALA</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Arg</t>
-  </si>
-  <si>
-    <t>Depeptidase (Arg)</t>
-  </si>
-  <si>
-    <t>[c]: ArgArg + H2O ==&gt; (2) ARG</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Asn</t>
-  </si>
-  <si>
-    <t>Depeptidase (Asn)</t>
-  </si>
-  <si>
-    <t>[c]: AsnAsn + H2O ==&gt; (2) ASN</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Asp</t>
-  </si>
-  <si>
-    <t>Depeptidase (Asp)</t>
-  </si>
-  <si>
-    <t>[c]: AspAsp + H2O ==&gt; (2) ASP</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Cys</t>
-  </si>
-  <si>
-    <t>Depeptidase (Cys)</t>
-  </si>
-  <si>
-    <t>[c]: CysCys + H2O ==&gt; (2) CYS</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Gln</t>
-  </si>
-  <si>
-    <t>Depeptidase (Gln)</t>
-  </si>
-  <si>
-    <t>[c]: GlnGln + H2O ==&gt; (2) GLN</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Glu</t>
-  </si>
-  <si>
-    <t>Depeptidase (Glu)</t>
-  </si>
-  <si>
-    <t>[c]: GluGlu + H2O ==&gt; (2) GLU</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Gly</t>
-  </si>
-  <si>
-    <t>Depeptidase (Gly)</t>
-  </si>
-  <si>
-    <t>[c]: GlyGly + H2O ==&gt; (2) GLY</t>
-  </si>
-  <si>
-    <t>Dipeptidase_His</t>
-  </si>
-  <si>
-    <t>Depeptidase (His)</t>
-  </si>
-  <si>
-    <t>[c]: H2O + HisHis ==&gt; (2) HIS</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Ile</t>
-  </si>
-  <si>
-    <t>Depeptidase (Ile)</t>
-  </si>
-  <si>
-    <t>[c]: H2O + IleIle ==&gt; (2) ILE</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Leu</t>
-  </si>
-  <si>
-    <t>Depeptidase (Leu)</t>
-  </si>
-  <si>
-    <t>[c]: H2O + LeuLeu ==&gt; (2) LEU</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Lys</t>
-  </si>
-  <si>
-    <t>Depeptidase (Lys)</t>
-  </si>
-  <si>
-    <t>[c]: H2O + LysLys ==&gt; (2) LYS</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Met</t>
-  </si>
-  <si>
-    <t>Depeptidase (Met)</t>
-  </si>
-  <si>
-    <t>[c]: H2O + MetMet ==&gt; (2) MET</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Phe</t>
-  </si>
-  <si>
-    <t>Depeptidase (Phe)</t>
-  </si>
-  <si>
-    <t>[c]: H2O + PhePhe ==&gt; (2) PHE</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Pro</t>
-  </si>
-  <si>
-    <t>Depeptidase (Pro)</t>
-  </si>
-  <si>
-    <t>[c]: H2O + ProPro ==&gt; (2) PRO</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Ser</t>
-  </si>
-  <si>
-    <t>Depeptidase (Ser)</t>
-  </si>
-  <si>
-    <t>[c]: H2O + SerSer ==&gt; (2) SER</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Thr</t>
-  </si>
-  <si>
-    <t>Depeptidase (Thr)</t>
-  </si>
-  <si>
-    <t>[c]: H2O + ThrThr ==&gt; (2) THR</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Trp</t>
-  </si>
-  <si>
-    <t>Depeptidase (Trp)</t>
-  </si>
-  <si>
-    <t>[c]: H2O + TrpTrp ==&gt; (2) TRP</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Tyr</t>
-  </si>
-  <si>
-    <t>Depeptidase (Tyr)</t>
-  </si>
-  <si>
-    <t>[c]: H2O + TyrTyr ==&gt; (2) TYR</t>
-  </si>
-  <si>
-    <t>Dipeptidase_Val</t>
-  </si>
-  <si>
-    <t>Depeptidase (Val)</t>
-  </si>
-  <si>
-    <t>[c]: H2O + ValVal ==&gt; (2) VAL</t>
-  </si>
-  <si>
-    <t>Eno</t>
-  </si>
-  <si>
-    <t>2-Phospho-D-glycerate hydro-lyase</t>
-  </si>
-  <si>
-    <t>[c]: G2P ==&gt; H2O + PEP</t>
-  </si>
-  <si>
-    <t>Fba_FDP</t>
-  </si>
-  <si>
-    <t>D-Fructose-1,6-bisphosphate D-glyceraldehyde-3-phosphate-lyase</t>
-  </si>
-  <si>
-    <t>[c]: FDP ==&gt; T3P1 + T3P2</t>
-  </si>
-  <si>
-    <t>GapDH</t>
-  </si>
-  <si>
-    <t>D-Glyceraldehyde-3-phosphate:NAD+ oxidoreductase(phosphorylating)</t>
-  </si>
-  <si>
-    <t>[c]: NAD + Pi + T3P1 ==&gt; DPG + H + NADH</t>
-  </si>
-  <si>
-    <t>GlcPtsTransport</t>
-  </si>
-  <si>
-    <t>Glucose transport via phosphoenolpyruvate:pyruvate PTS</t>
-  </si>
-  <si>
-    <t>GLC[e] + PEP[c] ==&gt; G6P[c] + PYR[c]</t>
-  </si>
-  <si>
-    <t>GlnAbcTransport</t>
-  </si>
-  <si>
-    <t>Glutamine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + GlnGln[e] + H2O[c] ==&gt; ADP[c] + GlnGln[c] + H[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>GluAbcTransport</t>
-  </si>
-  <si>
-    <t>Glutamate transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + GluGlu[e] + H2O[c] ==&gt; ADP[c] + GluGlu[c] + H[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>GlyAbcTransport</t>
-  </si>
-  <si>
-    <t>Glycine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + GlyGly[e] + H2O[c] ==&gt; ADP[c] + GlyGly[c] + H[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>GnTransport</t>
-  </si>
-  <si>
-    <t>Guanine transport via proton symport</t>
-  </si>
-  <si>
-    <t>GN[e] + H[e] ==&gt; GN[c] + H[c]</t>
-  </si>
-  <si>
-    <t>Gpm</t>
-  </si>
-  <si>
-    <t>2-Phospho-D-glycerate 2,3-phosphomutase</t>
-  </si>
-  <si>
-    <t>[c]: G2P ==&gt; G3P</t>
-  </si>
-  <si>
-    <t>GUK_GMP</t>
-  </si>
-  <si>
-    <t>ATP:GMP phosphotransferase</t>
-  </si>
-  <si>
-    <t>[c]: ATP + GMP ==&gt; ADP + GDP</t>
-  </si>
-  <si>
-    <t>H2OTransport</t>
-  </si>
-  <si>
-    <t>Water transport via diffusion</t>
-  </si>
-  <si>
-    <t>H2O[e] ==&gt; H2O[c]</t>
-  </si>
-  <si>
-    <t>HisAbcTransport</t>
-  </si>
-  <si>
-    <t>Histidine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + HisHis[e] ==&gt; ADP[c] + H[c] + HisHis[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>HPRT</t>
-  </si>
-  <si>
-    <t>GMP:pyrophosphate phosphoribosyltransferase</t>
-  </si>
-  <si>
-    <t>[c]: GMP + H + PPi ==&gt; GN + PRPP</t>
-  </si>
-  <si>
-    <t>HTransport</t>
-  </si>
-  <si>
-    <t>Hydrogen transport</t>
-  </si>
-  <si>
-    <t>H[e] ==&gt; H[c]</t>
-  </si>
-  <si>
-    <t>IleAbcTransport</t>
-  </si>
-  <si>
-    <t>Isoleucine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + IleIle[e] ==&gt; ADP[c] + H[c] + IleIle[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>LacTransport</t>
-  </si>
-  <si>
-    <t>Lactate reversible transport via proton symport</t>
-  </si>
-  <si>
-    <t>H[c] + LAC[c] ==&gt; H[e] + LAC[e]</t>
-  </si>
-  <si>
-    <t>Ldh</t>
-  </si>
-  <si>
-    <t>(S)-Lactate:NAD+ oxidoreductase</t>
-  </si>
-  <si>
-    <t>[c]: LAC + NAD ==&gt; H + NADH + PYR</t>
-  </si>
-  <si>
-    <t>LeuAbcTransport</t>
-  </si>
-  <si>
-    <t>Leucine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + LeuLeu[e] ==&gt; ADP[c] + H[c] + LeuLeu[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>LysAbcTransport</t>
-  </si>
-  <si>
-    <t>Lysine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + LysLys[e] ==&gt; ADP[c] + H[c] + LysLys[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>MetAbcTransport</t>
-  </si>
-  <si>
-    <t>Methionine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + MetMet[e] ==&gt; ADP[c] + H[c] + MetMet[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>MetabolismProduction</t>
-  </si>
-  <si>
-    <t>Metabolism production</t>
-  </si>
-  <si>
-    <t>[c]: (3.419038e+04) ALA + (4.089038e+04) ARG + (2.319038e+04) ASN + (2.429038e+04) ASP + (1.101856e+06) ATP + (1.164906e+06) CTP + (2.229038e+04) CYS + (2.469038e+04) GLN + (2.269038e+04) GLU + (3.119038e+04) GLY + (1.728316e+06) GTP + (1.521617e+09) H2O + (2.159038e+04) HIS + (2.929038e+04) ILE + (4.119038e+04) LEU + (2.199038e+04) LYS + (2.139038e+04) MET + (2.389038e+04) PHE + (3.439038e+04) PRO + (4.449038e+04) SER + (3.619038e+04) THR + (2.219038e+04) TRP + (2.199038e+04) TYR + (1.132896e+06) UTP + (3.379038e+04) VAL ==&gt; (1.035619e+06) AMP + Biomass + (1.098019e+06) CMP + (5.814192e+05) GDP + (1.052899e+06) GMP + (4.972350e+06) H + (4.710962e+05) Pi + (4.381069e+06) PPi + (1.066339e+06) UMP</t>
-  </si>
-  <si>
-    <t>NOX</t>
-  </si>
-  <si>
-    <t>NADH oxidase (H2O-forming)</t>
-  </si>
-  <si>
-    <t>[c]: (2) H + (2) NADH + O2 ==&gt; (2) H2O + (2) NAD</t>
-  </si>
-  <si>
-    <t>O2Transport</t>
-  </si>
-  <si>
-    <t>Oxygen transport via diffusion</t>
-  </si>
-  <si>
-    <t>O2[e] ==&gt; O2[c]</t>
-  </si>
-  <si>
-    <t>Pfk_ATP</t>
-  </si>
-  <si>
-    <t>ATP:D-fructose-6-phosphate 1-phosphotransferase</t>
-  </si>
-  <si>
-    <t>[c]: ATP + F6P ==&gt; ADP + FDP + H</t>
-  </si>
-  <si>
-    <t>Pfk_GTP</t>
-  </si>
-  <si>
-    <t>GTP:D-fructose-6-phosphate 1-phosphotransferase</t>
-  </si>
-  <si>
-    <t>[c]: F6P + GTP ==&gt; FDP + GDP + H</t>
-  </si>
-  <si>
-    <t>Pfk_UTP</t>
-  </si>
-  <si>
-    <t>UTP:D-fructose-6-phosphate 1-phosphotransferase</t>
-  </si>
-  <si>
-    <t>[c]: F6P + UTP ==&gt; FDP + H + UDP</t>
-  </si>
-  <si>
-    <t>Pgi</t>
-  </si>
-  <si>
-    <t>D-Glucose-6-phosphate ketol-isomerase</t>
-  </si>
-  <si>
-    <t>[c]: G6P ==&gt; F6P</t>
-  </si>
-  <si>
-    <t>Pgk_ATP</t>
-  </si>
-  <si>
-    <t>ATP:3-phospho-D-glycerate 1-phosphotransferase</t>
-  </si>
-  <si>
-    <t>[c]: ATP + G3P ==&gt; ADP + DPG</t>
-  </si>
-  <si>
-    <t>Pgk_GTP</t>
-  </si>
-  <si>
-    <t>GTP:3-phospho-D-glycerate 1-phosphotransferase</t>
-  </si>
-  <si>
-    <t>[c]: G3P + GTP ==&gt; DPG + GDP</t>
-  </si>
-  <si>
-    <t>PheAbcTransport</t>
-  </si>
-  <si>
-    <t>Phenylalanine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + PhePhe[e] ==&gt; ADP[c] + H[c] + PhePhe[c] + Pi[c]</t>
-  </si>
-  <si>
-    <t>PiAbcTransport</t>
-  </si>
-  <si>
-    <t>Phosphate transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + Pi[e] ==&gt; ADP[c] + H[c] + (2) Pi[c]</t>
-  </si>
-  <si>
-    <t>Ppa</t>
-  </si>
-  <si>
-    <t>Pyrophosphate phosphohydrolase</t>
-  </si>
-  <si>
-    <t>[c]: H2O + PPi ==&gt; (2) Pi</t>
-  </si>
-  <si>
-    <t>ProAbcTransport</t>
-  </si>
-  <si>
-    <t>Proline transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + ProPro[e] ==&gt; ADP[c] + H[c] + Pi[c] + ProPro[c]</t>
-  </si>
-  <si>
-    <t>PRPS</t>
-  </si>
-  <si>
-    <t>ATP:D-ribose-5-phosphate pyrophosphotransferase</t>
-  </si>
-  <si>
-    <t>[c]: ATP + R5P ==&gt; AMP + H + PRPP</t>
-  </si>
-  <si>
-    <t>Pyk_ATP</t>
-  </si>
-  <si>
-    <t>ATP:pyruvate O2-phosphotransferase (R)</t>
-  </si>
-  <si>
-    <t>[c]: ADP + H + PEP ==&gt; ATP + PYR</t>
-  </si>
-  <si>
-    <t>Pyk_CTP</t>
-  </si>
-  <si>
-    <t>CTP:pyruvate O2-phosphotransferase (R)</t>
-  </si>
-  <si>
-    <t>[c]: CDP + H + PEP ==&gt; CTP + PYR</t>
-  </si>
-  <si>
-    <t>Pyk_GTP</t>
-  </si>
-  <si>
-    <t>GTP:pyruvate O2-phosphotransferase (R)</t>
-  </si>
-  <si>
-    <t>[c]: GDP + H + PEP ==&gt; GTP + PYR</t>
-  </si>
-  <si>
-    <t>PykUDP</t>
-  </si>
-  <si>
-    <t>UTP:pyruvate O2-phosphotransferase (R)</t>
-  </si>
-  <si>
-    <t>[c]: H + PEP + UDP ==&gt; PYR + UTP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Adk</t>
-  </si>
-  <si>
-    <t>RNA degradation (Adenylate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: Adk_Rna + (302) H2O ==&gt; (81) AMP + (75) CMP + (86) GMP + (302) H + (61) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Apt</t>
-  </si>
-  <si>
-    <t>RNA degradation (Adenine phosphoribosyltransferase )</t>
-  </si>
-  <si>
-    <t>[c]: Apt_Rna + (302) H2O ==&gt; (62) AMP + (81) CMP + (71) GMP + (302) H + (89) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Cmk</t>
-  </si>
-  <si>
-    <t>RNA degradation (Cytidylate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: Cmk_Rna + (302) H2O ==&gt; (78) AMP + (75) CMP + (74) GMP + (302) H + (76) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Eno</t>
-  </si>
-  <si>
-    <t>RNA degradation (Enolase)</t>
-  </si>
-  <si>
-    <t>[c]: Eno_Rna + (302) H2O ==&gt; (89) AMP + (78) CMP + (63) GMP + (302) H + (73) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Fba</t>
-  </si>
-  <si>
-    <t>RNA degradation (Fructose-biphosphate aldolase)</t>
-  </si>
-  <si>
-    <t>[c]: Fba_Rna + (302) H2O ==&gt; (59) AMP + (81) CMP + (83) GMP + (302) H + (80) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Gap</t>
-  </si>
-  <si>
-    <t>RNA degradation (Glyceraldehyde-3-phosphate-dehydrogenase)</t>
-  </si>
-  <si>
-    <t>[c]: Gap_Rna + (302) H2O ==&gt; (64) AMP + (74) CMP + (78) GMP + (302) H + (87) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Gk</t>
-  </si>
-  <si>
-    <t>RNA degradation (Guanylate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: Gk_Rna + (302) H2O ==&gt; (73) AMP + (77) CMP + (73) GMP + (302) H + (80) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Hpt</t>
-  </si>
-  <si>
-    <t>RNA degradation (Hypoxanthine-guanine phosphoribosyltransferase)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Hpt_Rna ==&gt; (64) AMP + (74) CMP + (92) GMP + (302) H + (73) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_LacA</t>
-  </si>
-  <si>
-    <t>RNA degradation (Probable ribose-5-phosphate isomerase B )</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + LacA_Rna ==&gt; (83) AMP + (71) CMP + (74) GMP + (302) H + (75) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Ldh</t>
-  </si>
-  <si>
-    <t>RNA degradation (L-lactate dehydrogenase)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Ldh_Rna ==&gt; (70) AMP + (73) CMP + (80) GMP + (302) H + (80) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Nox</t>
-  </si>
-  <si>
-    <t>RNA degradation (Probable NADH oxidase)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Nox_Rna ==&gt; (73) AMP + (75) CMP + (75) GMP + (302) H + (80) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_PeptAbcTransporter</t>
-  </si>
-  <si>
-    <t>RNA degradation (Peptide ABC transporter)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + PeptAbcTransporter_Rna ==&gt; (70) AMP + (69) CMP + (78) GMP + (302) H + (86) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Pfk</t>
-  </si>
-  <si>
-    <t>RNA degradation (6-phosphofructokinase /Phosphohexokinase)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Pfk_Rna ==&gt; (72) AMP + (65) CMP + (71) GMP + (302) H + (95) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_PgiB</t>
-  </si>
-  <si>
-    <t>RNA degradation (Glucose-6-phosphate isomerase )</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + PgiB_Rna ==&gt; (72) AMP + (84) CMP + (87) GMP + (302) H + (60) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Pgk</t>
-  </si>
-  <si>
-    <t>RNA degradation (Phosphoglycerate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Pgk_Rna ==&gt; (70) AMP + (83) CMP + (73) GMP + (302) H + (77) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Pgm</t>
-  </si>
-  <si>
-    <t>RNA degradation (2,3-bisphosphoglycerate-independent phosphoglycerate mutase )</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Pgm_Rna ==&gt; (68) AMP + (84) CMP + (75) GMP + (302) H + (76) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_PiAbcTransporter</t>
-  </si>
-  <si>
-    <t>RNA degradation (Phosphate ABC transporter)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + PiAbcTransporter_Rna ==&gt; (67) AMP + (84) CMP + (78) GMP + (302) H + (74) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Ppa</t>
-  </si>
-  <si>
-    <t>RNA degradation (Inorganic pyrophosphatase )</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Ppa_Rna ==&gt; (81) AMP + (77) CMP + (67) GMP + (302) H + (78) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Prs</t>
-  </si>
-  <si>
-    <t>RNA degradation (Ribose-phosphate pyrophosphokinase )</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Prs_Rna ==&gt; (79) AMP + (74) CMP + (79) GMP + (302) H + (71) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Pts</t>
-  </si>
-  <si>
-    <t>RNA degradation (PTS EIIABC (glucose))</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Pts_Rna ==&gt; (77) AMP + (89) CMP + (69) GMP + (302) H + (68) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Pyk</t>
-  </si>
-  <si>
-    <t>RNA degradation (Pyruvate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Pyk_Rna ==&gt; (77) AMP + (87) CMP + (75) GMP + (302) H + (64) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_PyrH</t>
-  </si>
-  <si>
-    <t>RNA degradation (Uridylate kinase )</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + PyrH_Rna ==&gt; (78) AMP + (86) CMP + (59) GMP + (302) H + (80) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Ribosome</t>
-  </si>
-  <si>
-    <t>RNA degradation (Ribosome)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Ribosome_Rna ==&gt; (73) AMP + (83) CMP + (68) GMP + (302) H + (79) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_RnaPolymerase</t>
-  </si>
-  <si>
-    <t>RNA degradation (RNA polymerase)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + RnaPolymerase_Rna ==&gt; (79) AMP + (68) CMP + (70) GMP + (302) H + (86) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Rnase</t>
-  </si>
-  <si>
-    <t>RNA degradation (RNase)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Rnase_Rna ==&gt; (65) AMP + (82) CMP + (83) GMP + (302) H + (73) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Rpe</t>
-  </si>
-  <si>
-    <t>RNA degradation (Probable ribulose-phosphate 3-epimerase)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Rpe_Rna ==&gt; (91) AMP + (73) CMP + (79) GMP + (302) H + (60) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Tim</t>
-  </si>
-  <si>
-    <t>RNA degradation (Triosephosphate isomerase )</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Tim_Rna ==&gt; (68) AMP + (70) CMP + (78) GMP + (302) H + (87) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_TklB</t>
-  </si>
-  <si>
-    <t>RNA degradation (Transketolase )</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + TklB_Rna ==&gt; (74) AMP + (87) CMP + (71) GMP + (302) H + (71) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Udk</t>
-  </si>
-  <si>
-    <t>RNA degradation (Uridine kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Udk_Rna ==&gt; (82) AMP + (74) CMP + (77) GMP + (302) H + (70) UMP</t>
-  </si>
-  <si>
-    <t>RnaDegradation_Upp</t>
-  </si>
-  <si>
-    <t>RNA degradation (Uracil phosphoribosyltransferase )</t>
-  </si>
-  <si>
-    <t>[c]: (302) H2O + Upp_Rna ==&gt; (76) AMP + (92) CMP + (65) GMP + (302) H + (70) UMP</t>
-  </si>
-  <si>
-    <t>Rpe</t>
-  </si>
-  <si>
-    <t>D-Ribulose-5-phosphate 3-epimerase</t>
-  </si>
-  <si>
-    <t>[c]: RL5P ==&gt; X5P</t>
-  </si>
-  <si>
-    <t>RpiA</t>
-  </si>
-  <si>
-    <t>D-Ribose-5-phosphate ketol-isomerase</t>
-  </si>
-  <si>
-    <t>[c]: R5P ==&gt; RL5P</t>
-  </si>
-  <si>
-    <t>SerAbcTransport</t>
-  </si>
-  <si>
-    <t>Serine transport via ABC System</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + SerSer[e] ==&gt; ADP[c] + H[c] + Pi[c] + SerSer[c]</t>
-  </si>
-  <si>
-    <t>Tal</t>
-  </si>
-  <si>
-    <t>Sedoheptulose-7-phosphate:D-glyceraldehyde-3-phosphate glycerone transferase</t>
-  </si>
-  <si>
-    <t>[c]: S7P + T3P1 ==&gt; E4P + F6P</t>
-  </si>
-  <si>
-    <t>ThrAbcTransport</t>
-  </si>
-  <si>
-    <t>Threonine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + ThrThr[e] ==&gt; ADP[c] + H[c] + Pi[c] + ThrThr[c]</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>D-Glyceraldehyde-3-phosphate ketol-isomerase</t>
-  </si>
-  <si>
-    <t>[c]: T3P1 ==&gt; T3P2</t>
-  </si>
-  <si>
-    <t>Tkl_F6P</t>
-  </si>
-  <si>
-    <t>transketolase</t>
-  </si>
-  <si>
-    <t>[c]: F6P + T3P1 ==&gt; E4P + X5P</t>
-  </si>
-  <si>
-    <t>Tkl_S7P</t>
-  </si>
-  <si>
-    <t>Sedoheptulose-7-phosphate:D-glyceraldehyde-3-phosphateglycolaldehyde transferase</t>
-  </si>
-  <si>
-    <t>[c]: S7P + T3P1 ==&gt; R5P + X5P</t>
-  </si>
-  <si>
-    <t>Transcription_Adk</t>
-  </si>
-  <si>
-    <t>Transcription (Adenylate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (81) ATP + (75) CTP + (86) GTP + H2O + (61) UTP ==&gt; Adk_Rna + H + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Apt</t>
-  </si>
-  <si>
-    <t>Transcription (Adenine phosphoribosyltransferase )</t>
-  </si>
-  <si>
-    <t>[c]: (62) ATP + (81) CTP + (71) GTP + H2O + (89) UTP ==&gt; Apt_Rna + H + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Cmk</t>
-  </si>
-  <si>
-    <t>Transcription (Cytidylate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (78) ATP + (75) CTP + (74) GTP + H2O + (76) UTP ==&gt; Cmk_Rna + H + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Eno</t>
-  </si>
-  <si>
-    <t>Transcription (Enolase)</t>
-  </si>
-  <si>
-    <t>[c]: (89) ATP + (78) CTP + (63) GTP + H2O + (73) UTP ==&gt; Eno_Rna + H + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Fba</t>
-  </si>
-  <si>
-    <t>Transcription (Fructose-biphosphate aldolase)</t>
-  </si>
-  <si>
-    <t>[c]: (59) ATP + (81) CTP + (83) GTP + H2O + (80) UTP ==&gt; Fba_Rna + H + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Gap</t>
-  </si>
-  <si>
-    <t>Transcription (Glyceraldehyde-3-phosphate-dehydrogenase)</t>
-  </si>
-  <si>
-    <t>[c]: (64) ATP + (74) CTP + (78) GTP + H2O + (87) UTP ==&gt; Gap_Rna + H + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Gk</t>
-  </si>
-  <si>
-    <t>Transcription (Guanylate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (73) ATP + (77) CTP + (73) GTP + H2O + (80) UTP ==&gt; Gk_Rna + H + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Hpt</t>
-  </si>
-  <si>
-    <t>Transcription (Hypoxanthine-guanine phosphoribosyltransferase)</t>
-  </si>
-  <si>
-    <t>[c]: (64) ATP + (74) CTP + (92) GTP + H2O + (73) UTP ==&gt; H + Hpt_Rna + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_LacA</t>
-  </si>
-  <si>
-    <t>Transcription (Probable ribose-5-phosphate isomerase B )</t>
-  </si>
-  <si>
-    <t>[c]: (83) ATP + (71) CTP + (74) GTP + H2O + (75) UTP ==&gt; H + LacA_Rna + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Ldh</t>
-  </si>
-  <si>
-    <t>Transcription (L-lactate dehydrogenase)</t>
-  </si>
-  <si>
-    <t>[c]: (70) ATP + (73) CTP + (80) GTP + H2O + (80) UTP ==&gt; H + Ldh_Rna + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Nox</t>
-  </si>
-  <si>
-    <t>Transcription (Probable NADH oxidase)</t>
-  </si>
-  <si>
-    <t>[c]: (73) ATP + (75) CTP + (75) GTP + H2O + (80) UTP ==&gt; H + Nox_Rna + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_PeptAbcTransporter</t>
-  </si>
-  <si>
-    <t>Transcription (Peptide ABC transporter)</t>
-  </si>
-  <si>
-    <t>[c]: (70) ATP + (69) CTP + (78) GTP + H2O + (86) UTP ==&gt; H + PeptAbcTransporter_Rna + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Pfk</t>
-  </si>
-  <si>
-    <t>Transcription (6-phosphofructokinase /Phosphohexokinase)</t>
-  </si>
-  <si>
-    <t>[c]: (72) ATP + (65) CTP + (71) GTP + H2O + (95) UTP ==&gt; H + Pfk_Rna + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_PgiB</t>
-  </si>
-  <si>
-    <t>Transcription (Glucose-6-phosphate isomerase )</t>
-  </si>
-  <si>
-    <t>[c]: (72) ATP + (84) CTP + (87) GTP + H2O + (60) UTP ==&gt; H + PgiB_Rna + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Pgk</t>
-  </si>
-  <si>
-    <t>Transcription (Phosphoglycerate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (70) ATP + (83) CTP + (73) GTP + H2O + (77) UTP ==&gt; H + Pgk_Rna + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Pgm</t>
-  </si>
-  <si>
-    <t>Transcription (2,3-bisphosphoglycerate-independent phosphoglycerate mutase )</t>
-  </si>
-  <si>
-    <t>[c]: (68) ATP + (84) CTP + (75) GTP + H2O + (76) UTP ==&gt; H + Pgm_Rna + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_PiAbcTransporter</t>
-  </si>
-  <si>
-    <t>Transcription (Phosphate ABC transporter)</t>
-  </si>
-  <si>
-    <t>[c]: (67) ATP + (84) CTP + (78) GTP + H2O + (74) UTP ==&gt; H + PiAbcTransporter_Rna + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Ppa</t>
-  </si>
-  <si>
-    <t>Transcription (Inorganic pyrophosphatase )</t>
-  </si>
-  <si>
-    <t>[c]: (81) ATP + (77) CTP + (67) GTP + H2O + (78) UTP ==&gt; H + Ppa_Rna + (303) PPi</t>
-  </si>
-  <si>
-    <t>Transcription_Prs</t>
-  </si>
-  <si>
-    <t>Transcription (Ribose-phosphate pyrophosphokinase )</t>
-  </si>
-  <si>
-    <t>[c]: (79) ATP + (74) CTP + (79) GTP + H2O + (71) UTP ==&gt; H + (303) PPi + Prs_Rna</t>
-  </si>
-  <si>
-    <t>Transcription_Pts</t>
-  </si>
-  <si>
-    <t>Transcription (PTS EIIABC (glucose))</t>
-  </si>
-  <si>
-    <t>[c]: (77) ATP + (89) CTP + (69) GTP + H2O + (68) UTP ==&gt; H + (303) PPi + Pts_Rna</t>
-  </si>
-  <si>
-    <t>Transcription_Pyk</t>
-  </si>
-  <si>
-    <t>Transcription (Pyruvate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (77) ATP + (87) CTP + (75) GTP + H2O + (64) UTP ==&gt; H + (303) PPi + Pyk_Rna</t>
-  </si>
-  <si>
-    <t>Transcription_PyrH</t>
-  </si>
-  <si>
-    <t>Transcription (Uridylate kinase )</t>
-  </si>
-  <si>
-    <t>[c]: (78) ATP + (86) CTP + (59) GTP + H2O + (80) UTP ==&gt; H + (303) PPi + PyrH_Rna</t>
-  </si>
-  <si>
-    <t>Transcription_Ribosome</t>
-  </si>
-  <si>
-    <t>Transcription (Ribosome)</t>
-  </si>
-  <si>
-    <t>[c]: (73) ATP + (83) CTP + (68) GTP + H2O + (79) UTP ==&gt; H + (303) PPi + Ribosome_Rna</t>
-  </si>
-  <si>
-    <t>Transcription_RnaPolymerase</t>
-  </si>
-  <si>
-    <t>Transcription (RNA polymerase)</t>
-  </si>
-  <si>
-    <t>[c]: (79) ATP + (68) CTP + (70) GTP + H2O + (86) UTP ==&gt; H + (303) PPi + RnaPolymerase_Rna</t>
-  </si>
-  <si>
-    <t>Transcription_Rnase</t>
-  </si>
-  <si>
-    <t>Transcription (RNase)</t>
-  </si>
-  <si>
-    <t>[c]: (65) ATP + (82) CTP + (83) GTP + H2O + (73) UTP ==&gt; H + (303) PPi + Rnase_Rna</t>
-  </si>
-  <si>
-    <t>Transcription_Rpe</t>
-  </si>
-  <si>
-    <t>Transcription (Probable ribulose-phosphate 3-epimerase)</t>
-  </si>
-  <si>
-    <t>[c]: (91) ATP + (73) CTP + (79) GTP + H2O + (60) UTP ==&gt; H + (303) PPi + Rpe_Rna</t>
-  </si>
-  <si>
-    <t>Transcription_Tim</t>
-  </si>
-  <si>
-    <t>Transcription (Triosephosphate isomerase )</t>
-  </si>
-  <si>
-    <t>[c]: (68) ATP + (70) CTP + (78) GTP + H2O + (87) UTP ==&gt; H + (303) PPi + Tim_Rna</t>
-  </si>
-  <si>
-    <t>Transcription_TklB</t>
-  </si>
-  <si>
-    <t>Transcription (Transketolase )</t>
-  </si>
-  <si>
-    <t>[c]: (74) ATP + (87) CTP + (71) GTP + H2O + (71) UTP ==&gt; H + (303) PPi + TklB_Rna</t>
-  </si>
-  <si>
-    <t>Transcription_Udk</t>
-  </si>
-  <si>
-    <t>Transcription (Uridine kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (82) ATP + (74) CTP + (77) GTP + H2O + (70) UTP ==&gt; H + (303) PPi + Udk_Rna</t>
-  </si>
-  <si>
-    <t>Transcription_Upp</t>
-  </si>
-  <si>
-    <t>Transcription (Uracil phosphoribosyltransferase )</t>
-  </si>
-  <si>
-    <t>[c]: (76) ATP + (92) CTP + (65) GTP + H2O + (70) UTP ==&gt; H + (303) PPi + Upp_Rna</t>
-  </si>
-  <si>
-    <t>Translation_Adk</t>
-  </si>
-  <si>
-    <t>Translation (Adenylate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (4) ALA + (11) ARG + ASN + (5) ASP + (3) CYS + (3) GLN + (5) GLU + (5) GLY + (203) GTP + (104) H2O + (3) HIS + (2) ILE + (10) LEU + (3) LYS + (3) MET + PHE + (7) PRO + (9) SER + (14) THR + TRP + (2) TYR + (8) VAL ==&gt; Adk_Protein + (200) GDP + (200) H + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_Apt</t>
-  </si>
-  <si>
-    <t>Translation (Adenine phosphoribosyltransferase )</t>
-  </si>
-  <si>
-    <t>[c]: (6) ALA + (13) ARG + (4) ASN + (4) ASP + (7) CYS + GLN + (2) GLU + (4) GLY + (203) GTP + (104) H2O + (2) HIS + (4) ILE + (10) LEU + LYS + (2) MET + (7) PHE + (2) PRO + (11) SER + (9) THR + (2) TRP + (4) TYR + (5) VAL ==&gt; Apt_Protein + (200) GDP + (200) H + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_Cmk</t>
-  </si>
-  <si>
-    <t>Translation (Cytidylate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (5) ALA + (7) ARG + (6) ASN + (3) ASP + (7) CYS + (4) GLN + (3) GLU + (7) GLY + (203) GTP + (104) H2O + (3) HIS + (4) ILE + (12) LEU + (2) LYS + (2) MET + PHE + (7) PRO + (7) SER + (7) THR + (4) TRP + (4) TYR + (5) VAL ==&gt; Cmk_Protein + (200) GDP + (200) H + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_Eno</t>
-  </si>
-  <si>
-    <t>Translation (Enolase)</t>
-  </si>
-  <si>
-    <t>[c]: (7) ALA + (8) ARG + (5) ASN + ASP + (4) CYS + (5) GLN + (5) GLU + (4) GLY + (203) GTP + (104) H2O + (3) HIS + (5) ILE + (8) LEU + (4) LYS + (3) MET + (3) PHE + (8) PRO + (9) SER + (8) THR + (3) TRP + (4) TYR + (3) VAL ==&gt; Eno_Protein + (200) GDP + (200) H + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_Fba</t>
-  </si>
-  <si>
-    <t>Translation (Fructose-biphosphate aldolase)</t>
-  </si>
-  <si>
-    <t>[c]: (4) ALA + (13) ARG + ASN + (3) ASP + (4) CYS + (5) GLN + (6) GLY + (203) GTP + (104) H2O + HIS + (4) ILE + (10) LEU + (2) LYS + MET + (5) PHE + (9) PRO + (11) SER + (6) THR + (2) TRP + (2) TYR + (11) VAL ==&gt; Fba_Protein + (200) GDP + (200) H + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_Gap</t>
-  </si>
-  <si>
-    <t>Translation (Glyceraldehyde-3-phosphate-dehydrogenase)</t>
-  </si>
-  <si>
-    <t>[c]: (7) ALA + (9) ARG + ASN + (3) ASP + (4) CYS + (5) GLN + GLU + (6) GLY + (203) GTP + (104) H2O + (6) HIS + (6) ILE + (10) LEU + (2) LYS + (4) MET + (3) PHE + (4) PRO + (7) SER + (9) THR + (4) TRP + (4) TYR + (5) VAL ==&gt; Gap_Protein + (200) GDP + (200) H + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_Gk</t>
-  </si>
-  <si>
-    <t>Translation (Guanylate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (4) ALA + (2) ARG + (3) ASN + (3) ASP + (7) CYS + (5) GLN + (3) GLU + (8) GLY + (203) GTP + (104) H2O + HIS + (3) ILE + (9) LEU + (3) LYS + (2) MET + (3) PHE + (11) PRO + (13) SER + (7) THR + (4) TRP + TYR + (8) VAL ==&gt; (200) GDP + Gk_Protein + (200) H + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_Hpt</t>
-  </si>
-  <si>
-    <t>Translation (Hypoxanthine-guanine phosphoribosyltransferase)</t>
-  </si>
-  <si>
-    <t>[c]: (11) ALA + (9) ARG + ASN + (3) ASP + (3) CYS + (3) GLN + (6) GLU + (6) GLY + (203) GTP + (104) H2O + (2) HIS + (3) ILE + (8) LEU + (2) LYS + (7) MET + (3) PHE + (9) PRO + (9) SER + (3) THR + (2) TRP + (5) TYR + (5) VAL ==&gt; (200) GDP + (200) H + Hpt_Protein + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_LacA</t>
-  </si>
-  <si>
-    <t>Translation (Probable ribose-5-phosphate isomerase B )</t>
-  </si>
-  <si>
-    <t>[c]: (5) ALA + (4) ARG + (6) ASN + (5) ASP + CYS + (2) GLN + (4) GLU + (9) GLY + (203) GTP + (104) H2O + (4) HIS + (8) ILE + (10) LEU + (3) LYS + (2) MET + (4) PHE + (5) PRO + (7) SER + (9) THR + (2) TRP + TYR + (9) VAL ==&gt; (200) GDP + (200) H + LacA_Protein + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_Ldh</t>
-  </si>
-  <si>
-    <t>Translation (L-lactate dehydrogenase)</t>
-  </si>
-  <si>
-    <t>[c]: (3) ALA + (7) ARG + (2) ASN + (5) ASP + (2) CYS + (4) GLN + (4) GLU + (8) GLY + (203) GTP + (104) H2O + HIS + (5) ILE + (11) LEU + (2) LYS + (3) MET + (2) PHE + (9) PRO + (8) SER + (8) THR + (3) TRP + (4) TYR + (9) VAL ==&gt; (200) GDP + (200) H + Ldh_Protein + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_Nox</t>
-  </si>
-  <si>
-    <t>Translation (Probable NADH oxidase)</t>
-  </si>
-  <si>
-    <t>[c]: (11) ALA + (7) ARG + ASN + (7) ASP + (2) GLN + (5) GLU + (8) GLY + (203) GTP + (104) H2O + HIS + (7) ILE + (10) LEU + LYS + (3) MET + (6) PHE + (4) PRO + (10) SER + (6) THR + (4) TRP + (3) TYR + (4) VAL ==&gt; (200) GDP + (200) H + Nox_Protein + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_PeptAbcTransporter</t>
-  </si>
-  <si>
-    <t>Translation (Peptide ABC transporter)</t>
-  </si>
-  <si>
-    <t>[c]: (3) ALA + (8) ARG + (6) ASN + CYS + (8) GLN + (3) GLU + (11) GLY + (203) GTP + (104) H2O + (3) HIS + (3) ILE + (10) LEU + LYS + MET + (5) PHE + (4) PRO + (10) SER + (4) THR + (3) TRP + (4) TYR + (12) VAL ==&gt; (200) GDP + (200) H + PeptAbcTransporter_Protein + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_Pfk</t>
-  </si>
-  <si>
-    <t>Translation (6-phosphofructokinase /Phosphohexokinase)</t>
-  </si>
-  <si>
-    <t>[c]: (4) ALA + (10) ARG + (2) ASN + (4) ASP + (2) CYS + (6) GLN + (2) GLU + (7) GLY + (203) GTP + (104) H2O + (2) HIS + (7) ILE + (9) LEU + (2) LYS + MET + (5) PHE + PRO + (16) SER + (7) THR + (4) TRP + (3) TYR + (6) VAL ==&gt; (200) GDP + (200) H + Pfk_Protein + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_PgiB</t>
-  </si>
-  <si>
-    <t>Translation (Glucose-6-phosphate isomerase )</t>
-  </si>
-  <si>
-    <t>[c]: (10) ALA + (12) ARG + (3) ASN + (3) ASP + (2) CYS + (5) GLN + (3) GLU + (8) GLY + (203) GTP + (104) H2O + (3) HIS + (6) ILE + (6) LEU + (2) LYS + (2) MET + (2) PHE + (7) PRO + (9) SER + (7) THR + (2) TRP + (4) TYR + (4) VAL ==&gt; (200) GDP + (200) H + PgiB_Protein + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_Pgk</t>
-  </si>
-  <si>
-    <t>Translation (Phosphoglycerate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (6) ALA + (10) ARG + (5) ASN + (3) ASP + (3) CYS + (3) GLN + (7) GLY + (203) GTP + (104) H2O + (4) HIS + (5) ILE + (9) LEU + LYS + MET + (3) PHE + (8) PRO + (13) SER + (8) THR + (2) TRP + (9) VAL ==&gt; (200) GDP + (200) H + Pgk_Protein + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_Pgm</t>
-  </si>
-  <si>
-    <t>Translation (2,3-bisphosphoglycerate-independent phosphoglycerate mutase )</t>
-  </si>
-  <si>
-    <t>[c]: (6) ALA + (9) ARG + (6) ASN + (2) ASP + CYS + (2) GLN + (4) GLU + (5) GLY + (203) GTP + (104) H2O + (4) HIS + (4) ILE + (9) LEU + (2) LYS + (2) MET + (6) PHE + (9) PRO + (10) SER + (6) THR + (2) TRP + (4) TYR + (7) VAL ==&gt; (200) GDP + (200) H + Pgm_Protein + (200) Pi</t>
-  </si>
-  <si>
-    <t>Translation_PiAbcTransporter</t>
-  </si>
-  <si>
-    <t>Translation (Phosphate ABC transporter)</t>
-  </si>
-  <si>
-    <t>[c]: (18) ALA + (8) ARG + ASN + (5) ASP + (2) CYS + (3) GLN + (3) GLU + (4) GLY + (203) GTP + (104) H2O + (3) HIS + (6) ILE + (7) LEU + (3) LYS + (2) MET + (2) PHE + (4) PRO + (13) SER + (5) THR + (2) TRP + (4) TYR + (5) VAL ==&gt; (200) GDP + (200) H + (200) Pi + PiAbcTransporter_Protein</t>
-  </si>
-  <si>
-    <t>Translation_Ppa</t>
-  </si>
-  <si>
-    <t>Translation (Inorganic pyrophosphatase )</t>
-  </si>
-  <si>
-    <t>[c]: (4) ALA + (9) ARG + (3) ASN + (2) ASP + CYS + (7) GLN + (3) GLU + (3) GLY + (203) GTP + (104) H2O + (2) HIS + (6) ILE + (9) LEU + (5) LYS + (3) MET + (4) PHE + (7) PRO + (15) SER + (6) THR + (5) TRP + (2) TYR + (4) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Ppa_Protein</t>
-  </si>
-  <si>
-    <t>Translation_Prs</t>
-  </si>
-  <si>
-    <t>Translation (Ribose-phosphate pyrophosphokinase )</t>
-  </si>
-  <si>
-    <t>[c]: (10) ALA + (11) ARG + (5) ASN + (4) CYS + (3) GLN + (2) GLU + (5) GLY + (203) GTP + (104) H2O + (2) HIS + (7) ILE + (11) LEU + (2) LYS + (3) MET + (2) PHE + (8) PRO + (14) SER + THR + (3) TRP + (2) TYR + (5) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Prs_Protein</t>
-  </si>
-  <si>
-    <t>Translation_Pts</t>
-  </si>
-  <si>
-    <t>Translation (PTS EIIABC (glucose))</t>
-  </si>
-  <si>
-    <t>[c]: (10) ALA + (8) ARG + (4) ASN + (4) ASP + (3) CYS + (5) GLN + (4) GLU + (6) GLY + (203) GTP + (104) H2O + (5) HIS + (4) ILE + (10) LEU + LYS + (2) MET + (4) PHE + (5) PRO + (8) SER + (9) THR + (3) TYR + (5) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Pts_Protein</t>
-  </si>
-  <si>
-    <t>Translation_Pyk</t>
-  </si>
-  <si>
-    <t>Translation (Pyruvate kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (9) ALA + (8) ARG + (2) ASN + (2) ASP + (2) CYS + (2) GLN + (2) GLU + (3) GLY + (203) GTP + (104) H2O + (2) HIS + (4) ILE + (9) LEU + (9) LYS + (3) MET + (4) PHE + (9) PRO + (6) SER + (9) THR + (4) TYR + (11) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Pyk_Protein</t>
-  </si>
-  <si>
-    <t>Translation_PyrH</t>
-  </si>
-  <si>
-    <t>Translation (Uridylate kinase )</t>
-  </si>
-  <si>
-    <t>[c]: (5) ALA + (11) ARG + (3) ASN + (3) ASP + (2) CYS + GLN + (3) GLU + (3) GLY + (203) GTP + (104) H2O + (2) HIS + (9) ILE + (10) LEU + (3) LYS + (2) MET + (3) PHE + (8) PRO + (14) SER + (9) THR + TRP + (2) TYR + (6) VAL ==&gt; (200) GDP + (200) H + (200) Pi + PyrH_Protein</t>
-  </si>
-  <si>
-    <t>Translation_Ribosome</t>
-  </si>
-  <si>
-    <t>Translation (Ribosome)</t>
-  </si>
-  <si>
-    <t>[c]: (7) ALA + (10) ARG + (4) ASN + (3) ASP + (3) CYS + (3) GLN + GLU + (6) GLY + (203) GTP + (104) H2O + HIS + (8) ILE + (9) LEU + (3) LYS + (2) MET + (6) PHE + (10) PRO + (7) SER + (9) THR + (3) TRP + (5) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Ribosome_Protein</t>
-  </si>
-  <si>
-    <t>Translation_RnaPolymerase</t>
-  </si>
-  <si>
-    <t>Translation (RNA polymerase)</t>
-  </si>
-  <si>
-    <t>[c]: (2) ALA + (11) ARG + (2) ASN + (4) ASP + (3) CYS + GLN + (4) GLU + GLY + (203) GTP + (104) H2O + (4) HIS + (7) ILE + (8) LEU + (4) LYS + (3) MET + (2) PHE + (9) PRO + (4) SER + (6) THR + (3) TRP + (7) TYR + (15) VAL ==&gt; (200) GDP + (200) H + (200) Pi + RnaPolymerase_Protein</t>
-  </si>
-  <si>
-    <t>Translation_Rnase</t>
-  </si>
-  <si>
-    <t>Translation (RNase)</t>
-  </si>
-  <si>
-    <t>[c]: (10) ALA + (11) ARG + (2) ASN + (4) ASP + (2) CYS + (3) GLN + (6) GLU + (3) GLY + (203) GTP + (104) H2O + (3) ILE + (9) LEU + (4) MET + (2) PHE + (9) PRO + (10) SER + (8) THR + (7) TRP + (7) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Rnase_Protein</t>
-  </si>
-  <si>
-    <t>Translation_Rpe</t>
-  </si>
-  <si>
-    <t>Translation (Probable ribulose-phosphate 3-epimerase)</t>
-  </si>
-  <si>
-    <t>[c]: (5) ALA + (12) ARG + (5) ASN + (5) ASP + CYS + (5) GLN + (2) GLU + (3) GLY + (203) GTP + (104) H2O + (2) HIS + (4) ILE + (8) LEU + (4) LYS + (3) MET + PHE + (7) PRO + (9) SER + (13) THR + (5) TRP + (6) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Rpe_Protein</t>
-  </si>
-  <si>
-    <t>Translation_Tim</t>
-  </si>
-  <si>
-    <t>Translation (Triosephosphate isomerase )</t>
-  </si>
-  <si>
-    <t>[c]: (5) ALA + (11) ARG + ASN + (3) ASP + (6) CYS + (5) GLN + (3) GLU + (6) GLY + (203) GTP + (104) H2O + (2) HIS + (6) ILE + (10) LEU + (2) MET + (4) PHE + (3) PRO + (10) SER + (9) THR + (5) TRP + TYR + (8) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Tim_Protein</t>
-  </si>
-  <si>
-    <t>Translation_TklB</t>
-  </si>
-  <si>
-    <t>Translation (Transketolase )</t>
-  </si>
-  <si>
-    <t>[c]: (9) ALA + (9) ARG + (4) ASN + (6) ASP + GLN + (2) GLU + (7) GLY + (203) GTP + (104) H2O + (3) HIS + (3) ILE + (9) LEU + (4) LYS + MET + (2) PHE + (8) PRO + (14) SER + (9) THR + (3) TRP + (2) TYR + (4) VAL ==&gt; (200) GDP + (200) H + (200) Pi + TklB_Protein</t>
-  </si>
-  <si>
-    <t>Translation_Udk</t>
-  </si>
-  <si>
-    <t>Translation (Uridine kinase)</t>
-  </si>
-  <si>
-    <t>[c]: (9) ALA + (5) ARG + (2) ASN + (5) ASP + (3) CYS + (5) GLN + GLU + (10) GLY + (203) GTP + (104) H2O + (3) HIS + (8) ILE + (6) LEU + (6) LYS + (5) MET + (3) PHE + (3) PRO + (9) SER + (7) THR + TRP + (3) TYR + (6) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Udk_Protein</t>
-  </si>
-  <si>
-    <t>Translation_Upp</t>
-  </si>
-  <si>
-    <t>Translation (Uracil phosphoribosyltransferase )</t>
-  </si>
-  <si>
-    <t>[c]: (5) ALA + (8) ARG + (3) ASN + (5) ASP + (2) CYS + (2) GLN + (3) GLU + (5) GLY + (203) GTP + (104) H2O + (4) HIS + (4) ILE + (8) LEU + (5) LYS + (2) MET + (3) PHE + (12) PRO + (15) SER + (6) THR + (2) TRP + (3) TYR + (3) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Upp_Protein</t>
-  </si>
-  <si>
-    <t>TrpAbcTransport</t>
-  </si>
-  <si>
-    <t>Tryptophan transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + TrpTrp[e] ==&gt; ADP[c] + H[c] + Pi[c] + TrpTrp[c]</t>
-  </si>
-  <si>
-    <t>TyrAbcTransport</t>
-  </si>
-  <si>
-    <t>Tyrosine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + TyrTyr[e] ==&gt; ADP[c] + H[c] + Pi[c] + TyrTyr[c]</t>
-  </si>
-  <si>
-    <t>Uck_CYTD</t>
-  </si>
-  <si>
-    <t>ATP:cytidine 5'-phosphotransferase</t>
-  </si>
-  <si>
-    <t>[c]: ATP + CYTD ==&gt; ADP + CMP + H</t>
-  </si>
-  <si>
-    <t>Uck_URI</t>
-  </si>
-  <si>
-    <t>ATP:uridine 5'-phosphotransferase</t>
-  </si>
-  <si>
-    <t>[c]: ATP + URI ==&gt; ADP + H + UMP</t>
-  </si>
-  <si>
-    <t>UmpK</t>
-  </si>
-  <si>
-    <t>ATP:UMP phosphotransferase</t>
-  </si>
-  <si>
-    <t>[c]: ATP + UMP ==&gt; ADP + UDP</t>
-  </si>
-  <si>
-    <t>UPRT</t>
-  </si>
-  <si>
-    <t>UMP:pyrophosphate phosphoribosyltransferase</t>
-  </si>
-  <si>
-    <t>[c]: H + PPi + UMP ==&gt; PRPP + URA</t>
-  </si>
-  <si>
-    <t>UraTransport</t>
-  </si>
-  <si>
-    <t>Uracil reversible transport via proton symport</t>
-  </si>
-  <si>
-    <t>H[e] + URA[e] ==&gt; H[c] + URA[c]</t>
-  </si>
-  <si>
-    <t>ValAbcTransport</t>
-  </si>
-  <si>
-    <t>Valine transport via ABC system</t>
-  </si>
-  <si>
-    <t>ATP[c] + H2O[c] + ValVal[e] ==&gt; ADP[c] + H[c] + Pi[c] + ValVal[c]</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Equation</t>
-  </si>
-  <si>
-    <t>K cat</t>
-  </si>
-  <si>
-    <t>K m</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>k_cat * Adk_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 1247 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>Ref_0007</t>
-  </si>
-  <si>
-    <t>k_cat * Cmk_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 250 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * Eno_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 180 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * Fba_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 1820 1/min [Ref_0008], 16.76 1/s [Ref_0009].</t>
-  </si>
-  <si>
-    <t>Ref_0008, Ref_0009</t>
-  </si>
-  <si>
-    <t>k_cat * Gap_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 0.12 1/s [Ref_0007], 112 1/s [Ref_0010], 70 1/s [Ref_0011], 305 U/mg [Ref_0012].</t>
-  </si>
-  <si>
-    <t>Ref_0007, Ref_0010, Ref_0011, Ref_0012</t>
-  </si>
-  <si>
-    <t>k_cat * Pgm_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 220 1/s [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * Gk_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: Fit to 0.273 1/s, observed 105 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * Hpt_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 10.48 1/s [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * Ldh_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 220 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * Nox_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 21667.0 1/min [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * Pfk_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 167 1/s [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat: 30.6 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat: 12 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * PgiB_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 1511 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * Pgk_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 1480 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat: 340 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * Ppa_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 3550 1/s [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * Pyk_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 160 1/s [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat: 47 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat: 200 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * Adk_Rna[c] / (Adk_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>Kinetics determined by RNA half liife.</t>
-  </si>
-  <si>
-    <t>k_cat * Apt_Rna[c] / (Apt_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Cmk_Rna[c] / (Cmk_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Eno_Rna[c] / (Eno_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Fba_Rna[c] / (Fba_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Gap_Rna[c] / (Gap_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Gk_Rna[c] / (Gk_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Hpt_Rna[c] / (Hpt_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * LacA_Rna[c] / (LacA_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Ldh_Rna[c] / (Ldh_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Nox_Rna[c] / (Nox_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * PeptAbcTransporter_Rna[c] / (PeptAbcTransporter_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Pfk_Rna[c] / (Pfk_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * PgiB_Rna[c] / (PgiB_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Pgk_Rna[c] / (Pgk_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Pgm_Rna[c] / (Pgm_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * PiAbcTransporter_Rna[c] / (PiAbcTransporter_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Ppa_Rna[c] / (Ppa_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Prs_Rna[c] / (Prs_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Pts_Rna[c] / (Pts_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Pyk_Rna[c] / (Pyk_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * PyrH_Rna[c] / (PyrH_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Ribosome_Rna[c] / (Ribosome_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * RnaPolymerase_Rna[c] / (RnaPolymerase_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Rnase_Rna[c] / (Rnase_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Rpe_Rna[c] / (Rpe_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Tim_Rna[c] / (Tim_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * TklB_Rna[c] / (TklB_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Udk_Rna[c] / (Udk_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Upp_Rna[c] / (Upp_Rna[c] + k_m) * Rnase_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Rpe_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 2 1/s [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * LacA_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 69 1/s [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * min(ATP[c], CTP[c], GTP[c], UTP[c]) / (k_m + min(ATP[c], CTP[c], GTP[c], UTP[c])) * RnaPolymerase_Protein[c]</t>
-  </si>
-  <si>
-    <t>Kinetics constrained by cell theory (mass doubling).</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Adk_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Apt_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Cmk_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Eno_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Fba_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Gap_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Gk_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Hpt_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * LacA_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Ldh_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Nox_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PeptAbcTransporter_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pfk_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PgiB_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pgk_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pgm_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PiAbcTransporter_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Ppa_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Prs_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pts_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pyk_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PyrH_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Ribosome_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * RnaPolymerase_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Rnase_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Rpe_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Tim_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * TklB_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Udk_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Upp_Rna[c] * Ribosome_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat * Udk_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 6.5 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat: 1.58 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>k_cat * PyrH_Protein[c]</t>
-  </si>
-  <si>
-    <t>k_cat: 52 U/mg [Ref_0007].</t>
-  </si>
-  <si>
-    <t>Submodels</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>carbonExchangeRate</t>
-  </si>
-  <si>
-    <t>Carbon-containing metabolite exchange rate</t>
-  </si>
-  <si>
-    <t>mmol/gDCW/h</t>
-  </si>
-  <si>
-    <t>Exchange rate upper bound for carbon-containing metabolites (mmol/gDCW/h). Maranas et al. used 5 mmol/gDCW/h for all carbon-containing metabolites [Ref_0004]. Feist et al. used 11.2 mmol/gDCW/h for glucose [Ref_0005].</t>
-  </si>
-  <si>
-    <t>Ref_0004, Ref_0005</t>
-  </si>
-  <si>
-    <t>cellCycleLength</t>
-  </si>
-  <si>
-    <t>Cell cycle length</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Ref_0006</t>
-  </si>
-  <si>
-    <t>nonCarbonExchangeRate</t>
-  </si>
-  <si>
-    <t>Non-carbon-containing metabolite exchange rate</t>
-  </si>
-  <si>
-    <t>Exchange rate upper bound for non-carbon-containing metabolites (mmol/gDCW/h). Maranas et al. used 20 mmol/gDCW/h for all carbon-containing metabolites [Ref_0004]. Feist et al. used 18.5 mmol/gDCW/h for oxygen [Ref_0005].</t>
-  </si>
-  <si>
-    <t>rnaHalfLife</t>
-  </si>
-  <si>
-    <t>RNA half life</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>Edition</t>
-  </si>
-  <si>
-    <t>Chapter</t>
-  </si>
-  <si>
-    <t>Pages</t>
-  </si>
-  <si>
-    <t>Zhao et al., 2008</t>
-  </si>
-  <si>
-    <t>Amyloid-beta peptide degradation in cell cultures by mycoplasma contaminants</t>
-  </si>
-  <si>
-    <t>Zhao et al.</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>BMC Research Notes</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Wodke et al., 2014</t>
-  </si>
-  <si>
-    <t>MyMpn: a database for the systems biology model organism Mycoplasma pneumoniae</t>
-  </si>
-  <si>
-    <t>Wodke et al.</t>
-  </si>
-  <si>
-    <t>Nucleic Acids Res</t>
-  </si>
-  <si>
-    <t>gku1105</t>
-  </si>
-  <si>
-    <t>Ref_0003</t>
-  </si>
-  <si>
-    <t>Sundararaj et al., 2004</t>
-  </si>
-  <si>
-    <t>The CyberCell Database (CCDB): a comprehensive, self‐updating, relational database to coordinate and facilitate in silico modeling of Escherichia coli</t>
-  </si>
-  <si>
-    <t>Sundararaj et al.</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Suppl 1</t>
-  </si>
-  <si>
-    <t>D293-D295</t>
-  </si>
-  <si>
-    <t>Ref_0004</t>
-  </si>
-  <si>
-    <t>Suthers et al., 2009</t>
-  </si>
-  <si>
-    <t>A genome-scale metabolic reconstruction of Mycoplasma genitalium, i PS189</t>
-  </si>
-  <si>
-    <t>Suthers et al.</t>
-  </si>
-  <si>
-    <t>PLoS Comput Biol</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>e1000285</t>
-  </si>
-  <si>
-    <t>Ref_0005</t>
-  </si>
-  <si>
-    <t>Feist et al., 2007</t>
-  </si>
-  <si>
-    <t>A genome‐scale metabolic reconstruction for Escherichia coli K‐12 MG1655 that accounts for 1260 ORFs and thermodynamic information</t>
-  </si>
-  <si>
-    <t>Feist et al.</t>
-  </si>
-  <si>
-    <t>Mol Syst Biol</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Bray, 2001</t>
-  </si>
-  <si>
-    <t>Cell movements: from molecules to motility</t>
-  </si>
-  <si>
-    <t>Bray</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>Garland Science</t>
-  </si>
-  <si>
-    <t>Wittig et al., 2006</t>
-  </si>
-  <si>
-    <t>SABIO-RK: integration and curation of reaction kinetics data</t>
-  </si>
-  <si>
-    <t>Wittig et al.</t>
-  </si>
-  <si>
-    <t>inbook</t>
-  </si>
-  <si>
-    <t>Data integration in the life sciences</t>
-  </si>
-  <si>
-    <t>Springer Berlin, Heidelberg</t>
-  </si>
-  <si>
-    <t>Ref_0008</t>
-  </si>
-  <si>
-    <t>Berry and Marshall, 1993</t>
-  </si>
-  <si>
-    <t>Identification of zinc‐binding ligands in the Class II fructose‐1, 6‐bisphosphate aldolase of Escherichia coli</t>
-  </si>
-  <si>
-    <t>Berry and Marshall</t>
-  </si>
-  <si>
-    <t>FEBS Lett</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>11-16</t>
-  </si>
-  <si>
-    <t>Ref_0009</t>
-  </si>
-  <si>
-    <t>Iturrate et al., 2010</t>
-  </si>
-  <si>
-    <t>Preparation and Characterization of a Bifunctional Aldolase/Kinase Enzyme: A More Efficient Biocatalyst for C C Bond Formation</t>
-  </si>
-  <si>
-    <t>Iturrate et al.</t>
-  </si>
-  <si>
-    <t>Chem-A Eur J</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>4018-4030</t>
-  </si>
-  <si>
-    <t>Ref_0010</t>
-  </si>
-  <si>
-    <t>Fillinger et al., 2000</t>
-  </si>
-  <si>
-    <t>Two glyceraldehyde-3-phosphate dehydrogenases with opposite physiological roles in a nonphotosynthetic bacterium</t>
-  </si>
-  <si>
-    <t>Fillinger et al.</t>
-  </si>
-  <si>
-    <t>J Biol Chem</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>14031-14037</t>
-  </si>
-  <si>
-    <t>Ref_0011</t>
-  </si>
-  <si>
-    <t>Even et al., 1999</t>
-  </si>
-  <si>
-    <t>Pyruvate metabolism in Lactococcus lactis is dependent upon glyceraldehyde-3-phosphate dehydrogenase activity</t>
-  </si>
-  <si>
-    <t>Even et al.</t>
-  </si>
-  <si>
-    <t>Metabolic Eng</t>
-  </si>
-  <si>
-    <t>198-205</t>
-  </si>
-  <si>
-    <t>Ref_0012</t>
-  </si>
-  <si>
-    <t>Crow and Wittenberger, 1979</t>
-  </si>
-  <si>
-    <t>Separation and properties of NAD+-and NADP+-dependent glyceraldehyde-3-phosphate dehydrogenases from Streptococcus mutans</t>
-  </si>
-  <si>
-    <t>Crow and Wittenberger</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1134-1142</t>
-  </si>
-  <si>
-    <t>Karr et al., 2012</t>
-  </si>
-  <si>
-    <t>A whole-cell computational model predicts phenotype from genotype</t>
-  </si>
-  <si>
-    <t>Karr et al.</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>389-401</t>
-  </si>
-  <si>
-    <t>Yus et al., 2009</t>
-  </si>
-  <si>
-    <t>Impact of genome reduction on bacterial metabolism and its regulation</t>
-  </si>
-  <si>
-    <t>Yus et al.</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>5957</t>
-  </si>
-  <si>
-    <t>1263-1268</t>
-  </si>
-  <si>
-    <t>Ref_0015</t>
-  </si>
-  <si>
-    <t>PPLO Media</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>Ref_0016</t>
-  </si>
-  <si>
-    <t>Beef heart infusion – A1502</t>
-  </si>
-  <si>
-    <t>Ref_0017</t>
-  </si>
-  <si>
-    <t>Donor horse serum</t>
-  </si>
-  <si>
-    <t>Ref_0018</t>
-  </si>
-  <si>
-    <t>Pork meat peptone - A1728</t>
-  </si>
-  <si>
-    <t>Wikipedia</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>10.1002/chem.200903096</t>
-  </si>
-  <si>
-    <t>10.1006/mben.1999.0120</t>
-  </si>
-  <si>
-    <t>10.1007/11799511_9</t>
-  </si>
-  <si>
-    <t>10.1016/0014-5793(93)81317-S</t>
-  </si>
-  <si>
-    <t>10.1016/j.cell.2012.05.044</t>
-  </si>
-  <si>
-    <t>10.1038/msb4100155</t>
-  </si>
-  <si>
-    <t>10.1074/jbc.275.19.14031</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gkh108</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gku1105</t>
-  </si>
-  <si>
-    <t>10.1126/science.1177263</t>
-  </si>
-  <si>
-    <t>10.1186/1756-0500-1-38</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pcbi.1000285</t>
-  </si>
-  <si>
-    <t>ISBN</t>
-  </si>
-  <si>
-    <t>815332823</t>
-  </si>
-  <si>
-    <t>PMID</t>
-  </si>
-  <si>
-    <t>33184</t>
-  </si>
-  <si>
-    <t>http://cellgro.com/media/docs/files/items/35030CV_1M2126.pdf</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org</t>
-  </si>
-  <si>
-    <t>http://www.bd.com/europe/regulatory/Assets/IFU/Difco_BBL/211456.pdf</t>
-  </si>
-  <si>
-    <t>http://www.solabia.com/solabia/content/NT0000443A.pdf</t>
-  </si>
-  <si>
-    <t>http://www.solabia.com/solabia/content/NT0000444E.pdf</t>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpn_Karr_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karr et al., 2016 Mycoplasma pneumoniae M129 model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wc_lang version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycoplasma pneumoniae M129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref_0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref_0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adenine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media concentration set to concentration in SP4 media [Ref_0013].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adk_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenylate kinase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTVRSDHTSALSGVRRTTDEPSVERSMVSSVRGDEPHATRRVRVTYTLDTAEPKGFLKDTCHYKLVTLIQLEPQWQMLSGICCGASTPLTNPRRLRLTPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adk_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenylate kinase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGACGGUACGAAGCGAUCACACGUCUGCGCUGAGCGGAGUAAGGCGAACCACAGACGAACCUAGCGUCGAGAGAAGCAUGGUAUCGAGUGUUCGUGGGGAUGAACCGCAUGCUACGCGGCGGGUGCGGGUGACCUACACUCUUGAUACAGCCGAACCGAAAGGCUUCCUCAAGGACACGUGUCAUUACAAGCUAGUAACAUUGAUCCAACUAGAACCCCAGUGGCAAAUGUUGUCGGGGAUUUGUUGUGGGGCUUCUACACCCUUAACCAACCCCAGAAGGUUAAGGUUGACGCCAACUUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlaAla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-alanyl-L-alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apt_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenine phosphoribosyltransferase  (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMAGEFTNLADSQCVASWLKSERTYRTSYRFSRCRPHCAYPSHVCGRLVCCSLRINCRGISSNFRNTVLFDSVILRDTRTWYDFFTTARLALLRTGLSIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apt_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenine phosphoribosyltransferase  (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGAUGGCCGGCGAAUUCACUAAUCUUGCCGAUUCCCAAUGCGUUGCUUCUUGAUUGAAGUCGGAGCGGACCUACCGUACUAGCUACAGGUUCUCACGGUGCAGGCCCCACUGUGCGUAUCCCUCGCACGUAUGUGGGCGCCUUGUAUGUUGCUCUCUUCGUAUAAACUGCCGUGGCAUCUCGUCUAAUUUUCGCAACACAGUACUCUUUGACAGCGUCAUCUUGCGCGACACCAGAACGUGAUAUGACUUUUUCACGACAGCGCGAUUGGCGUUAUUACGAACGGGAUUAUCUAUCUUCUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-arginine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArgArg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-arginyl-L-arginine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-aspartic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsnAsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-asparaginyl-L-asparagine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media concentration fit to support cellular growth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-asparagine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AspAsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-aspartyl-L-aspartic Acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cmk_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytidylate kinase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGTLTSQRVEAQYPLWLVVCITNIGTLPTRLPLCNMVHNYKFKHLWDSTSAPAQIWGDANSSCNWPRESPGRVPYTGEDLHRCQGLYIRSGRLCCNCLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cmk_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytidylate kinase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGGCUGGAACCCUCACGAGUCAGAGAGUGGAGGCGCAGUAUCCUUUAUGACUCGUCGUGUGCAUUACUAACAUCGGUACGCUUCCUACGAGACUGCCUUUGUGUAACAUGGUGCAUAAUUAUAAAUUCAAACACCUCUGAGACUCAACAAGCGCGCCCGCACAGAUAUGAGGUGAUGCUAACUCUUCCUGUAACUGGCCCCGAGAAAGUCCUGGUAGAGUCCCGUACACAGGAGAGGACCUUCAUCGCUGCCAGGGCCUAUAUAUCAGAUCAGGGCGAUUAUGCUGUAAUUGUCUACUGUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media concentration set according to ~5% CO2 = 38 mmHg [Ref_0019]. Equilbrium constant of solvation is 29.49 L*atm/mol [Ref_0019].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-cysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CysCys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-cysteinyl-L-cysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Phospho-D-glyceroyl phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Erythrose 4-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eno_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enolase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNKEEEIICRFMPPNTSVSLPHSIAKLMKSPAYSGLPVFYSQLRPGATYQRPRANGRCVTHLQWLQWRQTTCNSIGTASARFEPIWHRYALDLCTTSKNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eno_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enolase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGAAUAAGGAAGAAGAGAUUAUUUGUCGCUUCAUGCCUCCGAACACAAGCGUAUCCCUUCCUCACAGUAUUGCAAAGCUUAUGAAAAGUCCAGCCUAUUCAGGGCUUCCGGUAUUUUACUCACAACUGCGUCCAGGCGCCACGUAUCAACGCCCCCGAGCAAAUGGGCGUUGUGUAACACAUCUUCAAUGGCUCCAAUGACGACAAACCACAUGCAAUAGCAUCGGAACAGCUUCAGCCAGGUUCGAACCGAUUUGGCAUAGAUAUGCUCUCGAUUUGUGCACAACUUCGAAAAAUGAGUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F6P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Fructose 6-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fba_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose-biphosphate aldolase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRGSRLWYRQGVSSFIPQGHGSAWPRVIGRLPLFRSSRQPVDGYVLCQTARVTFRLPLLICVDFRLSVIPVPTFTDPSKNCKSSPTVCALVQRVALSRTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fba_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose-biphosphate aldolase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGCGUGGCAGUCGGCUUUGGUAUCGCCAAGGGGUGUCCAGCUUUAUACCUCAAGGACAUGGCAGCGCGUGACCGAGGGUCAUUGGGCGUCUCCCUCUAUUCCGAAGUUCACGACAACCAGUAGACGGAUAUGUCUUGUGCCAAACUGCUAGAGUCACUUUCCGCCUGCCUCUGUUGAUCUGCGUGGAUUUUCGUCUGUCCGUCAUACCGGUCCCCACGUUUACUGACCCCAGCAAGAAUUGUAAGAGUUCUCCCACUGUGUGUGCGCUGGUCCAAAGGGUAGCACUGAGUCGGACUAGGUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Fructose 1,6-bisphosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Glycerate 2-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Phospho-D-glycerate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Glucose 6-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gap_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glyceraldehyde-3-phosphate-dehydrogenase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLVRYTIQYDERHHFWVACSPYTQVPYVLWTIAVGRIHGHTAKKTACLMADRWHLGFSWSPLSSMTITRMLHAPLLFRIRCIDATQTGGCGLRSRNSQLQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gap_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glyceraldehyde-3-phosphate-dehydrogenase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGCUUGUACGUUAUACGAUUCAGUAUGAUGAACGACAUCAUUUCUGAGUUGCUUGUUCCCCCUAUACUCAGGUACCGUACGUGCUGUGGACGAUUGCUGUAGGGAGGAUACAUGGACACACCGCGAAAAAGACUGCUUGCUUGAUGGCGGAUCGCUGGCAUUUGGGCUUUAGUUGGUCCCCACUUUCGUCAAUGACCAUUACGCGGAUGCUUCAUGCGCCUCUCUUAUUUAGGAUUCGUUGUAUUGACGCCACACAGACCGGGGGCUGUGGGCUCAGGUCCCGUAACUCCCAACUACAGUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gk_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanylate kinase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVSPSVTALHSVFPLLSSWQPSCSSGFSVLELEPQTSCWTVIDLNNRMAIPGVTSAWLGTTAICPLNGESTVQKLWGCPDCCFQRVKGQDPGGPCPYPKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gk_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanylate kinase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGGUUUCCCCAAGCGUCACUGCAUUGCACAGUGUCUUCCCACUACUAUCCAGUUGGCAGCCUAGCUGCUCUUCGGGAUUUUCUGUUUUAGAGUUGGAACCACAAACGUCUUGCUGGACUGUCAUAGAUCUUAAUAACCGUAUGGCAAUCCCAGGAGUAACAUCCGCUUGAUUGGGAACUACAGCAAUAUGCCCACUCAAUGGCGAGAGUACCGUACAGAAGCUUUGAGGAUGUCCUGAUUGUUGUUUCCAAAGGGUGAAAGGACAGGAUCCGGGAGGGCCUUGCCCCUACCCCAAGUCCUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media concentration set to the concentration in Hayflict medium. The composition of Hayflick media was curated from the modified Hayflick recipe used reported by Yus et al., 2009 [Ref_0014], the reported PPLO broth recipe [Ref_0015], and the characterized compositions of beef heart [Ref_0016], horse serum [Ref_0017], and peptone [Ref_0018].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0014, Ref_0015, Ref_0016, Ref_0017, Ref_0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glutamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlnGln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-glutaminyl-L-glutamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glutamic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GluGlu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-glutamyl-L-glutamic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlyGly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-glycyl-L-glycine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media concentration set to concentration in minimal media [Ref_0014].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media concentration set corresponding to pH=7.75 typically used to culture Mycoplasma pneumoniae.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-histidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HisHis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-histidyl-L-histidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hpt_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypoxanthine-guanine phosphoribosyltransferase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEMAKSLPERMRVQMICILRPGLSCYTALCLAPSWVPTRVFFAGAKMNAHDRTLPYEELPQYFDAIEVGRQASWGSRYSMAEAVPGGSDLSYPRAPMHRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hpt_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypoxanthine-guanine phosphoribosyltransferase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGGAGAUGGCGAAGAGUCUUCCCGAGAGAAUGCGCGUACAAAUGAUUUGCAUCCUGCGGCCCGGCUUGUCGUGUUAUACAGCACUCUGUUUAGCUCCUAGUUGAGUGCCCACGAGAGUAUUUUUUGCAGGGGCCAAGAUGAAUGCGCACGACCGAACCCUACCAUAUGAAGAGCUUCCGCAGUAUUUUGACGCGAUCGAAGUGGGUCGACAAGCGAGUUGGGGGUCGCGCUACUCUAUGGCGGAGGCGGUUCCCGGGGGGUCCGAUCUGUCUUAUCCCCGAGCUCCAAUGCAUCGGAGUUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-isoleucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IleIle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-isoleucyl-L-isoleucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-lactate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LacA_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probable ribose-5-phosphate isomerase B  (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNSHFLLWLLDRFREKVLGCNVLPATPTHEQTAPTHSGPISIVTDKGGSVIGNGRPVTEVGLKRIAILATVDFWQDLLNSNGVTINIIESHSAVTFMYDG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LacA_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probable ribose-5-phosphate isomerase B  (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGAACUCCCAUUUUCUCCUUUGACUACUGGAUCGUUUCCGGGAAAAGGUGCUGGGGUGUAAUGUUCUCCCUGCUACCCCUACACAUGAACAAACGGCGCCUACGCAUAGUGGACCUAUCUCCAUCGUAACUGACAAAGGGGGGUCGGUUAUAGGAAACGGUAGACCUGUCACAGAGGUAGGCCUUAAGCGAAUCGCUAUACUCGCGACCGUGGACUUCUGACAGGAUUUAUUAAAUAGUAACGGUGUAACAAUCAACAUUAUAGAAAGCCACAGCGCGGUAACGUUCAUGUACGAUGGCUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ldh_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-lactate dehydrogenase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTLLPPTGYGVKLLFIGIADDPYVESEPSRPQRPRDCTWGVNVVYVCTVPIFLHQRQSRTSGMTGAIWLQTYLLLLMEDSVSTGGWVKPSSENPRDLRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ldh_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-lactate dehydrogenase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGACAUUGCUGCCUCCGACGGGUUAUGGAGUGAAACUACUCUUUAUCGGUAUCGCCGACGACCCCUACGUGGAGUCCGAACCGAGCCGACCACAACGCCCUCGGGAUUGUACGUGGGGCGUUAAUGUAGUCUAUGUAUGUACUGUUCCAAUCUUUCUCCAUCAACGACAGUCUAGGACCAGUGGGAUGACCGGUGCAAUAUGAUUGCAGACAUAUCUGUUGUUGUUAAUGGAGGACAGUGUUUCCACUGGUGGCUGGGUUAAGCCUUCAAGCGAAAAUCCCCGGGAUCUCCGAAUAGCUUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-leucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeuLeu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-leucyl-L-leucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-lysine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LysLys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-lysyl-L-lysine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-methionine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetMet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-methionyl-L-methionine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicotinamide adenine dinucleotide, oxidized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicotinamide adenine dinucleotide, reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nox_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probable NADH oxidase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAFITIFTKAMFWTVGNARFYASPDSSQISEDDARDFLEADSTLWVLEGPLLAEIWSVVWYGGRIGGRLRGLASQTPAYLSLDEPMHSTDSIRFGALIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nox_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probable NADH oxidase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGGCAUUCAUAACGAUUUUCACGAAAGCAAUGUUCUGGACAGUAGGCAACGCCCGUUUCUAUGCCUCCCCAGAUUCCUCACAGAUUUCAGAAGAUGACGCACGAGAUUUCCUGGAGGCGGAUUCCACAUUAUGGGUCCUUGAAGGACCAUUGCUUGCUGAAAUAUGAUCGGUUGUAUGAUAUGGAGGAAGAAUCGGUGGGAGGCUUAGGGGACUCGCCUCCCAAACACCAGCCUAUCUCUCAUUGGACGAACCUAUGCAUUCGACUGAUUCUAUCCGGUUUGGUGCGCUCAUCCGCGCCUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media concentration set according to ~21% O2 = 160 mmHg [Ref_0019]. Equilbrium constant of solvation is 769.2 L*atm/mol [Ref_0019].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoenolpyruvate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeptAbcTransporter_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peptide ABC transporter (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYVIWVLVRGSFGQTRNLVGVHFRENWSLVNVKLAFGPGWHQHANRQTVQSLRATSGQGLCPNGQVTLEELGLGSSYQFSRSIRRYVPIGVNSQLYFSVP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeptAbcTransporter_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peptide ABC transporter (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGUAUGUUAUUUGGGUUUUGGUACGGGGUAGCUUCGGGCAAACCAGGAACCUCGUCGGUGUUCACUUCCGGGAAAACUGGUCUCUUGUGAACGUGAAGCUAGCGUUUGGUCCUGGCUGGCAUCAACAUGCUAACCGACAAACUGUACAGAGCCUCAGAGCUACUUCGGGACAGGGCCUUUGUCCUAAUGGUCAAGUUACAUUAGAGGAGCUUGGAUUAGGGUCAUCAUACCAAUUCUCACGAUCGAUACGCCGCUAUGUCCCUAUAGGAGUUAAUUCGCAGCUAUAUUUCUCCGUGCCAUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfk_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phosphofructokinase /Phosphohexokinase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDLDNRVKLLTSISRYHFQACALSFWGRQIVSDFWTVLYSFWDKATTHRCSLSLSPYRVVSSSGIRIITLSSGAIQRWGTNRRQEQSSRQGSGEVLFGTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfk_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phosphofructokinase /Phosphohexokinase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGGACCUGGAUAACCGUGUGAAACUUCUGACAUCUAUCUCCCGUUACCAUUUCCAGGCUUGUGCCUUGUCUUUCUGAGGGCGUCAGAUUGUUUCAGACUUCUGGACCGUCCUCUAUUCUUUUUGGGACAAGGCUACUACACAUAGAUGUUCUUUGAGUUUGUCGCCGUAUCGCGUUGUUAGCUCAUCAGGGAUCCGCAUUAUAACACUGUCAUCUGGUGCAAUUCAACGAUGAGGAACUAAUCGUCGUCAAGAGCAGUCAAGUAGACAGGGUUCAGGAGAAGUAUUGUUUGGAACAAUAUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PgiB_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose-6-phosphate isomerase  (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPKMSSPFNTSSHRWEISATRSGLDACCGIFWDAYQDRQSVLPQHTETARPGRYRPHQRQYPLTGYPIGGTNIIKARVGIGSNRTAASRAVLALVRELAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PgiB_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose-6-phosphate isomerase  (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGCCUAAGAUGAGCUCACCGUUCAACACUAGCAGUCAUCGCUGGGAGAUUAGCGCGACGCGAAGCGGGCUGGAUGCUUGCUGUGGCAUUUUUUGGGAUGCUUACCAAGAUCGACAGUCAGUAUUGCCACAACAUACUGAAACUGCCCGCCCGGGGCGUUACAGACCUCACCAGCGGCAGUACCCCCUCACUGGCUACCCCAUUGGGGGGACAAAUAUAAUCAAGGCUAGAGUUGGGAUCGGCAGCAAUAGGACAGCGGCAAGCCGCGCAGUCCUCGCCCUGGUUAGGGAACUUGCCCGGUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgk_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphoglycerate kinase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIPDPSAPRCVLLATFVRRQRAICNGKNSLTVNQRRVVGSFITTVNHTDSSRLGIPGTSHSRLSNGVSRVLSRCADHSGWPGAPTQWPVLISPASLHLTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgk_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphoglycerate kinase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGAUACCUGAUCCUAGCGCGCCUCGAUGUGUGCUCUUGGCUACUUUCGUGCGCAGACAGAGAGCAAUAUGUAAUGGUAAGAAUUCUCUUACCGUUAACCAGAGAAGGGUUGUGGGCAGUUUCAUAACCACCGUCAACCAUACCGACUCCAGUCGAUUGGGAAUUCCCGGGACUAGUCAUUCCCGGCUGAGCAAUGGUGUCUCGAGAGUUCUAUCAAGAUGCGCCGAUCACUCCGGCUGGCCUGGCGCACCCACCCAAUGACCUGUGCUGAUCUCACCAGCAAGUUUGCACUUAACCUUUUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgm_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3-bisphosphoglycerate-independent phosphoglycerate mutase  (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDIPAHSLNATCSPNAARRGTNSTWYLTVSPRVSSREKRPQLVNIVWMPYFVFGYSPFRSVAEGLIHSLGVLFIFFDPRQRTLKNPGYLHLENAETRSHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgm_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3-bisphosphoglycerate-independent phosphoglycerate mutase  (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGGACAUCCCCGCGCAUUCGCUAAAUGCGACUUGCAGUCCUAAUGCCGCGCGCCGAGGUACAAAUUCGACCUGGUAUCUGACCGUCUCGCCACGCGUGUCGAGUCGGGAAAAACGGCCCCAGCUCGUCAAUAUCGUCUGAAUGCCCUAUUUCGUCUUCGGAUACUCACCGUUUCGAUCGGUGGCAGAGGGUUUAAUACACUCUUUAGGCGUGCUAUUCAUAUUCUUUGACCCUAGGCAGCGGACGUUGAAGAAUCCGGGUUAUCUGCACUUAGAAAAUGCGGAGACACGAUCGCAUCCCUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-phenylalanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhePhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-phenylalanyl-L-phenylalanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PiAbcTransporter_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphate ABC transporter (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSAGASLRHAWSCSISRISMARIRVISDRRYSGTVPTGSPRIVAAYTRAKYLSAVAADSAKQNEDHAKEDSTLLPCPFLTHAWVFGAIQASAAQYLLEAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PiAbcTransporter_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphate ABC transporter (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGUCAGCCGGUGCCUCGCUACGUCACGCCUGGUCUUGUUCCAUUUCUCGAAUAUCAAUGGCCCGAAUUAGGGUGAUUAGUGACCGGCGCUAUAGCGGUACCGUACCGACAGGUUCACCUAGAAUCGUUGCCGCUUAUACACGCGCCAAAUACUUAUCCGCAGUGGCAGCCGAUUCUGCAAAACAGAAUGAAGACCACGCAAAAGAGGACUCCACGCUGCUGCCUUGUCCUUUCUUAACUCAUGCCUGGGUUUUCGGAGCCAUCCAGGCUAGCGCGGCGCAGUAUCUGUUGGAGGCGGAUUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ppa_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inorganic pyrophosphatase  (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSSLVMRFSQPSSTHQQDAWWSSRRMRKRGWDLLTLQNLLLTWEEVRKIIRKCFPQAAHSINGWSPFTPSILRVSQKNRQYFKSSYVPIELTPGSPTSAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ppa_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inorganic pyrophosphatase  (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGUCGUCUUUGGUAAUGAGGUUUUCGCAGCCUUCGAGUACGCACCAACAGGAUGCAUGAUGAUCUUCUAGGAGGAUGCGUAAACGAGGGUGGGAUCUACUAACACUCCAGAAUCUUCUGCUGACAUGGGAGGAAGUUCGCAAAAUAAUACGGAAAUGCUUUCCGCAAGCGGCUCACUCAAUUAACGGUUGAUCGCCAUUUACCCCUUCCAUUCUUCGGGUAUCACAAAAGAACCGACAAUACUUCAAAUCUAGCUACGUUCCCAUCGAGUUGACCCCCGGAUCUCCGACUAGCGCUAUCUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diphosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-proline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProPro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-prolyl-L-proline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Phospho-alpha-D-ribose 1-diphosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prs_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribose-phosphate pyrophosphokinase  (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRYCVPQGQERPNCAGAARSKASLNRGWSLRRASIIHAIVCNPYRISLKSSLLPMATLVNWNGRACIRILMQWIPLGVASSPSAFSPRSVFPSSRLEHLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prs_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribose-phosphate pyrophosphokinase  (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGCGAUACUGCGUUCCGCAAGGCCAGGAGCGGCCAAAUUGCGCCGGUGCCGCUCGCAGUAAAGCGAGUUUAAAUAGAGGGUGGAGUUUGCGGCGAGCGAGUAUUAUCCAUGCCAUCGUCUGUAAUCCUUACCGCAUAAGUCUGAAAAGUAGCCUUCUGCCAAUGGCAACCCUGGUAAAUUGAAAUGGCAGAGCGUGUAUAAGAAUCUUAAUGCAAUGAAUACCCUUAGGAGUGGCGUCAAGUCCAUCAGCAUUCAGCCCCAGGAGCGUCUUCCCUAGCUCUAGACUCGAGCAUCUGCUAUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTS EIIABC (glucose) (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGREDHYSESCTCSLFALVHSIQGTRAFTTPCSYSEHNELAQALLGLRTINQPRDSPRAHRAPNHIGNQQLAKVAFAGDLVTYVTRDVTLTAIGPLMRFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTS EIIABC (glucose) (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGGGCAGAGAAGACCACUAUUCUGAAUCUUGUACCUGUUCGCUGUUCGCGUUAGUCCACAGCAUACAAGGGACGCGAGCAUUCACGACACCAUGUAGCUAUAGUGAACAUAACGAACUAGCUCAAGCCCUCCUGGGCUUGCGAACGAUCAAUCAACCCCGUGAUUCACCGAGAGCCCACAGGGCACCCAACCACAUUGGCAACCAGCAGCUGGCUAAAGUGGCCUUCGCCGGUGAUCUCGUGACGUACGUCACUAGAGACGUUACUCUUACUGCCAUUGGCCCUCUAAUGCGAUUUUCCUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyk_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyruvate kinase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFRPVRLQATKKPVTTKRSALSPISTPVVAHALSKFRYLLTKMNLLRKIDKMYYPQLESADNAPSTPVIVHACGFTAGIVVERYCTAVVKGVKRFPLTRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyk_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyruvate kinase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGUUUCGUCCGGUUCGACUGCAAGCAACUAAAAAGCCGGUUACUACGAAGCGAUCAGCACUUUCUCCGAUAAGUACACCCGUAGUCGCCCAUGCGCUGUCGAAAUUCCGGUACCUUCUCACCAAGAUGAACCUACUGAGAAAAAUCGACAAGAUGUACUAUCCCCAACUCGAGUCGGCGGACAACGCCCCGAGUACGCCCGUCAUCGUGCACGCCUGUGGGUUUACGGCAGGUAUAGUGGUCGAAAGGUACUGUACAGCCGUGGUCAAAGGAGUGAAGCGCUUCCCCUUGACCCGACCGUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PyrH_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uridylate kinase  (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTDIDNRLVPRKTRPPVGAPRHEFDSCPAAERSITRLLARSTVTSIRNLTSSSIKRYISLHVPRTPRLIWLIMTSFNSIAQVSSLFGKPLYSVLCETISG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PyrH_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uridylate kinase  (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGACCGACAUUGAUAACCGAUUAGUCCCACGCAAAACUCGACCACCAGUGGGUGCUCCGCGCCACGAAUUCGACUCAUGCCCGGCCGCCGAACGCUCCAUUACGAGGUUGCUAGCCCGGUCUACUGUUACAAGCAUUAGGAAUCUUACUUCAAGCUCAAUUAAGAGAUACAUCUCAUUGCAUGUUCCCCGGACCCCCCGCUUGAUAUGGCUCAUUAUGACGUCGUUUAAUUCUAUUGCUCAAGUAUCGUCCCUAUUUGGAAAACCACUCUACAGUGUACUAUGUGAAACAAUCUCUGGAUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-Ribose 5-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosome_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosome (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSSLTFPLGFVFPGPCARPINLWPATPTVLWRDSRPIIRVENLICIFAIQGRVLPNSIRSFRVRARQMRTGTDHATKAKTGTLPLGPDNTWQKCSFSILA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosome_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosome (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGAGUUCUCUGACCUUUCCCUUGGGAUUCGUCUUCCCAGGACCAUGCGCGAGACCCAUAAACUUAUGGCCCGCCACGCCAACCGUUCUUUGGCGUGAUUCCCGCCCGAUCAUCCGAGUAGAGAAUUUAAUCUGUAUAUUCGCAAUACAGGGAAGAGUGUUACCCAAUUCUAUACGGAGCUUUCGCGUGCGUGCUCGGCAGAUGCGCACCGGUACAGAUCAUGCUACGAAAGCUAAAACUGGCACCCUUCCUCUUGGUCCCGAUAACACAUGGCAAAAAUGCAGUUUUAGCAUUUUAGCGUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL5P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Ribulose 5-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaPolymerase_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein polymerase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIIFSMKALTPHIVSTLVPYDCVETELRYLLLVVTIDYKSMFPPYRRDWHPRCLRCWYVRRYVRVVNDVVKLGIRIPTATPQIRSNRVVPEHVEWPYKVH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaPolymerase_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA polymerase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGAUCAUUUUCUCGAUGAAAGCGUUGACCCCACAUAUCGUUAGUACUCUUGUACCCUAUGAUUGUGUAGAAACCGAACUACGGUACCUCCUGUUGGUAGUCACGAUAGAUUAUAAAAGUAUGUUCCCACCCUAUCGACGAGACUGGCAUCCUAGGUGUUUGCGGUGUUGGUACGUGCGCAGGUAUGUAAGAGUGGUAAACGACGUGGUCAAAUUAGGAAUACGAAUCCCCACCGCAACGCCUCAAAUUCGCUCUAAUCGAGUUGUCCCUGAACAUGUUGAGUGGCCUUAUAAGGUCCAUUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rnase_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteinse (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAAIDRATRTPLEILWFTCFQWMRVMDASPPLTLRRAVVGWWTWSLAVAVPELIERNRSSNTVSLEMEAPSLLWAPTSPRWDPCGSRRPDQATRSESQGV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rnase_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGGCUGCCAUAGAUCGUGCAACAAGAACUCCCCUCGAGAUUCUAUGAUUUACUUGCUUCCAAUGAAUGCGUGUUAUGGAUGCAUCGCCACCUCUGACCUUACGACGCGCUGUCGUGGGAUGGUGGACAUGAAGUCUGGCCGUCGCUGUACCGGAGCUGAUCGAGCGCAACAGAUCGAGUAACACAGUUAGCUUAGAGAUGGAAGCUCCCAGCCUUCUCUGAGCCCCGACGUCUCCGAGGUGGGAUCCUUGUGGCUCUCGGCGACCUGAUCAAGCUACGCGCUCUGAAUCCCAGGGAGUUUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rpe_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probable ribulose-phosphate 3-epimerase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQRDTQTIGRSPNAWRWLNLRNAVTDAPATTSVIHLRKEKKQRTNRVPTKTSQPLRMVCPITGSSFLLSEDPLRWTAILDTPRRVDWWSGTSMSTQHNRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rpe_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probable ribulose-phosphate 3-epimerase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGCAACGAGAUACACAAACUAUAGGACGCAGUCCGAAUGCGUGGCGUUGGUUGAACCUGCGAAACGCUGUCACAGACGCUCCAGCUACGACCAGUGUGAUACAUCUUAGGAAGGAGAAAAAACAACGAACGAAUCGGGUGCCAACGAAGACUUCACAACCCUUACGAAUGGUAUGUCCAAUCACUGGGAGCUCCUUCCUGCUGUCAGAGGACCCUCUGCGGUGAACUGCUAUAUUAGAUACCCCAAGACGGGUGGACUGAUGAAGCGGCACGAGUAUGAGUACGCAACAUAAUCGUGUGUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-sedoheptulose-7-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-serine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SerSer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-seryl-L-serine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glyceraldehdye-3-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dihydroxyacetone phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-threonine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThrThr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-threonyl-L-threonine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triosephosphate isomerase  (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLCLTCTESHFVIRCLCETALRRDSRLTLICSQRLGVSIPAFCGMSIAGRDHLDWRVTRSWIWIFTEVWVVRAPSSVYQGPTFWQNTSATLLQGRRVQSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triosephosphate isomerase  (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGUUAUGUCUUACAUGCACGGAAAGUCAUUUCGUCAUAAGGUGCUUAUGUGAAACCGCGUUACGGCGAGAUUCUCGCCUAACCUUGAUCUGUUCCCAACGCCUAGGAGUGUCGAUUCCAGCUUUUUGUGGUAUGUCCAUCGCAGGACGCGAUCAUUUAGACUGGAGAGUCACCCGUUCCUGGAUUUGGAUAUUUACGGAAGUAUGGGUAGUUCGAGCGCCGAGUUCUGUGUAUCAAGGCCCCACUUUCUGACAGAACACGUCGGCCACUUUGUUACAAGGGCGUAGAGUACAAUCCGGCUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TklB_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transketolase  (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPVSTGRSVSAIARLKIYFTEELGGRAGARSRGWLPLTAQKNSLDSDVLPPAARSHSTRHYRKVLSPWTSKPDFTATDHISNGLPDLRGNNWSSDASTPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TklB_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transketolase  (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGCCGGUCUCUACUGGUCGUUCAGUGUCCGCGAUAGCGCGAUUAAAGAUCUACUUUACAGAAGAGCUCGGGGGAAGAGCUGGCGCCCGCUCGCGUGGUUGACUGCCAUUAACCGCACAAAAAAACUCGUUGGACUCCGACGUUUUGCCCCCUGCGGCUCGUUCGCACUCAACCAGACAUUACAGAAAAGUCCUCUCUCCCUGAACUUCAAAGCCCGAUUUCACAGCCACUGAUCAUAUUUCAAAUGGGCUACCGGACCUUAGGGGAAAUAAUUGGUCGUCGGAUGCAAGUACCCCUACCUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-tryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrpTrp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-trytophanyl-L-trytophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-tyrosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TyrTyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-tyrosyl-L-tyrosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udk_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uridine kinase (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSCIRMRGVQQKHKVNSSILGARMLGCAVASPSQMGDGLNPSDVYKDTCKIIETLAGVSWTKVIRSALSDFAQARGIFAPHTGTFTDTQYYGIHIALKGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udk_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uridine kinase (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGUCGUGUAUCAGGAUGCGCGGAGUACAGCAAAAGCAUAAGGUUAACUCGAGUAUUCUCGGUGCAAGAAUGCUGGGAUGUGCCGUCGCGUCACCGUCUCAGAUGGGCGACGGUCUUAACCCCUCUGACGUCUAUAAAGACACGUGCAAAAUAAUAGAAACUUUAGCCGGCGUAUCCUGAACGAAGGUCAUCCGUAGUGCAUUGUCAGACUUCGCCCAGGCCAGAGGAAUCUUUGCGCCGCAUACGGGCACUUUUACCGACACACAGUACUACGGCAUUCAUAUUGCACUCAAAGGAAUGUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upp_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uracil phosphoribosyltransferase  (Protein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGSAARFPIPSLDSCQPLNLTRSRSSPHLWSGSPGGPLYFVPCIATRRLKTVLGAIRHPMSSFKPNTDKAHSDVPSKNREDSSESKDTWLERPYTHIYPQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upp_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uracil phosphoribosyltransferase  (RNA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGGGCUCCGCUGCGCGGUUCCCAAUUCCAUCCUUAGAUUCCUGCCAACCCCUGAACCUCACUCGUAGUCGGAGCUCUCCACAUCUAUGGUCGGGGAGUCCGGGUGGACCAUUAUACUUCGUACCGUGCAUUGCGACUAGAAGACUGAAGACUGUCCUCGGCGCCAUUCGCCAUCCAAUGUCCAGCUUCAAACCGAAUACGGACAAGGCUCACUCCGAUGUGCCAUCUAAAAAUCGAGAGGACUCCUCUGAAUCUAAAGAUACGUGAUUAGAACGCCCGUACACACAUAUCUAUCCGCAAUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uracil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media concentration set to value in minimal media [Ref_0014].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uridine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-valine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-valyl-L-valine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X5P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Xylulose 5-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adk_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALA[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlaAla[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apt_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apt_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARG[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArgArg[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASN[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsnAsn[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AspAsp[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cmk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cmk_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYS[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CysCys[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYTD[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eno_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eno_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fba_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fba_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gap_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gap_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gk_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLC[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLN[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlnGln[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLU[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GluGlu[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLY[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlyGly[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIS[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HisHis[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hpt_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hpt_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILE[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IleIle[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LacA_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LacA_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ldh_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ldh_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEU[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeuLeu[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYS[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LysLys[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MET[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetMet[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAD[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nox_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nox_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeptAbcTransporter_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeptAbcTransporter_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfk_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PgiB_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PgiB_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgk_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgm_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgm_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHE[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhePhe[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pi[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PiAbcTransporter_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PiAbcTransporter_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ppa_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ppa_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProPro[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prs_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prs_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyk_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PyrH_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PyrH_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosome_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaPolymerase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaPolymerase_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rnase_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rpe_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rpe_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SER[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SerSer[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THR[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThrThr[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TklB_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TklB_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrpTrp[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYR[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TyrTyr[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udk_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upp_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upp_Rna[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URA[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAL[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValVal[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdnTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenine reversible transport via proton symport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD[e] + H[e] ==&gt; AD[c] + H[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK_AMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adenylate kinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: AMP + ATP ==&gt; (2) ADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK_GTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP:AMP phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: AMP + GTP ==&gt; ADP + GDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlaAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alanine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlaAla[e] + ATP[c] + H2O[c] ==&gt; ADP[c] + AlaAla[c] + H[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP:pyrophosphate phosphoribosyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: AMP + H + PPi ==&gt; AD + PRPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArgAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arginine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArgArg[e] + ATP[c] + H2O[c] ==&gt; ADP[c] + ArgArg[c] + H[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsnAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asparagine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsnAsn[e] + ATP[c] + H2O[c] ==&gt; ADP[c] + AsnAsn[c] + H[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AspAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspartate transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AspAsp[e] + ATP[c] + H2O[c] ==&gt; ADP[c] + AspAsp[c] + H[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CmpK_CMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP:CMP phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: ATP + CMP ==&gt; ADP + CDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon dioxide transporter via diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2[e] ==&gt; CO2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CysAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cysteine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + CysCys[e] + H2O[c] ==&gt; ADP[c] + CysCys[c] + H[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CytdTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytidine reversible transport via proton symport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYTD[e] + H[e] ==&gt; CYTD[c] + H[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Ala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Ala)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: AlaAla + H2O ==&gt; (2) ALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Arg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Arg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: ArgArg + H2O ==&gt; (2) ARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Asn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Asn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: AsnAsn + H2O ==&gt; (2) ASN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Asp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: AspAsp + H2O ==&gt; (2) ASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Cys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Cys)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: CysCys + H2O ==&gt; (2) CYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Gln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Gln)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: GlnGln + H2O ==&gt; (2) GLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Glu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Glu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: GluGlu + H2O ==&gt; (2) GLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Gly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Gly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: GlyGly + H2O ==&gt; (2) GLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_His</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (His)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + HisHis ==&gt; (2) HIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Ile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Ile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + IleIle ==&gt; (2) ILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Leu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Leu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + LeuLeu ==&gt; (2) LEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Lys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Lys)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + LysLys ==&gt; (2) LYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Met)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + MetMet ==&gt; (2) MET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Phe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Phe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + PhePhe ==&gt; (2) PHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Pro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + ProPro ==&gt; (2) PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Ser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Ser)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + SerSer ==&gt; (2) SER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Thr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Thr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + ThrThr ==&gt; (2) THR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Trp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Trp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + TrpTrp ==&gt; (2) TRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Tyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Tyr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + TyrTyr ==&gt; (2) TYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptidase_Val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depeptidase (Val)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + ValVal ==&gt; (2) VAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Phospho-D-glycerate hydro-lyase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: G2P ==&gt; H2O + PEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fba_FDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Fructose-1,6-bisphosphate D-glyceraldehyde-3-phosphate-lyase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: FDP ==&gt; T3P1 + T3P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GapDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Glyceraldehyde-3-phosphate:NAD+ oxidoreductase(phosphorylating)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: NAD + Pi + T3P1 ==&gt; DPG + H + NADH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlcPtsTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose transport via phosphoenolpyruvate:pyruvate PTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLC[e] + PEP[c] ==&gt; G6P[c] + PYR[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlnAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutamine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + GlnGln[e] + H2O[c] ==&gt; ADP[c] + GlnGln[c] + H[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GluAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutamate transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + GluGlu[e] + H2O[c] ==&gt; ADP[c] + GluGlu[c] + H[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlyAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + GlyGly[e] + H2O[c] ==&gt; ADP[c] + GlyGly[c] + H[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GnTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanine transport via proton symport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN[e] + H[e] ==&gt; GN[c] + H[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Phospho-D-glycerate 2,3-phosphomutase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: G2P ==&gt; G3P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUK_GMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP:GMP phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: ATP + GMP ==&gt; ADP + GDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2OTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water transport via diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[e] ==&gt; H2O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HisAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histidine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + HisHis[e] ==&gt; ADP[c] + H[c] + HisHis[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMP:pyrophosphate phosphoribosyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: GMP + H + PPi ==&gt; GN + PRPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H[e] ==&gt; H[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IleAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoleucine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + IleIle[e] ==&gt; ADP[c] + H[c] + IleIle[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LacTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactate reversible transport via proton symport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H[c] + LAC[c] ==&gt; H[e] + LAC[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ldh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S)-Lactate:NAD+ oxidoreductase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: LAC + NAD ==&gt; H + NADH + PYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeuAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leucine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + LeuLeu[e] ==&gt; ADP[c] + H[c] + LeuLeu[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LysAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lysine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + LysLys[e] ==&gt; ADP[c] + H[c] + LysLys[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methionine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + MetMet[e] ==&gt; ADP[c] + H[c] + MetMet[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetabolismProduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (3.419038e+04) ALA + (4.089038e+04) ARG + (2.319038e+04) ASN + (2.429038e+04) ASP + (1.101856e+06) ATP + (1.164906e+06) CTP + (2.229038e+04) CYS + (2.469038e+04) GLN + (2.269038e+04) GLU + (3.119038e+04) GLY + (1.728316e+06) GTP + (1.521617e+09) H2O + (2.159038e+04) HIS + (2.929038e+04) ILE + (4.119038e+04) LEU + (2.199038e+04) LYS + (2.139038e+04) MET + (2.389038e+04) PHE + (3.439038e+04) PRO + (4.449038e+04) SER + (3.619038e+04) THR + (2.219038e+04) TRP + (2.199038e+04) TYR + (1.132896e+06) UTP + (3.379038e+04) VAL ==&gt; (1.035619e+06) AMP + Biomass + (1.098019e+06) CMP + (5.814192e+05) GDP + (1.052899e+06) GMP + (4.972350e+06) H + (4.710962e+05) Pi + (4.381069e+06) PPi + (1.066339e+06) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADH oxidase (H2O-forming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) H + (2) NADH + O2 ==&gt; (2) H2O + (2) NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen transport via diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2[e] ==&gt; O2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfk_ATP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP:D-fructose-6-phosphate 1-phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: ATP + F6P ==&gt; ADP + FDP + H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfk_GTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP:D-fructose-6-phosphate 1-phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: F6P + GTP ==&gt; FDP + GDP + H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfk_UTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP:D-fructose-6-phosphate 1-phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: F6P + UTP ==&gt; FDP + H + UDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Glucose-6-phosphate ketol-isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: G6P ==&gt; F6P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgk_ATP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP:3-phospho-D-glycerate 1-phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: ATP + G3P ==&gt; ADP + DPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgk_GTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP:3-phospho-D-glycerate 1-phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: G3P + GTP ==&gt; DPG + GDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PheAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenylalanine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + PhePhe[e] ==&gt; ADP[c] + H[c] + PhePhe[c] + Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PiAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphate transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + Pi[e] ==&gt; ADP[c] + H[c] + (2) Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ppa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrophosphate phosphohydrolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H2O + PPi ==&gt; (2) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proline transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + ProPro[e] ==&gt; ADP[c] + H[c] + Pi[c] + ProPro[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP:D-ribose-5-phosphate pyrophosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: ATP + R5P ==&gt; AMP + H + PRPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyk_ATP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP:pyruvate O2-phosphotransferase (R)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: ADP + H + PEP ==&gt; ATP + PYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyk_CTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTP:pyruvate O2-phosphotransferase (R)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: CDP + H + PEP ==&gt; CTP + PYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyk_GTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP:pyruvate O2-phosphotransferase (R)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: GDP + H + PEP ==&gt; GTP + PYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PykUDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP:pyruvate O2-phosphotransferase (R)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H + PEP + UDP ==&gt; PYR + UTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Adk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Adenylate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: Adk_Rna + (302) H2O ==&gt; (81) AMP + (75) CMP + (86) GMP + (302) H + (61) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Apt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Adenine phosphoribosyltransferase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: Apt_Rna + (302) H2O ==&gt; (62) AMP + (81) CMP + (71) GMP + (302) H + (89) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Cmk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Cytidylate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: Cmk_Rna + (302) H2O ==&gt; (78) AMP + (75) CMP + (74) GMP + (302) H + (76) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Eno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Enolase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: Eno_Rna + (302) H2O ==&gt; (89) AMP + (78) CMP + (63) GMP + (302) H + (73) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Fba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Fructose-biphosphate aldolase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: Fba_Rna + (302) H2O ==&gt; (59) AMP + (81) CMP + (83) GMP + (302) H + (80) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Glyceraldehyde-3-phosphate-dehydrogenase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: Gap_Rna + (302) H2O ==&gt; (64) AMP + (74) CMP + (78) GMP + (302) H + (87) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Gk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Guanylate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: Gk_Rna + (302) H2O ==&gt; (73) AMP + (77) CMP + (73) GMP + (302) H + (80) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Hpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Hypoxanthine-guanine phosphoribosyltransferase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Hpt_Rna ==&gt; (64) AMP + (74) CMP + (92) GMP + (302) H + (73) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_LacA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Probable ribose-5-phosphate isomerase B )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + LacA_Rna ==&gt; (83) AMP + (71) CMP + (74) GMP + (302) H + (75) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Ldh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (L-lactate dehydrogenase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Ldh_Rna ==&gt; (70) AMP + (73) CMP + (80) GMP + (302) H + (80) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Nox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Probable NADH oxidase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Nox_Rna ==&gt; (73) AMP + (75) CMP + (75) GMP + (302) H + (80) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_PeptAbcTransporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Peptide ABC transporter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + PeptAbcTransporter_Rna ==&gt; (70) AMP + (69) CMP + (78) GMP + (302) H + (86) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Pfk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (6-phosphofructokinase /Phosphohexokinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Pfk_Rna ==&gt; (72) AMP + (65) CMP + (71) GMP + (302) H + (95) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_PgiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Glucose-6-phosphate isomerase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + PgiB_Rna ==&gt; (72) AMP + (84) CMP + (87) GMP + (302) H + (60) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Pgk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Phosphoglycerate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Pgk_Rna ==&gt; (70) AMP + (83) CMP + (73) GMP + (302) H + (77) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Pgm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (2,3-bisphosphoglycerate-independent phosphoglycerate mutase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Pgm_Rna ==&gt; (68) AMP + (84) CMP + (75) GMP + (302) H + (76) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_PiAbcTransporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Phosphate ABC transporter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + PiAbcTransporter_Rna ==&gt; (67) AMP + (84) CMP + (78) GMP + (302) H + (74) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Ppa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Inorganic pyrophosphatase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Ppa_Rna ==&gt; (81) AMP + (77) CMP + (67) GMP + (302) H + (78) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Prs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Ribose-phosphate pyrophosphokinase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Prs_Rna ==&gt; (79) AMP + (74) CMP + (79) GMP + (302) H + (71) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Pts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (PTS EIIABC (glucose))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Pts_Rna ==&gt; (77) AMP + (89) CMP + (69) GMP + (302) H + (68) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Pyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Pyruvate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Pyk_Rna ==&gt; (77) AMP + (87) CMP + (75) GMP + (302) H + (64) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_PyrH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Uridylate kinase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + PyrH_Rna ==&gt; (78) AMP + (86) CMP + (59) GMP + (302) H + (80) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Ribosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Ribosome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Ribosome_Rna ==&gt; (73) AMP + (83) CMP + (68) GMP + (302) H + (79) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_RnaPolymerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (RNA polymerase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + RnaPolymerase_Rna ==&gt; (79) AMP + (68) CMP + (70) GMP + (302) H + (86) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Rnase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (RNase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Rnase_Rna ==&gt; (65) AMP + (82) CMP + (83) GMP + (302) H + (73) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Rpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Probable ribulose-phosphate 3-epimerase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Rpe_Rna ==&gt; (91) AMP + (73) CMP + (79) GMP + (302) H + (60) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Triosephosphate isomerase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Tim_Rna ==&gt; (68) AMP + (70) CMP + (78) GMP + (302) H + (87) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_TklB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Transketolase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + TklB_Rna ==&gt; (74) AMP + (87) CMP + (71) GMP + (302) H + (71) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Udk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Uridine kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Udk_Rna ==&gt; (82) AMP + (74) CMP + (77) GMP + (302) H + (70) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnaDegradation_Upp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation (Uracil phosphoribosyltransferase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (302) H2O + Upp_Rna ==&gt; (76) AMP + (92) CMP + (65) GMP + (302) H + (70) UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Ribulose-5-phosphate 3-epimerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: RL5P ==&gt; X5P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RpiA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Ribose-5-phosphate ketol-isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: R5P ==&gt; RL5P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SerAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serine transport via ABC System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + SerSer[e] ==&gt; ADP[c] + H[c] + Pi[c] + SerSer[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedoheptulose-7-phosphate:D-glyceraldehyde-3-phosphate glycerone transferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: S7P + T3P1 ==&gt; E4P + F6P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThrAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threonine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + ThrThr[e] ==&gt; ADP[c] + H[c] + Pi[c] + ThrThr[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Glyceraldehyde-3-phosphate ketol-isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: T3P1 ==&gt; T3P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tkl_F6P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transketolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: F6P + T3P1 ==&gt; E4P + X5P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tkl_S7P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedoheptulose-7-phosphate:D-glyceraldehyde-3-phosphateglycolaldehyde transferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: S7P + T3P1 ==&gt; R5P + X5P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Adk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Adenylate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (81) ATP + (75) CTP + (86) GTP + H2O + (61) UTP ==&gt; Adk_Rna + H + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Apt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Adenine phosphoribosyltransferase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (62) ATP + (81) CTP + (71) GTP + H2O + (89) UTP ==&gt; Apt_Rna + H + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Cmk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Cytidylate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (78) ATP + (75) CTP + (74) GTP + H2O + (76) UTP ==&gt; Cmk_Rna + H + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Eno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Enolase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (89) ATP + (78) CTP + (63) GTP + H2O + (73) UTP ==&gt; Eno_Rna + H + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Fba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Fructose-biphosphate aldolase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (59) ATP + (81) CTP + (83) GTP + H2O + (80) UTP ==&gt; Fba_Rna + H + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Glyceraldehyde-3-phosphate-dehydrogenase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (64) ATP + (74) CTP + (78) GTP + H2O + (87) UTP ==&gt; Gap_Rna + H + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Gk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Guanylate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (73) ATP + (77) CTP + (73) GTP + H2O + (80) UTP ==&gt; Gk_Rna + H + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Hpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Hypoxanthine-guanine phosphoribosyltransferase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (64) ATP + (74) CTP + (92) GTP + H2O + (73) UTP ==&gt; H + Hpt_Rna + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_LacA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Probable ribose-5-phosphate isomerase B )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (83) ATP + (71) CTP + (74) GTP + H2O + (75) UTP ==&gt; H + LacA_Rna + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Ldh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (L-lactate dehydrogenase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (70) ATP + (73) CTP + (80) GTP + H2O + (80) UTP ==&gt; H + Ldh_Rna + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Nox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Probable NADH oxidase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (73) ATP + (75) CTP + (75) GTP + H2O + (80) UTP ==&gt; H + Nox_Rna + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_PeptAbcTransporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Peptide ABC transporter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (70) ATP + (69) CTP + (78) GTP + H2O + (86) UTP ==&gt; H + PeptAbcTransporter_Rna + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Pfk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (6-phosphofructokinase /Phosphohexokinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (72) ATP + (65) CTP + (71) GTP + H2O + (95) UTP ==&gt; H + Pfk_Rna + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_PgiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Glucose-6-phosphate isomerase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (72) ATP + (84) CTP + (87) GTP + H2O + (60) UTP ==&gt; H + PgiB_Rna + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Pgk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Phosphoglycerate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (70) ATP + (83) CTP + (73) GTP + H2O + (77) UTP ==&gt; H + Pgk_Rna + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Pgm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (2,3-bisphosphoglycerate-independent phosphoglycerate mutase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (68) ATP + (84) CTP + (75) GTP + H2O + (76) UTP ==&gt; H + Pgm_Rna + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_PiAbcTransporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Phosphate ABC transporter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (67) ATP + (84) CTP + (78) GTP + H2O + (74) UTP ==&gt; H + PiAbcTransporter_Rna + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Ppa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Inorganic pyrophosphatase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (81) ATP + (77) CTP + (67) GTP + H2O + (78) UTP ==&gt; H + Ppa_Rna + (303) PPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Prs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Ribose-phosphate pyrophosphokinase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (79) ATP + (74) CTP + (79) GTP + H2O + (71) UTP ==&gt; H + (303) PPi + Prs_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Pts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (PTS EIIABC (glucose))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (77) ATP + (89) CTP + (69) GTP + H2O + (68) UTP ==&gt; H + (303) PPi + Pts_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Pyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Pyruvate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (77) ATP + (87) CTP + (75) GTP + H2O + (64) UTP ==&gt; H + (303) PPi + Pyk_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_PyrH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Uridylate kinase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (78) ATP + (86) CTP + (59) GTP + H2O + (80) UTP ==&gt; H + (303) PPi + PyrH_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Ribosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Ribosome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (73) ATP + (83) CTP + (68) GTP + H2O + (79) UTP ==&gt; H + (303) PPi + Ribosome_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_RnaPolymerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (RNA polymerase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (79) ATP + (68) CTP + (70) GTP + H2O + (86) UTP ==&gt; H + (303) PPi + RnaPolymerase_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Rnase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (RNase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (65) ATP + (82) CTP + (83) GTP + H2O + (73) UTP ==&gt; H + (303) PPi + Rnase_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Rpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Probable ribulose-phosphate 3-epimerase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (91) ATP + (73) CTP + (79) GTP + H2O + (60) UTP ==&gt; H + (303) PPi + Rpe_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Triosephosphate isomerase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (68) ATP + (70) CTP + (78) GTP + H2O + (87) UTP ==&gt; H + (303) PPi + Tim_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_TklB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Transketolase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (74) ATP + (87) CTP + (71) GTP + H2O + (71) UTP ==&gt; H + (303) PPi + TklB_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Udk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Uridine kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (82) ATP + (74) CTP + (77) GTP + H2O + (70) UTP ==&gt; H + (303) PPi + Udk_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription_Upp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription (Uracil phosphoribosyltransferase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (76) ATP + (92) CTP + (65) GTP + H2O + (70) UTP ==&gt; H + (303) PPi + Upp_Rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Adk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Adenylate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (4) ALA + (11) ARG + ASN + (5) ASP + (3) CYS + (3) GLN + (5) GLU + (5) GLY + (203) GTP + (104) H2O + (3) HIS + (2) ILE + (10) LEU + (3) LYS + (3) MET + PHE + (7) PRO + (9) SER + (14) THR + TRP + (2) TYR + (8) VAL ==&gt; Adk_Protein + (200) GDP + (200) H + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Apt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Adenine phosphoribosyltransferase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (6) ALA + (13) ARG + (4) ASN + (4) ASP + (7) CYS + GLN + (2) GLU + (4) GLY + (203) GTP + (104) H2O + (2) HIS + (4) ILE + (10) LEU + LYS + (2) MET + (7) PHE + (2) PRO + (11) SER + (9) THR + (2) TRP + (4) TYR + (5) VAL ==&gt; Apt_Protein + (200) GDP + (200) H + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Cmk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Cytidylate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (5) ALA + (7) ARG + (6) ASN + (3) ASP + (7) CYS + (4) GLN + (3) GLU + (7) GLY + (203) GTP + (104) H2O + (3) HIS + (4) ILE + (12) LEU + (2) LYS + (2) MET + PHE + (7) PRO + (7) SER + (7) THR + (4) TRP + (4) TYR + (5) VAL ==&gt; Cmk_Protein + (200) GDP + (200) H + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Eno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Enolase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (7) ALA + (8) ARG + (5) ASN + ASP + (4) CYS + (5) GLN + (5) GLU + (4) GLY + (203) GTP + (104) H2O + (3) HIS + (5) ILE + (8) LEU + (4) LYS + (3) MET + (3) PHE + (8) PRO + (9) SER + (8) THR + (3) TRP + (4) TYR + (3) VAL ==&gt; Eno_Protein + (200) GDP + (200) H + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Fba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Fructose-biphosphate aldolase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (4) ALA + (13) ARG + ASN + (3) ASP + (4) CYS + (5) GLN + (6) GLY + (203) GTP + (104) H2O + HIS + (4) ILE + (10) LEU + (2) LYS + MET + (5) PHE + (9) PRO + (11) SER + (6) THR + (2) TRP + (2) TYR + (11) VAL ==&gt; Fba_Protein + (200) GDP + (200) H + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Glyceraldehyde-3-phosphate-dehydrogenase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (7) ALA + (9) ARG + ASN + (3) ASP + (4) CYS + (5) GLN + GLU + (6) GLY + (203) GTP + (104) H2O + (6) HIS + (6) ILE + (10) LEU + (2) LYS + (4) MET + (3) PHE + (4) PRO + (7) SER + (9) THR + (4) TRP + (4) TYR + (5) VAL ==&gt; Gap_Protein + (200) GDP + (200) H + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Gk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Guanylate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (4) ALA + (2) ARG + (3) ASN + (3) ASP + (7) CYS + (5) GLN + (3) GLU + (8) GLY + (203) GTP + (104) H2O + HIS + (3) ILE + (9) LEU + (3) LYS + (2) MET + (3) PHE + (11) PRO + (13) SER + (7) THR + (4) TRP + TYR + (8) VAL ==&gt; (200) GDP + Gk_Protein + (200) H + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Hpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Hypoxanthine-guanine phosphoribosyltransferase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (11) ALA + (9) ARG + ASN + (3) ASP + (3) CYS + (3) GLN + (6) GLU + (6) GLY + (203) GTP + (104) H2O + (2) HIS + (3) ILE + (8) LEU + (2) LYS + (7) MET + (3) PHE + (9) PRO + (9) SER + (3) THR + (2) TRP + (5) TYR + (5) VAL ==&gt; (200) GDP + (200) H + Hpt_Protein + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_LacA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Probable ribose-5-phosphate isomerase B )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (5) ALA + (4) ARG + (6) ASN + (5) ASP + CYS + (2) GLN + (4) GLU + (9) GLY + (203) GTP + (104) H2O + (4) HIS + (8) ILE + (10) LEU + (3) LYS + (2) MET + (4) PHE + (5) PRO + (7) SER + (9) THR + (2) TRP + TYR + (9) VAL ==&gt; (200) GDP + (200) H + LacA_Protein + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Ldh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (L-lactate dehydrogenase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (3) ALA + (7) ARG + (2) ASN + (5) ASP + (2) CYS + (4) GLN + (4) GLU + (8) GLY + (203) GTP + (104) H2O + HIS + (5) ILE + (11) LEU + (2) LYS + (3) MET + (2) PHE + (9) PRO + (8) SER + (8) THR + (3) TRP + (4) TYR + (9) VAL ==&gt; (200) GDP + (200) H + Ldh_Protein + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Nox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Probable NADH oxidase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (11) ALA + (7) ARG + ASN + (7) ASP + (2) GLN + (5) GLU + (8) GLY + (203) GTP + (104) H2O + HIS + (7) ILE + (10) LEU + LYS + (3) MET + (6) PHE + (4) PRO + (10) SER + (6) THR + (4) TRP + (3) TYR + (4) VAL ==&gt; (200) GDP + (200) H + Nox_Protein + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_PeptAbcTransporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Peptide ABC transporter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (3) ALA + (8) ARG + (6) ASN + CYS + (8) GLN + (3) GLU + (11) GLY + (203) GTP + (104) H2O + (3) HIS + (3) ILE + (10) LEU + LYS + MET + (5) PHE + (4) PRO + (10) SER + (4) THR + (3) TRP + (4) TYR + (12) VAL ==&gt; (200) GDP + (200) H + PeptAbcTransporter_Protein + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Pfk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (6-phosphofructokinase /Phosphohexokinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (4) ALA + (10) ARG + (2) ASN + (4) ASP + (2) CYS + (6) GLN + (2) GLU + (7) GLY + (203) GTP + (104) H2O + (2) HIS + (7) ILE + (9) LEU + (2) LYS + MET + (5) PHE + PRO + (16) SER + (7) THR + (4) TRP + (3) TYR + (6) VAL ==&gt; (200) GDP + (200) H + Pfk_Protein + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_PgiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Glucose-6-phosphate isomerase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (10) ALA + (12) ARG + (3) ASN + (3) ASP + (2) CYS + (5) GLN + (3) GLU + (8) GLY + (203) GTP + (104) H2O + (3) HIS + (6) ILE + (6) LEU + (2) LYS + (2) MET + (2) PHE + (7) PRO + (9) SER + (7) THR + (2) TRP + (4) TYR + (4) VAL ==&gt; (200) GDP + (200) H + PgiB_Protein + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Pgk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Phosphoglycerate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (6) ALA + (10) ARG + (5) ASN + (3) ASP + (3) CYS + (3) GLN + (7) GLY + (203) GTP + (104) H2O + (4) HIS + (5) ILE + (9) LEU + LYS + MET + (3) PHE + (8) PRO + (13) SER + (8) THR + (2) TRP + (9) VAL ==&gt; (200) GDP + (200) H + Pgk_Protein + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Pgm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (2,3-bisphosphoglycerate-independent phosphoglycerate mutase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (6) ALA + (9) ARG + (6) ASN + (2) ASP + CYS + (2) GLN + (4) GLU + (5) GLY + (203) GTP + (104) H2O + (4) HIS + (4) ILE + (9) LEU + (2) LYS + (2) MET + (6) PHE + (9) PRO + (10) SER + (6) THR + (2) TRP + (4) TYR + (7) VAL ==&gt; (200) GDP + (200) H + Pgm_Protein + (200) Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_PiAbcTransporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Phosphate ABC transporter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (18) ALA + (8) ARG + ASN + (5) ASP + (2) CYS + (3) GLN + (3) GLU + (4) GLY + (203) GTP + (104) H2O + (3) HIS + (6) ILE + (7) LEU + (3) LYS + (2) MET + (2) PHE + (4) PRO + (13) SER + (5) THR + (2) TRP + (4) TYR + (5) VAL ==&gt; (200) GDP + (200) H + (200) Pi + PiAbcTransporter_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Ppa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Inorganic pyrophosphatase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (4) ALA + (9) ARG + (3) ASN + (2) ASP + CYS + (7) GLN + (3) GLU + (3) GLY + (203) GTP + (104) H2O + (2) HIS + (6) ILE + (9) LEU + (5) LYS + (3) MET + (4) PHE + (7) PRO + (15) SER + (6) THR + (5) TRP + (2) TYR + (4) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Ppa_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Prs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Ribose-phosphate pyrophosphokinase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (10) ALA + (11) ARG + (5) ASN + (4) CYS + (3) GLN + (2) GLU + (5) GLY + (203) GTP + (104) H2O + (2) HIS + (7) ILE + (11) LEU + (2) LYS + (3) MET + (2) PHE + (8) PRO + (14) SER + THR + (3) TRP + (2) TYR + (5) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Prs_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Pts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (PTS EIIABC (glucose))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (10) ALA + (8) ARG + (4) ASN + (4) ASP + (3) CYS + (5) GLN + (4) GLU + (6) GLY + (203) GTP + (104) H2O + (5) HIS + (4) ILE + (10) LEU + LYS + (2) MET + (4) PHE + (5) PRO + (8) SER + (9) THR + (3) TYR + (5) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Pts_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Pyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Pyruvate kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (9) ALA + (8) ARG + (2) ASN + (2) ASP + (2) CYS + (2) GLN + (2) GLU + (3) GLY + (203) GTP + (104) H2O + (2) HIS + (4) ILE + (9) LEU + (9) LYS + (3) MET + (4) PHE + (9) PRO + (6) SER + (9) THR + (4) TYR + (11) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Pyk_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_PyrH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Uridylate kinase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (5) ALA + (11) ARG + (3) ASN + (3) ASP + (2) CYS + GLN + (3) GLU + (3) GLY + (203) GTP + (104) H2O + (2) HIS + (9) ILE + (10) LEU + (3) LYS + (2) MET + (3) PHE + (8) PRO + (14) SER + (9) THR + TRP + (2) TYR + (6) VAL ==&gt; (200) GDP + (200) H + (200) Pi + PyrH_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Ribosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Ribosome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (7) ALA + (10) ARG + (4) ASN + (3) ASP + (3) CYS + (3) GLN + GLU + (6) GLY + (203) GTP + (104) H2O + HIS + (8) ILE + (9) LEU + (3) LYS + (2) MET + (6) PHE + (10) PRO + (7) SER + (9) THR + (3) TRP + (5) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Ribosome_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_RnaPolymerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (RNA polymerase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) ALA + (11) ARG + (2) ASN + (4) ASP + (3) CYS + GLN + (4) GLU + GLY + (203) GTP + (104) H2O + (4) HIS + (7) ILE + (8) LEU + (4) LYS + (3) MET + (2) PHE + (9) PRO + (4) SER + (6) THR + (3) TRP + (7) TYR + (15) VAL ==&gt; (200) GDP + (200) H + (200) Pi + RnaPolymerase_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Rnase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (RNase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (10) ALA + (11) ARG + (2) ASN + (4) ASP + (2) CYS + (3) GLN + (6) GLU + (3) GLY + (203) GTP + (104) H2O + (3) ILE + (9) LEU + (4) MET + (2) PHE + (9) PRO + (10) SER + (8) THR + (7) TRP + (7) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Rnase_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Rpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Probable ribulose-phosphate 3-epimerase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (5) ALA + (12) ARG + (5) ASN + (5) ASP + CYS + (5) GLN + (2) GLU + (3) GLY + (203) GTP + (104) H2O + (2) HIS + (4) ILE + (8) LEU + (4) LYS + (3) MET + PHE + (7) PRO + (9) SER + (13) THR + (5) TRP + (6) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Rpe_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Triosephosphate isomerase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (5) ALA + (11) ARG + ASN + (3) ASP + (6) CYS + (5) GLN + (3) GLU + (6) GLY + (203) GTP + (104) H2O + (2) HIS + (6) ILE + (10) LEU + (2) MET + (4) PHE + (3) PRO + (10) SER + (9) THR + (5) TRP + TYR + (8) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Tim_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_TklB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Transketolase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (9) ALA + (9) ARG + (4) ASN + (6) ASP + GLN + (2) GLU + (7) GLY + (203) GTP + (104) H2O + (3) HIS + (3) ILE + (9) LEU + (4) LYS + MET + (2) PHE + (8) PRO + (14) SER + (9) THR + (3) TRP + (2) TYR + (4) VAL ==&gt; (200) GDP + (200) H + (200) Pi + TklB_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Udk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Uridine kinase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (9) ALA + (5) ARG + (2) ASN + (5) ASP + (3) CYS + (5) GLN + GLU + (10) GLY + (203) GTP + (104) H2O + (3) HIS + (8) ILE + (6) LEU + (6) LYS + (5) MET + (3) PHE + (3) PRO + (9) SER + (7) THR + TRP + (3) TYR + (6) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Udk_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation_Upp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation (Uracil phosphoribosyltransferase )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (5) ALA + (8) ARG + (3) ASN + (5) ASP + (2) CYS + (2) GLN + (3) GLU + (5) GLY + (203) GTP + (104) H2O + (4) HIS + (4) ILE + (8) LEU + (5) LYS + (2) MET + (3) PHE + (12) PRO + (15) SER + (6) THR + (2) TRP + (3) TYR + (3) VAL ==&gt; (200) GDP + (200) H + (200) Pi + Upp_Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrpAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tryptophan transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + TrpTrp[e] ==&gt; ADP[c] + H[c] + Pi[c] + TrpTrp[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TyrAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyrosine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + TyrTyr[e] ==&gt; ADP[c] + H[c] + Pi[c] + TyrTyr[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uck_CYTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP:cytidine 5'-phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: ATP + CYTD ==&gt; ADP + CMP + H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uck_URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP:uridine 5'-phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: ATP + URI ==&gt; ADP + H + UMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UmpK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP:UMP phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: ATP + UMP ==&gt; ADP + UDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMP:pyrophosphate phosphoribosyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: H + PPi + UMP ==&gt; PRPP + URA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UraTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uracil reversible transport via proton symport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H[e] + URA[e] ==&gt; H[c] + URA[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValAbcTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valine transport via ABC system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + H2O[c] + ValVal[e] ==&gt; ADP[c] + H[c] + Pi[c] + ValVal[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Adk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 1247 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Cmk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 250 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Eno_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 180 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Fba_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 1820 1/min [Ref_0008], 16.76 1/s [Ref_0009].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0008, Ref_0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Gap_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 0.12 1/s [Ref_0007], 112 1/s [Ref_0010], 70 1/s [Ref_0011], 305 U/mg [Ref_0012].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0007, Ref_0010, Ref_0011, Ref_0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Pgm_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 220 1/s [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Gk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: Fit to 0.273 1/s, observed 105 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Hpt_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 10.48 1/s [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Ldh_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 220 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Nox_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 21667.0 1/min [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Pfk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 167 1/s [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 30.6 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 12 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * PgiB_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 1511 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Pgk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 1480 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 340 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Ppa_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 3550 1/s [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Pyk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 160 1/s [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 47 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 200 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Adk_Rna[c] / (Adk_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinetics determined by RNA half liife.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Apt_Rna[c] / (Apt_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Cmk_Rna[c] / (Cmk_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Eno_Rna[c] / (Eno_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Fba_Rna[c] / (Fba_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Gap_Rna[c] / (Gap_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Gk_Rna[c] / (Gk_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Hpt_Rna[c] / (Hpt_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * LacA_Rna[c] / (LacA_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Ldh_Rna[c] / (Ldh_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Nox_Rna[c] / (Nox_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * PeptAbcTransporter_Rna[c] / (PeptAbcTransporter_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Pfk_Rna[c] / (Pfk_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * PgiB_Rna[c] / (PgiB_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Pgk_Rna[c] / (Pgk_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Pgm_Rna[c] / (Pgm_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * PiAbcTransporter_Rna[c] / (PiAbcTransporter_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Ppa_Rna[c] / (Ppa_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Prs_Rna[c] / (Prs_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Pts_Rna[c] / (Pts_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Pyk_Rna[c] / (Pyk_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * PyrH_Rna[c] / (PyrH_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Ribosome_Rna[c] / (Ribosome_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * RnaPolymerase_Rna[c] / (RnaPolymerase_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Rnase_Rna[c] / (Rnase_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Rpe_Rna[c] / (Rpe_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Tim_Rna[c] / (Tim_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * TklB_Rna[c] / (TklB_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Udk_Rna[c] / (Udk_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Upp_Rna[c] / (Upp_Rna[c] + k_m) * Rnase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Rpe_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 2 1/s [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * LacA_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 69 1/s [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ATP[c], CTP[c], GTP[c], UTP[c]) / (k_m + min(ATP[c], CTP[c], GTP[c], UTP[c])) * RnaPolymerase_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinetics constrained by cell theory (mass doubling).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Adk_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Apt_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Cmk_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Eno_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Fba_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Gap_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Gk_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Hpt_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * LacA_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Ldh_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Nox_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PeptAbcTransporter_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pfk_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PgiB_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pgk_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pgm_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PiAbcTransporter_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Ppa_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Prs_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pts_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pyk_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PyrH_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Ribosome_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * RnaPolymerase_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Rnase_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Rpe_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Tim_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * TklB_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Udk_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (k_m + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Upp_Rna[c] * Ribosome_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * Udk_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 6.5 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 1.58 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * PyrH_Protein[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat: 52 U/mg [Ref_0007].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbonExchangeRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon-containing metabolite exchange rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmol/gDCW/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange rate upper bound for carbon-containing metabolites (mmol/gDCW/h). Maranas et al. used 5 mmol/gDCW/h for all carbon-containing metabolites [Ref_0004]. Feist et al. used 11.2 mmol/gDCW/h for glucose [Ref_0005].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0004, Ref_0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellCycleLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell cycle length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fractionDryWeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dimensionless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonCarbonExchangeRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-carbon-containing metabolite exchange rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange rate upper bound for non-carbon-containing metabolites (mmol/gDCW/h). Maranas et al. used 20 mmol/gDCW/h for all carbon-containing metabolites [Ref_0004]. Feist et al. used 18.5 mmol/gDCW/h for oxygen [Ref_0005].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaHalfLife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA half life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhao et al., 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amyloid-beta peptide degradation in cell cultures by mycoplasma contaminants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhao et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMC Research Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wodke et al., 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyMpn: a database for the systems biology model organism Mycoplasma pneumoniae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wodke et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nucleic Acids Res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gku1105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundararaj et al., 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CyberCell Database (CCDB): a comprehensive, self‐updating, relational database to coordinate and facilitate in silico modeling of Escherichia coli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundararaj et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppl 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D293-D295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suthers et al., 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A genome-scale metabolic reconstruction of Mycoplasma genitalium, i PS189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suthers et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLoS Comput Biol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1000285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feist et al., 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A genome‐scale metabolic reconstruction for Escherichia coli K‐12 MG1655 that accounts for 1260 ORFs and thermodynamic information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feist et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mol Syst Biol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bray, 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell movements: from molecules to motility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garland Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wittig et al., 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABIO-RK: integration and curation of reaction kinetics data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wittig et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data integration in the life sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springer Berlin, Heidelberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berry and Marshall, 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identification of zinc‐binding ligands in the Class II fructose‐1, 6‐bisphosphate aldolase of Escherichia coli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berry and Marshall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEBS Lett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iturrate et al., 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparation and Characterization of a Bifunctional Aldolase/Kinase Enzyme: A More Efficient Biocatalyst for C C Bond Formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iturrate et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chem-A Eur J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4018-4030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fillinger et al., 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two glyceraldehyde-3-phosphate dehydrogenases with opposite physiological roles in a nonphotosynthetic bacterium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fillinger et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Biol Chem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14031-14037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even et al., 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyruvate metabolism in Lactococcus lactis is dependent upon glyceraldehyde-3-phosphate dehydrogenase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolic Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198-205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crow and Wittenberger, 1979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separation and properties of NAD+-and NADP+-dependent glyceraldehyde-3-phosphate dehydrogenases from Streptococcus mutans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crow and Wittenberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1134-1142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karr et al., 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A whole-cell computational model predicts phenotype from genotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karr et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yus et al., 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact of genome reduction on bacterial metabolism and its regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yus et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1263-1268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPLO Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beef heart infusion – A1502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donor horse serum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref_0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pork meat peptone - A1728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wikipedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/chem.200903096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1006/mben.1999.0120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1007/11799511_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/0014-5793(93)81317-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cell.2012.05.044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/msb4100155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1074/jbc.275.19.14031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gkh108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gku1105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.1177263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/1756-0500-1-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pcbi.1000285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISBN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">815332823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://cellgro.com/media/docs/files/items/35030CV_1M2126.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://en.wikipedia.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bd.com/europe/regulatory/Assets/IFU/Difco_BBL/211456.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.solabia.com/solabia/content/NT0000443A.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.solabia.com/solabia/content/NT0000444E.pdf</t>
   </si>
 </sst>
 </file>
@@ -4037,7 +4044,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="6">
@@ -4249,14 +4256,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4269,13 +4268,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.3805668016194"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -4339,7 +4338,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q3" activeCellId="0" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4353,7 +4352,7 @@
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.78542510121457"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -4974,13 +4973,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="Q43" activeCellId="0" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5244,7 +5243,6 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:J20"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5252,7 +5250,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5263,18 +5260,18 @@
   </sheetPr>
   <dimension ref="A1:B65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5352,15 +5349,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5465,17 +5462,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C48" activeCellId="0" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.92712550607287"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.82186234817814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5564,13 +5561,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
@@ -8434,19 +8431,19 @@
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="F40" activeCellId="0" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>386</v>
       </c>
@@ -8460,7 +8457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>388</v>
       </c>
@@ -8474,7 +8471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>389</v>
       </c>
@@ -8482,7 +8479,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>390</v>
       </c>
@@ -8490,7 +8487,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>391</v>
       </c>
@@ -8498,7 +8495,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>392</v>
       </c>
@@ -8512,7 +8509,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>393</v>
       </c>
@@ -8520,7 +8517,7 @@
         <v>0.001</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>394</v>
       </c>
@@ -8528,7 +8525,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>395</v>
       </c>
@@ -8536,7 +8533,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>396</v>
       </c>
@@ -8544,7 +8541,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>397</v>
       </c>
@@ -8558,7 +8555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>398</v>
       </c>
@@ -8566,7 +8563,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>399</v>
       </c>
@@ -8577,7 +8574,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>400</v>
       </c>
@@ -8585,7 +8582,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>401</v>
       </c>
@@ -8599,7 +8596,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>402</v>
       </c>
@@ -8607,7 +8604,7 @@
         <v>0.001</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>403</v>
       </c>
@@ -8615,7 +8612,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>404</v>
       </c>
@@ -8623,7 +8620,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>405</v>
       </c>
@@ -8631,7 +8628,7 @@
         <v>0.001</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>406</v>
       </c>
@@ -8645,7 +8642,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>407</v>
       </c>
@@ -8653,7 +8650,7 @@
         <v>0.001</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>408</v>
       </c>
@@ -8661,7 +8658,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>409</v>
       </c>
@@ -8675,7 +8672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>410</v>
       </c>
@@ -8686,7 +8683,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>411</v>
       </c>
@@ -8694,7 +8691,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>412</v>
       </c>
@@ -8702,7 +8699,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>413</v>
       </c>
@@ -8710,7 +8707,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>414</v>
       </c>
@@ -8718,7 +8715,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>415</v>
       </c>
@@ -8726,7 +8723,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>416</v>
       </c>
@@ -8734,7 +8731,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>417</v>
       </c>
@@ -8742,7 +8739,7 @@
         <v>0.001</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>418</v>
       </c>
@@ -8750,7 +8747,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>419</v>
       </c>
@@ -8758,7 +8755,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>420</v>
       </c>
@@ -8772,7 +8769,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>421</v>
       </c>
@@ -8780,7 +8777,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>422</v>
       </c>
@@ -8794,7 +8791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>423</v>
       </c>
@@ -8802,7 +8799,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>424</v>
       </c>
@@ -8816,7 +8813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>425</v>
       </c>
@@ -8824,7 +8821,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>426</v>
       </c>
@@ -8838,7 +8835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>427</v>
       </c>
@@ -8846,7 +8843,7 @@
         <v>0.001</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>428</v>
       </c>
@@ -8860,7 +8857,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>429</v>
       </c>
@@ -8868,7 +8865,7 @@
         <v>0.001</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>430</v>
       </c>
@@ -8876,7 +8873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
         <v>431</v>
       </c>
@@ -8890,7 +8887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>432</v>
       </c>
@@ -8898,7 +8895,7 @@
         <v>1.122E-008</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>433</v>
       </c>
@@ -8909,7 +8906,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>434</v>
       </c>
@@ -8917,7 +8914,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>435</v>
       </c>
@@ -8931,7 +8928,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>436</v>
       </c>
@@ -8939,7 +8936,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>437</v>
       </c>
@@ -8947,7 +8944,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>438</v>
       </c>
@@ -8955,7 +8952,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>439</v>
       </c>
@@ -8969,7 +8966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>440</v>
       </c>
@@ -8977,7 +8974,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>441</v>
       </c>
@@ -8985,7 +8982,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>442</v>
       </c>
@@ -8993,7 +8990,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>443</v>
       </c>
@@ -9001,7 +8998,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>444</v>
       </c>
@@ -9009,7 +9006,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
         <v>445</v>
       </c>
@@ -9023,7 +9020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>446</v>
       </c>
@@ -9031,7 +9028,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
         <v>447</v>
       </c>
@@ -9045,7 +9042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>448</v>
       </c>
@@ -9053,7 +9050,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>449</v>
       </c>
@@ -9067,7 +9064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>450</v>
       </c>
@@ -9081,7 +9078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>451</v>
       </c>
@@ -9089,7 +9086,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>452</v>
       </c>
@@ -9097,7 +9094,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
         <v>453</v>
       </c>
@@ -9111,7 +9108,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>454</v>
       </c>
@@ -9119,7 +9116,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>455</v>
       </c>
@@ -9127,7 +9124,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>456</v>
       </c>
@@ -9135,7 +9132,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>457</v>
       </c>
@@ -9143,7 +9140,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>458</v>
       </c>
@@ -9151,7 +9148,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>459</v>
       </c>
@@ -9159,7 +9156,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>460</v>
       </c>
@@ -9167,7 +9164,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>461</v>
       </c>
@@ -9175,7 +9172,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>462</v>
       </c>
@@ -9183,7 +9180,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>463</v>
       </c>
@@ -9191,7 +9188,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>464</v>
       </c>
@@ -9199,7 +9196,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
         <v>465</v>
       </c>
@@ -9213,7 +9210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>466</v>
       </c>
@@ -9221,7 +9218,7 @@
         <v>0.005</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
         <v>467</v>
       </c>
@@ -9232,7 +9229,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>468</v>
       </c>
@@ -9240,7 +9237,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>469</v>
       </c>
@@ -9248,7 +9245,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>470</v>
       </c>
@@ -9256,7 +9253,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>471</v>
       </c>
@@ -9264,7 +9261,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>472</v>
       </c>
@@ -9272,7 +9269,7 @@
         <v>0.001</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>473</v>
       </c>
@@ -9280,7 +9277,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>474</v>
       </c>
@@ -9294,7 +9291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>475</v>
       </c>
@@ -9302,7 +9299,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>476</v>
       </c>
@@ -9310,7 +9307,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>477</v>
       </c>
@@ -9318,7 +9315,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>478</v>
       </c>
@@ -9326,7 +9323,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>479</v>
       </c>
@@ -9334,7 +9331,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>480</v>
       </c>
@@ -9342,7 +9339,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>481</v>
       </c>
@@ -9350,7 +9347,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>482</v>
       </c>
@@ -9358,7 +9355,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>483</v>
       </c>
@@ -9366,7 +9363,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>484</v>
       </c>
@@ -9374,7 +9371,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>485</v>
       </c>
@@ -9382,7 +9379,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>486</v>
       </c>
@@ -9390,7 +9387,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>487</v>
       </c>
@@ -9398,7 +9395,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>488</v>
       </c>
@@ -9406,7 +9403,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>489</v>
       </c>
@@ -9414,7 +9411,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>490</v>
       </c>
@@ -9422,7 +9419,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>491</v>
       </c>
@@ -9430,7 +9427,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
         <v>492</v>
       </c>
@@ -9444,7 +9441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>493</v>
       </c>
@@ -9452,7 +9449,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
         <v>494</v>
       </c>
@@ -9466,7 +9463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>495</v>
       </c>
@@ -9474,7 +9471,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>496</v>
       </c>
@@ -9482,7 +9479,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>497</v>
       </c>
@@ -9490,7 +9487,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>498</v>
       </c>
@@ -9498,7 +9495,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>499</v>
       </c>
@@ -9506,7 +9503,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
         <v>500</v>
       </c>
@@ -9520,7 +9517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>501</v>
       </c>
@@ -9528,7 +9525,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
         <v>502</v>
       </c>
@@ -9542,7 +9539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>503</v>
       </c>
@@ -9550,7 +9547,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>504</v>
       </c>
@@ -9558,7 +9555,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>505</v>
       </c>
@@ -9566,7 +9563,7 @@
         <v>0.001</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>506</v>
       </c>
@@ -9574,7 +9571,7 @@
         <v>3.62571589760398E-006</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>507</v>
       </c>
@@ -9582,7 +9579,7 @@
         <v>1.81285794880199E-007</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
         <v>508</v>
       </c>
@@ -9596,7 +9593,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>509</v>
       </c>
@@ -9604,7 +9601,7 @@
         <v>0.001</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
         <v>510</v>
       </c>
@@ -9618,7 +9615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>511</v>
       </c>
@@ -9626,7 +9623,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
         <v>512</v>
       </c>
@@ -9660,19 +9657,19 @@
   </sheetPr>
   <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A149" activeCellId="0" sqref="A149"/>
-      <selection pane="bottomRight" activeCell="D164" activeCellId="0" sqref="D164"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.914979757085"/>
-    <col collapsed="false" hidden="true" max="7" min="5" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -12695,7 +12692,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G177"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12703,7 +12699,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12719,7 +12714,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15668,7 +15663,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3260" windowWidth="27540" windowHeight="15540" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2460" windowWidth="27540" windowHeight="15540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Parameters!$A$1:$H$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rate laws'!$A$1:$I$168</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Reactions!$A$1:$G$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Reactions!$A$1:$H$177</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">References!$A$1:$R$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$145</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$G$5</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="1326">
   <si>
     <t>Id</t>
   </si>
@@ -4025,13 +4025,16 @@
   </si>
   <si>
     <t>Max flux</t>
+  </si>
+  <si>
+    <t>Objective proportion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4046,8 +4049,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4057,6 +4067,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -4069,10 +4085,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4080,9 +4097,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -10746,13 +10767,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10760,7 +10781,7 @@
     <col min="4" max="4" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10776,14 +10797,17 @@
       <c r="E1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>517</v>
       </c>
@@ -10799,10 +10823,10 @@
       <c r="E2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>520</v>
       </c>
@@ -10818,10 +10842,10 @@
       <c r="E3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>523</v>
       </c>
@@ -10837,10 +10861,10 @@
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>526</v>
       </c>
@@ -10856,10 +10880,10 @@
       <c r="E5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>529</v>
       </c>
@@ -10875,10 +10899,10 @@
       <c r="E6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>532</v>
       </c>
@@ -10894,10 +10918,10 @@
       <c r="E7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>535</v>
       </c>
@@ -10913,10 +10937,10 @@
       <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>538</v>
       </c>
@@ -10932,10 +10956,10 @@
       <c r="E9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>541</v>
       </c>
@@ -10951,10 +10975,10 @@
       <c r="E10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>544</v>
       </c>
@@ -10970,10 +10994,10 @@
       <c r="E11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>547</v>
       </c>
@@ -10989,10 +11013,10 @@
       <c r="E12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>550</v>
       </c>
@@ -11008,10 +11032,10 @@
       <c r="E13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>553</v>
       </c>
@@ -11027,10 +11051,10 @@
       <c r="E14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>556</v>
       </c>
@@ -11046,10 +11070,10 @@
       <c r="E15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>559</v>
       </c>
@@ -11065,10 +11089,10 @@
       <c r="E16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>562</v>
       </c>
@@ -11084,10 +11108,10 @@
       <c r="E17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>565</v>
       </c>
@@ -11103,10 +11127,10 @@
       <c r="E18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>568</v>
       </c>
@@ -11122,10 +11146,10 @@
       <c r="E19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>571</v>
       </c>
@@ -11141,10 +11165,10 @@
       <c r="E20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>574</v>
       </c>
@@ -11160,10 +11184,10 @@
       <c r="E21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>577</v>
       </c>
@@ -11179,10 +11203,10 @@
       <c r="E22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>580</v>
       </c>
@@ -11198,10 +11222,10 @@
       <c r="E23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>583</v>
       </c>
@@ -11217,10 +11241,10 @@
       <c r="E24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>586</v>
       </c>
@@ -11236,10 +11260,10 @@
       <c r="E25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>589</v>
       </c>
@@ -11255,10 +11279,10 @@
       <c r="E26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>592</v>
       </c>
@@ -11274,10 +11298,10 @@
       <c r="E27" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>595</v>
       </c>
@@ -11293,10 +11317,10 @@
       <c r="E28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>598</v>
       </c>
@@ -11312,10 +11336,10 @@
       <c r="E29" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>601</v>
       </c>
@@ -11331,10 +11355,10 @@
       <c r="E30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>604</v>
       </c>
@@ -11350,10 +11374,10 @@
       <c r="E31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>607</v>
       </c>
@@ -11369,10 +11393,10 @@
       <c r="E32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>610</v>
       </c>
@@ -11388,10 +11412,10 @@
       <c r="E33" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>613</v>
       </c>
@@ -11407,10 +11431,10 @@
       <c r="E34" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>616</v>
       </c>
@@ -11426,10 +11450,10 @@
       <c r="E35" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>619</v>
       </c>
@@ -11445,10 +11469,10 @@
       <c r="E36" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>622</v>
       </c>
@@ -11464,10 +11488,10 @@
       <c r="E37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>625</v>
       </c>
@@ -11483,10 +11507,10 @@
       <c r="E38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>628</v>
       </c>
@@ -11502,10 +11526,10 @@
       <c r="E39" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>631</v>
       </c>
@@ -11521,10 +11545,10 @@
       <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>634</v>
       </c>
@@ -11540,10 +11564,10 @@
       <c r="E41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>637</v>
       </c>
@@ -11559,10 +11583,10 @@
       <c r="E42" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>640</v>
       </c>
@@ -11578,10 +11602,10 @@
       <c r="E43" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>643</v>
       </c>
@@ -11597,10 +11621,10 @@
       <c r="E44" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>646</v>
       </c>
@@ -11616,10 +11640,10 @@
       <c r="E45" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>649</v>
       </c>
@@ -11635,10 +11659,10 @@
       <c r="E46" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>652</v>
       </c>
@@ -11654,10 +11678,10 @@
       <c r="E47" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>655</v>
       </c>
@@ -11673,10 +11697,10 @@
       <c r="E48" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>658</v>
       </c>
@@ -11692,10 +11716,10 @@
       <c r="E49" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>661</v>
       </c>
@@ -11711,10 +11735,10 @@
       <c r="E50" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>664</v>
       </c>
@@ -11730,10 +11754,10 @@
       <c r="E51" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>667</v>
       </c>
@@ -11749,10 +11773,10 @@
       <c r="E52" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>670</v>
       </c>
@@ -11768,10 +11792,10 @@
       <c r="E53" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>673</v>
       </c>
@@ -11787,10 +11811,13 @@
       <c r="E54" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54">
+        <v>1</v>
+      </c>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>676</v>
       </c>
@@ -11806,10 +11833,10 @@
       <c r="E55" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>679</v>
       </c>
@@ -11825,10 +11852,10 @@
       <c r="E56" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>682</v>
       </c>
@@ -11844,10 +11871,10 @@
       <c r="E57" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>685</v>
       </c>
@@ -11863,10 +11890,10 @@
       <c r="E58" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>688</v>
       </c>
@@ -11882,10 +11909,10 @@
       <c r="E59" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>691</v>
       </c>
@@ -11901,10 +11928,10 @@
       <c r="E60" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>694</v>
       </c>
@@ -11920,10 +11947,10 @@
       <c r="E61" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>697</v>
       </c>
@@ -11939,10 +11966,10 @@
       <c r="E62" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>700</v>
       </c>
@@ -11958,10 +11985,10 @@
       <c r="E63" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>703</v>
       </c>
@@ -11977,10 +12004,10 @@
       <c r="E64" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>706</v>
       </c>
@@ -11996,10 +12023,10 @@
       <c r="E65" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>709</v>
       </c>
@@ -12015,10 +12042,10 @@
       <c r="E66" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>712</v>
       </c>
@@ -12034,10 +12061,10 @@
       <c r="E67" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>715</v>
       </c>
@@ -12053,10 +12080,10 @@
       <c r="E68" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>718</v>
       </c>
@@ -12072,10 +12099,10 @@
       <c r="E69" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>721</v>
       </c>
@@ -12091,10 +12118,10 @@
       <c r="E70" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>724</v>
       </c>
@@ -12110,10 +12137,10 @@
       <c r="E71" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>727</v>
       </c>
@@ -12129,10 +12156,10 @@
       <c r="E72" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>730</v>
       </c>
@@ -12148,10 +12175,10 @@
       <c r="E73" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>733</v>
       </c>
@@ -12167,10 +12194,10 @@
       <c r="E74" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>736</v>
       </c>
@@ -12186,10 +12213,10 @@
       <c r="E75" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>739</v>
       </c>
@@ -12205,10 +12232,10 @@
       <c r="E76" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>742</v>
       </c>
@@ -12224,10 +12251,10 @@
       <c r="E77" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>745</v>
       </c>
@@ -12243,10 +12270,10 @@
       <c r="E78" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>748</v>
       </c>
@@ -12262,10 +12289,10 @@
       <c r="E79" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>751</v>
       </c>
@@ -12281,10 +12308,10 @@
       <c r="E80" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>754</v>
       </c>
@@ -12300,10 +12327,10 @@
       <c r="E81" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>757</v>
       </c>
@@ -12319,10 +12346,10 @@
       <c r="E82" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>760</v>
       </c>
@@ -12338,10 +12365,10 @@
       <c r="E83" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>763</v>
       </c>
@@ -12357,10 +12384,10 @@
       <c r="E84" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>766</v>
       </c>
@@ -12376,10 +12403,10 @@
       <c r="E85" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>769</v>
       </c>
@@ -12395,10 +12422,10 @@
       <c r="E86" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>772</v>
       </c>
@@ -12414,10 +12441,10 @@
       <c r="E87" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>775</v>
       </c>
@@ -12433,10 +12460,10 @@
       <c r="E88" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>778</v>
       </c>
@@ -12452,10 +12479,10 @@
       <c r="E89" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>781</v>
       </c>
@@ -12471,10 +12498,10 @@
       <c r="E90" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>784</v>
       </c>
@@ -12490,10 +12517,10 @@
       <c r="E91" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>787</v>
       </c>
@@ -12509,10 +12536,10 @@
       <c r="E92" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>790</v>
       </c>
@@ -12528,10 +12555,10 @@
       <c r="E93" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>793</v>
       </c>
@@ -12547,10 +12574,10 @@
       <c r="E94" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>796</v>
       </c>
@@ -12566,10 +12593,10 @@
       <c r="E95" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>799</v>
       </c>
@@ -12585,10 +12612,10 @@
       <c r="E96" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>802</v>
       </c>
@@ -12604,10 +12631,10 @@
       <c r="E97" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>805</v>
       </c>
@@ -12623,10 +12650,10 @@
       <c r="E98" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>808</v>
       </c>
@@ -12642,10 +12669,10 @@
       <c r="E99" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>811</v>
       </c>
@@ -12661,10 +12688,10 @@
       <c r="E100" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>814</v>
       </c>
@@ -12680,10 +12707,10 @@
       <c r="E101" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>817</v>
       </c>
@@ -12699,10 +12726,10 @@
       <c r="E102" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>820</v>
       </c>
@@ -12718,10 +12745,10 @@
       <c r="E103" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>823</v>
       </c>
@@ -12737,10 +12764,10 @@
       <c r="E104" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>826</v>
       </c>
@@ -12756,10 +12783,10 @@
       <c r="E105" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>829</v>
       </c>
@@ -12775,10 +12802,10 @@
       <c r="E106" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>832</v>
       </c>
@@ -12794,10 +12821,10 @@
       <c r="E107" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>835</v>
       </c>
@@ -12813,10 +12840,10 @@
       <c r="E108" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>838</v>
       </c>
@@ -12832,10 +12859,10 @@
       <c r="E109" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>841</v>
       </c>
@@ -12851,10 +12878,10 @@
       <c r="E110" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>844</v>
       </c>
@@ -12870,10 +12897,10 @@
       <c r="E111" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>847</v>
       </c>
@@ -12889,10 +12916,10 @@
       <c r="E112" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>850</v>
       </c>
@@ -12908,10 +12935,10 @@
       <c r="E113" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>853</v>
       </c>
@@ -12927,10 +12954,10 @@
       <c r="E114" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>856</v>
       </c>
@@ -12946,10 +12973,10 @@
       <c r="E115" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>859</v>
       </c>
@@ -12965,10 +12992,10 @@
       <c r="E116" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>862</v>
       </c>
@@ -12984,10 +13011,10 @@
       <c r="E117" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>865</v>
       </c>
@@ -13003,10 +13030,10 @@
       <c r="E118" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>868</v>
       </c>
@@ -13022,10 +13049,10 @@
       <c r="E119" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>871</v>
       </c>
@@ -13041,10 +13068,10 @@
       <c r="E120" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>874</v>
       </c>
@@ -13060,10 +13087,10 @@
       <c r="E121" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F121" s="2"/>
       <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>877</v>
       </c>
@@ -13079,10 +13106,10 @@
       <c r="E122" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F122" s="2"/>
       <c r="G122" s="2"/>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>880</v>
       </c>
@@ -13098,10 +13125,10 @@
       <c r="E123" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F123" s="2"/>
       <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>883</v>
       </c>
@@ -13117,10 +13144,10 @@
       <c r="E124" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F124" s="2"/>
       <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>886</v>
       </c>
@@ -13136,10 +13163,10 @@
       <c r="E125" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F125" s="2"/>
       <c r="G125" s="2"/>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>889</v>
       </c>
@@ -13155,10 +13182,10 @@
       <c r="E126" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F126" s="2"/>
       <c r="G126" s="2"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>892</v>
       </c>
@@ -13174,10 +13201,10 @@
       <c r="E127" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F127" s="2"/>
       <c r="G127" s="2"/>
-    </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>895</v>
       </c>
@@ -13193,10 +13220,10 @@
       <c r="E128" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F128" s="2"/>
       <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>898</v>
       </c>
@@ -13212,10 +13239,10 @@
       <c r="E129" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>901</v>
       </c>
@@ -13231,10 +13258,10 @@
       <c r="E130" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F130" s="2"/>
       <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>904</v>
       </c>
@@ -13250,10 +13277,10 @@
       <c r="E131" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F131" s="2"/>
       <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>907</v>
       </c>
@@ -13269,10 +13296,10 @@
       <c r="E132" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>910</v>
       </c>
@@ -13288,10 +13315,10 @@
       <c r="E133" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F133" s="2"/>
       <c r="G133" s="2"/>
-    </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>913</v>
       </c>
@@ -13307,10 +13334,10 @@
       <c r="E134" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F134" s="2"/>
       <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>916</v>
       </c>
@@ -13326,10 +13353,10 @@
       <c r="E135" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F135" s="2"/>
       <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>919</v>
       </c>
@@ -13345,10 +13372,10 @@
       <c r="E136" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F136" s="2"/>
       <c r="G136" s="2"/>
-    </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>922</v>
       </c>
@@ -13364,10 +13391,10 @@
       <c r="E137" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>925</v>
       </c>
@@ -13383,10 +13410,10 @@
       <c r="E138" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>928</v>
       </c>
@@ -13402,10 +13429,10 @@
       <c r="E139" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F139" s="2"/>
       <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>931</v>
       </c>
@@ -13421,10 +13448,10 @@
       <c r="E140" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F140" s="2"/>
       <c r="G140" s="2"/>
-    </row>
-    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>934</v>
       </c>
@@ -13440,10 +13467,10 @@
       <c r="E141" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-    </row>
-    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>937</v>
       </c>
@@ -13459,10 +13486,10 @@
       <c r="E142" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F142" s="2"/>
       <c r="G142" s="2"/>
-    </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>940</v>
       </c>
@@ -13478,10 +13505,10 @@
       <c r="E143" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F143" s="2"/>
       <c r="G143" s="2"/>
-    </row>
-    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>943</v>
       </c>
@@ -13497,10 +13524,10 @@
       <c r="E144" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F144" s="2"/>
       <c r="G144" s="2"/>
-    </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>946</v>
       </c>
@@ -13516,10 +13543,10 @@
       <c r="E145" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F145" s="2"/>
       <c r="G145" s="2"/>
-    </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>949</v>
       </c>
@@ -13535,10 +13562,10 @@
       <c r="E146" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F146" s="2"/>
       <c r="G146" s="2"/>
-    </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>952</v>
       </c>
@@ -13554,10 +13581,10 @@
       <c r="E147" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F147" s="2"/>
       <c r="G147" s="2"/>
-    </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>955</v>
       </c>
@@ -13573,10 +13600,10 @@
       <c r="E148" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F148" s="2"/>
       <c r="G148" s="2"/>
-    </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>958</v>
       </c>
@@ -13592,10 +13619,10 @@
       <c r="E149" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-    </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>961</v>
       </c>
@@ -13611,10 +13638,10 @@
       <c r="E150" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F150" s="2"/>
       <c r="G150" s="2"/>
-    </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>964</v>
       </c>
@@ -13630,10 +13657,10 @@
       <c r="E151" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F151" s="2"/>
       <c r="G151" s="2"/>
-    </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>967</v>
       </c>
@@ -13649,10 +13676,10 @@
       <c r="E152" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-    </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>970</v>
       </c>
@@ -13668,10 +13695,10 @@
       <c r="E153" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-    </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>973</v>
       </c>
@@ -13687,10 +13714,10 @@
       <c r="E154" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-    </row>
-    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>976</v>
       </c>
@@ -13706,10 +13733,10 @@
       <c r="E155" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F155" s="2"/>
       <c r="G155" s="2"/>
-    </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>979</v>
       </c>
@@ -13725,10 +13752,10 @@
       <c r="E156" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-    </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>982</v>
       </c>
@@ -13744,10 +13771,10 @@
       <c r="E157" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-    </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>985</v>
       </c>
@@ -13763,10 +13790,10 @@
       <c r="E158" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F158" s="2"/>
       <c r="G158" s="2"/>
-    </row>
-    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>988</v>
       </c>
@@ -13782,10 +13809,10 @@
       <c r="E159" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F159" s="2"/>
       <c r="G159" s="2"/>
-    </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>991</v>
       </c>
@@ -13801,10 +13828,10 @@
       <c r="E160" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F160" s="2"/>
       <c r="G160" s="2"/>
-    </row>
-    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>994</v>
       </c>
@@ -13820,10 +13847,10 @@
       <c r="E161" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F161" s="2"/>
       <c r="G161" s="2"/>
-    </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>997</v>
       </c>
@@ -13839,10 +13866,10 @@
       <c r="E162" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F162" s="2"/>
       <c r="G162" s="2"/>
-    </row>
-    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>1000</v>
       </c>
@@ -13858,10 +13885,10 @@
       <c r="E163" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F163" s="2"/>
       <c r="G163" s="2"/>
-    </row>
-    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>1003</v>
       </c>
@@ -13877,10 +13904,10 @@
       <c r="E164" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-    </row>
-    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>1006</v>
       </c>
@@ -13896,10 +13923,10 @@
       <c r="E165" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F165" s="2"/>
       <c r="G165" s="2"/>
-    </row>
-    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>1009</v>
       </c>
@@ -13915,10 +13942,10 @@
       <c r="E166" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F166" s="2"/>
       <c r="G166" s="2"/>
-    </row>
-    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H166" s="2"/>
+    </row>
+    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>1012</v>
       </c>
@@ -13934,10 +13961,10 @@
       <c r="E167" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F167" s="2"/>
       <c r="G167" s="2"/>
-    </row>
-    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>1015</v>
       </c>
@@ -13953,10 +13980,10 @@
       <c r="E168" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F168" s="2"/>
       <c r="G168" s="2"/>
-    </row>
-    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H168" s="2"/>
+    </row>
+    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>1018</v>
       </c>
@@ -13972,10 +13999,10 @@
       <c r="E169" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F169" s="2"/>
       <c r="G169" s="2"/>
-    </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H169" s="2"/>
+    </row>
+    <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>1021</v>
       </c>
@@ -13991,10 +14018,10 @@
       <c r="E170" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-    </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H170" s="2"/>
+    </row>
+    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>1024</v>
       </c>
@@ -14010,10 +14037,10 @@
       <c r="E171" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F171" s="2"/>
       <c r="G171" s="2"/>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>1027</v>
       </c>
@@ -14029,10 +14056,10 @@
       <c r="E172" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F172" s="2"/>
       <c r="G172" s="2"/>
-    </row>
-    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>1030</v>
       </c>
@@ -14048,10 +14075,10 @@
       <c r="E173" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-    </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H173" s="2"/>
+    </row>
+    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>1033</v>
       </c>
@@ -14067,10 +14094,10 @@
       <c r="E174" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F174" s="2"/>
       <c r="G174" s="2"/>
-    </row>
-    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H174" s="2"/>
+    </row>
+    <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>1036</v>
       </c>
@@ -14086,10 +14113,10 @@
       <c r="E175" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F175" s="2"/>
       <c r="G175" s="2"/>
-    </row>
-    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H175" s="2"/>
+    </row>
+    <row r="176" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>1039</v>
       </c>
@@ -14105,10 +14132,10 @@
       <c r="E176" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F176" s="2"/>
       <c r="G176" s="2"/>
-    </row>
-    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H176" s="2"/>
+    </row>
+    <row r="177" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>1042</v>
       </c>
@@ -14124,11 +14151,11 @@
       <c r="E177" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F177" s="2"/>
       <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G177"/>
+  <autoFilter ref="A1:H177"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -14137,7 +14164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" zoomScalePageLayoutView="166" workbookViewId="0">
+    <sheetView zoomScale="166" zoomScaleNormal="166" zoomScalePageLayoutView="166" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="27540" windowHeight="15540" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32700" windowHeight="20560" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,20 @@
     <sheet name="Concentrations" sheetId="6" r:id="rId6"/>
     <sheet name="Reactions" sheetId="7" r:id="rId7"/>
     <sheet name="Rate laws" sheetId="8" r:id="rId8"/>
-    <sheet name="Parameters" sheetId="9" r:id="rId9"/>
-    <sheet name="References" sheetId="10" r:id="rId10"/>
-    <sheet name="Cross references" sheetId="11" r:id="rId11"/>
+    <sheet name="Biomass components" sheetId="12" r:id="rId9"/>
+    <sheet name="Parameters" sheetId="9" r:id="rId10"/>
+    <sheet name="References" sheetId="10" r:id="rId11"/>
+    <sheet name="Cross references" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concentrations!$A$1:$D$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Cross references'!$A$1:$J$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Cross references'!$A$1:$J$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Parameters!$A$1:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Parameters!$A$1:$H$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rate laws'!$A$1:$I$168</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Reactions!$A$1:$H$177</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">References!$A$1:$R$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">References!$A$1:$R$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$145</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$B$6</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="1394">
   <si>
     <t>Id</t>
   </si>
@@ -4028,13 +4029,217 @@
   </si>
   <si>
     <t>Objective proportion</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>ALA_biomass_comp</t>
+  </si>
+  <si>
+    <t>ARG_biomass_comp</t>
+  </si>
+  <si>
+    <t>ASN_biomass_comp</t>
+  </si>
+  <si>
+    <t>ASP_biomass_comp</t>
+  </si>
+  <si>
+    <t>ATP_biomass_comp</t>
+  </si>
+  <si>
+    <t>CTP_biomass_comp</t>
+  </si>
+  <si>
+    <t>CYS_biomass_comp</t>
+  </si>
+  <si>
+    <t>GLN_biomass_comp</t>
+  </si>
+  <si>
+    <t>GLU_biomass_comp</t>
+  </si>
+  <si>
+    <t>GLY_biomass_comp</t>
+  </si>
+  <si>
+    <t>GTP_biomass_comp</t>
+  </si>
+  <si>
+    <t>H2O_biomass_comp</t>
+  </si>
+  <si>
+    <t>HIS_biomass_comp</t>
+  </si>
+  <si>
+    <t>ILE_biomass_comp</t>
+  </si>
+  <si>
+    <t>LEU_biomass_comp</t>
+  </si>
+  <si>
+    <t>LYS_biomass_comp</t>
+  </si>
+  <si>
+    <t>MET_biomass_comp</t>
+  </si>
+  <si>
+    <t>PHE_biomass_comp</t>
+  </si>
+  <si>
+    <t>PRO_biomass_comp</t>
+  </si>
+  <si>
+    <t>SER_biomass_comp</t>
+  </si>
+  <si>
+    <t>THR_biomass_comp</t>
+  </si>
+  <si>
+    <t>TRP_biomass_comp</t>
+  </si>
+  <si>
+    <t>TYR_biomass_comp</t>
+  </si>
+  <si>
+    <t>UTP_biomass_comp</t>
+  </si>
+  <si>
+    <t>VAL_biomass_comp</t>
+  </si>
+  <si>
+    <t>AMP_biomass_comp</t>
+  </si>
+  <si>
+    <t>CMP_biomass_comp</t>
+  </si>
+  <si>
+    <t>GDP_biomass_comp</t>
+  </si>
+  <si>
+    <t>GMP_biomass_comp</t>
+  </si>
+  <si>
+    <t>H_biomass_comp</t>
+  </si>
+  <si>
+    <t>Pi_biomass_comp</t>
+  </si>
+  <si>
+    <t>PPi_biomass_comp</t>
+  </si>
+  <si>
+    <t>UMP_biomass_comp</t>
+  </si>
+  <si>
+    <t>biomass_id_001</t>
+  </si>
+  <si>
+    <t>biomass_id_002</t>
+  </si>
+  <si>
+    <t>biomass_id_003</t>
+  </si>
+  <si>
+    <t>biomass_id_004</t>
+  </si>
+  <si>
+    <t>biomass_id_005</t>
+  </si>
+  <si>
+    <t>biomass_id_006</t>
+  </si>
+  <si>
+    <t>biomass_id_007</t>
+  </si>
+  <si>
+    <t>biomass_id_008</t>
+  </si>
+  <si>
+    <t>biomass_id_009</t>
+  </si>
+  <si>
+    <t>biomass_id_010</t>
+  </si>
+  <si>
+    <t>biomass_id_011</t>
+  </si>
+  <si>
+    <t>biomass_id_012</t>
+  </si>
+  <si>
+    <t>biomass_id_013</t>
+  </si>
+  <si>
+    <t>biomass_id_014</t>
+  </si>
+  <si>
+    <t>biomass_id_015</t>
+  </si>
+  <si>
+    <t>biomass_id_016</t>
+  </si>
+  <si>
+    <t>biomass_id_017</t>
+  </si>
+  <si>
+    <t>biomass_id_018</t>
+  </si>
+  <si>
+    <t>biomass_id_019</t>
+  </si>
+  <si>
+    <t>biomass_id_020</t>
+  </si>
+  <si>
+    <t>biomass_id_021</t>
+  </si>
+  <si>
+    <t>biomass_id_022</t>
+  </si>
+  <si>
+    <t>biomass_id_023</t>
+  </si>
+  <si>
+    <t>biomass_id_024</t>
+  </si>
+  <si>
+    <t>biomass_id_025</t>
+  </si>
+  <si>
+    <t>biomass_id_026</t>
+  </si>
+  <si>
+    <t>biomass_id_027</t>
+  </si>
+  <si>
+    <t>biomass_id_028</t>
+  </si>
+  <si>
+    <t>biomass_id_029</t>
+  </si>
+  <si>
+    <t>biomass_id_030</t>
+  </si>
+  <si>
+    <t>biomass_id_031</t>
+  </si>
+  <si>
+    <t>biomass_id_032</t>
+  </si>
+  <si>
+    <t>biomass_id_033</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4056,8 +4261,40 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4075,6 +4312,12 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4085,11 +4328,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4100,8 +4349,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -4457,6 +4719,161 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>28800</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>300</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H6"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5242,7 +5659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -5716,7 +6133,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5910,10 +6327,10 @@
   <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10769,11 +11186,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17756,155 +18173,617 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="143" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="6">
+        <v>-34190.379999999997</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>28800</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>300</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="D3" s="6">
+        <v>-40890.379999999997</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-23190.38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-24290.38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-1101856</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-1164906</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-22290.38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-24690.38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-22690.38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-31190.38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-1728316</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-1521617000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-21590.38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6">
+        <v>-29290.38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-41190.379999999997</v>
+      </c>
+      <c r="E16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6">
+        <v>-21990.38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6">
+        <v>-21390.38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6">
+        <v>-23890.38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6">
+        <v>-34390.379999999997</v>
+      </c>
+      <c r="E20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6">
+        <v>-44490.38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6">
+        <v>-36190.379999999997</v>
+      </c>
+      <c r="E22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6">
+        <v>-22190.38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="6">
+        <v>-21990.38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="6">
+        <v>-1132896</v>
+      </c>
+      <c r="E25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="6">
+        <v>-33790.379999999997</v>
+      </c>
+      <c r="E26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1035619</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1098019</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="6">
+        <v>581419.19999999995</v>
+      </c>
+      <c r="E29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1052899</v>
+      </c>
+      <c r="E30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4972350</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="6">
+        <v>471096.2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4381069</v>
+      </c>
+      <c r="E33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1066339</v>
+      </c>
+      <c r="E34" t="s">
+        <v>368</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H6"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sortState ref="A27:E34">
+    <sortCondition ref="A27:A34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32700" windowHeight="20560" activeTab="8"/>
+    <workbookView xWindow="-28800" yWindow="460" windowWidth="24460" windowHeight="15540" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,21 @@
     <sheet name="Concentrations" sheetId="6" r:id="rId6"/>
     <sheet name="Reactions" sheetId="7" r:id="rId7"/>
     <sheet name="Rate laws" sheetId="8" r:id="rId8"/>
-    <sheet name="Biomass components" sheetId="12" r:id="rId9"/>
-    <sheet name="Parameters" sheetId="9" r:id="rId10"/>
-    <sheet name="References" sheetId="10" r:id="rId11"/>
-    <sheet name="Cross references" sheetId="11" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="14" r:id="rId9"/>
+    <sheet name="Biomass reactions" sheetId="13" r:id="rId10"/>
+    <sheet name="Parameters" sheetId="9" r:id="rId11"/>
+    <sheet name="References" sheetId="10" r:id="rId12"/>
+    <sheet name="Cross references" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concentrations!$A$1:$D$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Cross references'!$A$1:$J$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Cross references'!$A$1:$J$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Parameters!$A$1:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Parameters!$A$1:$H$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rate laws'!$A$1:$I$168</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Reactions!$A$1:$H$177</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">References!$A$1:$R$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Reactions!$A$1:$G$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">References!$A$1:$R$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$145</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$B$6</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="1397">
   <si>
     <t>Id</t>
   </si>
@@ -4028,9 +4029,6 @@
     <t>Max flux</t>
   </si>
   <si>
-    <t>Objective proportion</t>
-  </si>
-  <si>
     <t>Coefficient</t>
   </si>
   <si>
@@ -4233,13 +4231,25 @@
   </si>
   <si>
     <t>biomass_id_033</t>
+  </si>
+  <si>
+    <t>Biomass reaction</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4293,8 +4303,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4304,12 +4321,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -4328,7 +4339,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4337,8 +4348,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4346,18 +4358,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -4366,6 +4385,7 @@
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4719,13 +4739,63 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4872,7 +4942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
@@ -4880,7 +4950,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5659,7 +5729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -5667,7 +5737,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6129,11 +6199,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6247,7 +6317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -6257,7 +6327,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -11184,13 +11254,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="157" zoomScaleNormal="157" zoomScalePageLayoutView="157" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11198,7 +11268,7 @@
     <col min="4" max="4" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11214,17 +11284,14 @@
       <c r="E1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1325</v>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>517</v>
       </c>
@@ -11240,10 +11307,10 @@
       <c r="E2" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>520</v>
       </c>
@@ -11259,10 +11326,10 @@
       <c r="E3" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>523</v>
       </c>
@@ -11278,10 +11345,10 @@
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>526</v>
       </c>
@@ -11297,10 +11364,10 @@
       <c r="E5" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>529</v>
       </c>
@@ -11316,10 +11383,10 @@
       <c r="E6" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>532</v>
       </c>
@@ -11335,10 +11402,10 @@
       <c r="E7" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>535</v>
       </c>
@@ -11354,10 +11421,10 @@
       <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>538</v>
       </c>
@@ -11373,10 +11440,10 @@
       <c r="E9" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>541</v>
       </c>
@@ -11392,10 +11459,10 @@
       <c r="E10" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>544</v>
       </c>
@@ -11411,10 +11478,10 @@
       <c r="E11" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>547</v>
       </c>
@@ -11430,10 +11497,10 @@
       <c r="E12" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>550</v>
       </c>
@@ -11449,10 +11516,10 @@
       <c r="E13" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>553</v>
       </c>
@@ -11468,10 +11535,10 @@
       <c r="E14" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>556</v>
       </c>
@@ -11487,10 +11554,10 @@
       <c r="E15" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>559</v>
       </c>
@@ -11506,10 +11573,10 @@
       <c r="E16" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>562</v>
       </c>
@@ -11525,10 +11592,10 @@
       <c r="E17" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>565</v>
       </c>
@@ -11544,10 +11611,10 @@
       <c r="E18" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>568</v>
       </c>
@@ -11563,10 +11630,10 @@
       <c r="E19" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>571</v>
       </c>
@@ -11582,10 +11649,10 @@
       <c r="E20" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>574</v>
       </c>
@@ -11601,10 +11668,10 @@
       <c r="E21" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>577</v>
       </c>
@@ -11620,10 +11687,10 @@
       <c r="E22" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>580</v>
       </c>
@@ -11639,10 +11706,10 @@
       <c r="E23" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>583</v>
       </c>
@@ -11658,10 +11725,10 @@
       <c r="E24" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>586</v>
       </c>
@@ -11677,10 +11744,10 @@
       <c r="E25" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>589</v>
       </c>
@@ -11696,10 +11763,10 @@
       <c r="E26" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>592</v>
       </c>
@@ -11715,10 +11782,10 @@
       <c r="E27" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>595</v>
       </c>
@@ -11734,10 +11801,10 @@
       <c r="E28" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>598</v>
       </c>
@@ -11753,10 +11820,10 @@
       <c r="E29" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>601</v>
       </c>
@@ -11772,10 +11839,10 @@
       <c r="E30" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>604</v>
       </c>
@@ -11791,10 +11858,10 @@
       <c r="E31" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>607</v>
       </c>
@@ -11810,10 +11877,10 @@
       <c r="E32" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>610</v>
       </c>
@@ -11829,10 +11896,10 @@
       <c r="E33" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>613</v>
       </c>
@@ -11848,10 +11915,10 @@
       <c r="E34" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>616</v>
       </c>
@@ -11867,10 +11934,10 @@
       <c r="E35" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>619</v>
       </c>
@@ -11886,10 +11953,10 @@
       <c r="E36" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>622</v>
       </c>
@@ -11905,10 +11972,10 @@
       <c r="E37" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>625</v>
       </c>
@@ -11924,10 +11991,10 @@
       <c r="E38" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>628</v>
       </c>
@@ -11943,10 +12010,10 @@
       <c r="E39" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>631</v>
       </c>
@@ -11962,10 +12029,10 @@
       <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>634</v>
       </c>
@@ -11981,10 +12048,10 @@
       <c r="E41" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>637</v>
       </c>
@@ -12000,10 +12067,10 @@
       <c r="E42" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>640</v>
       </c>
@@ -12019,10 +12086,10 @@
       <c r="E43" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>643</v>
       </c>
@@ -12038,10 +12105,10 @@
       <c r="E44" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>646</v>
       </c>
@@ -12057,10 +12124,10 @@
       <c r="E45" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>649</v>
       </c>
@@ -12076,10 +12143,10 @@
       <c r="E46" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>652</v>
       </c>
@@ -12095,10 +12162,10 @@
       <c r="E47" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>655</v>
       </c>
@@ -12114,10 +12181,10 @@
       <c r="E48" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>658</v>
       </c>
@@ -12133,10 +12200,10 @@
       <c r="E49" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>661</v>
       </c>
@@ -12152,10 +12219,10 @@
       <c r="E50" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>664</v>
       </c>
@@ -12171,10 +12238,10 @@
       <c r="E51" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>667</v>
       </c>
@@ -12190,10 +12257,10 @@
       <c r="E52" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>670</v>
       </c>
@@ -12209,10 +12276,10 @@
       <c r="E53" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>673</v>
       </c>
@@ -12228,13 +12295,10 @@
       <c r="E54" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>676</v>
       </c>
@@ -12250,10 +12314,10 @@
       <c r="E55" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>679</v>
       </c>
@@ -12269,10 +12333,10 @@
       <c r="E56" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>682</v>
       </c>
@@ -12288,10 +12352,10 @@
       <c r="E57" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>685</v>
       </c>
@@ -12307,10 +12371,10 @@
       <c r="E58" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>688</v>
       </c>
@@ -12326,10 +12390,10 @@
       <c r="E59" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>691</v>
       </c>
@@ -12345,10 +12409,10 @@
       <c r="E60" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>694</v>
       </c>
@@ -12364,10 +12428,10 @@
       <c r="E61" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>697</v>
       </c>
@@ -12383,10 +12447,10 @@
       <c r="E62" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>700</v>
       </c>
@@ -12402,10 +12466,10 @@
       <c r="E63" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>703</v>
       </c>
@@ -12421,10 +12485,10 @@
       <c r="E64" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>706</v>
       </c>
@@ -12440,10 +12504,10 @@
       <c r="E65" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>709</v>
       </c>
@@ -12459,10 +12523,10 @@
       <c r="E66" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>712</v>
       </c>
@@ -12478,10 +12542,10 @@
       <c r="E67" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>715</v>
       </c>
@@ -12497,10 +12561,10 @@
       <c r="E68" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>718</v>
       </c>
@@ -12516,10 +12580,10 @@
       <c r="E69" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>721</v>
       </c>
@@ -12535,10 +12599,10 @@
       <c r="E70" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>724</v>
       </c>
@@ -12554,10 +12618,10 @@
       <c r="E71" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>727</v>
       </c>
@@ -12573,10 +12637,10 @@
       <c r="E72" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>730</v>
       </c>
@@ -12592,10 +12656,10 @@
       <c r="E73" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>733</v>
       </c>
@@ -12611,10 +12675,10 @@
       <c r="E74" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>736</v>
       </c>
@@ -12630,10 +12694,10 @@
       <c r="E75" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>739</v>
       </c>
@@ -12649,10 +12713,10 @@
       <c r="E76" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>742</v>
       </c>
@@ -12668,10 +12732,10 @@
       <c r="E77" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>745</v>
       </c>
@@ -12687,10 +12751,10 @@
       <c r="E78" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>748</v>
       </c>
@@ -12706,10 +12770,10 @@
       <c r="E79" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>751</v>
       </c>
@@ -12725,10 +12789,10 @@
       <c r="E80" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>754</v>
       </c>
@@ -12744,10 +12808,10 @@
       <c r="E81" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>757</v>
       </c>
@@ -12763,10 +12827,10 @@
       <c r="E82" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>760</v>
       </c>
@@ -12782,10 +12846,10 @@
       <c r="E83" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>763</v>
       </c>
@@ -12801,10 +12865,10 @@
       <c r="E84" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>766</v>
       </c>
@@ -12820,10 +12884,10 @@
       <c r="E85" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>769</v>
       </c>
@@ -12839,10 +12903,10 @@
       <c r="E86" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>772</v>
       </c>
@@ -12858,10 +12922,10 @@
       <c r="E87" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>775</v>
       </c>
@@ -12877,10 +12941,10 @@
       <c r="E88" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>778</v>
       </c>
@@ -12896,10 +12960,10 @@
       <c r="E89" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>781</v>
       </c>
@@ -12915,10 +12979,10 @@
       <c r="E90" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>784</v>
       </c>
@@ -12934,10 +12998,10 @@
       <c r="E91" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>787</v>
       </c>
@@ -12953,10 +13017,10 @@
       <c r="E92" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>790</v>
       </c>
@@ -12972,10 +13036,10 @@
       <c r="E93" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>793</v>
       </c>
@@ -12991,10 +13055,10 @@
       <c r="E94" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>796</v>
       </c>
@@ -13010,10 +13074,10 @@
       <c r="E95" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>799</v>
       </c>
@@ -13029,10 +13093,10 @@
       <c r="E96" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>802</v>
       </c>
@@ -13048,10 +13112,10 @@
       <c r="E97" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>805</v>
       </c>
@@ -13067,10 +13131,10 @@
       <c r="E98" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>808</v>
       </c>
@@ -13086,10 +13150,10 @@
       <c r="E99" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>811</v>
       </c>
@@ -13105,10 +13169,10 @@
       <c r="E100" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>814</v>
       </c>
@@ -13124,10 +13188,10 @@
       <c r="E101" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>817</v>
       </c>
@@ -13143,10 +13207,10 @@
       <c r="E102" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>820</v>
       </c>
@@ -13162,10 +13226,10 @@
       <c r="E103" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>823</v>
       </c>
@@ -13181,10 +13245,10 @@
       <c r="E104" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-    </row>
-    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>826</v>
       </c>
@@ -13200,10 +13264,10 @@
       <c r="E105" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-    </row>
-    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>829</v>
       </c>
@@ -13219,10 +13283,10 @@
       <c r="E106" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>832</v>
       </c>
@@ -13238,10 +13302,10 @@
       <c r="E107" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-    </row>
-    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>835</v>
       </c>
@@ -13257,10 +13321,10 @@
       <c r="E108" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>838</v>
       </c>
@@ -13276,10 +13340,10 @@
       <c r="E109" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-    </row>
-    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>841</v>
       </c>
@@ -13295,10 +13359,10 @@
       <c r="E110" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-    </row>
-    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>844</v>
       </c>
@@ -13314,10 +13378,10 @@
       <c r="E111" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>847</v>
       </c>
@@ -13333,10 +13397,10 @@
       <c r="E112" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>850</v>
       </c>
@@ -13352,10 +13416,10 @@
       <c r="E113" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>853</v>
       </c>
@@ -13371,10 +13435,10 @@
       <c r="E114" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-    </row>
-    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>856</v>
       </c>
@@ -13390,10 +13454,10 @@
       <c r="E115" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-    </row>
-    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>859</v>
       </c>
@@ -13409,10 +13473,10 @@
       <c r="E116" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-    </row>
-    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>862</v>
       </c>
@@ -13428,10 +13492,10 @@
       <c r="E117" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-    </row>
-    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>865</v>
       </c>
@@ -13447,10 +13511,10 @@
       <c r="E118" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-    </row>
-    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>868</v>
       </c>
@@ -13466,10 +13530,10 @@
       <c r="E119" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-    </row>
-    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>871</v>
       </c>
@@ -13485,10 +13549,10 @@
       <c r="E120" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-    </row>
-    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>874</v>
       </c>
@@ -13504,10 +13568,10 @@
       <c r="E121" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F121" s="2"/>
       <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-    </row>
-    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>877</v>
       </c>
@@ -13523,10 +13587,10 @@
       <c r="E122" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-    </row>
-    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>880</v>
       </c>
@@ -13542,10 +13606,10 @@
       <c r="E123" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F123" s="2"/>
       <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-    </row>
-    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>883</v>
       </c>
@@ -13561,10 +13625,10 @@
       <c r="E124" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F124" s="2"/>
       <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-    </row>
-    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>886</v>
       </c>
@@ -13580,10 +13644,10 @@
       <c r="E125" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F125" s="2"/>
       <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-    </row>
-    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>889</v>
       </c>
@@ -13599,10 +13663,10 @@
       <c r="E126" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F126" s="2"/>
       <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-    </row>
-    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>892</v>
       </c>
@@ -13618,10 +13682,10 @@
       <c r="E127" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F127" s="2"/>
       <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-    </row>
-    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>895</v>
       </c>
@@ -13637,10 +13701,10 @@
       <c r="E128" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F128" s="2"/>
       <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-    </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>898</v>
       </c>
@@ -13656,10 +13720,10 @@
       <c r="E129" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-    </row>
-    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>901</v>
       </c>
@@ -13675,10 +13739,10 @@
       <c r="E130" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F130" s="2"/>
       <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>904</v>
       </c>
@@ -13694,10 +13758,10 @@
       <c r="E131" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F131" s="2"/>
       <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-    </row>
-    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>907</v>
       </c>
@@ -13713,10 +13777,10 @@
       <c r="E132" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-    </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>910</v>
       </c>
@@ -13732,10 +13796,10 @@
       <c r="E133" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F133" s="2"/>
       <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-    </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>913</v>
       </c>
@@ -13751,10 +13815,10 @@
       <c r="E134" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F134" s="2"/>
       <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-    </row>
-    <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>916</v>
       </c>
@@ -13770,10 +13834,10 @@
       <c r="E135" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F135" s="2"/>
       <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-    </row>
-    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>919</v>
       </c>
@@ -13789,10 +13853,10 @@
       <c r="E136" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F136" s="2"/>
       <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-    </row>
-    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>922</v>
       </c>
@@ -13808,10 +13872,10 @@
       <c r="E137" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-    </row>
-    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>925</v>
       </c>
@@ -13827,10 +13891,10 @@
       <c r="E138" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-    </row>
-    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>928</v>
       </c>
@@ -13846,10 +13910,10 @@
       <c r="E139" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F139" s="2"/>
       <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-    </row>
-    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>931</v>
       </c>
@@ -13865,10 +13929,10 @@
       <c r="E140" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F140" s="2"/>
       <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-    </row>
-    <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>934</v>
       </c>
@@ -13884,10 +13948,10 @@
       <c r="E141" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-    </row>
-    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>937</v>
       </c>
@@ -13903,10 +13967,10 @@
       <c r="E142" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F142" s="2"/>
       <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-    </row>
-    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>940</v>
       </c>
@@ -13922,10 +13986,10 @@
       <c r="E143" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F143" s="2"/>
       <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-    </row>
-    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>943</v>
       </c>
@@ -13941,10 +14005,10 @@
       <c r="E144" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F144" s="2"/>
       <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-    </row>
-    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>946</v>
       </c>
@@ -13960,10 +14024,10 @@
       <c r="E145" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F145" s="2"/>
       <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-    </row>
-    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>949</v>
       </c>
@@ -13979,10 +14043,10 @@
       <c r="E146" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F146" s="2"/>
       <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-    </row>
-    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>952</v>
       </c>
@@ -13998,10 +14062,10 @@
       <c r="E147" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F147" s="2"/>
       <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-    </row>
-    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>955</v>
       </c>
@@ -14017,10 +14081,10 @@
       <c r="E148" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F148" s="2"/>
       <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-    </row>
-    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>958</v>
       </c>
@@ -14036,10 +14100,10 @@
       <c r="E149" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-    </row>
-    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>961</v>
       </c>
@@ -14055,10 +14119,10 @@
       <c r="E150" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F150" s="2"/>
       <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-    </row>
-    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>964</v>
       </c>
@@ -14074,10 +14138,10 @@
       <c r="E151" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F151" s="2"/>
       <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-    </row>
-    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>967</v>
       </c>
@@ -14093,10 +14157,10 @@
       <c r="E152" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-    </row>
-    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>970</v>
       </c>
@@ -14112,10 +14176,10 @@
       <c r="E153" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-    </row>
-    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>973</v>
       </c>
@@ -14131,10 +14195,10 @@
       <c r="E154" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-    </row>
-    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>976</v>
       </c>
@@ -14150,10 +14214,10 @@
       <c r="E155" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F155" s="2"/>
       <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-    </row>
-    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>979</v>
       </c>
@@ -14169,10 +14233,10 @@
       <c r="E156" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-    </row>
-    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>982</v>
       </c>
@@ -14188,10 +14252,10 @@
       <c r="E157" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-    </row>
-    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>985</v>
       </c>
@@ -14207,10 +14271,10 @@
       <c r="E158" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F158" s="2"/>
       <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-    </row>
-    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>988</v>
       </c>
@@ -14226,10 +14290,10 @@
       <c r="E159" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F159" s="2"/>
       <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-    </row>
-    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>991</v>
       </c>
@@ -14245,10 +14309,10 @@
       <c r="E160" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F160" s="2"/>
       <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-    </row>
-    <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>994</v>
       </c>
@@ -14264,10 +14328,10 @@
       <c r="E161" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F161" s="2"/>
       <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-    </row>
-    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>997</v>
       </c>
@@ -14283,10 +14347,10 @@
       <c r="E162" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F162" s="2"/>
       <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-    </row>
-    <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>1000</v>
       </c>
@@ -14302,10 +14366,10 @@
       <c r="E163" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F163" s="2"/>
       <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-    </row>
-    <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>1003</v>
       </c>
@@ -14321,10 +14385,10 @@
       <c r="E164" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-    </row>
-    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>1006</v>
       </c>
@@ -14340,10 +14404,10 @@
       <c r="E165" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F165" s="2"/>
       <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-    </row>
-    <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>1009</v>
       </c>
@@ -14359,10 +14423,10 @@
       <c r="E166" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F166" s="2"/>
       <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-    </row>
-    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>1012</v>
       </c>
@@ -14378,10 +14442,10 @@
       <c r="E167" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F167" s="2"/>
       <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-    </row>
-    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>1015</v>
       </c>
@@ -14397,10 +14461,10 @@
       <c r="E168" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F168" s="2"/>
       <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-    </row>
-    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>1018</v>
       </c>
@@ -14416,10 +14480,10 @@
       <c r="E169" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F169" s="2"/>
       <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-    </row>
-    <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>1021</v>
       </c>
@@ -14435,10 +14499,10 @@
       <c r="E170" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-    </row>
-    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>1024</v>
       </c>
@@ -14454,10 +14518,10 @@
       <c r="E171" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F171" s="2"/>
       <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-    </row>
-    <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>1027</v>
       </c>
@@ -14473,10 +14537,10 @@
       <c r="E172" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F172" s="2"/>
       <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-    </row>
-    <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>1030</v>
       </c>
@@ -14492,10 +14556,10 @@
       <c r="E173" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-    </row>
-    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>1033</v>
       </c>
@@ -14511,10 +14575,10 @@
       <c r="E174" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F174" s="2"/>
       <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-    </row>
-    <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>1036</v>
       </c>
@@ -14530,10 +14594,10 @@
       <c r="E175" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F175" s="2"/>
       <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-    </row>
-    <row r="176" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>1039</v>
       </c>
@@ -14549,10 +14613,10 @@
       <c r="E176" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F176" s="2"/>
       <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-    </row>
-    <row r="177" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>1042</v>
       </c>
@@ -14568,11 +14632,11 @@
       <c r="E177" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F177" s="2"/>
       <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H177"/>
+  <autoFilter ref="A1:G177"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -14585,7 +14649,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18175,615 +18239,613 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="143" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="143" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2" s="9">
+        <v>-34190.379999999997</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>1326</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="G2" s="8" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>1361</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="7" t="s">
         <v>1328</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6">
-        <v>-34190.379999999997</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>1327</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-40890.379999999997</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>1362</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6">
-        <v>-40890.379999999997</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D4" s="9">
+        <v>-23190.38</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>1363</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="7" t="s">
         <v>1330</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6">
-        <v>-23190.38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-24290.38</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>1364</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6">
-        <v>-24290.38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C6" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-1101856</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>1365</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="7" t="s">
         <v>1332</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6">
-        <v>-1101856</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C7" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-1164906</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>1366</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="7" t="s">
         <v>1333</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6">
-        <v>-1164906</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D8" s="9">
+        <v>-22290.38</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>1367</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6">
-        <v>-22290.38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C9" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D9" s="9">
+        <v>-24690.38</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>1368</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="7" t="s">
         <v>1335</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6">
-        <v>-24690.38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C10" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D10" s="9">
+        <v>-22690.38</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>1369</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="7" t="s">
         <v>1336</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6">
-        <v>-22690.38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C11" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D11" s="9">
+        <v>-31190.38</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>1370</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="7" t="s">
         <v>1337</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6">
-        <v>-31190.38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C12" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D12" s="9">
+        <v>-1728316</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>1371</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6">
-        <v>-1728316</v>
-      </c>
-      <c r="E12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C13" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D13" s="9">
+        <v>-1521617000</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>1372</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="7" t="s">
         <v>1339</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6">
-        <v>-1521617000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C14" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D14" s="9">
+        <v>-21590.38</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>1373</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="7" t="s">
         <v>1340</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="6">
-        <v>-21590.38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C15" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D15" s="9">
+        <v>-29290.38</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>1374</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="7" t="s">
         <v>1341</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6">
-        <v>-29290.38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C16" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D16" s="9">
+        <v>-41190.379999999997</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>1375</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="7" t="s">
         <v>1342</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="6">
-        <v>-41190.379999999997</v>
-      </c>
-      <c r="E16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C17" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D17" s="9">
+        <v>-21990.38</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>1376</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="7" t="s">
         <v>1343</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C18" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D18" s="9">
+        <v>-21390.38</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D19" s="9">
+        <v>-23890.38</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D20" s="9">
+        <v>-34390.379999999997</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D21" s="9">
+        <v>-44490.38</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D22" s="9">
+        <v>-36190.379999999997</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D23" s="9">
+        <v>-22190.38</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D24" s="9">
         <v>-21990.38</v>
       </c>
-      <c r="E17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6">
-        <v>-21390.38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6">
-        <v>-23890.38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="6">
-        <v>-34390.379999999997</v>
-      </c>
-      <c r="E20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="6">
-        <v>-44490.38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6">
-        <v>-36190.379999999997</v>
-      </c>
-      <c r="E22" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="6">
-        <v>-22190.38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="E24" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>1383</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="7" t="s">
         <v>1350</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="6">
-        <v>-21990.38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C25" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D25" s="9">
+        <v>-1132896</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>1384</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" s="7" t="s">
         <v>1351</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="6">
-        <v>-1132896</v>
-      </c>
-      <c r="E25" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C26" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D26" s="9">
+        <v>-33790.379999999997</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>1385</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" s="7" t="s">
         <v>1352</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="6">
-        <v>-33790.379999999997</v>
-      </c>
-      <c r="E26" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C27" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1035619</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>1386</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1035619</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C28" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1098019</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>1387</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="7" t="s">
         <v>1354</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1098019</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C29" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D29" s="9">
+        <v>581419.19999999995</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>1388</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" s="7" t="s">
         <v>1355</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="6">
-        <v>581419.19999999995</v>
-      </c>
-      <c r="E29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="C30" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1052899</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>1389</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" s="7" t="s">
         <v>1356</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1052899</v>
-      </c>
-      <c r="E30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="C31" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D31" s="9">
+        <v>4972350</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>1390</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="7" t="s">
         <v>1357</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="6">
-        <v>4972350</v>
-      </c>
-      <c r="E31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="C32" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D32" s="9">
+        <v>471096.2</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" s="7" t="s">
         <v>1358</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="6">
-        <v>471096.2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="C33" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D33" s="9">
+        <v>4381069</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>1392</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" s="7" t="s">
         <v>1359</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="6">
-        <v>4381069</v>
-      </c>
-      <c r="E33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="C34" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D34" s="9">
         <v>1066339</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="7" t="s">
         <v>368</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A27:E34">
-    <sortCondition ref="A27:A34"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38700" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="28060" windowHeight="17060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Reactions!$A$1:$I$176</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">References!$A$1:$R$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$144</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$I$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$B$6</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="1394">
   <si>
     <t>Id</t>
   </si>
@@ -4228,6 +4228,12 @@
   </si>
   <si>
     <t>No comment</t>
+  </si>
+  <si>
+    <t>Objective function</t>
+  </si>
+  <si>
+    <t>2 * AdnTransport + Metabolism_biomass</t>
   </si>
 </sst>
 </file>
@@ -4669,12 +4675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4724,10 +4725,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="232" zoomScaleNormal="232" zoomScalePageLayoutView="232" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4736,7 +4737,7 @@
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4744,16 +4745,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>512</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1389</v>
       </c>
@@ -4761,9 +4759,6 @@
         <v>1390</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -4776,12 +4771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4931,12 +4921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5718,12 +5703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6121,12 +6101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6182,18 +6157,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6210,13 +6187,19 @@
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6232,10 +6215,16 @@
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -6253,8 +6242,10 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -6272,8 +6263,10 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -6291,9 +6284,11 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5"/>
+  <autoFilter ref="A1:I5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6302,12 +6297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6381,12 +6371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -9818,12 +9803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11221,15 +11201,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="157" zoomScalePageLayoutView="157" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="980" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="33.1640625" customWidth="1"/>
   </cols>
@@ -14932,11 +14911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" zoomScalePageLayoutView="166" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18186,8 +18162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="143" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="28060" windowHeight="17060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3260" windowWidth="28680" windowHeight="17880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="1398">
   <si>
     <t>Id</t>
   </si>
@@ -4233,7 +4233,19 @@
     <t>Objective function</t>
   </si>
   <si>
-    <t>2 * AdnTransport + Metabolism_biomass</t>
+    <t>Other_biomass</t>
+  </si>
+  <si>
+    <t>Other biomass</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>E.g., obj. fn.</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass + AdnTransport</t>
   </si>
 </sst>
 </file>
@@ -4675,7 +4687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4725,41 +4737,62 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1389</v>
       </c>
       <c r="B2" t="s">
         <v>1390</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>1391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1395</v>
       </c>
     </row>
   </sheetData>
@@ -6159,15 +6192,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G5"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6218,10 +6251,12 @@
       <c r="F2" s="5" t="s">
         <v>1389</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="G2" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1396</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14911,7 +14946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -18163,7 +18198,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3260" windowWidth="28680" windowHeight="17880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="660" windowWidth="24940" windowHeight="15540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -4740,7 +4740,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5736,7 +5736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="114" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6192,8 +6194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6332,7 +6334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6406,7 +6408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -9838,7 +9842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A90" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11236,9 +11242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="980" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="980" topLeftCell="A163" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I176" sqref="A1:I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14937,7 +14943,11 @@
       <c r="I176" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I176"/>
+  <autoFilter ref="A1:I176">
+    <sortState ref="A2:I176">
+      <sortCondition ref="A2:A176"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -14946,8 +14956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18198,7 +18208,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="660" windowWidth="24940" windowHeight="15540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="-38180" yWindow="660" windowWidth="31540" windowHeight="20360" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="1399">
   <si>
     <t>Id</t>
   </si>
@@ -4246,6 +4246,9 @@
   </si>
   <si>
     <t>Metabolism_biomass + AdnTransport</t>
+  </si>
+  <si>
+    <t>Cytoplasm</t>
   </si>
 </sst>
 </file>
@@ -4353,7 +4356,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4378,6 +4381,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -4804,11 +4811,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="177" zoomScaleNormal="177" zoomScalePageLayoutView="177" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4834,7 +4853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1159</v>
       </c>
@@ -4858,7 +4877,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1164</v>
       </c>
@@ -4878,7 +4897,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1167</v>
       </c>
@@ -4900,7 +4919,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1171</v>
       </c>
@@ -4924,7 +4943,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1174</v>
       </c>
@@ -6136,9 +6155,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -6195,7 +6217,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6334,11 +6356,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="168" workbookViewId="0">
+      <selection activeCell="D3" sqref="D2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6363,7 +6390,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>1398</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -9842,8 +9869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11242,7 +11270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="980" topLeftCell="A163" activePane="bottomLeft"/>
       <selection pane="bottomLeft" activeCell="I176" sqref="A1:I176"/>
     </sheetView>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38180" yWindow="660" windowWidth="31540" windowHeight="20360" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25020" windowHeight="15540" tabRatio="500" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="Biomass reactions" sheetId="13" r:id="rId10"/>
     <sheet name="Parameters" sheetId="9" r:id="rId11"/>
     <sheet name="References" sheetId="10" r:id="rId12"/>
-    <sheet name="Cross references" sheetId="11" r:id="rId13"/>
+    <sheet name="Database references" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concentrations!$A$1:$D$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Cross references'!$A$1:$J$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Database references'!$A$1:$J$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Parameters!$A$1:$H$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rate laws'!$A$1:$G$168</definedName>
@@ -5755,7 +5755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="114" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="114" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -6356,7 +6356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="168" workbookViewId="0">
+    <sheetView zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="168" workbookViewId="0">
       <selection activeCell="D3" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,43 +20,55 @@
     <sheet name="Biomass components" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Biomass reactions" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Parameters" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="References" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Database references" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="References" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Database references" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
-    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$5</definedName>
     <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$168</definedName>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$20</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$I$5</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$B$6</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$B$6</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$B$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$B$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$I$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$I$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$I$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$168</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$R$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$R$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -68,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="1416">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -3863,6 +3875,33 @@
   </si>
   <si>
     <t xml:space="preserve">RNA half life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop_cond_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] &gt; 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop_cond_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + ADP[c] + AMP[c] &lt; 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop_cond_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXP_c &gt;= 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop_cond_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[c] + AXP_c &lt;= -1</t>
   </si>
   <si>
     <t xml:space="preserve">Title</t>
@@ -4636,13 +4675,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="6" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="6" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -5260,8 +5299,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5329,19 +5368,19 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="177" zoomScaleNormal="177" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="11" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="11" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5499,6 +5538,102 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -5521,46 +5656,46 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1265</v>
+        <v>1274</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1266</v>
+        <v>1275</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1267</v>
+        <v>1276</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1268</v>
+        <v>1277</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1269</v>
+        <v>1278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1270</v>
+        <v>1279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1271</v>
+        <v>1280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1272</v>
+        <v>1281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1273</v>
+        <v>1282</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1274</v>
+        <v>1283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1276</v>
+        <v>1285</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1277</v>
+        <v>1286</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -5571,40 +5706,40 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1278</v>
+        <v>1287</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1279</v>
+        <v>1288</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1280</v>
+        <v>1289</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="n">
         <v>2008</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1282</v>
+        <v>1291</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>1283</v>
+        <v>1292</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1283</v>
+        <v>1292</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>1284</v>
+        <v>1293</v>
       </c>
       <c r="R2" s="2"/>
     </row>
@@ -5613,26 +5748,26 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1285</v>
+        <v>1294</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1286</v>
+        <v>1295</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1287</v>
+        <v>1296</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="n">
         <v>2014</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1288</v>
+        <v>1297</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -5642,127 +5777,127 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>1289</v>
+        <v>1298</v>
       </c>
       <c r="R3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1290</v>
+        <v>1299</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1291</v>
+        <v>1300</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1292</v>
+        <v>1301</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1293</v>
+        <v>1302</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="n">
         <v>2004</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1288</v>
+        <v>1297</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>1294</v>
+        <v>1303</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1295</v>
+        <v>1304</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>1296</v>
+        <v>1305</v>
       </c>
       <c r="R4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1297</v>
+        <v>1306</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1298</v>
+        <v>1307</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1299</v>
+        <v>1308</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1300</v>
+        <v>1309</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="n">
         <v>2009</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1301</v>
+        <v>1310</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>1302</v>
+        <v>1311</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1303</v>
+        <v>1312</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>1304</v>
+        <v>1313</v>
       </c>
       <c r="R5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1305</v>
+        <v>1314</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1306</v>
+        <v>1315</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1307</v>
+        <v>1316</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1308</v>
+        <v>1317</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="n">
         <v>2007</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1309</v>
+        <v>1318</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>1310</v>
+        <v>1319</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1283</v>
+        <v>1292</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -5775,27 +5910,27 @@
         <v>1259</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1311</v>
+        <v>1320</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1312</v>
+        <v>1321</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1313</v>
+        <v>1322</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="n">
         <v>2001</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1314</v>
+        <v>1323</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>1315</v>
+        <v>1324</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -5811,29 +5946,29 @@
         <v>1064</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1316</v>
+        <v>1325</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1317</v>
+        <v>1326</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1318</v>
+        <v>1327</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="n">
         <v>2006</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>1320</v>
+        <v>1329</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>1321</v>
+        <v>1330</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -5846,211 +5981,211 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1322</v>
+        <v>1331</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1323</v>
+        <v>1332</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1324</v>
+        <v>1333</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1325</v>
+        <v>1334</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="n">
         <v>1993</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>1326</v>
+        <v>1335</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>1327</v>
+        <v>1336</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>1283</v>
+        <v>1292</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>1328</v>
+        <v>1337</v>
       </c>
       <c r="R9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1330</v>
+        <v>1339</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1331</v>
+        <v>1340</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1332</v>
+        <v>1341</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="n">
         <v>2010</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>1333</v>
+        <v>1342</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>1334</v>
+        <v>1343</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1310</v>
+        <v>1319</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2" t="s">
-        <v>1335</v>
+        <v>1344</v>
       </c>
       <c r="R10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1336</v>
+        <v>1345</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1337</v>
+        <v>1346</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1338</v>
+        <v>1347</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1339</v>
+        <v>1348</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1340</v>
+        <v>1349</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>1341</v>
+        <v>1350</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1342</v>
+        <v>1351</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="R11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>1344</v>
+        <v>1353</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1345</v>
+        <v>1354</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1346</v>
+        <v>1355</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1347</v>
+        <v>1356</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="n">
         <v>1999</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>1283</v>
+        <v>1292</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1310</v>
+        <v>1319</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>1349</v>
+        <v>1358</v>
       </c>
       <c r="R12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1350</v>
+        <v>1359</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1351</v>
+        <v>1360</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1352</v>
+        <v>1361</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1353</v>
+        <v>1362</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="n">
         <v>1979</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1340</v>
+        <v>1349</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>1354</v>
+        <v>1363</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>1355</v>
+        <v>1364</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2" t="s">
-        <v>1356</v>
+        <v>1365</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -6059,40 +6194,40 @@
         <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1357</v>
+        <v>1366</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1358</v>
+        <v>1367</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1359</v>
+        <v>1368</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="n">
         <v>2012</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1360</v>
+        <v>1369</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>1361</v>
+        <v>1370</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1303</v>
+        <v>1312</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>1362</v>
+        <v>1371</v>
       </c>
       <c r="R14" s="2"/>
     </row>
@@ -6101,59 +6236,59 @@
         <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1363</v>
+        <v>1372</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1364</v>
+        <v>1373</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1365</v>
+        <v>1374</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="n">
         <v>2009</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>1368</v>
+        <v>1377</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="R15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1370</v>
+        <v>1379</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -6168,20 +6303,20 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1373</v>
+        <v>1382</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1374</v>
+        <v>1383</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -6196,20 +6331,20 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1375</v>
+        <v>1384</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1376</v>
+        <v>1385</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -6224,20 +6359,20 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1377</v>
+        <v>1386</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1378</v>
+        <v>1387</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -6259,13 +6394,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1379</v>
+        <v>1388</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -6291,7 +6426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6309,19 +6444,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1380</v>
+        <v>1389</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1381</v>
+        <v>1390</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1382</v>
+        <v>1391</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1383</v>
+        <v>1392</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>526</v>
@@ -6336,15 +6471,15 @@
         <v>1055</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1384</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1386</v>
+        <v>1395</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -6354,15 +6489,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1387</v>
+        <v>1396</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6372,15 +6507,15 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>1344</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1388</v>
+        <v>1397</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -6395,10 +6530,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1389</v>
+        <v>1398</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6408,15 +6543,15 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>1322</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1390</v>
+        <v>1399</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -6431,10 +6566,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1391</v>
+        <v>1400</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -6444,15 +6579,15 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>1305</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1392</v>
+        <v>1401</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -6462,15 +6597,15 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>1336</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1393</v>
+        <v>1402</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -6480,15 +6615,15 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>1290</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1394</v>
+        <v>1403</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -6503,10 +6638,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1395</v>
+        <v>1404</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6521,10 +6656,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1396</v>
+        <v>1405</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6539,10 +6674,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1397</v>
+        <v>1406</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -6552,15 +6687,15 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>1297</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>1398</v>
+        <v>1407</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1399</v>
+        <v>1408</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6575,10 +6710,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>1400</v>
+        <v>1409</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1401</v>
+        <v>1410</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6588,18 +6723,18 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>1350</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1382</v>
+        <v>1391</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1402</v>
+        <v>1411</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1402</v>
+        <v>1411</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -6608,18 +6743,18 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>1375</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1382</v>
+        <v>1391</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1403</v>
+        <v>1412</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1403</v>
+        <v>1412</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -6633,13 +6768,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1382</v>
+        <v>1391</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1404</v>
+        <v>1413</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1404</v>
+        <v>1413</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -6648,18 +6783,18 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>1370</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1382</v>
+        <v>1391</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1405</v>
+        <v>1414</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1405</v>
+        <v>1414</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -6668,18 +6803,18 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>1373</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>1382</v>
+        <v>1391</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1406</v>
+        <v>1415</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1406</v>
+        <v>1415</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -6688,7 +6823,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>1377</v>
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
@@ -6793,10 +6928,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -6946,7 +7081,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -11892,12 +12027,12 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -11995,15 +12130,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -15722,7 +15857,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -39,36 +39,47 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Model!$A$1:$B$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$B$6</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$B$6</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$B$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Taxon!$A$1:$B$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$I$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$I$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$I$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$I$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$D$126</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$168</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$168</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -80,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="1412">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -3883,25 +3894,13 @@
     <t xml:space="preserve">stop_cond_1</t>
   </si>
   <si>
-    <t xml:space="preserve">ATP[c] &gt; 1.5</t>
+    <t xml:space="preserve">AXP_c &gt;= 1</t>
   </si>
   <si>
     <t xml:space="preserve">stop_cond_2</t>
   </si>
   <si>
-    <t xml:space="preserve">ATP[c] + ADP[c] + AMP[c] &lt; 2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stop_cond_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXP_c &gt;= 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stop_cond_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[c] + AXP_c &lt;= -1</t>
+    <t xml:space="preserve">AXP_c + NTP_c &lt;= -1</t>
   </si>
   <si>
     <t xml:space="preserve">Title</t>
@@ -4676,8 +4675,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="6" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="6" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="6" width="9.31983805668016"/>
@@ -5299,8 +5298,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5373,13 +5372,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="11" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="11" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.6032388663968"/>
   </cols>
@@ -5538,19 +5537,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5592,30 +5591,6 @@
       </c>
       <c r="D3" s="2" t="s">
         <v>1269</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1273</v>
       </c>
     </row>
   </sheetData>
@@ -5656,46 +5631,46 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1286</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -5706,40 +5681,40 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="n">
         <v>2008</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="R2" s="2"/>
     </row>
@@ -5748,26 +5723,26 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="n">
         <v>2014</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -5777,127 +5752,127 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="R3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="n">
         <v>2004</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="R4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="n">
         <v>2009</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="R5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="n">
         <v>2007</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -5910,27 +5885,27 @@
         <v>1259</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="n">
         <v>2001</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -5946,29 +5921,29 @@
         <v>1064</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="n">
         <v>2006</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -5981,211 +5956,211 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="n">
         <v>1993</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="R9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="n">
         <v>2010</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="R10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="R11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="n">
         <v>1999</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="R12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="n">
         <v>1979</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -6194,40 +6169,40 @@
         <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="n">
         <v>2012</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="R14" s="2"/>
     </row>
@@ -6236,59 +6211,59 @@
         <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="n">
         <v>2009</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="R15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -6303,20 +6278,20 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -6331,20 +6306,20 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -6359,20 +6334,20 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -6394,13 +6369,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -6444,19 +6419,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>526</v>
@@ -6471,15 +6446,15 @@
         <v>1055</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -6489,15 +6464,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6507,15 +6482,15 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -6530,10 +6505,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1394</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1398</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6543,15 +6518,15 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -6566,10 +6541,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -6579,15 +6554,15 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -6597,15 +6572,15 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -6615,15 +6590,15 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -6638,10 +6613,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6656,10 +6631,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6674,10 +6649,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -6687,15 +6662,15 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6710,10 +6685,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6723,18 +6698,18 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -6743,18 +6718,18 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -6768,13 +6743,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -6783,18 +6758,18 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -6803,18 +6778,18 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -6823,7 +6798,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
   </sheetData>
@@ -6930,8 +6905,8 @@
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -7081,7 +7056,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -12032,7 +12007,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -12135,10 +12110,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -15857,7 +15832,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="1419">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -1645,55 +1645,64 @@
     <t xml:space="preserve">ValVal[e]</t>
   </si>
   <si>
+    <t xml:space="preserve">Observables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXP_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3) ATP[c] + (2) ADP[c] + AMP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDP_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADP[c] + CDP[c] + GDP[c] + UDP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMP_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP[c] + CMP[c] + GMP[c] + UMP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTP_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c] + CTP[c] + GTP[c] + UTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NXP_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDP_c + NMP_c + NTP_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">func_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXP_c &gt;= 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">func_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXP_c + NTP_c &lt;= -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">func_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXP_c + NTP_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXP_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3) ATP[c] + (2) ADP[c] + AMP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDP_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADP[c] + CDP[c] + GDP[c] + UDP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMP_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMP[c] + CMP[c] + GMP[c] + UMP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTP_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP[c] + CTP[c] + GTP[c] + UTP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">func_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXP_c &gt;= 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">func_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXP_c + NTP_c &lt;= -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">func_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXP_c + NTP_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
   </si>
   <si>
     <t xml:space="preserve">Reversible</t>
@@ -4694,19 +4703,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -4717,10 +4726,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>393</v>
@@ -4734,31 +4743,31 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>1247</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>393</v>
@@ -4770,10 +4779,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>393</v>
@@ -4785,10 +4794,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>458</v>
@@ -4800,10 +4809,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>398</v>
@@ -4815,10 +4824,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>398</v>
@@ -4830,10 +4839,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>458</v>
@@ -4845,10 +4854,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>458</v>
@@ -4860,10 +4869,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>458</v>
@@ -4875,10 +4884,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>407</v>
@@ -4892,31 +4901,31 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>250</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>458</v>
@@ -4928,10 +4937,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>415</v>
@@ -4945,31 +4954,31 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>180</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>417</v>
@@ -4983,31 +4992,31 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>1005.6</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>419</v>
@@ -5021,31 +5030,31 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>4200</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>481</v>
@@ -5057,10 +5066,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>458</v>
@@ -5072,10 +5081,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>458</v>
@@ -5087,10 +5096,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>458</v>
@@ -5102,10 +5111,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>466</v>
@@ -5117,31 +5126,31 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>13200</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>422</v>
@@ -5155,31 +5164,31 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0.276</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>458</v>
@@ -5191,10 +5200,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>440</v>
@@ -5208,31 +5217,31 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>628.8</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>458</v>
@@ -5244,10 +5253,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>446</v>
@@ -5259,31 +5268,31 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>220</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>458</v>
@@ -5295,10 +5304,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>458</v>
@@ -5310,10 +5319,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>458</v>
@@ -5325,10 +5334,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>455</v>
@@ -5340,94 +5349,94 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>21667.02</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>10020</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>30.6</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>12</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>462</v>
@@ -5439,31 +5448,31 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>1511</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>464</v>
@@ -5475,31 +5484,31 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>88800</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>464</v>
@@ -5511,31 +5520,31 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>340</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>458</v>
@@ -5547,10 +5556,10 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>472</v>
@@ -5562,31 +5571,31 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>213000</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>458</v>
@@ -5598,10 +5607,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>479</v>
@@ -5613,73 +5622,73 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>9600</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>47</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>200</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>483</v>
@@ -5691,13 +5700,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5706,19 +5715,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5727,19 +5736,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5748,19 +5757,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5769,19 +5778,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5790,19 +5799,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5811,19 +5820,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5832,19 +5841,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5853,19 +5862,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5874,19 +5883,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5895,19 +5904,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5916,19 +5925,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5937,19 +5946,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5958,19 +5967,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -5979,19 +5988,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6000,19 +6009,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6021,19 +6030,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6042,19 +6051,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6063,19 +6072,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6084,19 +6093,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6105,19 +6114,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6126,19 +6135,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6147,19 +6156,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6168,19 +6177,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6189,19 +6198,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6210,19 +6219,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6231,19 +6240,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6252,19 +6261,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6273,19 +6282,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6294,19 +6303,19 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -6315,16 +6324,16 @@
         <v>1.81285794880199E-007</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>493</v>
@@ -6336,31 +6345,31 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>120</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>444</v>
@@ -6372,31 +6381,31 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>4140</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>458</v>
@@ -6408,10 +6417,10 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>458</v>
@@ -6423,10 +6432,10 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>499</v>
@@ -6438,10 +6447,10 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>499</v>
@@ -6453,10 +6462,10 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>501</v>
@@ -6468,10 +6477,10 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>501</v>
@@ -6483,10 +6492,10 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>501</v>
@@ -6498,10 +6507,10 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>501</v>
@@ -6513,13 +6522,13 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6528,19 +6537,19 @@
         <v>0.001</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6549,19 +6558,19 @@
         <v>0.001</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6570,19 +6579,19 @@
         <v>0.001</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6591,19 +6600,19 @@
         <v>0.001</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D104" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6612,19 +6621,19 @@
         <v>0.001</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6633,19 +6642,19 @@
         <v>0.001</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D106" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6654,19 +6663,19 @@
         <v>0.001</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6675,19 +6684,19 @@
         <v>0.001</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6696,19 +6705,19 @@
         <v>0.001</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6717,19 +6726,19 @@
         <v>0.001</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6738,19 +6747,19 @@
         <v>0.001</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D111" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6759,19 +6768,19 @@
         <v>0.001</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D112" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6780,19 +6789,19 @@
         <v>0.001</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D113" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6801,19 +6810,19 @@
         <v>0.001</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6822,19 +6831,19 @@
         <v>0.001</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6843,19 +6852,19 @@
         <v>0.001</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D116" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6864,19 +6873,19 @@
         <v>0.001</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D117" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6885,19 +6894,19 @@
         <v>0.001</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D118" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6906,19 +6915,19 @@
         <v>0.001</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6927,19 +6936,19 @@
         <v>0.001</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6948,19 +6957,19 @@
         <v>0.001</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6969,19 +6978,19 @@
         <v>0.001</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -6990,19 +6999,19 @@
         <v>0.001</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -7011,19 +7020,19 @@
         <v>0.001</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -7032,19 +7041,19 @@
         <v>0.001</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -7053,19 +7062,19 @@
         <v>0.001</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -7074,19 +7083,19 @@
         <v>0.001</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D127" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -7095,19 +7104,19 @@
         <v>0.001</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D128" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -7116,19 +7125,19 @@
         <v>0.001</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D129" s="2" t="n">
         <v>0.000233455821230259</v>
@@ -7137,19 +7146,19 @@
         <v>0.001</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>265.521194884729</v>
@@ -7158,19 +7167,19 @@
         <v>0.0005</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D131" s="2" t="n">
         <v>265.521194884729</v>
@@ -7179,19 +7188,19 @@
         <v>0.0005</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="D132" s="2" t="n">
         <v>265.521194884729</v>
@@ -7200,19 +7209,19 @@
         <v>0.0005</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="D133" s="2" t="n">
         <v>265.521194884729</v>
@@ -7221,19 +7230,19 @@
         <v>0.0005</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="D134" s="2" t="n">
         <v>265.521194884729</v>
@@ -7242,19 +7251,19 @@
         <v>0.0005</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="D135" s="2" t="n">
         <v>265.521194884729</v>
@@ -7263,19 +7272,19 @@
         <v>0.0005</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="D136" s="2" t="n">
         <v>265.521194884729</v>
@@ -7284,19 +7293,19 @@
         <v>0.0005</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D137" s="2" t="n">
         <v>265.521194884729</v>
@@ -7305,19 +7314,19 @@
         <v>0.0005</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="D138" s="2" t="n">
         <v>265.521194884729</v>
@@ -7326,19 +7335,19 @@
         <v>0.0005</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="D139" s="2" t="n">
         <v>265.521194884729</v>
@@ -7347,19 +7356,19 @@
         <v>0.0005</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="D140" s="2" t="n">
         <v>265.521194884729</v>
@@ -7368,19 +7377,19 @@
         <v>0.0005</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="D141" s="2" t="n">
         <v>265.521194884729</v>
@@ -7389,19 +7398,19 @@
         <v>0.0005</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="D142" s="2" t="n">
         <v>265.521194884729</v>
@@ -7410,19 +7419,19 @@
         <v>0.0005</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="D143" s="2" t="n">
         <v>265.521194884729</v>
@@ -7431,19 +7440,19 @@
         <v>0.0005</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="D144" s="2" t="n">
         <v>265.521194884729</v>
@@ -7452,19 +7461,19 @@
         <v>0.0005</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="D145" s="2" t="n">
         <v>265.521194884729</v>
@@ -7473,19 +7482,19 @@
         <v>0.0005</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="D146" s="2" t="n">
         <v>265.521194884729</v>
@@ -7494,19 +7503,19 @@
         <v>0.0005</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>265.521194884729</v>
@@ -7515,19 +7524,19 @@
         <v>0.0005</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="D148" s="2" t="n">
         <v>265.521194884729</v>
@@ -7536,19 +7545,19 @@
         <v>0.0005</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D149" s="2" t="n">
         <v>265.521194884729</v>
@@ -7557,19 +7566,19 @@
         <v>0.0005</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="D150" s="2" t="n">
         <v>265.521194884729</v>
@@ -7578,19 +7587,19 @@
         <v>0.0005</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="D151" s="2" t="n">
         <v>265.521194884729</v>
@@ -7599,19 +7608,19 @@
         <v>0.0005</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="D152" s="2" t="n">
         <v>265.521194884729</v>
@@ -7620,19 +7629,19 @@
         <v>0.0005</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="D153" s="2" t="n">
         <v>265.521194884729</v>
@@ -7641,19 +7650,19 @@
         <v>0.0005</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="D154" s="2" t="n">
         <v>265.521194884729</v>
@@ -7662,19 +7671,19 @@
         <v>0.0005</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="D155" s="2" t="n">
         <v>265.521194884729</v>
@@ -7683,19 +7692,19 @@
         <v>0.0005</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="D156" s="2" t="n">
         <v>265.521194884729</v>
@@ -7704,19 +7713,19 @@
         <v>0.0005</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="D157" s="2" t="n">
         <v>265.521194884729</v>
@@ -7725,19 +7734,19 @@
         <v>0.0005</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="D158" s="2" t="n">
         <v>265.521194884729</v>
@@ -7746,19 +7755,19 @@
         <v>0.0005</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="D159" s="2" t="n">
         <v>265.521194884729</v>
@@ -7767,16 +7776,16 @@
         <v>0.0005</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>458</v>
@@ -7788,10 +7797,10 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>458</v>
@@ -7803,52 +7812,52 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="D162" s="2" t="n">
         <v>6.5</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="D163" s="2" t="n">
         <v>1.58</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>485</v>
@@ -7860,31 +7869,31 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D165" s="2" t="n">
         <v>52</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>510</v>
@@ -7896,10 +7905,10 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>510</v>
@@ -7911,10 +7920,10 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>458</v>
@@ -7971,10 +7980,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -7985,10 +7994,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>21</v>
@@ -8000,18 +8009,18 @@
         <v>56</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
@@ -8025,10 +8034,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -8042,10 +8051,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -8059,10 +8068,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -8076,10 +8085,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -8093,10 +8102,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -8110,10 +8119,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -8127,10 +8136,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>21</v>
@@ -8144,10 +8153,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -8161,10 +8170,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>21</v>
@@ -8178,10 +8187,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -8195,10 +8204,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>21</v>
@@ -8212,10 +8221,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -8229,10 +8238,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -8246,10 +8255,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -8263,10 +8272,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>21</v>
@@ -8280,10 +8289,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -8297,10 +8306,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -8314,10 +8323,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>21</v>
@@ -8331,10 +8340,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -8348,10 +8357,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>21</v>
@@ -8365,10 +8374,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -8382,10 +8391,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -8399,10 +8408,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -8416,10 +8425,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -8433,10 +8442,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -8450,10 +8459,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>21</v>
@@ -8467,10 +8476,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>21</v>
@@ -8484,10 +8493,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -8501,10 +8510,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -8518,10 +8527,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -8535,10 +8544,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>21</v>
@@ -8601,27 +8610,27 @@
         <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
@@ -8670,13 +8679,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>391</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -8687,10 +8696,10 @@
     </row>
     <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -8700,21 +8709,21 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -8724,17 +8733,17 @@
         <v>28800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -8744,19 +8753,19 @@
         <v>0.3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -8766,21 +8775,21 @@
         <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -8790,7 +8799,7 @@
         <v>300</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -8839,7 +8848,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -8847,26 +8856,26 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -8907,46 +8916,46 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -8957,40 +8966,40 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="n">
         <v>2008</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="R2" s="2"/>
     </row>
@@ -8999,26 +9008,26 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="n">
         <v>2014</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -9028,127 +9037,127 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="R3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="n">
         <v>2004</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="R4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="n">
         <v>2009</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="R5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="n">
         <v>2007</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -9158,30 +9167,30 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="n">
         <v>2001</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -9194,32 +9203,32 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="n">
         <v>2006</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -9232,211 +9241,211 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="n">
         <v>1993</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="R9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="n">
         <v>2010</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="R10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="R11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="n">
         <v>1999</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="R12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="n">
         <v>1979</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -9445,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="n">
         <v>2012</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="R14" s="2"/>
     </row>
@@ -9487,59 +9496,59 @@
         <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="n">
         <v>2009</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="R15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -9554,20 +9563,20 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -9582,20 +9591,20 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -9610,20 +9619,20 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -9645,13 +9654,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -9695,42 +9704,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9740,15 +9749,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9758,15 +9767,15 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9776,15 +9785,15 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9794,15 +9803,15 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -9817,10 +9826,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -9830,15 +9839,15 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -9848,15 +9857,15 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -9866,15 +9875,15 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -9889,10 +9898,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -9907,10 +9916,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9925,10 +9934,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -9938,15 +9947,15 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9956,15 +9965,15 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9974,18 +9983,18 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -9994,18 +10003,18 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -10019,13 +10028,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -10034,18 +10043,18 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -10054,18 +10063,18 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -10074,7 +10083,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -15276,17 +15285,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
@@ -15302,9 +15311,12 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15318,6 +15330,7 @@
       <c r="D2" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -15331,6 +15344,7 @@
         <v>521</v>
       </c>
       <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -15344,6 +15358,7 @@
         <v>523</v>
       </c>
       <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -15357,6 +15372,21 @@
         <v>525</v>
       </c>
       <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15376,12 +15406,12 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -15400,7 +15430,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -15408,38 +15438,38 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -15485,19 +15515,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -15508,16 +15538,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>1</v>
@@ -15529,16 +15559,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1</v>
@@ -15550,16 +15580,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>1</v>
@@ -15571,16 +15601,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -15592,16 +15622,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1</v>
@@ -15613,16 +15643,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -15634,16 +15664,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -15655,16 +15685,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -15676,16 +15706,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>1</v>
@@ -15697,16 +15727,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>1</v>
@@ -15718,16 +15748,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -15739,16 +15769,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1</v>
@@ -15760,16 +15790,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -15781,16 +15811,16 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -15802,16 +15832,16 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -15823,16 +15853,16 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -15844,16 +15874,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -15865,16 +15895,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -15886,16 +15916,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -15907,16 +15937,16 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
@@ -15928,16 +15958,16 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -15949,16 +15979,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>0</v>
@@ -15970,16 +16000,16 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -15991,16 +16021,16 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>0</v>
@@ -16012,16 +16042,16 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -16033,16 +16063,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -16054,16 +16084,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -16075,16 +16105,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -16096,16 +16126,16 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -16117,16 +16147,16 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -16138,16 +16168,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -16159,16 +16189,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>0</v>
@@ -16180,16 +16210,16 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>1</v>
@@ -16201,16 +16231,16 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>1</v>
@@ -16222,16 +16252,16 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>1</v>
@@ -16243,16 +16273,16 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>0</v>
@@ -16264,16 +16294,16 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
@@ -16285,16 +16315,16 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>0</v>
@@ -16306,16 +16336,16 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>0</v>
@@ -16327,16 +16357,16 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>0</v>
@@ -16348,16 +16378,16 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>1</v>
@@ -16369,16 +16399,16 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>1</v>
@@ -16390,16 +16420,16 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>1</v>
@@ -16411,16 +16441,16 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>0</v>
@@ -16432,16 +16462,16 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>1</v>
@@ -16453,16 +16483,16 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>1</v>
@@ -16474,16 +16504,16 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>0</v>
@@ -16495,16 +16525,16 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>0</v>
@@ -16516,16 +16546,16 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>1</v>
@@ -16537,16 +16567,16 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>0</v>
@@ -16558,16 +16588,16 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>0</v>
@@ -16579,16 +16609,16 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>0</v>
@@ -16600,16 +16630,16 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>1</v>
@@ -16621,16 +16651,16 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>1</v>
@@ -16642,16 +16672,16 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>0</v>
@@ -16663,16 +16693,16 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>0</v>
@@ -16684,16 +16714,16 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>0</v>
@@ -16705,16 +16735,16 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>1</v>
@@ -16726,16 +16756,16 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>1</v>
@@ -16747,16 +16777,16 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>1</v>
@@ -16768,16 +16798,16 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>0</v>
@@ -16789,16 +16819,16 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>0</v>
@@ -16810,16 +16840,16 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>0</v>
@@ -16831,16 +16861,16 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>0</v>
@@ -16852,16 +16882,16 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>0</v>
@@ -16873,16 +16903,16 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>0</v>
@@ -16894,16 +16924,16 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>0</v>
@@ -16915,16 +16945,16 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>0</v>
@@ -16936,16 +16966,16 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>0</v>
@@ -16957,16 +16987,16 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>0</v>
@@ -16978,16 +17008,16 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>0</v>
@@ -16999,16 +17029,16 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>0</v>
@@ -17020,16 +17050,16 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>0</v>
@@ -17041,16 +17071,16 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>0</v>
@@ -17062,16 +17092,16 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>0</v>
@@ -17083,16 +17113,16 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>0</v>
@@ -17104,16 +17134,16 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>0</v>
@@ -17125,16 +17155,16 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>0</v>
@@ -17146,16 +17176,16 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>0</v>
@@ -17167,16 +17197,16 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>0</v>
@@ -17188,16 +17218,16 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>0</v>
@@ -17209,16 +17239,16 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>0</v>
@@ -17230,16 +17260,16 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>0</v>
@@ -17251,16 +17281,16 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>0</v>
@@ -17272,16 +17302,16 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>0</v>
@@ -17293,16 +17323,16 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>0</v>
@@ -17314,16 +17344,16 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>0</v>
@@ -17335,16 +17365,16 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>0</v>
@@ -17356,16 +17386,16 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>0</v>
@@ -17377,16 +17407,16 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>0</v>
@@ -17398,16 +17428,16 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>0</v>
@@ -17419,16 +17449,16 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>0</v>
@@ -17440,16 +17470,16 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>0</v>
@@ -17461,16 +17491,16 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>0</v>
@@ -17482,16 +17512,16 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>0</v>
@@ -17503,16 +17533,16 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>0</v>
@@ -17524,16 +17554,16 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>0</v>
@@ -17545,16 +17575,16 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>0</v>
@@ -17566,16 +17596,16 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>0</v>
@@ -17587,16 +17617,16 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>1</v>
@@ -17608,16 +17638,16 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>1</v>
@@ -17629,16 +17659,16 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>0</v>
@@ -17650,16 +17680,16 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>1</v>
@@ -17671,16 +17701,16 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="E105" s="2" t="n">
         <v>0</v>
@@ -17692,16 +17722,16 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>1</v>
@@ -17713,16 +17743,16 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>1</v>
@@ -17734,16 +17764,16 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>1</v>
@@ -17755,16 +17785,16 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>0</v>
@@ -17776,16 +17806,16 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>0</v>
@@ -17797,16 +17827,16 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>0</v>
@@ -17818,16 +17848,16 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>0</v>
@@ -17839,16 +17869,16 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>0</v>
@@ -17860,16 +17890,16 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>0</v>
@@ -17881,16 +17911,16 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>0</v>
@@ -17902,16 +17932,16 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>0</v>
@@ -17923,16 +17953,16 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>0</v>
@@ -17944,16 +17974,16 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>0</v>
@@ -17965,16 +17995,16 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="E119" s="2" t="n">
         <v>0</v>
@@ -17986,16 +18016,16 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="E120" s="2" t="n">
         <v>0</v>
@@ -18007,16 +18037,16 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="E121" s="2" t="n">
         <v>0</v>
@@ -18028,16 +18058,16 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>0</v>
@@ -18049,16 +18079,16 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>0</v>
@@ -18070,16 +18100,16 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>0</v>
@@ -18091,16 +18121,16 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E125" s="2" t="n">
         <v>0</v>
@@ -18112,16 +18142,16 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="E126" s="2" t="n">
         <v>0</v>
@@ -18133,16 +18163,16 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E127" s="2" t="n">
         <v>0</v>
@@ -18154,16 +18184,16 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="E128" s="2" t="n">
         <v>0</v>
@@ -18175,16 +18205,16 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E129" s="2" t="n">
         <v>0</v>
@@ -18196,16 +18226,16 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="E130" s="2" t="n">
         <v>0</v>
@@ -18217,16 +18247,16 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="E131" s="2" t="n">
         <v>0</v>
@@ -18238,16 +18268,16 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="E132" s="2" t="n">
         <v>0</v>
@@ -18259,16 +18289,16 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E133" s="2" t="n">
         <v>0</v>
@@ -18280,16 +18310,16 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E134" s="2" t="n">
         <v>0</v>
@@ -18301,16 +18331,16 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>0</v>
@@ -18322,16 +18352,16 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="E136" s="2" t="n">
         <v>0</v>
@@ -18343,16 +18373,16 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="E137" s="2" t="n">
         <v>0</v>
@@ -18364,16 +18394,16 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="E138" s="2" t="n">
         <v>0</v>
@@ -18385,16 +18415,16 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>0</v>
@@ -18406,16 +18436,16 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>0</v>
@@ -18427,16 +18457,16 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>0</v>
@@ -18448,16 +18478,16 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E142" s="2" t="n">
         <v>0</v>
@@ -18469,16 +18499,16 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E143" s="2" t="n">
         <v>0</v>
@@ -18490,16 +18520,16 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="E144" s="2" t="n">
         <v>0</v>
@@ -18511,16 +18541,16 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="E145" s="2" t="n">
         <v>0</v>
@@ -18532,16 +18562,16 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="E146" s="2" t="n">
         <v>0</v>
@@ -18553,16 +18583,16 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="E147" s="2" t="n">
         <v>0</v>
@@ -18574,16 +18604,16 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>0</v>
@@ -18595,16 +18625,16 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>0</v>
@@ -18616,16 +18646,16 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="E150" s="2" t="n">
         <v>0</v>
@@ -18637,16 +18667,16 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="E151" s="2" t="n">
         <v>0</v>
@@ -18658,16 +18688,16 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E152" s="2" t="n">
         <v>0</v>
@@ -18679,16 +18709,16 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="E153" s="2" t="n">
         <v>0</v>
@@ -18700,16 +18730,16 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="E154" s="2" t="n">
         <v>0</v>
@@ -18721,16 +18751,16 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>0</v>
@@ -18742,16 +18772,16 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E156" s="2" t="n">
         <v>0</v>
@@ -18763,16 +18793,16 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>0</v>
@@ -18784,16 +18814,16 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="E158" s="2" t="n">
         <v>0</v>
@@ -18805,16 +18835,16 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="E159" s="2" t="n">
         <v>0</v>
@@ -18826,16 +18856,16 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="E160" s="2" t="n">
         <v>0</v>
@@ -18847,16 +18877,16 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="E161" s="2" t="n">
         <v>0</v>
@@ -18868,16 +18898,16 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E162" s="2" t="n">
         <v>0</v>
@@ -18889,16 +18919,16 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E163" s="2" t="n">
         <v>0</v>
@@ -18910,16 +18940,16 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="E164" s="2" t="n">
         <v>0</v>
@@ -18931,16 +18961,16 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="E165" s="2" t="n">
         <v>0</v>
@@ -18952,16 +18982,16 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="E166" s="2" t="n">
         <v>0</v>
@@ -18973,16 +19003,16 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="E167" s="2" t="n">
         <v>0</v>
@@ -18994,16 +19024,16 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="E168" s="2" t="n">
         <v>0</v>
@@ -19015,16 +19045,16 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="E169" s="2" t="n">
         <v>0</v>
@@ -19034,16 +19064,16 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="E170" s="2" t="n">
         <v>0</v>
@@ -19053,16 +19083,16 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="E171" s="2" t="n">
         <v>0</v>
@@ -19072,16 +19102,16 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="E172" s="2" t="n">
         <v>0</v>
@@ -19091,16 +19121,16 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="E173" s="2" t="n">
         <v>1</v>
@@ -19110,16 +19140,16 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="E174" s="2" t="n">
         <v>1</v>
@@ -19129,16 +19159,16 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="E175" s="2" t="n">
         <v>1</v>
@@ -19148,16 +19178,16 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="E176" s="2" t="n">
         <v>0</v>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,8 +31,8 @@
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
     <definedName function="false" hidden="true" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$37</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$I$168</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$20</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
@@ -106,6 +106,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$E$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$E$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$E$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$E$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
@@ -135,6 +136,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
@@ -164,6 +166,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
@@ -193,6 +196,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
@@ -222,6 +226,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
@@ -230,8 +235,8 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$I$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
@@ -251,6 +256,7 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
@@ -259,8 +265,8 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$G$37</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
@@ -280,6 +286,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
@@ -309,6 +316,7 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
@@ -338,6 +346,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -349,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="1806">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -4102,9 +4111,6 @@
   </si>
   <si>
     <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
   </si>
   <si>
     <t xml:space="preserve">AK_AMP-backward</t>
@@ -6071,7 +6077,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.1336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -6193,9 +6199,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="3" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6258,10 +6264,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="56.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -9979,12 +9985,12 @@
   </sheetPr>
   <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10009,7 +10015,7 @@
         <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1251</v>
+        <v>702</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>575</v>
@@ -10023,3680 +10029,3680 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>727</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>1255</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1256</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>727</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1259</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>730</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>400</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>730</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>400</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>733</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>736</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>407</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>736</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>407</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>739</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>742</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>745</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>748</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>420</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>748</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>754</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>820</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>433</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>820</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>823</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>436</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>823</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>826</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>442</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>826</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>829</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>522</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>832</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>835</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>838</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>844</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>504</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>844</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>847</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>445</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>847</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>853</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>856</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>468</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>856</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>862</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>868</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>477</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>868</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>871</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>874</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>877</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>880</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>491</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>880</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>886</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>889</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>892</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>895</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>500</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>895</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>898</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>502</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>898</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>901</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>502</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>901</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>904</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>907</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>511</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>910</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>913</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>916</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>520</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>919</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>922</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>925</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>928</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>524</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>931</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>934</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>937</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>940</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>943</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>946</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>949</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>952</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>955</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>958</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>961</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>964</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>967</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>970</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>973</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>976</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>979</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>982</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>985</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>988</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>991</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>994</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>997</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>1000</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>1003</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>1006</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>1009</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>1018</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>537</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>1024</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>475</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>1024</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>1027</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>1036</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>548</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>1036</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>548</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>1039</v>
       </c>
       <c r="D96" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>550</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>1039</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>550</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>1042</v>
       </c>
       <c r="D98" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>550</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="8" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>1042</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>550</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>1045</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>1051</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>1054</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>1057</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>1060</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
     <row r="106" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>1063</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
     <row r="107" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>1066</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>1069</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>1072</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>1075</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
     <row r="111" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
     </row>
     <row r="112" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>1081</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
     <row r="113" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>1084</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
     <row r="114" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>1087</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="8" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>1090</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="8" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>1093</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
     </row>
     <row r="117" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>1096</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="8" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>1099</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>1102</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
     <row r="120" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>1105</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="8" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>1108</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
     <row r="122" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>1111</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
     <row r="123" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>1114</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>1117</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>1120</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
     </row>
     <row r="126" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="8" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>1123</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>1126</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
     <row r="128" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>1129</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
     <row r="129" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>1132</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
     </row>
     <row r="130" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="8" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>1135</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
     <row r="131" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>1138</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
     </row>
     <row r="132" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>1141</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
     </row>
     <row r="133" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>1144</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
     </row>
     <row r="134" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="8" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>1147</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
     <row r="135" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>1150</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
     <row r="136" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="8" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>1153</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
     <row r="137" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>1156</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
     </row>
     <row r="138" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>1159</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
     </row>
     <row r="139" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>1162</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>1165</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
     <row r="141" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="8" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>1168</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
     <row r="142" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="8" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>1171</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
     <row r="143" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>1174</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
     </row>
     <row r="144" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>1177</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>1180</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
     </row>
     <row r="146" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>1183</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
     </row>
     <row r="147" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>1186</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
     </row>
     <row r="148" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>1189</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
     <row r="149" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>1192</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
     </row>
     <row r="150" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>1195</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
     </row>
     <row r="151" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>1198</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
     </row>
     <row r="152" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>1201</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
     </row>
     <row r="153" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>1204</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
     </row>
     <row r="154" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>1207</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
     </row>
     <row r="156" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="8" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
     </row>
     <row r="157" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>1216</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
     </row>
     <row r="158" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>1219</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>1222</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>1225</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>1228</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
     </row>
     <row r="162" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="8" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>1231</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
     </row>
     <row r="163" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
     </row>
     <row r="164" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>1237</v>
       </c>
       <c r="D164" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>527</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>1237</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
     </row>
     <row r="166" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>1240</v>
       </c>
       <c r="D166" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E166" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>562</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
     </row>
     <row r="167" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>1240</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>562</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
     </row>
     <row r="168" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="8" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>1246</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>496</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:I168"/>
+  <autoFilter ref="A1:I168"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13725,8 +13731,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="9" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="9" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1020" min="6" style="9" width="8.78542510121457"/>
@@ -13752,30 +13758,30 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1510</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1511</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1513</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1514</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
   </sheetData>
@@ -13807,8 +13813,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="11" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="11" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="11" width="8.78542510121457"/>
@@ -13825,10 +13831,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1516</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1517</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>573</v>
@@ -13842,13 +13848,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>1518</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>1519</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D2" s="13" t="n">
         <v>-34190.38</v>
@@ -13857,21 +13863,21 @@
         <v>403</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>1520</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1522</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>1523</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D3" s="13" t="n">
         <v>-40890.38</v>
@@ -13882,13 +13888,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>1524</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>1525</v>
-      </c>
       <c r="C4" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D4" s="13" t="n">
         <v>-23190.38</v>
@@ -13899,13 +13905,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>1527</v>
-      </c>
       <c r="C5" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D5" s="13" t="n">
         <v>-24290.38</v>
@@ -13916,13 +13922,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>1528</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>1529</v>
-      </c>
       <c r="C6" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D6" s="13" t="n">
         <v>-1101856</v>
@@ -13933,13 +13939,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>1530</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>1531</v>
-      </c>
       <c r="C7" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D7" s="13" t="n">
         <v>-1164906</v>
@@ -13950,13 +13956,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>1532</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>1533</v>
-      </c>
       <c r="C8" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D8" s="13" t="n">
         <v>-22290.38</v>
@@ -13967,13 +13973,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>1534</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>1535</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D9" s="13" t="n">
         <v>-24690.38</v>
@@ -13984,13 +13990,13 @@
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>1536</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>1537</v>
-      </c>
       <c r="C10" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D10" s="13" t="n">
         <v>-22690.38</v>
@@ -14001,13 +14007,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>1538</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>1539</v>
-      </c>
       <c r="C11" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D11" s="13" t="n">
         <v>-31190.38</v>
@@ -14018,13 +14024,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>1540</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>1541</v>
-      </c>
       <c r="C12" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D12" s="13" t="n">
         <v>-1728316</v>
@@ -14035,13 +14041,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1542</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>1543</v>
-      </c>
       <c r="C13" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D13" s="13" t="n">
         <v>-1521617000</v>
@@ -14052,13 +14058,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>1544</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>1545</v>
-      </c>
       <c r="C14" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D14" s="13" t="n">
         <v>-21590.38</v>
@@ -14069,13 +14075,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>1546</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>1547</v>
-      </c>
       <c r="C15" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D15" s="13" t="n">
         <v>-29290.38</v>
@@ -14086,13 +14092,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>1549</v>
-      </c>
       <c r="C16" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D16" s="13" t="n">
         <v>-41190.38</v>
@@ -14103,13 +14109,13 @@
     </row>
     <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>1550</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>1551</v>
-      </c>
       <c r="C17" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D17" s="13" t="n">
         <v>-21990.38</v>
@@ -14120,13 +14126,13 @@
     </row>
     <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>1552</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>1553</v>
-      </c>
       <c r="C18" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D18" s="13" t="n">
         <v>-21390.38</v>
@@ -14137,13 +14143,13 @@
     </row>
     <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>1554</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>1555</v>
-      </c>
       <c r="C19" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D19" s="13" t="n">
         <v>-23890.38</v>
@@ -14154,13 +14160,13 @@
     </row>
     <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>1556</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>1557</v>
-      </c>
       <c r="C20" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D20" s="13" t="n">
         <v>-34390.38</v>
@@ -14171,13 +14177,13 @@
     </row>
     <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>1558</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>1559</v>
-      </c>
       <c r="C21" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D21" s="13" t="n">
         <v>-44490.38</v>
@@ -14188,13 +14194,13 @@
     </row>
     <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>1560</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>1561</v>
-      </c>
       <c r="C22" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D22" s="13" t="n">
         <v>-36190.38</v>
@@ -14205,13 +14211,13 @@
     </row>
     <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>1562</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>1563</v>
-      </c>
       <c r="C23" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D23" s="13" t="n">
         <v>-22190.38</v>
@@ -14222,13 +14228,13 @@
     </row>
     <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>1565</v>
-      </c>
       <c r="C24" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D24" s="13" t="n">
         <v>-21990.38</v>
@@ -14239,13 +14245,13 @@
     </row>
     <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>1566</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>1567</v>
-      </c>
       <c r="C25" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D25" s="13" t="n">
         <v>-1132896</v>
@@ -14256,13 +14262,13 @@
     </row>
     <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>1568</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>1569</v>
-      </c>
       <c r="C26" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D26" s="13" t="n">
         <v>-33790.38</v>
@@ -14273,13 +14279,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>1570</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>1571</v>
-      </c>
       <c r="C27" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D27" s="13" t="n">
         <v>1035619</v>
@@ -14290,13 +14296,13 @@
     </row>
     <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>1572</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>1573</v>
-      </c>
       <c r="C28" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D28" s="13" t="n">
         <v>1098019</v>
@@ -14307,13 +14313,13 @@
     </row>
     <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>1574</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>1575</v>
-      </c>
       <c r="C29" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D29" s="13" t="n">
         <v>581419.2</v>
@@ -14324,13 +14330,13 @@
     </row>
     <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>1576</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>1577</v>
-      </c>
       <c r="C30" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D30" s="13" t="n">
         <v>1052899</v>
@@ -14341,13 +14347,13 @@
     </row>
     <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>1578</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>1579</v>
-      </c>
       <c r="C31" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D31" s="13" t="n">
         <v>4972350</v>
@@ -14358,13 +14364,13 @@
     </row>
     <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>1580</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>1581</v>
-      </c>
       <c r="C32" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D32" s="13" t="n">
         <v>471096.2</v>
@@ -14375,13 +14381,13 @@
     </row>
     <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>1582</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>1583</v>
-      </c>
       <c r="C33" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D33" s="13" t="n">
         <v>4381069</v>
@@ -14392,13 +14398,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>1584</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>1585</v>
-      </c>
       <c r="C34" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D34" s="13" t="n">
         <v>1066339</v>
@@ -14409,13 +14415,13 @@
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D35" s="13" t="n">
         <v>4381069</v>
@@ -14426,13 +14432,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D36" s="13" t="n">
         <v>1066339</v>
@@ -14459,7 +14465,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -14498,74 +14504,74 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1588</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1589</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>1591</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1592</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1593</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>28800</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1595</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1596</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>1247</v>
@@ -14573,16 +14579,16 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>250</v>
@@ -14590,16 +14596,16 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>180</v>
@@ -14607,571 +14613,571 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>1005.6</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>1605</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>4200</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>1608</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>13200</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>0.276</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>628.8</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>220</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>21667.02</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>10020</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>30.6</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>12</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="3" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>1511</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>88800</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>340</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>213000</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>9600</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="3" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>47</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="3" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>200</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="3" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>120</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>0.000231049060186648</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="3" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="G26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>4140</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>265.521194884729</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>0.000233455821230259</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>1.58</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>6.5</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>52</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>1.81285794880199E-007</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="3" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="G33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>0.0005</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>0.001</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>1659</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>1660</v>
-      </c>
       <c r="C36" s="14" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>20</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>1662</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>1663</v>
-      </c>
       <c r="C37" s="14" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D37" s="3" t="n">
         <v>300</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G6"/>
+  <autoFilter ref="A1:G37"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15222,7 +15228,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -15231,7 +15237,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -15277,46 +15283,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1667</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1668</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1669</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>1676</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1677</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -15327,37 +15333,37 @@
         <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1678</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1679</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1680</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="n">
         <v>2008</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>1681</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1682</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Q2" s="3"/>
     </row>
@@ -15366,23 +15372,23 @@
         <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1686</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1687</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="n">
         <v>2014</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -15392,118 +15398,118 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1690</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>1691</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>1692</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1693</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="n">
         <v>2004</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>1694</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>1695</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1697</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>1698</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>1699</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1700</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="n">
         <v>2009</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>1702</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>1703</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1705</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>1706</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>1707</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1708</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="n">
         <v>2007</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -15513,27 +15519,27 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1711</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>1712</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1713</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="n">
         <v>2001</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -15546,29 +15552,29 @@
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>1716</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>1717</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>1718</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="n">
         <v>2006</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>1719</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>1720</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>1721</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -15581,196 +15587,196 @@
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>1722</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>1723</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>1724</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1725</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="n">
         <v>1993</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>1730</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>1731</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1732</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="n">
         <v>2010</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>1736</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>1737</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>1738</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1739</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="n">
         <v>2000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>1741</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>1742</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>1744</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>1745</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>1746</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>1747</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="n">
         <v>1999</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>1750</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>1751</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>1752</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1753</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="n">
         <v>1979</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>1754</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>1755</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
@@ -15779,37 +15785,37 @@
         <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1757</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>1758</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1759</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="n">
         <v>2012</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
@@ -15818,53 +15824,53 @@
         <v>165</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1763</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>1764</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>1765</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="n">
         <v>2009</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>1767</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>1768</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -15879,17 +15885,17 @@
     </row>
     <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -15904,17 +15910,17 @@
     </row>
     <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -15929,17 +15935,17 @@
     </row>
     <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -15958,13 +15964,13 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -16012,19 +16018,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1780</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1781</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1782</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1783</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>717</v>
@@ -16039,15 +16045,15 @@
         <v>1249</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1785</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1786</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -16057,15 +16063,15 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -16075,15 +16081,15 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -16093,15 +16099,15 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -16111,15 +16117,15 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -16134,10 +16140,10 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -16147,15 +16153,15 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -16165,15 +16171,15 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -16183,15 +16189,15 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -16206,10 +16212,10 @@
     </row>
     <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -16224,10 +16230,10 @@
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -16242,10 +16248,10 @@
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -16255,15 +16261,15 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>1798</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1799</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -16273,15 +16279,15 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>1800</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1801</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -16291,7 +16297,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16299,10 +16305,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -16311,7 +16317,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16319,10 +16325,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -16339,10 +16345,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -16351,7 +16357,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16359,10 +16365,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -16371,7 +16377,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16379,10 +16385,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -16391,7 +16397,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
   </sheetData>
@@ -16423,7 +16429,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -16491,8 +16497,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3562753036437"/>
@@ -16602,7 +16607,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3562753036437"/>
@@ -16699,7 +16704,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -19719,7 +19724,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
@@ -21872,9 +21877,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -24052,7 +24057,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -24142,7 +24147,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,8 +20,8 @@
     <sheet name="dFBA objectives" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Reactions" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Rate laws" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Biomass components" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="dFBA net reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="dFBA net components" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Parameters" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="References" sheetId="17" state="visible" r:id="rId18"/>
@@ -31,8 +31,8 @@
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
     <definedName function="false" hidden="true" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$37</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$I$168</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$20</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
@@ -107,6 +107,9 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$E$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$E$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$E$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$E$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$E$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$E$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
@@ -137,6 +140,9 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
@@ -167,6 +173,9 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$144</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
@@ -197,6 +206,9 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$G$126</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
@@ -227,6 +239,9 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$176</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
@@ -235,11 +250,11 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$I$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$I$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
@@ -257,6 +272,9 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$I$168</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
@@ -265,11 +283,11 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$G$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$G$37</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$37</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
@@ -287,6 +305,9 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
@@ -317,6 +338,9 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
@@ -347,6 +371,9 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -358,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="1806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="1805">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -2517,7 +2544,7 @@
     <t xml:space="preserve">dfba-obj-Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Metabolism_biomass + AdnTransport</t>
+    <t xml:space="preserve">Metabolism_net_rxn + AdnTransport</t>
   </si>
   <si>
     <t xml:space="preserve">Participants</t>
@@ -4887,34 +4914,34 @@
     <t xml:space="preserve">ValAbcTransport-forward</t>
   </si>
   <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism biomass reaction</t>
+    <t xml:space="preserve">Metabolism_net_rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism net reaction</t>
   </si>
   <si>
     <t xml:space="preserve">No comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Other_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other biomass</t>
+    <t xml:space="preserve">Other_net_rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other net reaction</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Biomass reaction</t>
+    <t xml:space="preserve">dFBA net reaction</t>
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
-    <t xml:space="preserve">biomass_id_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALA_biomass_comp</t>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-ALA[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALA net component</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -4923,202 +4950,202 @@
     <t xml:space="preserve">Ref_0004, Ref_0005</t>
   </si>
   <si>
-    <t xml:space="preserve">biomass_id_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARG_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASN_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTP_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYS_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLN_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLY_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTP_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIS_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILE_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEU_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LYS_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MET_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHE_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRO_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SER_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THR_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRP_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYR_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTP_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAL_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMP_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDP_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMP_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pi_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPi_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMP_biomass_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_035</t>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-AMP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-ARG[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARG net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-ASN[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASN net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-ASP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-ATP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-CMP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-CTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTP net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-CYS[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYS net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-GDP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDP net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-GLN[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLN net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-GLU[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLU net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-GLY[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLY net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-GMP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMP net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-GTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-H2O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-H[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-HIS[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIS net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-ILE[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILE net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-LEU[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEU net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-LYS[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYS net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-MET[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MET net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-PHE[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHE net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-Pi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pi net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-PPi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPi net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-PRO[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-SER[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SER net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-THR[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THR net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-TRP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRP net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-TYR[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYR net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-UMP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMP net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-UTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-VAL[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAL net component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Other_net_rxn-PPi[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Other_net_rxn-UMP[c]</t>
   </si>
   <si>
     <t xml:space="preserve">carbonExchangeRate</t>
@@ -5698,9 +5725,6 @@
   </si>
   <si>
     <t xml:space="preserve">Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">Model</t>
@@ -6077,7 +6101,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.0971659919028"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -6194,14 +6218,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="3" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="41.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6255,19 +6279,19 @@
   <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="57.8461538461538"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -9985,11 +10009,11 @@
   </sheetPr>
   <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A140" activeCellId="0" sqref="A140"/>
       <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -13702,7 +13726,7 @@
       <c r="I168" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I168"/>
+  <autoFilter ref="C1:I168"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13722,17 +13746,17 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="9" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="9" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1020" min="6" style="9" width="8.78542510121457"/>
@@ -13807,20 +13831,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="11" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="11" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="11" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="11" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1019" min="8" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13853,7 +13877,7 @@
       <c r="B2" s="11" t="s">
         <v>1518</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D2" s="13" t="n">
@@ -13876,14 +13900,14 @@
       <c r="B3" s="11" t="s">
         <v>1522</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>-40890.38</v>
+        <v>1035619</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13893,14 +13917,14 @@
       <c r="B4" s="11" t="s">
         <v>1524</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-23190.38</v>
+        <v>-40890.38</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13910,14 +13934,14 @@
       <c r="B5" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>-24290.38</v>
+        <v>-23190.38</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13927,14 +13951,14 @@
       <c r="B6" s="11" t="s">
         <v>1528</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-1101856</v>
+        <v>-24290.38</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13944,14 +13968,14 @@
       <c r="B7" s="11" t="s">
         <v>1530</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>-1164906</v>
+        <v>-1101856</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13961,14 +13985,14 @@
       <c r="B8" s="11" t="s">
         <v>1532</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>-22290.38</v>
+        <v>1098019</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13978,14 +14002,14 @@
       <c r="B9" s="11" t="s">
         <v>1534</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-24690.38</v>
+        <v>-1164906</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13995,14 +14019,14 @@
       <c r="B10" s="11" t="s">
         <v>1536</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>-22690.38</v>
+        <v>-22290.38</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14012,14 +14036,14 @@
       <c r="B11" s="11" t="s">
         <v>1538</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D11" s="13" t="n">
-        <v>-31190.38</v>
+        <v>581419.2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14029,14 +14053,14 @@
       <c r="B12" s="11" t="s">
         <v>1540</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D12" s="13" t="n">
-        <v>-1728316</v>
+        <v>-24690.38</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14046,14 +14070,14 @@
       <c r="B13" s="11" t="s">
         <v>1542</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D13" s="13" t="n">
-        <v>-1521617000</v>
+        <v>-22690.38</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14063,14 +14087,14 @@
       <c r="B14" s="11" t="s">
         <v>1544</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D14" s="13" t="n">
-        <v>-21590.38</v>
+        <v>-31190.38</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14080,14 +14104,14 @@
       <c r="B15" s="11" t="s">
         <v>1546</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D15" s="13" t="n">
-        <v>-29290.38</v>
+        <v>1052899</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14097,14 +14121,14 @@
       <c r="B16" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D16" s="13" t="n">
-        <v>-41190.38</v>
+        <v>-1728316</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14114,14 +14138,14 @@
       <c r="B17" s="11" t="s">
         <v>1550</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D17" s="13" t="n">
-        <v>-21990.38</v>
+        <v>-1521617000</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14131,14 +14155,14 @@
       <c r="B18" s="11" t="s">
         <v>1552</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D18" s="13" t="n">
-        <v>-21390.38</v>
+        <v>4972350</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14148,14 +14172,14 @@
       <c r="B19" s="11" t="s">
         <v>1554</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D19" s="13" t="n">
-        <v>-23890.38</v>
+        <v>-21590.38</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14165,14 +14189,14 @@
       <c r="B20" s="11" t="s">
         <v>1556</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D20" s="13" t="n">
-        <v>-34390.38</v>
+        <v>-29290.38</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14182,14 +14206,14 @@
       <c r="B21" s="11" t="s">
         <v>1558</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D21" s="13" t="n">
-        <v>-44490.38</v>
+        <v>-41190.38</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>540</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14199,14 +14223,14 @@
       <c r="B22" s="11" t="s">
         <v>1560</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D22" s="13" t="n">
-        <v>-36190.38</v>
+        <v>-21990.38</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>545</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14216,14 +14240,14 @@
       <c r="B23" s="11" t="s">
         <v>1562</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D23" s="13" t="n">
-        <v>-22190.38</v>
+        <v>-21390.38</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>552</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14233,14 +14257,14 @@
       <c r="B24" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D24" s="13" t="n">
-        <v>-21990.38</v>
+        <v>-23890.38</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>555</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14250,14 +14274,14 @@
       <c r="B25" s="11" t="s">
         <v>1566</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D25" s="13" t="n">
-        <v>-1132896</v>
+        <v>471096.2</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>567</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14267,14 +14291,14 @@
       <c r="B26" s="11" t="s">
         <v>1568</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D26" s="13" t="n">
-        <v>-33790.38</v>
+        <v>4381069</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>569</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14284,14 +14308,14 @@
       <c r="B27" s="11" t="s">
         <v>1570</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D27" s="13" t="n">
-        <v>1035619</v>
+        <v>-34390.38</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>406</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14301,14 +14325,14 @@
       <c r="B28" s="11" t="s">
         <v>1572</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D28" s="13" t="n">
-        <v>1098019</v>
+        <v>-44490.38</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>422</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14318,14 +14342,14 @@
       <c r="B29" s="11" t="s">
         <v>1574</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D29" s="13" t="n">
-        <v>581419.2</v>
+        <v>-36190.38</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>444</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14335,14 +14359,14 @@
       <c r="B30" s="11" t="s">
         <v>1576</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D30" s="13" t="n">
-        <v>1052899</v>
+        <v>-22190.38</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>457</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14352,14 +14376,14 @@
       <c r="B31" s="11" t="s">
         <v>1578</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D31" s="13" t="n">
-        <v>4972350</v>
+        <v>-21990.38</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>463</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14369,14 +14393,14 @@
       <c r="B32" s="11" t="s">
         <v>1580</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D32" s="13" t="n">
-        <v>471096.2</v>
+        <v>1066339</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14386,14 +14410,14 @@
       <c r="B33" s="11" t="s">
         <v>1582</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D33" s="13" t="n">
-        <v>4381069</v>
+        <v>-1132896</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>515</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14403,22 +14427,22 @@
       <c r="B34" s="11" t="s">
         <v>1584</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D34" s="13" t="n">
-        <v>1066339</v>
+        <v>-33790.38</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
         <v>1585</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>1512</v>
@@ -14430,12 +14454,12 @@
         <v>515</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
         <v>1586</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>1512</v>
@@ -15177,7 +15201,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G37"/>
+  <autoFilter ref="A1:G6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16003,12 +16027,12 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -16021,16 +16045,16 @@
         <v>1779</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1781</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1782</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>717</v>
@@ -16045,15 +16069,15 @@
         <v>1249</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1784</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1785</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -16068,10 +16092,10 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -16086,10 +16110,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -16104,10 +16128,10 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -16122,10 +16146,10 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -16140,10 +16164,10 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -16158,10 +16182,10 @@
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -16176,10 +16200,10 @@
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -16194,10 +16218,10 @@
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -16212,10 +16236,10 @@
     </row>
     <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -16230,10 +16254,10 @@
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -16248,10 +16272,10 @@
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -16266,10 +16290,10 @@
     </row>
     <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>1797</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1798</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -16284,10 +16308,10 @@
     </row>
     <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>1799</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1800</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -16305,10 +16329,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -16325,10 +16349,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -16345,10 +16369,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -16365,10 +16389,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -16385,10 +16409,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -16429,7 +16453,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -16607,7 +16631,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3562753036437"/>
@@ -16704,7 +16728,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -19724,7 +19748,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
@@ -21877,9 +21901,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -24057,7 +24081,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -24147,7 +24171,7 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,8 +29,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$C$1:$H$126</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$J$168</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$J$176</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
@@ -109,6 +109,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$F$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$F$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$F$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$F$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
@@ -143,6 +144,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
@@ -177,6 +179,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$144</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Concentrations!$C$1:$H$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Concentrations!$C$1:$H$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$C$1:$H$126</definedName>
@@ -211,6 +214,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$H$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$H$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$H$126</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$H$126</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$J$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$J$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$J$176</definedName>
@@ -245,6 +249,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$J$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$J$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$J$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$J$176</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
@@ -253,13 +258,13 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$J$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$J$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$J$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$J$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$J$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$J$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$J$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
@@ -279,6 +284,7 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$J$168</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
@@ -287,13 +293,13 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
@@ -313,6 +319,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
@@ -347,6 +354,7 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -6046,13 +6054,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A11" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topRight" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -6174,14 +6182,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="3" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="42.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6242,15 +6250,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="58.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -10143,7 +10151,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A140" activeCellId="0" sqref="A140"/>
-      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14025,7 +14033,7 @@
       <c r="J168" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J168"/>
+  <autoFilter ref="C1:J168"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -14049,13 +14057,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="9" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="9" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1021" min="7" style="9" width="8.78542510121457"/>
@@ -14133,14 +14141,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="11" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="11" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="11" width="8.78542510121457"/>
@@ -14799,7 +14807,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14849,6 +14857,7 @@
       <c r="E2" s="3" t="s">
         <v>1590</v>
       </c>
+      <c r="F2" s="0"/>
       <c r="G2" s="3" t="s">
         <v>1591</v>
       </c>
@@ -14872,6 +14881,7 @@
       <c r="E3" s="3" t="s">
         <v>1594</v>
       </c>
+      <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
     </row>
@@ -14891,6 +14901,7 @@
       <c r="E4" s="3" t="s">
         <v>1597</v>
       </c>
+      <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="3" t="s">
         <v>1598</v>
@@ -15539,7 +15550,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37"/>
+  <autoFilter ref="A1:H6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15563,7 +15574,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15629,12 +15640,12 @@
   </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M23" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16433,13 +16444,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A4" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -16508,7 +16519,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16624,13 +16635,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.3562753036437"/>
@@ -16722,17 +16733,17 @@
   </sheetPr>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -16780,7 +16791,9 @@
       <c r="E2" s="3" t="n">
         <v>135.126</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G2" s="3" t="s">
         <v>51</v>
       </c>
@@ -16806,7 +16819,9 @@
       <c r="E3" s="3" t="n">
         <v>11217.6918</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>57</v>
       </c>
@@ -16828,7 +16843,9 @@
       <c r="E4" s="3" t="n">
         <v>97629.5094</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>61</v>
       </c>
@@ -16848,7 +16865,9 @@
       <c r="E5" s="3" t="n">
         <v>424.177</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>51</v>
       </c>
@@ -16868,7 +16887,9 @@
       <c r="E6" s="3" t="n">
         <v>89.0929</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>51</v>
       </c>
@@ -16888,7 +16909,9 @@
       <c r="E7" s="3" t="n">
         <v>160.171</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>51</v>
       </c>
@@ -16912,7 +16935,9 @@
       <c r="E8" s="3" t="n">
         <v>345.205</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>51</v>
       </c>
@@ -16934,7 +16959,9 @@
       <c r="E9" s="3" t="n">
         <v>11598.2932</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G9" s="3" t="s">
         <v>57</v>
       </c>
@@ -16956,7 +16983,9 @@
       <c r="E10" s="3" t="n">
         <v>96600.2544</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>61</v>
       </c>
@@ -16976,7 +17005,9 @@
       <c r="E11" s="3" t="n">
         <v>175.208</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G11" s="3" t="s">
         <v>51</v>
       </c>
@@ -16996,7 +17027,9 @@
       <c r="E12" s="3" t="n">
         <v>332.401</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G12" s="3" t="s">
         <v>51</v>
       </c>
@@ -17020,7 +17053,9 @@
       <c r="E13" s="3" t="n">
         <v>132.118</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G13" s="3" t="s">
         <v>51</v>
       </c>
@@ -17040,7 +17075,9 @@
       <c r="E14" s="3" t="n">
         <v>246.22</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" s="3" t="s">
         <v>51</v>
       </c>
@@ -17062,7 +17099,9 @@
       <c r="E15" s="3" t="n">
         <v>132.094</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G15" s="3" t="s">
         <v>51</v>
       </c>
@@ -17082,7 +17121,9 @@
       <c r="E16" s="3" t="n">
         <v>246.174</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>51</v>
       </c>
@@ -17106,7 +17147,9 @@
       <c r="E17" s="3" t="n">
         <v>503.149</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G17" s="3" t="s">
         <v>51</v>
       </c>
@@ -17126,7 +17169,9 @@
       <c r="E18" s="3" t="n">
         <v>400.152</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G18" s="3" t="s">
         <v>51</v>
       </c>
@@ -17148,7 +17193,9 @@
       <c r="E19" s="3" t="n">
         <v>11298.8995</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G19" s="3" t="s">
         <v>57</v>
       </c>
@@ -17170,7 +17217,9 @@
       <c r="E20" s="3" t="n">
         <v>97091.9214</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G20" s="3" t="s">
         <v>61</v>
       </c>
@@ -17190,7 +17239,9 @@
       <c r="E21" s="3" t="n">
         <v>321.18</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G21" s="3" t="s">
         <v>51</v>
       </c>
@@ -17210,7 +17261,9 @@
       <c r="E22" s="3" t="n">
         <v>44.0095</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G22" s="3" t="s">
         <v>51</v>
       </c>
@@ -17234,7 +17287,9 @@
       <c r="E23" s="3" t="n">
         <v>479.124</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G23" s="3" t="s">
         <v>51</v>
       </c>
@@ -17254,7 +17309,9 @@
       <c r="E24" s="3" t="n">
         <v>121.158</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G24" s="3" t="s">
         <v>51</v>
       </c>
@@ -17274,7 +17331,9 @@
       <c r="E25" s="3" t="n">
         <v>224.301</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G25" s="3" t="s">
         <v>51</v>
       </c>
@@ -17298,7 +17357,9 @@
       <c r="E26" s="3" t="n">
         <v>243.216</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G26" s="3" t="s">
         <v>51</v>
       </c>
@@ -17320,7 +17381,9 @@
       <c r="E27" s="3" t="n">
         <v>262.005</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G27" s="3" t="s">
         <v>51</v>
       </c>
@@ -17340,7 +17403,9 @@
       <c r="E28" s="3" t="n">
         <v>198.068</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G28" s="3" t="s">
         <v>51</v>
       </c>
@@ -17362,7 +17427,9 @@
       <c r="E29" s="3" t="n">
         <v>11492.0791</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G29" s="3" t="s">
         <v>57</v>
       </c>
@@ -17384,7 +17451,9 @@
       <c r="E30" s="3" t="n">
         <v>96912.9774</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G30" s="3" t="s">
         <v>61</v>
       </c>
@@ -17404,7 +17473,9 @@
       <c r="E31" s="3" t="n">
         <v>258.12</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G31" s="3" t="s">
         <v>51</v>
       </c>
@@ -17426,7 +17497,9 @@
       <c r="E32" s="3" t="n">
         <v>11272.1572</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G32" s="3" t="s">
         <v>57</v>
       </c>
@@ -17448,7 +17521,9 @@
       <c r="E33" s="3" t="n">
         <v>96999.6024</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G33" s="3" t="s">
         <v>61</v>
       </c>
@@ -17468,7 +17543,9 @@
       <c r="E34" s="3" t="n">
         <v>336.084</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G34" s="3" t="s">
         <v>51</v>
       </c>
@@ -17488,7 +17565,9 @@
       <c r="E35" s="3" t="n">
         <v>183.033</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G35" s="3" t="s">
         <v>51</v>
       </c>
@@ -17508,7 +17587,9 @@
       <c r="E36" s="3" t="n">
         <v>183.033</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G36" s="3" t="s">
         <v>51</v>
       </c>
@@ -17528,7 +17609,9 @@
       <c r="E37" s="3" t="n">
         <v>258.12</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G37" s="3" t="s">
         <v>51</v>
       </c>
@@ -17550,7 +17633,9 @@
       <c r="E38" s="3" t="n">
         <v>11569.3829</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G38" s="3" t="s">
         <v>57</v>
       </c>
@@ -17572,7 +17657,9 @@
       <c r="E39" s="3" t="n">
         <v>96926.5024</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G39" s="3" t="s">
         <v>61</v>
       </c>
@@ -17592,7 +17679,9 @@
       <c r="E40" s="3" t="n">
         <v>440.176</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G40" s="3" t="s">
         <v>51</v>
       </c>
@@ -17614,7 +17703,9 @@
       <c r="E41" s="3" t="n">
         <v>10700.146</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G41" s="3" t="s">
         <v>57</v>
       </c>
@@ -17636,7 +17727,9 @@
       <c r="E42" s="3" t="n">
         <v>96935.7124</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G42" s="3" t="s">
         <v>61</v>
       </c>
@@ -17656,7 +17749,9 @@
       <c r="E43" s="3" t="n">
         <v>180.155</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G43" s="3" t="s">
         <v>51</v>
       </c>
@@ -17680,7 +17775,9 @@
       <c r="E44" s="3" t="n">
         <v>146.144</v>
       </c>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G44" s="3" t="s">
         <v>51</v>
       </c>
@@ -17700,7 +17797,9 @@
       <c r="E45" s="3" t="n">
         <v>274.273</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G45" s="3" t="s">
         <v>51</v>
       </c>
@@ -17724,7 +17823,9 @@
       <c r="E46" s="3" t="n">
         <v>146.121</v>
       </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G46" s="3" t="s">
         <v>51</v>
       </c>
@@ -17744,7 +17845,9 @@
       <c r="E47" s="3" t="n">
         <v>274.227</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G47" s="3" t="s">
         <v>51</v>
       </c>
@@ -17768,7 +17871,9 @@
       <c r="E48" s="3" t="n">
         <v>75.0664</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G48" s="3" t="s">
         <v>51</v>
       </c>
@@ -17788,7 +17893,9 @@
       <c r="E49" s="3" t="n">
         <v>132.118</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G49" s="3" t="s">
         <v>51</v>
       </c>
@@ -17812,7 +17919,9 @@
       <c r="E50" s="3" t="n">
         <v>361.204</v>
       </c>
-      <c r="F50" s="3"/>
+      <c r="F50" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G50" s="3" t="s">
         <v>51</v>
       </c>
@@ -17832,7 +17941,9 @@
       <c r="E51" s="3" t="n">
         <v>151.126</v>
       </c>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G51" s="3" t="s">
         <v>51</v>
       </c>
@@ -17856,7 +17967,9 @@
       <c r="E52" s="3" t="n">
         <v>519.148</v>
       </c>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G52" s="3" t="s">
         <v>51</v>
       </c>
@@ -17876,7 +17989,9 @@
       <c r="E53" s="3" t="n">
         <v>1.0079</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G53" s="3" t="s">
         <v>51</v>
       </c>
@@ -17898,7 +18013,9 @@
       <c r="E54" s="3" t="n">
         <v>18.0152</v>
       </c>
-      <c r="F54" s="3"/>
+      <c r="F54" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G54" s="3" t="s">
         <v>51</v>
       </c>
@@ -17922,7 +18039,9 @@
       <c r="E55" s="3" t="n">
         <v>155.154</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G55" s="3" t="s">
         <v>51</v>
       </c>
@@ -17942,7 +18061,9 @@
       <c r="E56" s="3" t="n">
         <v>292.293</v>
       </c>
-      <c r="F56" s="3"/>
+      <c r="F56" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G56" s="3" t="s">
         <v>51</v>
       </c>
@@ -17968,7 +18089,9 @@
       <c r="E57" s="3" t="n">
         <v>11257.9285</v>
       </c>
-      <c r="F57" s="3"/>
+      <c r="F57" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G57" s="3" t="s">
         <v>57</v>
       </c>
@@ -17990,7 +18113,9 @@
       <c r="E58" s="3" t="n">
         <v>97473.0484</v>
       </c>
-      <c r="F58" s="3"/>
+      <c r="F58" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G58" s="3" t="s">
         <v>61</v>
       </c>
@@ -18010,7 +18135,9 @@
       <c r="E59" s="3" t="n">
         <v>131.172</v>
       </c>
-      <c r="F59" s="3"/>
+      <c r="F59" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G59" s="3" t="s">
         <v>51</v>
       </c>
@@ -18030,7 +18157,9 @@
       <c r="E60" s="3" t="n">
         <v>244.33</v>
       </c>
-      <c r="F60" s="3"/>
+      <c r="F60" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G60" s="3" t="s">
         <v>51</v>
       </c>
@@ -18054,7 +18183,9 @@
       <c r="E61" s="3" t="n">
         <v>89.0698</v>
       </c>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G61" s="3" t="s">
         <v>51</v>
       </c>
@@ -18076,7 +18207,9 @@
       <c r="E62" s="3" t="n">
         <v>10899.2893</v>
       </c>
-      <c r="F62" s="3"/>
+      <c r="F62" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G62" s="3" t="s">
         <v>57</v>
       </c>
@@ -18098,7 +18231,9 @@
       <c r="E63" s="3" t="n">
         <v>97211.0614</v>
       </c>
-      <c r="F63" s="3"/>
+      <c r="F63" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G63" s="3" t="s">
         <v>61</v>
       </c>
@@ -18120,7 +18255,9 @@
       <c r="E64" s="3" t="n">
         <v>11194.7491</v>
       </c>
-      <c r="F64" s="3"/>
+      <c r="F64" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G64" s="3" t="s">
         <v>57</v>
       </c>
@@ -18142,7 +18279,9 @@
       <c r="E65" s="3" t="n">
         <v>97143.8054</v>
       </c>
-      <c r="F65" s="3"/>
+      <c r="F65" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G65" s="3" t="s">
         <v>61</v>
       </c>
@@ -18162,7 +18301,9 @@
       <c r="E66" s="3" t="n">
         <v>131.172</v>
       </c>
-      <c r="F66" s="3"/>
+      <c r="F66" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G66" s="3" t="s">
         <v>51</v>
       </c>
@@ -18182,7 +18323,9 @@
       <c r="E67" s="3" t="n">
         <v>244.33</v>
       </c>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G67" s="3" t="s">
         <v>51</v>
       </c>
@@ -18206,7 +18349,9 @@
       <c r="E68" s="3" t="n">
         <v>147.195</v>
       </c>
-      <c r="F68" s="3"/>
+      <c r="F68" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G68" s="3" t="s">
         <v>51</v>
       </c>
@@ -18226,7 +18371,9 @@
       <c r="E69" s="3" t="n">
         <v>276.375</v>
       </c>
-      <c r="F69" s="3"/>
+      <c r="F69" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G69" s="3" t="s">
         <v>51</v>
       </c>
@@ -18250,7 +18397,9 @@
       <c r="E70" s="3" t="n">
         <v>149.211</v>
       </c>
-      <c r="F70" s="3"/>
+      <c r="F70" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G70" s="3" t="s">
         <v>51</v>
       </c>
@@ -18270,7 +18419,9 @@
       <c r="E71" s="3" t="n">
         <v>280.407</v>
       </c>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G71" s="3" t="s">
         <v>51</v>
       </c>
@@ -18294,7 +18445,9 @@
       <c r="E72" s="3" t="n">
         <v>662.416</v>
       </c>
-      <c r="F72" s="3"/>
+      <c r="F72" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G72" s="3" t="s">
         <v>51</v>
       </c>
@@ -18318,7 +18471,9 @@
       <c r="E73" s="3" t="n">
         <v>663.424</v>
       </c>
-      <c r="F73" s="3"/>
+      <c r="F73" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G73" s="3" t="s">
         <v>51</v>
       </c>
@@ -18340,7 +18495,9 @@
       <c r="E74" s="3" t="n">
         <v>11129.4153</v>
       </c>
-      <c r="F74" s="3"/>
+      <c r="F74" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G74" s="3" t="s">
         <v>57</v>
       </c>
@@ -18362,7 +18519,9 @@
       <c r="E75" s="3" t="n">
         <v>97015.7604</v>
       </c>
-      <c r="F75" s="3"/>
+      <c r="F75" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G75" s="3" t="s">
         <v>61</v>
       </c>
@@ -18382,7 +18541,9 @@
       <c r="E76" s="3" t="n">
         <v>31.9988</v>
       </c>
-      <c r="F76" s="3"/>
+      <c r="F76" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G76" s="3" t="s">
         <v>51</v>
       </c>
@@ -18406,7 +18567,9 @@
       <c r="E77" s="3" t="n">
         <v>165.018</v>
       </c>
-      <c r="F77" s="3"/>
+      <c r="F77" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G77" s="3" t="s">
         <v>51</v>
       </c>
@@ -18428,7 +18591,9 @@
       <c r="E78" s="3" t="n">
         <v>11256.6933</v>
       </c>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G78" s="3" t="s">
         <v>57</v>
       </c>
@@ -18450,7 +18615,9 @@
       <c r="E79" s="3" t="n">
         <v>97069.6674</v>
       </c>
-      <c r="F79" s="3"/>
+      <c r="F79" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G79" s="3" t="s">
         <v>61</v>
       </c>
@@ -18472,7 +18639,9 @@
       <c r="E80" s="3" t="n">
         <v>11426.8266</v>
       </c>
-      <c r="F80" s="3"/>
+      <c r="F80" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G80" s="3" t="s">
         <v>57</v>
       </c>
@@ -18494,7 +18663,9 @@
       <c r="E81" s="3" t="n">
         <v>96846.4144</v>
       </c>
-      <c r="F81" s="3"/>
+      <c r="F81" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G81" s="3" t="s">
         <v>61</v>
       </c>
@@ -18516,7 +18687,9 @@
       <c r="E82" s="3" t="n">
         <v>11164.5594</v>
       </c>
-      <c r="F82" s="3"/>
+      <c r="F82" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G82" s="3" t="s">
         <v>57</v>
       </c>
@@ -18538,7 +18711,9 @@
       <c r="E83" s="3" t="n">
         <v>97452.3234</v>
       </c>
-      <c r="F83" s="3"/>
+      <c r="F83" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G83" s="3" t="s">
         <v>61</v>
       </c>
@@ -18560,7 +18735,9 @@
       <c r="E84" s="3" t="n">
         <v>10839.3244</v>
       </c>
-      <c r="F84" s="3"/>
+      <c r="F84" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G84" s="3" t="s">
         <v>57</v>
       </c>
@@ -18582,7 +18759,9 @@
       <c r="E85" s="3" t="n">
         <v>96860.6824</v>
       </c>
-      <c r="F85" s="3"/>
+      <c r="F85" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G85" s="3" t="s">
         <v>61</v>
       </c>
@@ -18604,7 +18783,9 @@
       <c r="E86" s="3" t="n">
         <v>11422.9086</v>
       </c>
-      <c r="F86" s="3"/>
+      <c r="F86" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G86" s="3" t="s">
         <v>57</v>
       </c>
@@ -18626,7 +18807,9 @@
       <c r="E87" s="3" t="n">
         <v>96891.6954</v>
       </c>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G87" s="3" t="s">
         <v>61</v>
       </c>
@@ -18646,7 +18829,9 @@
       <c r="E88" s="3" t="n">
         <v>165.189</v>
       </c>
-      <c r="F88" s="3"/>
+      <c r="F88" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G88" s="3" t="s">
         <v>51</v>
       </c>
@@ -18666,7 +18851,9 @@
       <c r="E89" s="3" t="n">
         <v>312.362</v>
       </c>
-      <c r="F89" s="3"/>
+      <c r="F89" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G89" s="3" t="s">
         <v>51</v>
       </c>
@@ -18690,7 +18877,9 @@
       <c r="E90" s="3" t="n">
         <v>95.9793</v>
       </c>
-      <c r="F90" s="3"/>
+      <c r="F90" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G90" s="3" t="s">
         <v>51</v>
       </c>
@@ -18714,7 +18903,9 @@
       <c r="E91" s="3" t="n">
         <v>10816.122</v>
       </c>
-      <c r="F91" s="3"/>
+      <c r="F91" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G91" s="3" t="s">
         <v>57</v>
       </c>
@@ -18736,7 +18927,9 @@
       <c r="E92" s="3" t="n">
         <v>96985.7724</v>
       </c>
-      <c r="F92" s="3"/>
+      <c r="F92" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G92" s="3" t="s">
         <v>61</v>
       </c>
@@ -18758,7 +18951,9 @@
       <c r="E93" s="3" t="n">
         <v>11689.35</v>
       </c>
-      <c r="F93" s="3"/>
+      <c r="F93" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G93" s="3" t="s">
         <v>57</v>
       </c>
@@ -18780,7 +18975,9 @@
       <c r="E94" s="3" t="n">
         <v>96885.7984</v>
       </c>
-      <c r="F94" s="3"/>
+      <c r="F94" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G94" s="3" t="s">
         <v>61</v>
       </c>
@@ -18800,7 +18997,9 @@
       <c r="E95" s="3" t="n">
         <v>174.951</v>
       </c>
-      <c r="F95" s="3"/>
+      <c r="F95" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G95" s="3" t="s">
         <v>51</v>
       </c>
@@ -18820,7 +19019,9 @@
       <c r="E96" s="3" t="n">
         <v>115.13</v>
       </c>
-      <c r="F96" s="3"/>
+      <c r="F96" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G96" s="3" t="s">
         <v>51</v>
       </c>
@@ -18840,7 +19041,9 @@
       <c r="E97" s="3" t="n">
         <v>212.245</v>
       </c>
-      <c r="F97" s="3"/>
+      <c r="F97" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G97" s="3" t="s">
         <v>51</v>
       </c>
@@ -18864,7 +19067,9 @@
       <c r="E98" s="3" t="n">
         <v>385.03</v>
       </c>
-      <c r="F98" s="3"/>
+      <c r="F98" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G98" s="3" t="s">
         <v>51</v>
       </c>
@@ -18886,7 +19091,9 @@
       <c r="E99" s="3" t="n">
         <v>11101.9732</v>
       </c>
-      <c r="F99" s="3"/>
+      <c r="F99" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G99" s="3" t="s">
         <v>57</v>
       </c>
@@ -18908,7 +19115,9 @@
       <c r="E100" s="3" t="n">
         <v>97311.1414</v>
       </c>
-      <c r="F100" s="3"/>
+      <c r="F100" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G100" s="3" t="s">
         <v>61</v>
       </c>
@@ -18930,7 +19139,9 @@
       <c r="E101" s="3" t="n">
         <v>11031.3146</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G101" s="3" t="s">
         <v>57</v>
       </c>
@@ -18952,7 +19163,9 @@
       <c r="E102" s="3" t="n">
         <v>96859.8964</v>
       </c>
-      <c r="F102" s="3"/>
+      <c r="F102" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G102" s="3" t="s">
         <v>61</v>
       </c>
@@ -18974,7 +19187,9 @@
       <c r="E103" s="3" t="n">
         <v>11201.3035</v>
       </c>
-      <c r="F103" s="3"/>
+      <c r="F103" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G103" s="3" t="s">
         <v>57</v>
       </c>
@@ -18996,7 +19211,9 @@
       <c r="E104" s="3" t="n">
         <v>97096.1004</v>
       </c>
-      <c r="F104" s="3"/>
+      <c r="F104" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G104" s="3" t="s">
         <v>61</v>
       </c>
@@ -19016,7 +19233,9 @@
       <c r="E105" s="3" t="n">
         <v>87.054</v>
       </c>
-      <c r="F105" s="3"/>
+      <c r="F105" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G105" s="3" t="s">
         <v>51</v>
       </c>
@@ -19038,7 +19257,9 @@
       <c r="E106" s="3" t="n">
         <v>11205.9319</v>
       </c>
-      <c r="F106" s="3"/>
+      <c r="F106" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G106" s="3" t="s">
         <v>57</v>
       </c>
@@ -19060,7 +19281,9 @@
       <c r="E107" s="3" t="n">
         <v>96495.5014</v>
       </c>
-      <c r="F107" s="3"/>
+      <c r="F107" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G107" s="3" t="s">
         <v>61</v>
       </c>
@@ -19080,7 +19303,9 @@
       <c r="E108" s="3" t="n">
         <v>228.094</v>
       </c>
-      <c r="F108" s="3"/>
+      <c r="F108" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G108" s="3" t="s">
         <v>51</v>
       </c>
@@ -19102,7 +19327,9 @@
       <c r="E109" s="3" t="n">
         <v>11189.0439</v>
       </c>
-      <c r="F109" s="3"/>
+      <c r="F109" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G109" s="3" t="s">
         <v>57</v>
       </c>
@@ -19124,7 +19351,9 @@
       <c r="E110" s="3" t="n">
         <v>96734.6074</v>
       </c>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G110" s="3" t="s">
         <v>61</v>
       </c>
@@ -19144,7 +19373,9 @@
       <c r="E111" s="3" t="n">
         <v>228.094</v>
       </c>
-      <c r="F111" s="3"/>
+      <c r="F111" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G111" s="3" t="s">
         <v>51</v>
       </c>
@@ -19166,7 +19397,9 @@
       <c r="E112" s="3" t="n">
         <v>12048.1694</v>
       </c>
-      <c r="F112" s="3"/>
+      <c r="F112" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G112" s="3" t="s">
         <v>57</v>
       </c>
@@ -19188,7 +19421,9 @@
       <c r="E113" s="3" t="n">
         <v>96965.7004</v>
       </c>
-      <c r="F113" s="3"/>
+      <c r="F113" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G113" s="3" t="s">
         <v>61</v>
       </c>
@@ -19210,7 +19445,9 @@
       <c r="E114" s="3" t="n">
         <v>11400.9224</v>
       </c>
-      <c r="F114" s="3"/>
+      <c r="F114" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G114" s="3" t="s">
         <v>57</v>
       </c>
@@ -19232,7 +19469,9 @@
       <c r="E115" s="3" t="n">
         <v>97136.8574</v>
       </c>
-      <c r="F115" s="3"/>
+      <c r="F115" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G115" s="3" t="s">
         <v>61</v>
       </c>
@@ -19254,7 +19493,9 @@
       <c r="E116" s="3" t="n">
         <v>11565.0949</v>
       </c>
-      <c r="F116" s="3"/>
+      <c r="F116" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G116" s="3" t="s">
         <v>57</v>
       </c>
@@ -19276,7 +19517,9 @@
       <c r="E117" s="3" t="n">
         <v>97588.6064</v>
       </c>
-      <c r="F117" s="3"/>
+      <c r="F117" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G117" s="3" t="s">
         <v>61</v>
       </c>
@@ -19296,7 +19539,9 @@
       <c r="E118" s="3" t="n">
         <v>288.145</v>
       </c>
-      <c r="F118" s="3"/>
+      <c r="F118" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G118" s="3" t="s">
         <v>51</v>
       </c>
@@ -19316,7 +19561,9 @@
       <c r="E119" s="3" t="n">
         <v>105.092</v>
       </c>
-      <c r="F119" s="3"/>
+      <c r="F119" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G119" s="3" t="s">
         <v>51</v>
       </c>
@@ -19336,7 +19583,9 @@
       <c r="E120" s="3" t="n">
         <v>192.169</v>
       </c>
-      <c r="F120" s="3"/>
+      <c r="F120" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G120" s="3" t="s">
         <v>51</v>
       </c>
@@ -19360,7 +19609,9 @@
       <c r="E121" s="3" t="n">
         <v>168.042</v>
       </c>
-      <c r="F121" s="3"/>
+      <c r="F121" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G121" s="3" t="s">
         <v>51</v>
       </c>
@@ -19380,7 +19631,9 @@
       <c r="E122" s="3" t="n">
         <v>168.042</v>
       </c>
-      <c r="F122" s="3"/>
+      <c r="F122" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G122" s="3" t="s">
         <v>51</v>
       </c>
@@ -19400,7 +19653,9 @@
       <c r="E123" s="3" t="n">
         <v>119.119</v>
       </c>
-      <c r="F123" s="3"/>
+      <c r="F123" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G123" s="3" t="s">
         <v>51</v>
       </c>
@@ -19420,7 +19675,9 @@
       <c r="E124" s="3" t="n">
         <v>220.222</v>
       </c>
-      <c r="F124" s="3"/>
+      <c r="F124" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G124" s="3" t="s">
         <v>51</v>
       </c>
@@ -19446,7 +19703,9 @@
       <c r="E125" s="3" t="n">
         <v>11440.1771</v>
       </c>
-      <c r="F125" s="3"/>
+      <c r="F125" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G125" s="3" t="s">
         <v>57</v>
       </c>
@@ -19468,7 +19727,9 @@
       <c r="E126" s="3" t="n">
         <v>97022.6024</v>
       </c>
-      <c r="F126" s="3"/>
+      <c r="F126" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G126" s="3" t="s">
         <v>61</v>
       </c>
@@ -19490,7 +19751,9 @@
       <c r="E127" s="3" t="n">
         <v>10896.0191</v>
       </c>
-      <c r="F127" s="3"/>
+      <c r="F127" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G127" s="3" t="s">
         <v>57</v>
       </c>
@@ -19512,7 +19775,9 @@
       <c r="E128" s="3" t="n">
         <v>96870.8244</v>
       </c>
-      <c r="F128" s="3"/>
+      <c r="F128" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G128" s="3" t="s">
         <v>61</v>
       </c>
@@ -19532,7 +19797,9 @@
       <c r="E129" s="3" t="n">
         <v>204.225</v>
       </c>
-      <c r="F129" s="3"/>
+      <c r="F129" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G129" s="3" t="s">
         <v>51</v>
       </c>
@@ -19552,7 +19819,9 @@
       <c r="E130" s="3" t="n">
         <v>390.434</v>
       </c>
-      <c r="F130" s="3"/>
+      <c r="F130" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G130" s="3" t="s">
         <v>51</v>
       </c>
@@ -19576,7 +19845,9 @@
       <c r="E131" s="3" t="n">
         <v>181.188</v>
       </c>
-      <c r="F131" s="3"/>
+      <c r="F131" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G131" s="3" t="s">
         <v>51</v>
       </c>
@@ -19596,7 +19867,9 @@
       <c r="E132" s="3" t="n">
         <v>344.361</v>
       </c>
-      <c r="F132" s="3"/>
+      <c r="F132" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G132" s="3" t="s">
         <v>51</v>
       </c>
@@ -19622,7 +19895,9 @@
       <c r="E133" s="3" t="n">
         <v>10812.4343</v>
       </c>
-      <c r="F133" s="3"/>
+      <c r="F133" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G133" s="3" t="s">
         <v>57</v>
       </c>
@@ -19644,7 +19919,9 @@
       <c r="E134" s="3" t="n">
         <v>97302.1834</v>
       </c>
-      <c r="F134" s="3"/>
+      <c r="F134" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G134" s="3" t="s">
         <v>61</v>
       </c>
@@ -19664,7 +19941,9 @@
       <c r="E135" s="3" t="n">
         <v>401.137</v>
       </c>
-      <c r="F135" s="3"/>
+      <c r="F135" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G135" s="3" t="s">
         <v>51</v>
       </c>
@@ -19684,7 +19963,9 @@
       <c r="E136" s="3" t="n">
         <v>322.165</v>
       </c>
-      <c r="F136" s="3"/>
+      <c r="F136" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G136" s="3" t="s">
         <v>51</v>
       </c>
@@ -19706,7 +19987,9 @@
       <c r="E137" s="3" t="n">
         <v>11169.4967</v>
       </c>
-      <c r="F137" s="3"/>
+      <c r="F137" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G137" s="3" t="s">
         <v>57</v>
       </c>
@@ -19728,7 +20011,9 @@
       <c r="E138" s="3" t="n">
         <v>96677.7454</v>
       </c>
-      <c r="F138" s="3"/>
+      <c r="F138" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G138" s="3" t="s">
         <v>61</v>
       </c>
@@ -19748,7 +20033,9 @@
       <c r="E139" s="3" t="n">
         <v>112.087</v>
       </c>
-      <c r="F139" s="3"/>
+      <c r="F139" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G139" s="3" t="s">
         <v>51</v>
       </c>
@@ -19772,7 +20059,9 @@
       <c r="E140" s="3" t="n">
         <v>244.201</v>
       </c>
-      <c r="F140" s="3"/>
+      <c r="F140" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G140" s="3" t="s">
         <v>51</v>
       </c>
@@ -19792,7 +20081,9 @@
       <c r="E141" s="3" t="n">
         <v>480.109</v>
       </c>
-      <c r="F141" s="3"/>
+      <c r="F141" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G141" s="3" t="s">
         <v>51</v>
       </c>
@@ -19816,7 +20107,9 @@
       <c r="E142" s="3" t="n">
         <v>117.146</v>
       </c>
-      <c r="F142" s="3"/>
+      <c r="F142" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G142" s="3" t="s">
         <v>51</v>
       </c>
@@ -19836,7 +20129,9 @@
       <c r="E143" s="3" t="n">
         <v>216.277</v>
       </c>
-      <c r="F143" s="3"/>
+      <c r="F143" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G143" s="3" t="s">
         <v>51</v>
       </c>
@@ -19860,7 +20155,9 @@
       <c r="E144" s="3" t="n">
         <v>228.094</v>
       </c>
-      <c r="F144" s="3"/>
+      <c r="F144" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G144" s="3" t="s">
         <v>51</v>
       </c>
@@ -19893,12 +20190,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="7" min="2" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
@@ -22049,14 +22346,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -24356,13 +24653,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -24453,13 +24750,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1842">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -4987,7 +4987,7 @@
     <t xml:space="preserve">dFBA net reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">Coefficient</t>
+    <t xml:space="preserve">Value</t>
   </si>
   <si>
     <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-ALA[c]</t>
@@ -4996,6 +4996,9 @@
     <t xml:space="preserve">ALA net component</t>
   </si>
   <si>
+    <t xml:space="preserve">M s^-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
@@ -5198,9 +5201,6 @@
   </si>
   <si>
     <t xml:space="preserve">dfba-net-comp-Other_net_rxn-UMP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
   </si>
   <si>
     <t xml:space="preserve">carbonExchangeRate</t>
@@ -6233,7 +6233,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topRight" activeCell="B16" activeCellId="1" sqref="F2:F36 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -6361,7 +6361,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="1" sqref="F2:F36 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6432,7 +6432,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="I1" activeCellId="1" sqref="F2:F36 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10503,7 +10503,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A140" activeCellId="0" sqref="A140"/>
-      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="I1" activeCellId="1" sqref="F2:F36 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14579,7 +14579,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="D9" activeCellId="1" sqref="F2:F36 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14659,14 +14659,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14674,12 +14674,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="12" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="12" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="12" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="12" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="12" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1022" min="11" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="1023" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14693,21 +14695,24 @@
         <v>1525</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>1526</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>578</v>
-      </c>
       <c r="F1" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14721,595 +14726,700 @@
       <c r="C2" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D2" s="14" t="n">
+      <c r="D2" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E2" s="14" t="n">
         <v>-34190.38</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>1529</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>1530</v>
       </c>
+      <c r="J2" s="12" t="s">
+        <v>1531</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E3" s="14" t="n">
         <v>1035619</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>411</v>
+      <c r="F3" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="E4" s="14" t="n">
         <v>-40890.38</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>414</v>
+      <c r="F4" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" s="14" t="n">
         <v>-23190.38</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>417</v>
+      <c r="F5" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="E6" s="14" t="n">
         <v>-24290.38</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>420</v>
+      <c r="F6" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="14" t="n">
         <v>-1101856</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>423</v>
+      <c r="F7" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" s="14" t="n">
         <v>1098019</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>427</v>
+      <c r="F8" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E9" s="14" t="n">
         <v>-1164906</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>430</v>
+      <c r="F9" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="E10" s="14" t="n">
         <v>-22290.38</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>431</v>
+      <c r="F10" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="E11" s="14" t="n">
         <v>581419.2</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>449</v>
+      <c r="F11" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="E12" s="14" t="n">
         <v>-24690.38</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>453</v>
+      <c r="F12" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E13" s="14" t="n">
         <v>-22690.38</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>456</v>
+      <c r="F13" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="E14" s="14" t="n">
         <v>-31190.38</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>459</v>
+      <c r="F14" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="E15" s="14" t="n">
         <v>1052899</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>462</v>
+      <c r="F15" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E16" s="14" t="n">
         <v>-1728316</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>465</v>
+      <c r="F16" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D17" s="14" t="n">
+      <c r="D17" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="E17" s="14" t="n">
         <v>-1521617000</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>466</v>
+      <c r="F17" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="E18" s="14" t="n">
         <v>4972350</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>468</v>
+      <c r="F18" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D19" s="14" t="n">
+      <c r="D19" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="E19" s="14" t="n">
         <v>-21590.38</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>470</v>
+      <c r="F19" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D20" s="14" t="n">
+      <c r="D20" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="E20" s="14" t="n">
         <v>-29290.38</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>475</v>
+      <c r="F20" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D21" s="14" t="n">
+      <c r="D21" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="E21" s="14" t="n">
         <v>-41190.38</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>484</v>
+      <c r="F21" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D22" s="14" t="n">
+      <c r="D22" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E22" s="14" t="n">
         <v>-21990.38</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>487</v>
+      <c r="F22" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D23" s="14" t="n">
+      <c r="D23" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E23" s="14" t="n">
         <v>-21390.38</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>490</v>
+      <c r="F23" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D24" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E24" s="14" t="n">
         <v>-23890.38</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>511</v>
+      <c r="F24" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D25" s="14" t="n">
+      <c r="D25" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="E25" s="14" t="n">
         <v>471096.2</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>514</v>
+      <c r="F25" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D26" s="14" t="n">
+      <c r="D26" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="E26" s="14" t="n">
         <v>4381069</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>520</v>
+      <c r="F26" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D27" s="14" t="n">
+      <c r="D27" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="E27" s="14" t="n">
         <v>-34390.38</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>521</v>
+      <c r="F27" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D28" s="14" t="n">
+      <c r="D28" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="E28" s="14" t="n">
         <v>-44490.38</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>545</v>
+      <c r="F28" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D29" s="14" t="n">
+      <c r="D29" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="E29" s="14" t="n">
         <v>-36190.38</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>550</v>
+      <c r="F29" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D30" s="14" t="n">
+      <c r="D30" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="E30" s="14" t="n">
         <v>-22190.38</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>557</v>
+      <c r="F30" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D31" s="14" t="n">
+      <c r="D31" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="E31" s="14" t="n">
         <v>-21990.38</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>560</v>
+      <c r="F31" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D32" s="14" t="n">
+      <c r="D32" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="E32" s="14" t="n">
         <v>1066339</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>566</v>
+      <c r="F32" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D33" s="14" t="n">
+      <c r="D33" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="E33" s="14" t="n">
         <v>-1132896</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>572</v>
+      <c r="F33" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D34" s="14" t="n">
+      <c r="D34" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E34" s="14" t="n">
         <v>-33790.38</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>574</v>
+      <c r="F34" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>1522</v>
       </c>
-      <c r="D35" s="14" t="n">
+      <c r="D35" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="E35" s="14" t="n">
         <v>4381069</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>520</v>
+      <c r="F35" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>1522</v>
       </c>
-      <c r="D36" s="14" t="n">
+      <c r="D36" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="E36" s="14" t="n">
         <v>1066339</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>566</v>
+      <c r="F36" s="14" t="s">
+        <v>1529</v>
       </c>
     </row>
   </sheetData>
@@ -15335,7 +15445,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="G1" activeCellId="1" sqref="F2:F36 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15354,7 +15464,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1597</v>
+        <v>1526</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>581</v>
@@ -15394,7 +15504,7 @@
         <v>1601</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16094,7 +16204,7 @@
         <v>1671</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16139,7 +16249,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="1" sqref="F2:F36 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16215,7 +16325,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="1" sqref="F2:F36 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -16233,7 +16343,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1597</v>
+        <v>1526</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>581</v>
@@ -16459,7 +16569,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M23" activeCellId="0" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="M23" activeCellId="1" sqref="F2:F36 M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17258,7 +17368,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topRight" activeCell="B23" activeCellId="1" sqref="F2:F36 B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -17333,7 +17443,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="1" sqref="F2:F36 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17450,12 +17560,12 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="1" sqref="F2:F36 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17581,7 +17691,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="I1" activeCellId="1" sqref="F2:F36 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -21179,7 +21289,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="1" sqref="F2:F36 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -23338,7 +23448,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="1" sqref="F2:F36 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -26159,7 +26269,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="1" sqref="F2:F36 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -26263,7 +26373,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="1" sqref="F2:F36 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,8 +30,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$C$1:$J$126</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$L$176</definedName>
     <definedName function="false" hidden="true" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$K$144</definedName>
@@ -119,6 +119,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
@@ -162,6 +163,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$144</definedName>
@@ -205,6 +207,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Concentrations!$C$1:$J$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Concentrations!$C$1:$J$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$C$1:$J$126</definedName>
@@ -248,6 +251,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$J$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$J$126</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$J$126</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$C$1:$J$126</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$L$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$L$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$L$176</definedName>
@@ -291,6 +295,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$L$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$L$176</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$L$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$L$176</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
@@ -299,22 +304,22 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$K$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
@@ -334,6 +339,7 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$C$1:$K$168</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
@@ -342,22 +348,22 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$37</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
@@ -377,6 +383,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
@@ -420,6 +427,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -431,7 +439,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="1844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="1844">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -6263,13 +6271,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topRight" activeCell="A12" activeCellId="1" sqref="D3 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -6401,14 +6409,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="1" sqref="D3 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="3" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="45.8461538461538"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6467,20 +6475,20 @@
   </sheetPr>
   <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="H2" activeCellId="1" sqref="D3 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="63.412955465587"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -10713,7 +10721,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A140" activeCellId="0" sqref="A140"/>
-      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="I1" activeCellId="1" sqref="D3 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14765,7 +14773,7 @@
       <c r="K168" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:K168"/>
+  <autoFilter ref="A1:K168"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -14789,13 +14797,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D9" activeCellId="1" sqref="D3 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="10" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="10" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="8" style="10" width="8.78542510121457"/>
@@ -14876,14 +14884,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F2" activeCellId="1" sqref="D3 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="12" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="12" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="12" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="12" width="9.10526315789474"/>
@@ -15655,7 +15663,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="G1" activeCellId="1" sqref="D3 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16435,7 +16443,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I6"/>
+  <autoFilter ref="A1:I37"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16452,14 +16460,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16478,15 +16486,18 @@
         <v>714</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -16498,8 +16509,11 @@
       <c r="C2" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>1609</v>
+      </c>
       <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -16509,8 +16523,11 @@
       <c r="C3" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>1609</v>
+      </c>
       <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16535,12 +16552,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="1" sqref="D3 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="3" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="3" width="9.10526315789474"/>
   </cols>
@@ -16779,7 +16796,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M23" activeCellId="0" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="M23" activeCellId="1" sqref="D3 M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17578,13 +17595,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topRight" activeCell="B23" activeCellId="1" sqref="D3 B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -17653,7 +17670,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="1" sqref="D3 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17775,7 +17792,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="1" sqref="D3 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17901,12 +17918,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="I1" activeCellId="1" sqref="D3 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -21499,12 +21516,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="1" sqref="D3 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="8" min="2" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.10526315789474"/>
   </cols>
@@ -23658,14 +23675,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="1" sqref="D3 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -26479,13 +26496,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="1" sqref="D3 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -26583,13 +26600,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="1" sqref="D3 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">AD[c]</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule cell^-1</t>
+    <t xml:space="preserve">molecule</t>
   </si>
   <si>
     <t xml:space="preserve">AD[e]</t>
@@ -4301,7 +4301,7 @@
     <t xml:space="preserve">k_cat_rev_ak * func_1() * AXP_c * Adk_Protein[c]</t>
   </si>
   <si>
-    <t xml:space="preserve">reaction cell^-1 s^-1</t>
+    <t xml:space="preserve">reaction s^-1</t>
   </si>
   <si>
     <t xml:space="preserve">AK_AMP-forward</t>
@@ -5813,7 +5813,7 @@
     <t xml:space="preserve">k_cat_rev_ak</t>
   </si>
   <si>
-    <t xml:space="preserve">reaction molecule^-2 cell s^-1</t>
+    <t xml:space="preserve">reaction molecule^-2 s^-1</t>
   </si>
   <si>
     <t xml:space="preserve">k_cat_rev_aprt</t>
@@ -15847,11 +15847,11 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
-      <selection pane="bottomRight" activeCell="F61" activeCellId="0" sqref="F61"/>
+      <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="I71" activeCellId="0" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -22607,11 +22607,11 @@
   <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A150" activeCellId="0" sqref="A150"/>
-      <selection pane="bottomRight" activeCell="E150" activeCellId="0" sqref="E150"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -28119,7 +28119,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -4298,7 +4298,7 @@
     <t xml:space="preserve">other</t>
   </si>
   <si>
-    <t xml:space="preserve">k_cat_rev_ak * func_1() * AXP_c * Adk_Protein[c]</t>
+    <t xml:space="preserve">k_cat_rev_ak * func_1 * AXP_c * Adk_Protein[c]</t>
   </si>
   <si>
     <t xml:space="preserve">reaction s^-1</t>
@@ -11221,12 +11221,12 @@
   </sheetPr>
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15846,12 +15846,12 @@
   </sheetPr>
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
-      <selection pane="bottomRight" activeCell="I71" activeCellId="0" sqref="I71"/>
+      <selection pane="bottomRight" activeCell="K80" activeCellId="0" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4548" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="2011">
   <si>
     <t>Id</t>
   </si>
@@ -2650,7 +2650,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>AdnTransport</t>
@@ -5162,6 +5162,9 @@
   </si>
   <si>
     <t>k_cat_for_val_abc * PeptAbcTransporter_Protein[c]</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>dfba-obj-Metabolism</t>
@@ -6430,10 +6433,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -6467,9 +6470,55 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6480,7 +6529,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6494,16 +6551,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6518,22 +6567,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6543,14 +6578,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6569,30 +6596,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -6600,18 +6603,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6630,7 +6633,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6642,61 +6789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6708,109 +6807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6821,6 +6824,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6844,6 +6862,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6878,28 +6907,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6912,148 +6924,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7638,11 +7641,11 @@
   <dimension ref="A1:L176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K71" sqref="K71"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15616,14 +15619,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -15631,10 +15634,10 @@
     <col min="1" max="1" width="22.6" style="3"/>
     <col min="2" max="3" width="9.10833333333333" style="3"/>
     <col min="4" max="4" width="47.5666666666667" style="3"/>
-    <col min="5" max="1025" width="9.10833333333333" style="3"/>
+    <col min="5" max="1026" width="9.10833333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:9">
+    <row r="1" ht="15.1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15651,30 +15654,36 @@
         <v>420</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:5">
+    <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>742</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -15723,7 +15732,7 @@
         <v>420</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -15740,10 +15749,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>29</v>
@@ -15755,15 +15764,15 @@
         <v>56</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>29</v>
@@ -15775,7 +15784,7 @@
         <v>56</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
   </sheetData>
@@ -15821,13 +15830,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>597</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>420</v>
@@ -15847,13 +15856,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="7" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>427</v>
@@ -15862,24 +15871,24 @@
         <v>-34190.38</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>430</v>
@@ -15888,18 +15897,18 @@
         <v>1035619</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>433</v>
@@ -15908,18 +15917,18 @@
         <v>-40890.38</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>436</v>
@@ -15928,18 +15937,18 @@
         <v>-23190.38</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>439</v>
@@ -15948,18 +15957,18 @@
         <v>-24290.38</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>442</v>
@@ -15968,18 +15977,18 @@
         <v>-1101856</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>446</v>
@@ -15988,18 +15997,18 @@
         <v>1098019</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>449</v>
@@ -16008,18 +16017,18 @@
         <v>-1164906</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>450</v>
@@ -16028,18 +16037,18 @@
         <v>-22290.38</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>468</v>
@@ -16048,18 +16057,18 @@
         <v>581419.2</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>472</v>
@@ -16068,18 +16077,18 @@
         <v>-24690.38</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>475</v>
@@ -16088,18 +16097,18 @@
         <v>-22690.38</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>478</v>
@@ -16108,18 +16117,18 @@
         <v>-31190.38</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>481</v>
@@ -16128,18 +16137,18 @@
         <v>1052899</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>484</v>
@@ -16148,18 +16157,18 @@
         <v>-1728316</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>485</v>
@@ -16168,18 +16177,18 @@
         <v>-1521617000</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>487</v>
@@ -16188,18 +16197,18 @@
         <v>4972350</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="19" ht="15.1" customHeight="1" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>489</v>
@@ -16208,18 +16217,18 @@
         <v>-21590.38</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="20" ht="15.1" customHeight="1" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>494</v>
@@ -16228,18 +16237,18 @@
         <v>-29290.38</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="21" ht="15.1" customHeight="1" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>503</v>
@@ -16248,18 +16257,18 @@
         <v>-41190.38</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="22" ht="15.1" customHeight="1" spans="1:6">
       <c r="A22" s="7" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>506</v>
@@ -16268,18 +16277,18 @@
         <v>-21990.38</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="23" ht="15.1" customHeight="1" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>509</v>
@@ -16288,18 +16297,18 @@
         <v>-21390.38</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="24" ht="15.1" customHeight="1" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>530</v>
@@ -16308,18 +16317,18 @@
         <v>-23890.38</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="25" ht="15.1" customHeight="1" spans="1:6">
       <c r="A25" s="7" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>533</v>
@@ -16328,18 +16337,18 @@
         <v>471096.2</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="26" ht="15.1" customHeight="1" spans="1:6">
       <c r="A26" s="7" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>539</v>
@@ -16348,18 +16357,18 @@
         <v>4381069</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="27" ht="15.1" customHeight="1" spans="1:6">
       <c r="A27" s="7" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>540</v>
@@ -16368,18 +16377,18 @@
         <v>-34390.38</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="28" ht="15.1" customHeight="1" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>564</v>
@@ -16388,18 +16397,18 @@
         <v>-44490.38</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="29" ht="15.1" customHeight="1" spans="1:6">
       <c r="A29" s="7" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>569</v>
@@ -16408,18 +16417,18 @@
         <v>-36190.38</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="30" ht="15.1" customHeight="1" spans="1:6">
       <c r="A30" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>576</v>
@@ -16428,18 +16437,18 @@
         <v>-22190.38</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="31" ht="15.1" customHeight="1" spans="1:6">
       <c r="A31" s="7" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>579</v>
@@ -16448,18 +16457,18 @@
         <v>-21990.38</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="32" ht="15.1" customHeight="1" spans="1:6">
       <c r="A32" s="7" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>585</v>
@@ -16468,18 +16477,18 @@
         <v>1066339</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="33" ht="15.1" customHeight="1" spans="1:6">
       <c r="A33" s="7" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>591</v>
@@ -16488,18 +16497,18 @@
         <v>-1132896</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="34" ht="15.1" customHeight="1" spans="1:6">
       <c r="A34" s="7" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>593</v>
@@ -16508,18 +16517,18 @@
         <v>-33790.38</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="35" ht="15.1" customHeight="1" spans="1:6">
       <c r="A35" s="7" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>539</v>
@@ -16528,18 +16537,18 @@
         <v>4381069</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="36" ht="15.1" customHeight="1" spans="1:6">
       <c r="A36" s="7" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>585</v>
@@ -16548,7 +16557,7 @@
         <v>1066339</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
   </sheetData>
@@ -16588,10 +16597,10 @@
         <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>420</v>
@@ -16611,10 +16620,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1282</v>
@@ -16623,23 +16632,23 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="3" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1282</v>
@@ -16657,10 +16666,10 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1282</v>
@@ -16675,12 +16684,12 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="3" t="s">
@@ -16697,7 +16706,7 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="3" t="s">
@@ -16714,1519 +16723,1519 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B9"/>
       <c r="C9" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B10"/>
       <c r="C10" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B11"/>
       <c r="C11" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B12"/>
       <c r="C12" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B13"/>
       <c r="C13" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D14" s="3">
         <v>250</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I14"/>
       <c r="J14" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B15"/>
       <c r="C15" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D16" s="3">
         <v>180</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I16"/>
       <c r="J16" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D17" s="3">
         <v>1005.6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D18" s="3">
         <v>4200</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="19" ht="15.1" customHeight="1" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B19"/>
       <c r="C19" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
     </row>
     <row r="20" ht="15.1" customHeight="1" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B20"/>
       <c r="C20" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21" ht="15.1" customHeight="1" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B21"/>
       <c r="C21" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
     </row>
     <row r="22" ht="15.1" customHeight="1" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B22"/>
       <c r="C22" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
     </row>
     <row r="23" ht="15.1" customHeight="1" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D23" s="3">
         <v>13200</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="24" ht="15.1" customHeight="1" spans="1:10">
       <c r="A24" s="3" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D24" s="3">
         <v>0.276</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="25" ht="15.1" customHeight="1" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B25"/>
       <c r="C25" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
     </row>
     <row r="26" ht="15.1" customHeight="1" spans="1:10">
       <c r="A26" s="3" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D26" s="3">
         <v>628.8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="27" ht="15.1" customHeight="1" spans="1:10">
       <c r="A27" s="3" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B27"/>
       <c r="C27" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
     </row>
     <row r="28" ht="15.1" customHeight="1" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D28" s="3">
         <v>4140</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="29" ht="15.1" customHeight="1" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D29" s="3">
         <v>220</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="30" ht="15.1" customHeight="1" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B30"/>
       <c r="C30" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
     </row>
     <row r="31" ht="15.1" customHeight="1" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B31"/>
       <c r="C31" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
     </row>
     <row r="32" ht="15.1" customHeight="1" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B32"/>
       <c r="C32" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
     </row>
     <row r="33" ht="15.1" customHeight="1" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D33" s="3">
         <v>21667.02</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="34" ht="15.1" customHeight="1" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D34" s="3">
         <v>10020</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="35" ht="15.1" customHeight="1" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D35" s="3">
         <v>30.6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="36" ht="15.1" customHeight="1" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D36" s="3">
         <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="37" ht="15.1" customHeight="1" spans="1:10">
       <c r="A37" s="3" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D37" s="3">
         <v>1511</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="38" ht="15.1" customHeight="1" spans="1:10">
       <c r="A38" s="3" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D38" s="3">
         <v>88800</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="39" ht="15.1" customHeight="1" spans="1:10">
       <c r="A39" s="3" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D39" s="3">
         <v>340</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="40" ht="15.1" customHeight="1" spans="1:10">
       <c r="A40" s="3" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B40"/>
       <c r="C40" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
     </row>
     <row r="41" ht="15.1" customHeight="1" spans="1:10">
       <c r="A41" s="3" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
     </row>
     <row r="42" ht="15.1" customHeight="1" spans="1:10">
       <c r="A42" s="3" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D42" s="3">
         <v>213000</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="43" ht="15.1" customHeight="1" spans="1:10">
       <c r="A43" s="3" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B43"/>
       <c r="C43" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
     </row>
     <row r="44" ht="15.1" customHeight="1" spans="1:10">
       <c r="A44" s="3" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B44"/>
       <c r="C44" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
     </row>
     <row r="45" ht="15.1" customHeight="1" spans="1:10">
       <c r="A45" s="3" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D45" s="3">
         <v>9600</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="46" ht="15.1" customHeight="1" spans="1:10">
       <c r="A46" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D46" s="3">
         <v>47</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="47" ht="15.1" customHeight="1" spans="1:10">
       <c r="A47" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D47" s="3">
         <v>200</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="48" ht="15.1" customHeight="1" spans="1:10">
       <c r="A48" s="3" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B48"/>
       <c r="C48" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
     </row>
     <row r="49" ht="15.1" customHeight="1" spans="1:10">
       <c r="A49" s="3" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D49" s="3">
         <v>120</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="50" ht="15.1" customHeight="1" spans="1:10">
       <c r="A50" s="3" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
     </row>
     <row r="51" ht="15.1" customHeight="1" spans="1:10">
       <c r="A51" s="3" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B51"/>
       <c r="C51" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
     </row>
     <row r="52" ht="15.1" customHeight="1" spans="1:10">
       <c r="A52" s="3" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B52"/>
       <c r="C52" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
     </row>
     <row r="53" ht="15.1" customHeight="1" spans="1:10">
       <c r="A53" s="3" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B53"/>
       <c r="C53" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
     </row>
     <row r="54" ht="15.1" customHeight="1" spans="1:10">
       <c r="A54" s="3" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B54"/>
       <c r="C54" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
     </row>
     <row r="55" ht="15.1" customHeight="1" spans="1:10">
       <c r="A55" s="3" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B55"/>
       <c r="C55" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
     </row>
     <row r="56" ht="15.1" customHeight="1" spans="1:10">
       <c r="A56" s="3" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B56"/>
       <c r="C56" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
     </row>
     <row r="57" ht="15.1" customHeight="1" spans="1:10">
       <c r="A57" s="3" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D57" s="3">
         <v>6.5</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="58" ht="15.1" customHeight="1" spans="1:10">
       <c r="A58" s="3" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D58" s="3">
         <v>1.58</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="59" ht="15.1" customHeight="1" spans="1:10">
       <c r="A59" s="3" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D59" s="3">
         <v>52</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="60" ht="15.1" customHeight="1" spans="1:10">
       <c r="A60" s="3" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B60"/>
       <c r="C60" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
     </row>
     <row r="61" ht="15.1" customHeight="1" spans="1:10">
       <c r="A61" s="3" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B61"/>
       <c r="C61" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I61"/>
       <c r="J61"/>
     </row>
     <row r="62" ht="15.1" customHeight="1" spans="1:10">
       <c r="A62" s="3" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B62"/>
       <c r="C62" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
     </row>
     <row r="63" ht="15.1" customHeight="1" spans="1:10">
       <c r="A63" s="3" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D63" s="3">
         <v>1247</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="64" ht="15.1" customHeight="1" spans="1:10">
       <c r="A64" s="3" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B64"/>
       <c r="C64" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
     </row>
     <row r="65" ht="15.1" customHeight="1" spans="1:10">
       <c r="A65" s="3" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B65"/>
       <c r="C65" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
     </row>
     <row r="66" ht="15.1" customHeight="1" spans="1:10">
       <c r="A66" s="3" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B66"/>
       <c r="C66" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
     </row>
     <row r="67" ht="15.1" customHeight="1" spans="1:10">
       <c r="A67" s="3" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B67"/>
       <c r="C67" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I67"/>
       <c r="J67"/>
     </row>
     <row r="68" ht="15.1" customHeight="1" spans="1:10">
       <c r="A68" s="3" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B68"/>
       <c r="C68" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
     </row>
     <row r="69" ht="15.1" customHeight="1" spans="1:10">
       <c r="A69" s="3" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B69"/>
       <c r="C69" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I69"/>
       <c r="J69"/>
     </row>
     <row r="70" ht="15.1" customHeight="1" spans="1:10">
       <c r="A70" s="3" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B70"/>
       <c r="C70" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I70"/>
       <c r="J70"/>
     </row>
     <row r="71" ht="15.1" customHeight="1" spans="1:10">
       <c r="A71" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B71"/>
       <c r="C71" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I71"/>
       <c r="J71"/>
     </row>
     <row r="72" ht="15.1" customHeight="1" spans="1:10">
       <c r="A72" s="3" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B72"/>
       <c r="C72" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I72"/>
       <c r="J72"/>
     </row>
     <row r="73" ht="15.1" customHeight="1" spans="1:10">
       <c r="A73" s="3" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
     </row>
     <row r="74" ht="15.1" customHeight="1" spans="1:10">
       <c r="A74" s="3" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B74"/>
       <c r="C74" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
     </row>
     <row r="75" ht="15.1" customHeight="1" spans="1:10">
       <c r="A75" s="3" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B75"/>
       <c r="C75" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
     </row>
     <row r="76" ht="15.1" customHeight="1" spans="1:10">
       <c r="A76" s="3" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B76"/>
       <c r="C76" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I76"/>
       <c r="J76"/>
     </row>
     <row r="77" ht="15.1" customHeight="1" spans="1:10">
       <c r="A77" s="3" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B77"/>
       <c r="C77" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
     </row>
     <row r="78" ht="15.1" customHeight="1" spans="1:10">
       <c r="A78" s="3" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B78"/>
       <c r="C78" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I78"/>
       <c r="J78"/>
     </row>
     <row r="79" ht="15.1" customHeight="1" spans="1:10">
       <c r="A79" s="3" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B79"/>
       <c r="C79" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I79"/>
       <c r="J79"/>
     </row>
     <row r="80" ht="15.1" customHeight="1" spans="1:10">
       <c r="A80" s="3" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B80"/>
       <c r="C80" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I80"/>
       <c r="J80"/>
     </row>
     <row r="81" ht="15.1" customHeight="1" spans="1:10">
       <c r="A81" s="3" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B81"/>
       <c r="C81" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I81"/>
       <c r="J81"/>
     </row>
     <row r="82" ht="15.1" customHeight="1" spans="1:10">
       <c r="A82" s="3" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B82"/>
       <c r="C82" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I82"/>
       <c r="J82"/>
     </row>
     <row r="83" ht="15.1" customHeight="1" spans="1:10">
       <c r="A83" s="3" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B83"/>
       <c r="C83" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I83"/>
       <c r="J83"/>
     </row>
     <row r="84" ht="15.1" customHeight="1" spans="1:10">
       <c r="A84" s="3" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D84" s="3">
         <v>0.000231049060186648</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="J84" s="6"/>
     </row>
     <row r="85" ht="15.1" customHeight="1" spans="1:10">
       <c r="A85" s="3" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D85" s="3">
         <v>265.521194884729</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="J85" s="6"/>
     </row>
     <row r="86" ht="15.1" customHeight="1" spans="1:10">
       <c r="A86" s="3" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D86" s="3">
         <v>0.000233455821230259</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="J86" s="6"/>
     </row>
     <row r="87" ht="15.1" customHeight="1" spans="1:10">
       <c r="A87" s="3" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="3" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D87" s="3">
         <v>1.81285794880199e-7</v>
@@ -18235,17 +18244,17 @@
         <v>422</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="J87" s="6"/>
     </row>
     <row r="88" ht="15.1" customHeight="1" spans="1:10">
       <c r="A88" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="3" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D88" s="3">
         <v>0.0005</v>
@@ -18254,17 +18263,17 @@
         <v>422</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="J88" s="6"/>
     </row>
     <row r="89" ht="15.1" customHeight="1" spans="1:10">
       <c r="A89" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="3" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D89" s="3">
         <v>0.001</v>
@@ -18273,16 +18282,16 @@
         <v>422</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="J89" s="6"/>
     </row>
     <row r="90" ht="15.1" customHeight="1" spans="1:10">
       <c r="A90" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>1282</v>
@@ -18291,21 +18300,21 @@
         <v>20</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="91" ht="15.1" customHeight="1" spans="1:6">
       <c r="A91" s="3" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>1282</v>
@@ -18319,7 +18328,7 @@
     </row>
     <row r="92" ht="15.1" customHeight="1" spans="1:6">
       <c r="A92" s="3" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>1282</v>
@@ -18333,7 +18342,7 @@
     </row>
     <row r="93" ht="15.1" customHeight="1" spans="1:6">
       <c r="A93" s="3" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>1282</v>
@@ -18402,11 +18411,11 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>742</v>
@@ -18416,11 +18425,11 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>742</v>
@@ -18465,7 +18474,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>420</v>
@@ -18474,19 +18483,19 @@
         <v>69</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>18</v>
@@ -18506,19 +18515,19 @@
         <v>603</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>602</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H2" s="3">
         <v>37</v>
@@ -18527,88 +18536,88 @@
         <v>7.5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>602</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>602</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>602</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="3" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="H6" s="3">
         <v>37</v>
@@ -18619,14 +18628,14 @@
         <v>607</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C7" s="5"/>
       <c r="E7" s="3" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="H7" s="3">
         <v>30</v>
@@ -18634,17 +18643,17 @@
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C8" s="5"/>
       <c r="E8" s="3" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="H8" s="3">
         <v>37</v>
@@ -18652,17 +18661,17 @@
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="3" t="s">
         <v>1282</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="H9" s="3">
         <v>40</v>
@@ -18704,46 +18713,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -18754,68 +18763,68 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3">
         <v>2008</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="R2" s="3"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
         <v>2014</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -18825,160 +18834,160 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="R3" s="3"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>2004</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="R4" s="3"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>2009</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="R5" s="3"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:18">
       <c r="A6" s="3" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>2007</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="R6" s="3"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:18">
       <c r="A7" s="3" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>2001</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -18988,35 +18997,35 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="R7" s="3"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:18">
       <c r="A8" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>2006</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -19026,217 +19035,217 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="R8" s="3"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:18">
       <c r="A9" s="3" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>1993</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="R9" s="3"/>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:18">
       <c r="A10" s="3" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>2010</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="R10" s="3"/>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:18">
       <c r="A11" s="3" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>2000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="R11" s="3"/>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:18">
       <c r="A12" s="3" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>1999</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="R12" s="3"/>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:18">
       <c r="A13" s="3" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>1979</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="R13" s="3"/>
     </row>
@@ -19245,40 +19254,40 @@
         <v>74</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>2012</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="R14" s="3"/>
     </row>
@@ -19287,56 +19296,56 @@
         <v>187</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
         <v>2009</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="R15" s="3"/>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:18">
       <c r="A16" s="3" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -19348,23 +19357,23 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="R16" s="3"/>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:18">
       <c r="A17" s="3" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -19376,23 +19385,23 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="R17" s="3"/>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:18">
       <c r="A18" s="3" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -19404,23 +19413,23 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="R18" s="3"/>
     </row>
     <row r="19" ht="15.1" customHeight="1" spans="1:18">
       <c r="A19" s="3" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -19432,7 +19441,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="R19" s="3"/>
     </row>
@@ -19442,13 +19451,13 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -19460,54 +19469,54 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F21" s="1">
         <v>2015</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F22" s="1">
         <v>2018</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -19713,7 +19722,7 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="2011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4552" uniqueCount="2012">
   <si>
     <t>Id</t>
   </si>
@@ -5162,6 +5162,9 @@
   </si>
   <si>
     <t>k_cat_for_val_abc * PeptAbcTransporter_Protein[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
   </si>
   <si>
     <t>Coefficient units</t>
@@ -6433,10 +6436,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -6483,6 +6486,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -6491,16 +6501,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6508,21 +6510,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6552,22 +6539,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -6582,6 +6553,52 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -6590,21 +6607,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6633,19 +6636,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6663,7 +6666,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6675,25 +6756,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6705,37 +6786,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6747,73 +6816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6842,15 +6845,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6866,6 +6860,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6877,17 +6886,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6910,8 +6913,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6919,140 +6922,140 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7641,11 +7644,11 @@
   <dimension ref="A1:L176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15619,14 +15622,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -15634,10 +15637,10 @@
     <col min="1" max="1" width="22.6" style="3"/>
     <col min="2" max="3" width="9.10833333333333" style="3"/>
     <col min="4" max="4" width="47.5666666666667" style="3"/>
-    <col min="5" max="1026" width="9.10833333333333" style="3"/>
+    <col min="5" max="1027" width="9.10833333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:10">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15657,32 +15660,38 @@
         <v>1590</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:6">
+    <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>742</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -15732,7 +15741,7 @@
         <v>420</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -15749,10 +15758,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>29</v>
@@ -15764,15 +15773,15 @@
         <v>56</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>29</v>
@@ -15784,7 +15793,7 @@
         <v>56</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
   </sheetData>
@@ -15830,13 +15839,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>597</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>420</v>
@@ -15856,13 +15865,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="7" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>427</v>
@@ -15871,24 +15880,24 @@
         <v>-34190.38</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>430</v>
@@ -15897,18 +15906,18 @@
         <v>1035619</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>433</v>
@@ -15917,18 +15926,18 @@
         <v>-40890.38</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>436</v>
@@ -15937,18 +15946,18 @@
         <v>-23190.38</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>439</v>
@@ -15957,18 +15966,18 @@
         <v>-24290.38</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>442</v>
@@ -15977,18 +15986,18 @@
         <v>-1101856</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>446</v>
@@ -15997,18 +16006,18 @@
         <v>1098019</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>449</v>
@@ -16017,18 +16026,18 @@
         <v>-1164906</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>450</v>
@@ -16037,18 +16046,18 @@
         <v>-22290.38</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>468</v>
@@ -16057,18 +16066,18 @@
         <v>581419.2</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>472</v>
@@ -16077,18 +16086,18 @@
         <v>-24690.38</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>475</v>
@@ -16097,18 +16106,18 @@
         <v>-22690.38</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>478</v>
@@ -16117,18 +16126,18 @@
         <v>-31190.38</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>481</v>
@@ -16137,18 +16146,18 @@
         <v>1052899</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>484</v>
@@ -16157,18 +16166,18 @@
         <v>-1728316</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>485</v>
@@ -16177,18 +16186,18 @@
         <v>-1521617000</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>487</v>
@@ -16197,18 +16206,18 @@
         <v>4972350</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="19" ht="15.1" customHeight="1" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>489</v>
@@ -16217,18 +16226,18 @@
         <v>-21590.38</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="20" ht="15.1" customHeight="1" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>494</v>
@@ -16237,18 +16246,18 @@
         <v>-29290.38</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="21" ht="15.1" customHeight="1" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>503</v>
@@ -16257,18 +16266,18 @@
         <v>-41190.38</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="22" ht="15.1" customHeight="1" spans="1:6">
       <c r="A22" s="7" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>506</v>
@@ -16277,18 +16286,18 @@
         <v>-21990.38</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="23" ht="15.1" customHeight="1" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>509</v>
@@ -16297,18 +16306,18 @@
         <v>-21390.38</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="24" ht="15.1" customHeight="1" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>530</v>
@@ -16317,18 +16326,18 @@
         <v>-23890.38</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="25" ht="15.1" customHeight="1" spans="1:6">
       <c r="A25" s="7" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>533</v>
@@ -16337,18 +16346,18 @@
         <v>471096.2</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="26" ht="15.1" customHeight="1" spans="1:6">
       <c r="A26" s="7" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>539</v>
@@ -16357,18 +16366,18 @@
         <v>4381069</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="27" ht="15.1" customHeight="1" spans="1:6">
       <c r="A27" s="7" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>540</v>
@@ -16377,18 +16386,18 @@
         <v>-34390.38</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="28" ht="15.1" customHeight="1" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>564</v>
@@ -16397,18 +16406,18 @@
         <v>-44490.38</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="29" ht="15.1" customHeight="1" spans="1:6">
       <c r="A29" s="7" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>569</v>
@@ -16417,18 +16426,18 @@
         <v>-36190.38</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="30" ht="15.1" customHeight="1" spans="1:6">
       <c r="A30" s="7" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>576</v>
@@ -16437,18 +16446,18 @@
         <v>-22190.38</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="31" ht="15.1" customHeight="1" spans="1:6">
       <c r="A31" s="7" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>579</v>
@@ -16457,18 +16466,18 @@
         <v>-21990.38</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="32" ht="15.1" customHeight="1" spans="1:6">
       <c r="A32" s="7" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>585</v>
@@ -16477,18 +16486,18 @@
         <v>1066339</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="33" ht="15.1" customHeight="1" spans="1:6">
       <c r="A33" s="7" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>591</v>
@@ -16497,18 +16506,18 @@
         <v>-1132896</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="34" ht="15.1" customHeight="1" spans="1:6">
       <c r="A34" s="7" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>593</v>
@@ -16517,18 +16526,18 @@
         <v>-33790.38</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="35" ht="15.1" customHeight="1" spans="1:6">
       <c r="A35" s="7" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>539</v>
@@ -16537,18 +16546,18 @@
         <v>4381069</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="36" ht="15.1" customHeight="1" spans="1:6">
       <c r="A36" s="7" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>585</v>
@@ -16557,7 +16566,7 @@
         <v>1066339</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
   </sheetData>
@@ -16597,10 +16606,10 @@
         <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>420</v>
@@ -16620,10 +16629,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1282</v>
@@ -16632,23 +16641,23 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="3" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1282</v>
@@ -16666,10 +16675,10 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1282</v>
@@ -16684,12 +16693,12 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="3" t="s">
@@ -16706,7 +16715,7 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="3" t="s">
@@ -16723,1519 +16732,1519 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B9"/>
       <c r="C9" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B10"/>
       <c r="C10" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B11"/>
       <c r="C11" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B12"/>
       <c r="C12" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B13"/>
       <c r="C13" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D14" s="3">
         <v>250</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I14"/>
       <c r="J14" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B15"/>
       <c r="C15" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D16" s="3">
         <v>180</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I16"/>
       <c r="J16" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D17" s="3">
         <v>1005.6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D18" s="3">
         <v>4200</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="19" ht="15.1" customHeight="1" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B19"/>
       <c r="C19" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
     </row>
     <row r="20" ht="15.1" customHeight="1" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B20"/>
       <c r="C20" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21" ht="15.1" customHeight="1" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B21"/>
       <c r="C21" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
     </row>
     <row r="22" ht="15.1" customHeight="1" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B22"/>
       <c r="C22" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
     </row>
     <row r="23" ht="15.1" customHeight="1" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D23" s="3">
         <v>13200</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="24" ht="15.1" customHeight="1" spans="1:10">
       <c r="A24" s="3" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D24" s="3">
         <v>0.276</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="25" ht="15.1" customHeight="1" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B25"/>
       <c r="C25" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
     </row>
     <row r="26" ht="15.1" customHeight="1" spans="1:10">
       <c r="A26" s="3" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D26" s="3">
         <v>628.8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="27" ht="15.1" customHeight="1" spans="1:10">
       <c r="A27" s="3" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B27"/>
       <c r="C27" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
     </row>
     <row r="28" ht="15.1" customHeight="1" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D28" s="3">
         <v>4140</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="29" ht="15.1" customHeight="1" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D29" s="3">
         <v>220</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="30" ht="15.1" customHeight="1" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B30"/>
       <c r="C30" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
     </row>
     <row r="31" ht="15.1" customHeight="1" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B31"/>
       <c r="C31" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
     </row>
     <row r="32" ht="15.1" customHeight="1" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B32"/>
       <c r="C32" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
     </row>
     <row r="33" ht="15.1" customHeight="1" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D33" s="3">
         <v>21667.02</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="34" ht="15.1" customHeight="1" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D34" s="3">
         <v>10020</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="35" ht="15.1" customHeight="1" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D35" s="3">
         <v>30.6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="36" ht="15.1" customHeight="1" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D36" s="3">
         <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="37" ht="15.1" customHeight="1" spans="1:10">
       <c r="A37" s="3" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D37" s="3">
         <v>1511</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="38" ht="15.1" customHeight="1" spans="1:10">
       <c r="A38" s="3" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D38" s="3">
         <v>88800</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="39" ht="15.1" customHeight="1" spans="1:10">
       <c r="A39" s="3" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D39" s="3">
         <v>340</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="40" ht="15.1" customHeight="1" spans="1:10">
       <c r="A40" s="3" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B40"/>
       <c r="C40" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
     </row>
     <row r="41" ht="15.1" customHeight="1" spans="1:10">
       <c r="A41" s="3" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
     </row>
     <row r="42" ht="15.1" customHeight="1" spans="1:10">
       <c r="A42" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D42" s="3">
         <v>213000</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="43" ht="15.1" customHeight="1" spans="1:10">
       <c r="A43" s="3" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B43"/>
       <c r="C43" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
     </row>
     <row r="44" ht="15.1" customHeight="1" spans="1:10">
       <c r="A44" s="3" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B44"/>
       <c r="C44" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
     </row>
     <row r="45" ht="15.1" customHeight="1" spans="1:10">
       <c r="A45" s="3" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D45" s="3">
         <v>9600</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="46" ht="15.1" customHeight="1" spans="1:10">
       <c r="A46" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D46" s="3">
         <v>47</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="47" ht="15.1" customHeight="1" spans="1:10">
       <c r="A47" s="3" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D47" s="3">
         <v>200</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="48" ht="15.1" customHeight="1" spans="1:10">
       <c r="A48" s="3" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B48"/>
       <c r="C48" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
     </row>
     <row r="49" ht="15.1" customHeight="1" spans="1:10">
       <c r="A49" s="3" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D49" s="3">
         <v>120</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="50" ht="15.1" customHeight="1" spans="1:10">
       <c r="A50" s="3" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
     </row>
     <row r="51" ht="15.1" customHeight="1" spans="1:10">
       <c r="A51" s="3" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B51"/>
       <c r="C51" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
     </row>
     <row r="52" ht="15.1" customHeight="1" spans="1:10">
       <c r="A52" s="3" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B52"/>
       <c r="C52" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
     </row>
     <row r="53" ht="15.1" customHeight="1" spans="1:10">
       <c r="A53" s="3" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B53"/>
       <c r="C53" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
     </row>
     <row r="54" ht="15.1" customHeight="1" spans="1:10">
       <c r="A54" s="3" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B54"/>
       <c r="C54" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
     </row>
     <row r="55" ht="15.1" customHeight="1" spans="1:10">
       <c r="A55" s="3" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B55"/>
       <c r="C55" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
     </row>
     <row r="56" ht="15.1" customHeight="1" spans="1:10">
       <c r="A56" s="3" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B56"/>
       <c r="C56" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
     </row>
     <row r="57" ht="15.1" customHeight="1" spans="1:10">
       <c r="A57" s="3" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D57" s="3">
         <v>6.5</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="58" ht="15.1" customHeight="1" spans="1:10">
       <c r="A58" s="3" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D58" s="3">
         <v>1.58</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="59" ht="15.1" customHeight="1" spans="1:10">
       <c r="A59" s="3" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D59" s="3">
         <v>52</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="60" ht="15.1" customHeight="1" spans="1:10">
       <c r="A60" s="3" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B60"/>
       <c r="C60" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
     </row>
     <row r="61" ht="15.1" customHeight="1" spans="1:10">
       <c r="A61" s="3" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B61"/>
       <c r="C61" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I61"/>
       <c r="J61"/>
     </row>
     <row r="62" ht="15.1" customHeight="1" spans="1:10">
       <c r="A62" s="3" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B62"/>
       <c r="C62" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
     </row>
     <row r="63" ht="15.1" customHeight="1" spans="1:10">
       <c r="A63" s="3" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="3" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D63" s="3">
         <v>1247</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="64" ht="15.1" customHeight="1" spans="1:10">
       <c r="A64" s="3" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B64"/>
       <c r="C64" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
     </row>
     <row r="65" ht="15.1" customHeight="1" spans="1:10">
       <c r="A65" s="3" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B65"/>
       <c r="C65" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
     </row>
     <row r="66" ht="15.1" customHeight="1" spans="1:10">
       <c r="A66" s="3" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B66"/>
       <c r="C66" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
     </row>
     <row r="67" ht="15.1" customHeight="1" spans="1:10">
       <c r="A67" s="3" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B67"/>
       <c r="C67" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I67"/>
       <c r="J67"/>
     </row>
     <row r="68" ht="15.1" customHeight="1" spans="1:10">
       <c r="A68" s="3" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B68"/>
       <c r="C68" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
     </row>
     <row r="69" ht="15.1" customHeight="1" spans="1:10">
       <c r="A69" s="3" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B69"/>
       <c r="C69" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I69"/>
       <c r="J69"/>
     </row>
     <row r="70" ht="15.1" customHeight="1" spans="1:10">
       <c r="A70" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B70"/>
       <c r="C70" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I70"/>
       <c r="J70"/>
     </row>
     <row r="71" ht="15.1" customHeight="1" spans="1:10">
       <c r="A71" s="3" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B71"/>
       <c r="C71" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I71"/>
       <c r="J71"/>
     </row>
     <row r="72" ht="15.1" customHeight="1" spans="1:10">
       <c r="A72" s="3" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B72"/>
       <c r="C72" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I72"/>
       <c r="J72"/>
     </row>
     <row r="73" ht="15.1" customHeight="1" spans="1:10">
       <c r="A73" s="3" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
     </row>
     <row r="74" ht="15.1" customHeight="1" spans="1:10">
       <c r="A74" s="3" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B74"/>
       <c r="C74" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
     </row>
     <row r="75" ht="15.1" customHeight="1" spans="1:10">
       <c r="A75" s="3" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B75"/>
       <c r="C75" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
     </row>
     <row r="76" ht="15.1" customHeight="1" spans="1:10">
       <c r="A76" s="3" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B76"/>
       <c r="C76" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I76"/>
       <c r="J76"/>
     </row>
     <row r="77" ht="15.1" customHeight="1" spans="1:10">
       <c r="A77" s="3" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B77"/>
       <c r="C77" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
     </row>
     <row r="78" ht="15.1" customHeight="1" spans="1:10">
       <c r="A78" s="3" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B78"/>
       <c r="C78" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I78"/>
       <c r="J78"/>
     </row>
     <row r="79" ht="15.1" customHeight="1" spans="1:10">
       <c r="A79" s="3" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B79"/>
       <c r="C79" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I79"/>
       <c r="J79"/>
     </row>
     <row r="80" ht="15.1" customHeight="1" spans="1:10">
       <c r="A80" s="3" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B80"/>
       <c r="C80" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I80"/>
       <c r="J80"/>
     </row>
     <row r="81" ht="15.1" customHeight="1" spans="1:10">
       <c r="A81" s="3" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B81"/>
       <c r="C81" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I81"/>
       <c r="J81"/>
     </row>
     <row r="82" ht="15.1" customHeight="1" spans="1:10">
       <c r="A82" s="3" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B82"/>
       <c r="C82" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I82"/>
       <c r="J82"/>
     </row>
     <row r="83" ht="15.1" customHeight="1" spans="1:10">
       <c r="A83" s="3" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B83"/>
       <c r="C83" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I83"/>
       <c r="J83"/>
     </row>
     <row r="84" ht="15.1" customHeight="1" spans="1:10">
       <c r="A84" s="3" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="3" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D84" s="3">
         <v>0.000231049060186648</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="J84" s="6"/>
     </row>
     <row r="85" ht="15.1" customHeight="1" spans="1:10">
       <c r="A85" s="3" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="3" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D85" s="3">
         <v>265.521194884729</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J85" s="6"/>
     </row>
     <row r="86" ht="15.1" customHeight="1" spans="1:10">
       <c r="A86" s="3" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="3" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D86" s="3">
         <v>0.000233455821230259</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J86" s="6"/>
     </row>
     <row r="87" ht="15.1" customHeight="1" spans="1:10">
       <c r="A87" s="3" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D87" s="3">
         <v>1.81285794880199e-7</v>
@@ -18244,17 +18253,17 @@
         <v>422</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="J87" s="6"/>
     </row>
     <row r="88" ht="15.1" customHeight="1" spans="1:10">
       <c r="A88" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D88" s="3">
         <v>0.0005</v>
@@ -18263,17 +18272,17 @@
         <v>422</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J88" s="6"/>
     </row>
     <row r="89" ht="15.1" customHeight="1" spans="1:10">
       <c r="A89" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D89" s="3">
         <v>0.001</v>
@@ -18282,16 +18291,16 @@
         <v>422</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J89" s="6"/>
     </row>
     <row r="90" ht="15.1" customHeight="1" spans="1:10">
       <c r="A90" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>1282</v>
@@ -18300,21 +18309,21 @@
         <v>20</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="91" ht="15.1" customHeight="1" spans="1:6">
       <c r="A91" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>1282</v>
@@ -18328,7 +18337,7 @@
     </row>
     <row r="92" ht="15.1" customHeight="1" spans="1:6">
       <c r="A92" s="3" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>1282</v>
@@ -18342,7 +18351,7 @@
     </row>
     <row r="93" ht="15.1" customHeight="1" spans="1:6">
       <c r="A93" s="3" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>1282</v>
@@ -18411,11 +18420,11 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>742</v>
@@ -18425,11 +18434,11 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>742</v>
@@ -18474,7 +18483,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>420</v>
@@ -18483,19 +18492,19 @@
         <v>69</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>18</v>
@@ -18515,19 +18524,19 @@
         <v>603</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>602</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H2" s="3">
         <v>37</v>
@@ -18536,88 +18545,88 @@
         <v>7.5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>602</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>602</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>602</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="3" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="H6" s="3">
         <v>37</v>
@@ -18628,14 +18637,14 @@
         <v>607</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C7" s="5"/>
       <c r="E7" s="3" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="H7" s="3">
         <v>30</v>
@@ -18643,17 +18652,17 @@
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C8" s="5"/>
       <c r="E8" s="3" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="H8" s="3">
         <v>37</v>
@@ -18661,17 +18670,17 @@
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="3" t="s">
         <v>1282</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H9" s="3">
         <v>40</v>
@@ -18713,46 +18722,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -18763,68 +18772,68 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3">
         <v>2008</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="R2" s="3"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
         <v>2014</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -18834,160 +18843,160 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="R3" s="3"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>2004</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="R4" s="3"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>2009</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="R5" s="3"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:18">
       <c r="A6" s="3" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>2007</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="R6" s="3"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:18">
       <c r="A7" s="3" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>2001</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -18997,35 +19006,35 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="R7" s="3"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:18">
       <c r="A8" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>2006</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -19035,217 +19044,217 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="R8" s="3"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:18">
       <c r="A9" s="3" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>1993</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="R9" s="3"/>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:18">
       <c r="A10" s="3" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>2010</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="R10" s="3"/>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:18">
       <c r="A11" s="3" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>2000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="R11" s="3"/>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:18">
       <c r="A12" s="3" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>1999</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="R12" s="3"/>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:18">
       <c r="A13" s="3" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>1979</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="R13" s="3"/>
     </row>
@@ -19254,40 +19263,40 @@
         <v>74</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>2012</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="R14" s="3"/>
     </row>
@@ -19296,56 +19305,56 @@
         <v>187</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
         <v>2009</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="R15" s="3"/>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:18">
       <c r="A16" s="3" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -19357,23 +19366,23 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="R16" s="3"/>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:18">
       <c r="A17" s="3" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -19385,23 +19394,23 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="R17" s="3"/>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:18">
       <c r="A18" s="3" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -19413,23 +19422,23 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="R18" s="3"/>
     </row>
     <row r="19" ht="15.1" customHeight="1" spans="1:18">
       <c r="A19" s="3" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -19441,7 +19450,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="R19" s="3"/>
     </row>
@@ -19451,13 +19460,13 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -19469,54 +19478,54 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F21" s="1">
         <v>2015</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F22" s="1">
         <v>2018</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="13" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="14" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="13" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="14" r:id="rId15"/>
     <sheet name="Parameters" sheetId="15" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
     <sheet name="Evidence" sheetId="17" r:id="rId18"/>
@@ -5225,7 +5225,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -6472,11 +6472,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -6512,10 +6512,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -6526,18 +6531,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6564,6 +6576,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -6580,36 +6600,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -6629,30 +6623,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6679,13 +6679,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6697,31 +6703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6739,7 +6721,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6751,7 +6751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6769,7 +6775,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6781,43 +6811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6835,19 +6829,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6909,15 +6909,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -6964,143 +6955,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7150,9 +7150,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -16179,12 +16176,12 @@
   <sheetPr/>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19958,7 +19955,7 @@
     <col min="1" max="1" width="10.3916666666667" style="3"/>
     <col min="2" max="2" width="29.775" style="3"/>
     <col min="3" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="18"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:2">
@@ -20012,7 +20009,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="G6" sqref="G6"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="10" activeTab="17"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -565,13 +565,13 @@
     <t>Cytoplasm</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>WCM:0000003 ! cellular compartment</t>
+  </si>
+  <si>
+    <t>WCM:0000006 ! fluid compartment</t>
+  </si>
+  <si>
+    <t>WCM:0000009 ! 3d compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -599,7 +599,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>WCM:0000004 ! extracellular compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -6515,11 +6515,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -6567,25 +6567,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6612,6 +6596,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -6619,8 +6619,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6634,22 +6642,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6657,22 +6650,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6700,6 +6692,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -6716,19 +6716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6740,7 +6734,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6752,37 +6782,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6800,25 +6812,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6830,7 +6836,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6842,13 +6878,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6860,43 +6896,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6907,21 +6907,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6943,6 +6928,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6954,6 +6950,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6975,11 +6986,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6998,144 +7007,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -19097,7 +19097,7 @@
   <sheetPr/>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -19461,8 +19461,6 @@
       <c r="F2" s="3" t="s">
         <v>1889</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
         <v>1862</v>
       </c>
@@ -19486,8 +19484,6 @@
       <c r="F3" s="3" t="s">
         <v>1892</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
         <v>1893</v>
       </c>
@@ -20652,18 +20648,20 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="6.10833333333333" style="9"/>
-    <col min="2" max="4" width="16.3916666666667" style="9"/>
+    <col min="2" max="2" width="16.3916666666667" style="9"/>
+    <col min="3" max="3" width="24.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="9" customWidth="1"/>
     <col min="5" max="7" width="14.1416666666667" style="9"/>
     <col min="8" max="16" width="11.7833333333333" style="9"/>
     <col min="17" max="17" width="11.3583333333333" style="9"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
     <t>Metabolism</t>
   </si>
   <si>
-    <t>dfba</t>
+    <t>WCM:0000013 ! dFBA</t>
   </si>
   <si>
     <t>E.g., obj. fn.</t>
@@ -520,7 +520,7 @@
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>WCM:0000011 ! SSA</t>
   </si>
   <si>
     <t>Transcription</t>
@@ -20524,12 +20524,12 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -20648,7 +20648,7 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="15"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -508,7 +508,7 @@
     <t>Metabolism</t>
   </si>
   <si>
-    <t>WCM:0000013 ! dFBA</t>
+    <t>dynamic_flux_balance_analysis</t>
   </si>
   <si>
     <t>E.g., obj. fn.</t>
@@ -520,7 +520,7 @@
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>WCM:0000011 ! SSA</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Transcription</t>
@@ -565,13 +565,13 @@
     <t>Cytoplasm</t>
   </si>
   <si>
-    <t>WCM:0000003 ! cellular compartment</t>
-  </si>
-  <si>
-    <t>WCM:0000006 ! fluid compartment</t>
-  </si>
-  <si>
-    <t>WCM:0000009 ! 3D compartment</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -580,7 +580,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>WCM:0000065 ! normal distribution</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -599,7 +599,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>WCM:0000004 ! extracellular compartment</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -633,7 +633,7 @@
     <t>adenine</t>
   </si>
   <si>
-    <t>WCM:0000015 ! metabolite</t>
+    <t>metabolite</t>
   </si>
   <si>
     <t>Media concentration set to concentration in SP4 media [Ref_0013].</t>
@@ -651,7 +651,7 @@
     <t>MTVRSDHTSALSGVRRTTDEPSVERSMVSSVRGDEPHATRRVRVTYTLDTAEPKGFLKDTCHYKLVTLIQLEPQWQMLSGICCGASTPLTNPRRLRLTPT</t>
   </si>
   <si>
-    <t>WCM:0000016 ! protein</t>
+    <t>protein</t>
   </si>
   <si>
     <t>Adk_Rna</t>
@@ -663,7 +663,7 @@
     <t>AUGACGGUACGAAGCGAUCACACGUCUGCGCUGAGCGGAGUAAGGCGAACCACAGACGAACCUAGCGUCGAGAGAAGCAUGGUAUCGAGUGUUCGUGGGGAUGAACCGCAUGCUACGCGGCGGGUGCGGGUGACCUACACUCUUGAUACAGCCGAACCGAAAGGCUUCCUCAAGGACACGUGUCAUUACAAGCUAGUAACAUUGAUCCAACUAGAACCCCAGUGGCAAAUGUUGUCGGGGAUUUGUUGUGGGGCUUCUACACCCUUAACCAACCCCAGAAGGUUAAGGUUGACGCCAACUUAG</t>
   </si>
   <si>
-    <t>WCM:0000017 ! RNA</t>
+    <t>RNA</t>
   </si>
   <si>
     <t>ADP</t>
@@ -5496,7 +5496,7 @@
     <t>k_cat_for_adk</t>
   </si>
   <si>
-    <t>WCM:0000026 ! k_cat</t>
+    <t>k_cat</t>
   </si>
   <si>
     <t>molecule^-1 s^-1</t>
@@ -5898,7 +5898,7 @@
     <t>K_m_rna_deg</t>
   </si>
   <si>
-    <t>WCM:0000027 ! K_m</t>
+    <t>K_m</t>
   </si>
   <si>
     <t>K_m_trl</t>
@@ -5970,7 +5970,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>WCM:0000031 ! experimental evidence</t>
+    <t>experimental_evidence</t>
   </si>
   <si>
     <t>Mycoplasma genitalium</t>
@@ -6015,7 +6015,7 @@
     <t>evidence 002</t>
   </si>
   <si>
-    <t>WCM:0000032 ! computational evidence</t>
+    <t>computational_evidence</t>
   </si>
   <si>
     <t>Mycoplasma pneumoniae</t>
@@ -6024,7 +6024,7 @@
     <t>Evidence 003</t>
   </si>
   <si>
-    <t>WCM:0000033 ! theoretical evidence</t>
+    <t>theoretical_evidence</t>
   </si>
   <si>
     <t>Escherichia coli</t>
@@ -6060,7 +6060,7 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>WCM:0000035 ! assumption</t>
+    <t>assumption</t>
   </si>
   <si>
     <t>interpretation_002</t>
@@ -6069,7 +6069,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>WCM:0000036 ! approximation</t>
+    <t>approximation</t>
   </si>
   <si>
     <t>evidence_002, evidence_003</t>
@@ -6123,7 +6123,7 @@
     <t>Zhao et al.</t>
   </si>
   <si>
-    <t>WCM:0000041 ! article</t>
+    <t>article</t>
   </si>
   <si>
     <t>BMC Research Notes</t>
@@ -6237,7 +6237,7 @@
     <t>Bray</t>
   </si>
   <si>
-    <t>WCM:0000042 ! book</t>
+    <t>book</t>
   </si>
   <si>
     <t>Garland Science</t>
@@ -6435,7 +6435,7 @@
     <t>PPLO Media</t>
   </si>
   <si>
-    <t>WCM:0000043 ! online</t>
+    <t>website</t>
   </si>
   <si>
     <t>URL: http://www.bd.com/europe/regulatory/Assets/IFU/Difco_BBL/211456.pdf</t>
@@ -6509,11 +6509,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -6555,13 +6555,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6576,7 +6674,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6587,111 +6692,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6710,7 +6710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6722,7 +6734,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6734,7 +6782,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6746,19 +6854,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6770,127 +6890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6904,11 +6904,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6917,7 +6938,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6933,32 +6954,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6988,156 +6988,156 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7166,9 +7166,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7604,9 +7601,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13.3916666666667" style="11"/>
-    <col min="2" max="2" width="51.525" style="11"/>
-    <col min="3" max="1025" width="8.78333333333333" style="11"/>
+    <col min="1" max="1" width="13.3916666666667" style="1"/>
+    <col min="2" max="2" width="51.525" style="1"/>
+    <col min="3" max="1025" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:2">
@@ -7687,7 +7684,7 @@
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7739,11 +7736,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.78333333333333" style="11"/>
-    <col min="3" max="3" width="25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
-    <col min="5" max="1024" width="8.78333333333333" style="11"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="1024" width="8.78333333333333" style="1"/>
     <col min="1025" max="1026" width="8.78333333333333"/>
   </cols>
   <sheetData>
@@ -7822,24 +7819,24 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7868,11 +7865,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.9166666666667" style="11"/>
-    <col min="2" max="2" width="16.3916666666667" style="11"/>
-    <col min="3" max="3" width="9.10833333333333" style="11"/>
-    <col min="4" max="4" width="66.2" style="11"/>
-    <col min="5" max="1027" width="8.78333333333333" style="11"/>
+    <col min="1" max="1" width="34.9166666666667" style="1"/>
+    <col min="2" max="2" width="16.3916666666667" style="1"/>
+    <col min="3" max="3" width="9.10833333333333" style="1"/>
+    <col min="4" max="4" width="66.2" style="1"/>
+    <col min="5" max="1027" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:14">
@@ -12863,7 +12860,6 @@
       <c r="D2" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
         <v>1294</v>
       </c>
@@ -12881,7 +12877,6 @@
       <c r="D3" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
         <v>1297</v>
       </c>
@@ -12902,7 +12897,6 @@
       <c r="D4" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
         <v>1300</v>
       </c>
@@ -12923,7 +12917,6 @@
       <c r="D5" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
         <v>1302</v>
       </c>
@@ -12941,7 +12934,6 @@
       <c r="D6" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
         <v>1304</v>
       </c>
@@ -12959,7 +12951,6 @@
       <c r="D7" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
         <v>1306</v>
       </c>
@@ -12977,7 +12968,6 @@
       <c r="D8" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
         <v>1308</v>
       </c>
@@ -12995,7 +12985,6 @@
       <c r="D9" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
         <v>1310</v>
       </c>
@@ -13013,7 +13002,6 @@
       <c r="D10" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
         <v>1312</v>
       </c>
@@ -13031,7 +13019,6 @@
       <c r="D11" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
         <v>1314</v>
       </c>
@@ -13049,7 +13036,6 @@
       <c r="D12" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
         <v>1316</v>
       </c>
@@ -13067,7 +13053,6 @@
       <c r="D13" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
         <v>1318</v>
       </c>
@@ -13085,7 +13070,6 @@
       <c r="D14" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
         <v>1320</v>
       </c>
@@ -13103,7 +13087,6 @@
       <c r="D15" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
         <v>1322</v>
       </c>
@@ -13121,7 +13104,6 @@
       <c r="D16" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
         <v>1324</v>
       </c>
@@ -13139,7 +13121,6 @@
       <c r="D17" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
         <v>1326</v>
       </c>
@@ -13157,7 +13138,6 @@
       <c r="D18" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
         <v>1328</v>
       </c>
@@ -13175,7 +13155,6 @@
       <c r="D19" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
         <v>1330</v>
       </c>
@@ -13193,7 +13172,6 @@
       <c r="D20" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
         <v>1332</v>
       </c>
@@ -13211,7 +13189,6 @@
       <c r="D21" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
         <v>1334</v>
       </c>
@@ -13229,7 +13206,6 @@
       <c r="D22" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
         <v>1336</v>
       </c>
@@ -13247,7 +13223,6 @@
       <c r="D23" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
         <v>1338</v>
       </c>
@@ -13265,7 +13240,6 @@
       <c r="D24" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
         <v>1340</v>
       </c>
@@ -13283,7 +13257,6 @@
       <c r="D25" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
         <v>1342</v>
       </c>
@@ -13301,7 +13274,6 @@
       <c r="D26" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
         <v>1344</v>
       </c>
@@ -13319,7 +13291,6 @@
       <c r="D27" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
         <v>1346</v>
       </c>
@@ -13337,7 +13308,6 @@
       <c r="D28" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
         <v>1348</v>
       </c>
@@ -13355,7 +13325,6 @@
       <c r="D29" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
         <v>1350</v>
       </c>
@@ -13373,7 +13342,6 @@
       <c r="D30" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
         <v>1352</v>
       </c>
@@ -13391,7 +13359,6 @@
       <c r="D31" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
         <v>1354</v>
       </c>
@@ -13409,7 +13376,6 @@
       <c r="D32" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
         <v>1356</v>
       </c>
@@ -13427,7 +13393,6 @@
       <c r="D33" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
         <v>1358</v>
       </c>
@@ -13445,7 +13410,6 @@
       <c r="D34" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
         <v>1360</v>
       </c>
@@ -13463,7 +13427,6 @@
       <c r="D35" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
         <v>1362</v>
       </c>
@@ -13481,7 +13444,6 @@
       <c r="D36" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
         <v>1364</v>
       </c>
@@ -13499,7 +13461,6 @@
       <c r="D37" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
         <v>1366</v>
       </c>
@@ -13517,7 +13478,6 @@
       <c r="D38" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
         <v>1368</v>
       </c>
@@ -13535,7 +13495,6 @@
       <c r="D39" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
         <v>1370</v>
       </c>
@@ -13553,7 +13512,6 @@
       <c r="D40" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
         <v>1372</v>
       </c>
@@ -13571,7 +13529,6 @@
       <c r="D41" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
         <v>1374</v>
       </c>
@@ -13589,7 +13546,6 @@
       <c r="D42" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
         <v>1376</v>
       </c>
@@ -13607,7 +13563,6 @@
       <c r="D43" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
         <v>1378</v>
       </c>
@@ -13625,7 +13580,6 @@
       <c r="D44" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
         <v>1380</v>
       </c>
@@ -13643,7 +13597,6 @@
       <c r="D45" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
         <v>1382</v>
       </c>
@@ -13661,7 +13614,6 @@
       <c r="D46" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
         <v>1384</v>
       </c>
@@ -13679,7 +13631,6 @@
       <c r="D47" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
         <v>1386</v>
       </c>
@@ -13697,7 +13648,6 @@
       <c r="D48" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
         <v>1388</v>
       </c>
@@ -13715,7 +13665,6 @@
       <c r="D49" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
         <v>1390</v>
       </c>
@@ -13733,7 +13682,6 @@
       <c r="D50" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
         <v>1392</v>
       </c>
@@ -13751,7 +13699,6 @@
       <c r="D51" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
         <v>1394</v>
       </c>
@@ -13769,7 +13716,6 @@
       <c r="D52" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
         <v>1396</v>
       </c>
@@ -13787,7 +13733,6 @@
       <c r="D53" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
         <v>1398</v>
       </c>
@@ -13805,7 +13750,6 @@
       <c r="D54" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
         <v>1400</v>
       </c>
@@ -13823,7 +13767,6 @@
       <c r="D55" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
         <v>1402</v>
       </c>
@@ -13841,7 +13784,6 @@
       <c r="D56" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
         <v>1404</v>
       </c>
@@ -13859,7 +13801,6 @@
       <c r="D57" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
         <v>1406</v>
       </c>
@@ -13877,7 +13818,6 @@
       <c r="D58" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
         <v>1408</v>
       </c>
@@ -13895,7 +13835,6 @@
       <c r="D59" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13913,7 +13852,6 @@
       <c r="D60" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
         <v>1412</v>
       </c>
@@ -13931,7 +13869,6 @@
       <c r="D61" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
         <v>1414</v>
       </c>
@@ -13949,7 +13886,6 @@
       <c r="D62" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
         <v>1416</v>
       </c>
@@ -13967,7 +13903,6 @@
       <c r="D63" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
         <v>1418</v>
       </c>
@@ -13985,7 +13920,6 @@
       <c r="D64" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
         <v>1420</v>
       </c>
@@ -14003,7 +13937,6 @@
       <c r="D65" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
         <v>1422</v>
       </c>
@@ -14021,7 +13954,6 @@
       <c r="D66" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
         <v>1424</v>
       </c>
@@ -14039,7 +13971,6 @@
       <c r="D67" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
         <v>1426</v>
       </c>
@@ -14057,7 +13988,6 @@
       <c r="D68" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
         <v>1428</v>
       </c>
@@ -14075,7 +14005,6 @@
       <c r="D69" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
         <v>1430</v>
       </c>
@@ -14093,7 +14022,6 @@
       <c r="D70" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
         <v>1432</v>
       </c>
@@ -14111,7 +14039,6 @@
       <c r="D71" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
         <v>1434</v>
       </c>
@@ -14129,7 +14056,6 @@
       <c r="D72" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
         <v>1436</v>
       </c>
@@ -14147,7 +14073,6 @@
       <c r="D73" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
         <v>1438</v>
       </c>
@@ -14165,7 +14090,6 @@
       <c r="D74" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
         <v>1440</v>
       </c>
@@ -14183,7 +14107,6 @@
       <c r="D75" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
         <v>1442</v>
       </c>
@@ -14201,7 +14124,6 @@
       <c r="D76" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
         <v>1444</v>
       </c>
@@ -14219,7 +14141,6 @@
       <c r="D77" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
         <v>1446</v>
       </c>
@@ -14237,7 +14158,6 @@
       <c r="D78" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
         <v>1448</v>
       </c>
@@ -14255,7 +14175,6 @@
       <c r="D79" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
         <v>1450</v>
       </c>
@@ -14273,7 +14192,6 @@
       <c r="D80" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
         <v>1452</v>
       </c>
@@ -14291,7 +14209,6 @@
       <c r="D81" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
         <v>1454</v>
       </c>
@@ -14309,7 +14226,6 @@
       <c r="D82" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
         <v>1456</v>
       </c>
@@ -14327,7 +14243,6 @@
       <c r="D83" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
         <v>1458</v>
       </c>
@@ -14345,7 +14260,6 @@
       <c r="D84" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
         <v>1460</v>
       </c>
@@ -14363,7 +14277,6 @@
       <c r="D85" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
         <v>1462</v>
       </c>
@@ -14381,7 +14294,6 @@
       <c r="D86" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
         <v>1464</v>
       </c>
@@ -14399,7 +14311,6 @@
       <c r="D87" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
         <v>1466</v>
       </c>
@@ -14417,7 +14328,6 @@
       <c r="D88" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
         <v>1468</v>
       </c>
@@ -14435,7 +14345,6 @@
       <c r="D89" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
         <v>1470</v>
       </c>
@@ -14453,7 +14362,6 @@
       <c r="D90" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
         <v>1472</v>
       </c>
@@ -14471,7 +14379,6 @@
       <c r="D91" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
         <v>1474</v>
       </c>
@@ -14489,7 +14396,6 @@
       <c r="D92" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
         <v>1476</v>
       </c>
@@ -14507,7 +14413,6 @@
       <c r="D93" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
         <v>1478</v>
       </c>
@@ -14525,7 +14430,6 @@
       <c r="D94" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
         <v>1480</v>
       </c>
@@ -14543,7 +14447,6 @@
       <c r="D95" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
         <v>1482</v>
       </c>
@@ -14561,7 +14464,6 @@
       <c r="D96" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
         <v>1484</v>
       </c>
@@ -14579,7 +14481,6 @@
       <c r="D97" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E97" s="4"/>
       <c r="F97" s="4" t="s">
         <v>1486</v>
       </c>
@@ -14597,7 +14498,6 @@
       <c r="D98" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E98" s="4"/>
       <c r="F98" s="4" t="s">
         <v>1488</v>
       </c>
@@ -14615,7 +14515,6 @@
       <c r="D99" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E99" s="4"/>
       <c r="F99" s="4" t="s">
         <v>1490</v>
       </c>
@@ -14633,7 +14532,6 @@
       <c r="D100" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E100" s="4"/>
       <c r="F100" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14651,7 +14549,6 @@
       <c r="D101" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E101" s="4"/>
       <c r="F101" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14669,7 +14566,6 @@
       <c r="D102" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E102" s="4"/>
       <c r="F102" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14687,7 +14583,6 @@
       <c r="D103" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14705,7 +14600,6 @@
       <c r="D104" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14723,7 +14617,6 @@
       <c r="D105" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14741,7 +14634,6 @@
       <c r="D106" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E106" s="4"/>
       <c r="F106" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14759,7 +14651,6 @@
       <c r="D107" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E107" s="4"/>
       <c r="F107" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14777,7 +14668,6 @@
       <c r="D108" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14795,7 +14685,6 @@
       <c r="D109" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E109" s="4"/>
       <c r="F109" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14813,7 +14702,6 @@
       <c r="D110" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E110" s="4"/>
       <c r="F110" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14831,7 +14719,6 @@
       <c r="D111" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E111" s="4"/>
       <c r="F111" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14849,7 +14736,6 @@
       <c r="D112" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E112" s="4"/>
       <c r="F112" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14867,7 +14753,6 @@
       <c r="D113" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E113" s="4"/>
       <c r="F113" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14885,7 +14770,6 @@
       <c r="D114" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E114" s="4"/>
       <c r="F114" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14903,7 +14787,6 @@
       <c r="D115" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E115" s="4"/>
       <c r="F115" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14921,7 +14804,6 @@
       <c r="D116" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E116" s="4"/>
       <c r="F116" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14939,7 +14821,6 @@
       <c r="D117" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E117" s="4"/>
       <c r="F117" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14957,7 +14838,6 @@
       <c r="D118" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E118" s="4"/>
       <c r="F118" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14975,7 +14855,6 @@
       <c r="D119" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E119" s="4"/>
       <c r="F119" s="4" t="s">
         <v>1492</v>
       </c>
@@ -14993,7 +14872,6 @@
       <c r="D120" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E120" s="4"/>
       <c r="F120" s="4" t="s">
         <v>1492</v>
       </c>
@@ -15011,7 +14889,6 @@
       <c r="D121" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E121" s="4"/>
       <c r="F121" s="4" t="s">
         <v>1492</v>
       </c>
@@ -15029,7 +14906,6 @@
       <c r="D122" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E122" s="4"/>
       <c r="F122" s="4" t="s">
         <v>1492</v>
       </c>
@@ -15047,7 +14923,6 @@
       <c r="D123" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E123" s="4"/>
       <c r="F123" s="4" t="s">
         <v>1492</v>
       </c>
@@ -15065,7 +14940,6 @@
       <c r="D124" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E124" s="4"/>
       <c r="F124" s="4" t="s">
         <v>1492</v>
       </c>
@@ -15083,7 +14957,6 @@
       <c r="D125" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E125" s="4"/>
       <c r="F125" s="4" t="s">
         <v>1492</v>
       </c>
@@ -15101,7 +14974,6 @@
       <c r="D126" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E126" s="4"/>
       <c r="F126" s="4" t="s">
         <v>1492</v>
       </c>
@@ -15119,7 +14991,6 @@
       <c r="D127" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E127" s="4"/>
       <c r="F127" s="4" t="s">
         <v>1492</v>
       </c>
@@ -15137,7 +15008,6 @@
       <c r="D128" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E128" s="4"/>
       <c r="F128" s="4" t="s">
         <v>1492</v>
       </c>
@@ -15155,7 +15025,6 @@
       <c r="D129" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E129" s="4"/>
       <c r="F129" s="4" t="s">
         <v>1492</v>
       </c>
@@ -15173,7 +15042,6 @@
       <c r="D130" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E130" s="4"/>
       <c r="F130" s="4" t="s">
         <v>1523</v>
       </c>
@@ -15191,7 +15059,6 @@
       <c r="D131" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E131" s="4"/>
       <c r="F131" s="4" t="s">
         <v>1525</v>
       </c>
@@ -15209,7 +15076,6 @@
       <c r="D132" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E132" s="4"/>
       <c r="F132" s="4" t="s">
         <v>1527</v>
       </c>
@@ -15227,7 +15093,6 @@
       <c r="D133" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E133" s="4"/>
       <c r="F133" s="4" t="s">
         <v>1529</v>
       </c>
@@ -15245,7 +15110,6 @@
       <c r="D134" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E134" s="4"/>
       <c r="F134" s="4" t="s">
         <v>1531</v>
       </c>
@@ -15263,7 +15127,6 @@
       <c r="D135" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E135" s="4"/>
       <c r="F135" s="4" t="s">
         <v>1533</v>
       </c>
@@ -15281,7 +15144,6 @@
       <c r="D136" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E136" s="4"/>
       <c r="F136" s="4" t="s">
         <v>1535</v>
       </c>
@@ -15299,7 +15161,6 @@
       <c r="D137" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E137" s="4"/>
       <c r="F137" s="4" t="s">
         <v>1537</v>
       </c>
@@ -15317,7 +15178,6 @@
       <c r="D138" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E138" s="4"/>
       <c r="F138" s="4" t="s">
         <v>1539</v>
       </c>
@@ -15335,7 +15195,6 @@
       <c r="D139" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E139" s="4"/>
       <c r="F139" s="4" t="s">
         <v>1541</v>
       </c>
@@ -15353,7 +15212,6 @@
       <c r="D140" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E140" s="4"/>
       <c r="F140" s="4" t="s">
         <v>1543</v>
       </c>
@@ -15371,7 +15229,6 @@
       <c r="D141" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E141" s="4"/>
       <c r="F141" s="4" t="s">
         <v>1545</v>
       </c>
@@ -15389,7 +15246,6 @@
       <c r="D142" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E142" s="4"/>
       <c r="F142" s="4" t="s">
         <v>1547</v>
       </c>
@@ -15407,7 +15263,6 @@
       <c r="D143" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E143" s="4"/>
       <c r="F143" s="4" t="s">
         <v>1549</v>
       </c>
@@ -15425,7 +15280,6 @@
       <c r="D144" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E144" s="4"/>
       <c r="F144" s="4" t="s">
         <v>1551</v>
       </c>
@@ -15443,7 +15297,6 @@
       <c r="D145" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E145" s="4"/>
       <c r="F145" s="4" t="s">
         <v>1553</v>
       </c>
@@ -15461,7 +15314,6 @@
       <c r="D146" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E146" s="4"/>
       <c r="F146" s="4" t="s">
         <v>1555</v>
       </c>
@@ -15479,7 +15331,6 @@
       <c r="D147" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E147" s="4"/>
       <c r="F147" s="4" t="s">
         <v>1557</v>
       </c>
@@ -15497,7 +15348,6 @@
       <c r="D148" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E148" s="4"/>
       <c r="F148" s="4" t="s">
         <v>1559</v>
       </c>
@@ -15515,7 +15365,6 @@
       <c r="D149" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E149" s="4"/>
       <c r="F149" s="4" t="s">
         <v>1561</v>
       </c>
@@ -15533,7 +15382,6 @@
       <c r="D150" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E150" s="4"/>
       <c r="F150" s="4" t="s">
         <v>1563</v>
       </c>
@@ -15551,7 +15399,6 @@
       <c r="D151" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E151" s="4"/>
       <c r="F151" s="4" t="s">
         <v>1565</v>
       </c>
@@ -15569,7 +15416,6 @@
       <c r="D152" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E152" s="4"/>
       <c r="F152" s="4" t="s">
         <v>1567</v>
       </c>
@@ -15587,7 +15433,6 @@
       <c r="D153" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E153" s="4"/>
       <c r="F153" s="4" t="s">
         <v>1569</v>
       </c>
@@ -15605,7 +15450,6 @@
       <c r="D154" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E154" s="4"/>
       <c r="F154" s="4" t="s">
         <v>1571</v>
       </c>
@@ -15623,7 +15467,6 @@
       <c r="D155" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E155" s="4"/>
       <c r="F155" s="4" t="s">
         <v>1573</v>
       </c>
@@ -15641,7 +15484,6 @@
       <c r="D156" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E156" s="4"/>
       <c r="F156" s="4" t="s">
         <v>1575</v>
       </c>
@@ -15659,7 +15501,6 @@
       <c r="D157" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E157" s="4"/>
       <c r="F157" s="4" t="s">
         <v>1577</v>
       </c>
@@ -15677,7 +15518,6 @@
       <c r="D158" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E158" s="4"/>
       <c r="F158" s="4" t="s">
         <v>1579</v>
       </c>
@@ -15695,7 +15535,6 @@
       <c r="D159" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E159" s="4"/>
       <c r="F159" s="4" t="s">
         <v>1581</v>
       </c>
@@ -15713,7 +15552,6 @@
       <c r="D160" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E160" s="4"/>
       <c r="F160" s="4" t="s">
         <v>1583</v>
       </c>
@@ -15731,7 +15569,6 @@
       <c r="D161" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E161" s="4"/>
       <c r="F161" s="4" t="s">
         <v>1585</v>
       </c>
@@ -15749,7 +15586,6 @@
       <c r="D162" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E162" s="4"/>
       <c r="F162" s="4" t="s">
         <v>1587</v>
       </c>
@@ -15767,7 +15603,6 @@
       <c r="D163" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E163" s="4"/>
       <c r="F163" s="4" t="s">
         <v>1589</v>
       </c>
@@ -15785,7 +15620,6 @@
       <c r="D164" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E164" s="4"/>
       <c r="F164" s="4" t="s">
         <v>1591</v>
       </c>
@@ -15803,7 +15637,6 @@
       <c r="D165" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E165" s="4"/>
       <c r="F165" s="4" t="s">
         <v>1593</v>
       </c>
@@ -15821,7 +15654,6 @@
       <c r="D166" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E166" s="4"/>
       <c r="F166" s="4" t="s">
         <v>1595</v>
       </c>
@@ -15839,7 +15671,6 @@
       <c r="D167" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E167" s="4"/>
       <c r="F167" s="4" t="s">
         <v>1597</v>
       </c>
@@ -15857,7 +15688,6 @@
       <c r="D168" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="E168" s="4"/>
       <c r="F168" s="4" t="s">
         <v>1599</v>
       </c>
@@ -15979,11 +15809,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="15"/>
-    <col min="2" max="2" width="26.1416666666667" style="15"/>
-    <col min="3" max="9" width="11.25" style="15"/>
-    <col min="10" max="10" width="10.3916666666667" style="15"/>
-    <col min="11" max="1026" width="8.78333333333333" style="15"/>
+    <col min="1" max="1" width="20.25" style="14"/>
+    <col min="2" max="2" width="26.1416666666667" style="14"/>
+    <col min="3" max="9" width="11.25" style="14"/>
+    <col min="10" max="10" width="10.3916666666667" style="14"/>
+    <col min="11" max="1026" width="8.78333333333333" style="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:10">
@@ -16019,42 +15849,42 @@
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>1605</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>1606</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>767</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1608</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>1609</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>767</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>1610</v>
       </c>
     </row>
@@ -16089,30 +15919,30 @@
     <col min="7" max="10" width="8.78333333333333" style="10"/>
     <col min="11" max="11" width="16.5" style="10"/>
     <col min="12" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1024" width="8.78333333333333" style="11"/>
+    <col min="1024" max="1024" width="8.78333333333333" style="1"/>
     <col min="1025" max="1026" width="8.78333333333333" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:11">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1611</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>1612</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -16121,10 +15951,10 @@
       <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -16135,16 +15965,16 @@
       <c r="B2" s="10" t="s">
         <v>1614</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>-34190.38</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>1615</v>
       </c>
       <c r="J2" s="10" t="s">
@@ -16161,16 +15991,16 @@
       <c r="B3" s="10" t="s">
         <v>1619</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>1035619</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16181,16 +16011,16 @@
       <c r="B4" s="10" t="s">
         <v>1621</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>-40890.38</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16201,16 +16031,16 @@
       <c r="B5" s="10" t="s">
         <v>1623</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>-23190.38</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16221,16 +16051,16 @@
       <c r="B6" s="10" t="s">
         <v>1625</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>-24290.38</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16241,16 +16071,16 @@
       <c r="B7" s="10" t="s">
         <v>1627</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>-1101856</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16261,16 +16091,16 @@
       <c r="B8" s="10" t="s">
         <v>1629</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>1098019</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16281,16 +16111,16 @@
       <c r="B9" s="10" t="s">
         <v>1631</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>-1164906</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16301,16 +16131,16 @@
       <c r="B10" s="10" t="s">
         <v>1633</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>-22290.38</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16321,16 +16151,16 @@
       <c r="B11" s="10" t="s">
         <v>1635</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>581419.2</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16341,16 +16171,16 @@
       <c r="B12" s="10" t="s">
         <v>1637</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>-24690.38</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16361,16 +16191,16 @@
       <c r="B13" s="10" t="s">
         <v>1639</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>-22690.38</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16381,16 +16211,16 @@
       <c r="B14" s="10" t="s">
         <v>1641</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>-31190.38</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16401,16 +16231,16 @@
       <c r="B15" s="10" t="s">
         <v>1643</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>1052899</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16421,16 +16251,16 @@
       <c r="B16" s="10" t="s">
         <v>1645</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>-1728316</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16441,16 +16271,16 @@
       <c r="B17" s="10" t="s">
         <v>1647</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>-1521617000</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16461,16 +16291,16 @@
       <c r="B18" s="10" t="s">
         <v>1649</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>4972350</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16481,16 +16311,16 @@
       <c r="B19" s="10" t="s">
         <v>1651</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>-21590.38</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16501,16 +16331,16 @@
       <c r="B20" s="10" t="s">
         <v>1653</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>-29290.38</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16521,16 +16351,16 @@
       <c r="B21" s="10" t="s">
         <v>1655</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>-41190.38</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16541,16 +16371,16 @@
       <c r="B22" s="10" t="s">
         <v>1657</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>-21990.38</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16561,16 +16391,16 @@
       <c r="B23" s="10" t="s">
         <v>1659</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>-21390.38</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16581,16 +16411,16 @@
       <c r="B24" s="10" t="s">
         <v>1661</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>-23890.38</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16601,16 +16431,16 @@
       <c r="B25" s="10" t="s">
         <v>1663</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>471096.2</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16621,16 +16451,16 @@
       <c r="B26" s="10" t="s">
         <v>1665</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>4381069</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16641,16 +16471,16 @@
       <c r="B27" s="10" t="s">
         <v>1667</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>-34390.38</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16661,16 +16491,16 @@
       <c r="B28" s="10" t="s">
         <v>1669</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>-44490.38</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16681,16 +16511,16 @@
       <c r="B29" s="10" t="s">
         <v>1671</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>-36190.38</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16701,16 +16531,16 @@
       <c r="B30" s="10" t="s">
         <v>1673</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>-22190.38</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16721,16 +16551,16 @@
       <c r="B31" s="10" t="s">
         <v>1675</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>-21990.38</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16741,16 +16571,16 @@
       <c r="B32" s="10" t="s">
         <v>1677</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>1066339</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16761,16 +16591,16 @@
       <c r="B33" s="10" t="s">
         <v>1679</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <v>-1132896</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16781,16 +16611,16 @@
       <c r="B34" s="10" t="s">
         <v>1681</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <v>-33790.38</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16801,16 +16631,16 @@
       <c r="B35" s="10" t="s">
         <v>1665</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>1608</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>4381069</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16821,16 +16651,16 @@
       <c r="B36" s="10" t="s">
         <v>1677</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>1608</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <v>1066339</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -16846,12 +16676,12 @@
   <sheetPr/>
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C9"/>
+      <selection pane="bottomRight" activeCell="C90" sqref="C90:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -16917,7 +16747,6 @@
       <c r="B3" s="4" t="s">
         <v>1688</v>
       </c>
-      <c r="C3" s="4"/>
       <c r="D3" s="4">
         <v>12</v>
       </c>
@@ -16938,7 +16767,6 @@
       <c r="B4" s="4" t="s">
         <v>1692</v>
       </c>
-      <c r="C4" s="4"/>
       <c r="D4" s="4">
         <v>28800</v>
       </c>
@@ -16975,7 +16803,6 @@
       <c r="B7" s="4" t="s">
         <v>1695</v>
       </c>
-      <c r="C7" s="4"/>
       <c r="D7" s="4">
         <v>0.3</v>
       </c>
@@ -16991,7 +16818,6 @@
         <v>1697</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="4"/>
       <c r="D8" s="4">
         <v>1</v>
       </c>
@@ -17006,7 +16832,6 @@
         <v>1698</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="4"/>
       <c r="D9" s="4">
         <v>-1</v>
       </c>
@@ -18574,7 +18399,6 @@
       <c r="B93" s="4" t="s">
         <v>1838</v>
       </c>
-      <c r="C93" s="4"/>
       <c r="D93" s="4">
         <v>20</v>
       </c>
@@ -18595,7 +18419,6 @@
       <c r="B94" s="4" t="s">
         <v>1841</v>
       </c>
-      <c r="C94" s="4"/>
       <c r="D94" s="4">
         <v>300</v>
       </c>
@@ -18740,7 +18563,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8:F9"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19028,7 +18851,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19227,14 +19050,14 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="8.78333333333333" style="1"/>
     <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
@@ -19242,7 +19065,7 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:18">
+    <row r="1" customHeight="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -19298,7 +19121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:18">
+    <row r="2" customHeight="1" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>1905</v>
       </c>
@@ -19340,7 +19163,7 @@
       </c>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:18">
+    <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>1913</v>
       </c>
@@ -19378,7 +19201,7 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:18">
+    <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>1920</v>
       </c>
@@ -19420,7 +19243,7 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:18">
+    <row r="5" customHeight="1" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>1928</v>
       </c>
@@ -19462,7 +19285,7 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" ht="15.1" customHeight="1" spans="1:18">
+    <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="4" t="s">
         <v>1937</v>
       </c>
@@ -19502,7 +19325,7 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" ht="15.1" customHeight="1" spans="1:18">
+    <row r="7" customHeight="1" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>1696</v>
       </c>
@@ -19538,7 +19361,7 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" ht="15.1" customHeight="1" spans="1:18">
+    <row r="8" customHeight="1" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>1710</v>
       </c>
@@ -19576,7 +19399,7 @@
       </c>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" ht="15.1" customHeight="1" spans="1:18">
+    <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="4" t="s">
         <v>1956</v>
       </c>
@@ -19618,7 +19441,7 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" ht="15.1" customHeight="1" spans="1:18">
+    <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="4" t="s">
         <v>1964</v>
       </c>
@@ -19660,7 +19483,7 @@
       </c>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" ht="15.1" customHeight="1" spans="1:18">
+    <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>1972</v>
       </c>
@@ -19702,7 +19525,7 @@
       </c>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" ht="15.1" customHeight="1" spans="1:18">
+    <row r="12" customHeight="1" spans="1:18">
       <c r="A12" s="4" t="s">
         <v>1981</v>
       </c>
@@ -19744,7 +19567,7 @@
       </c>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" ht="15.1" customHeight="1" spans="1:18">
+    <row r="13" customHeight="1" spans="1:18">
       <c r="A13" s="4" t="s">
         <v>1988</v>
       </c>
@@ -19786,7 +19609,7 @@
       </c>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" ht="15.1" customHeight="1" spans="1:18">
+    <row r="14" customHeight="1" spans="1:18">
       <c r="A14" s="4" t="s">
         <v>81</v>
       </c>
@@ -19828,7 +19651,7 @@
       </c>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" ht="15.1" customHeight="1" spans="1:18">
+    <row r="15" customHeight="1" spans="1:18">
       <c r="A15" s="4" t="s">
         <v>194</v>
       </c>
@@ -19870,7 +19693,7 @@
       </c>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" ht="15.1" customHeight="1" spans="1:18">
+    <row r="16" customHeight="1" spans="1:18">
       <c r="A16" s="4" t="s">
         <v>2011</v>
       </c>
@@ -19898,7 +19721,7 @@
       </c>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" ht="15.1" customHeight="1" spans="1:18">
+    <row r="17" customHeight="1" spans="1:18">
       <c r="A17" s="4" t="s">
         <v>2015</v>
       </c>
@@ -19926,7 +19749,7 @@
       </c>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" ht="15.1" customHeight="1" spans="1:18">
+    <row r="18" customHeight="1" spans="1:18">
       <c r="A18" s="4" t="s">
         <v>2018</v>
       </c>
@@ -19954,7 +19777,7 @@
       </c>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" ht="15.1" customHeight="1" spans="1:18">
+    <row r="19" customHeight="1" spans="1:18">
       <c r="A19" s="4" t="s">
         <v>2021</v>
       </c>
@@ -19982,7 +19805,7 @@
       </c>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" ht="15.1" customHeight="1" spans="1:18">
+    <row r="20" customHeight="1" spans="1:18">
       <c r="A20" s="4" t="s">
         <v>127</v>
       </c>
@@ -20010,7 +19833,7 @@
       </c>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" ht="108" spans="1:17">
+    <row r="21" customHeight="1" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>2026</v>
       </c>
@@ -20033,7 +19856,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="22" ht="67.5" spans="1:17">
+    <row r="22" customHeight="1" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>2031</v>
       </c>
@@ -20086,8 +19909,8 @@
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="4" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="4"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="19"/>
-    <col min="1020" max="16384" width="9" style="19"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="18"/>
+    <col min="1020" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -20161,21 +19984,21 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="13.3916666666667" style="11"/>
-    <col min="3" max="3" width="10.925" style="11"/>
-    <col min="4" max="7" width="11.675" style="11"/>
-    <col min="8" max="8" width="11.3583333333333" style="11"/>
-    <col min="9" max="1026" width="8.78333333333333" style="11"/>
+    <col min="1" max="2" width="13.3916666666667" style="1"/>
+    <col min="3" max="3" width="10.925" style="1"/>
+    <col min="4" max="7" width="11.675" style="1"/>
+    <col min="8" max="8" width="11.3583333333333" style="1"/>
+    <col min="9" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:8">
@@ -20295,19 +20118,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="6.10833333333333" style="11"/>
-    <col min="2" max="2" width="16.3916666666667" style="11"/>
-    <col min="3" max="3" width="24.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="11" customWidth="1"/>
-    <col min="5" max="7" width="14.1416666666667" style="11"/>
-    <col min="8" max="16" width="11.7833333333333" style="11"/>
-    <col min="17" max="17" width="11.3583333333333" style="11"/>
-    <col min="18" max="1028" width="8.78333333333333" style="11"/>
+    <col min="1" max="1" width="6.10833333333333" style="1"/>
+    <col min="2" max="2" width="16.3916666666667" style="1"/>
+    <col min="3" max="3" width="24.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="7" width="14.1416666666667" style="1"/>
+    <col min="8" max="16" width="11.7833333333333" style="1"/>
+    <col min="17" max="17" width="11.3583333333333" style="1"/>
+    <col min="18" max="1028" width="8.78333333333333" style="1"/>
     <col min="1029" max="1031" width="8.78333333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:17">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -20471,13 +20294,13 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.025" style="11"/>
-    <col min="2" max="1026" width="8.78333333333333" style="11"/>
+    <col min="1" max="1" width="26.025" style="1"/>
+    <col min="2" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:12">
@@ -24215,9 +24038,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.7083333333333" style="11"/>
-    <col min="2" max="10" width="16.3916666666667" style="11"/>
-    <col min="11" max="1026" width="9.10833333333333" style="11"/>
+    <col min="1" max="1" width="28.7083333333333" style="1"/>
+    <col min="2" max="10" width="16.3916666666667" style="1"/>
+    <col min="11" max="1026" width="9.10833333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:10">
@@ -24253,2629 +24076,2629 @@
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I15" s="17"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I19" s="17"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I21" s="17"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I23" s="17"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I24" s="17"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I25" s="17"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I26" s="17"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I27" s="17"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I28" s="17"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I29" s="17"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I30" s="17"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I31" s="17"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I32" s="17"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I33" s="17"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I34" s="17"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I35" s="17"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I36" s="17"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I37" s="17"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I38" s="17"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I39" s="17"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I40" s="17"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I41" s="17"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I42" s="17"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I43" s="17"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I44" s="17"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I45" s="17"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I46" s="17"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I47" s="17"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I48" s="17"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I49" s="17"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I50" s="17"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I51" s="17"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I52" s="17"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I53" s="17"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I54" s="17"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I55" s="17"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I56" s="17"/>
+      <c r="I56" s="16"/>
     </row>
     <row r="57" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I57" s="17"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="58" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I58" s="17"/>
+      <c r="I58" s="16"/>
     </row>
     <row r="59" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I59" s="17"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I60" s="17"/>
+      <c r="I60" s="16"/>
     </row>
     <row r="61" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I61" s="17"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I62" s="17"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I63" s="17"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I64" s="17"/>
+      <c r="I64" s="16"/>
     </row>
     <row r="65" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I65" s="17"/>
+      <c r="I65" s="16"/>
     </row>
     <row r="66" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I66" s="17"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I67" s="17"/>
+      <c r="I67" s="16"/>
     </row>
     <row r="68" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I68" s="17"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I69" s="17"/>
+      <c r="I69" s="16"/>
     </row>
     <row r="70" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I70" s="17"/>
+      <c r="I70" s="16"/>
     </row>
     <row r="71" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I71" s="17"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I72" s="17"/>
+      <c r="I72" s="16"/>
     </row>
     <row r="73" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I73" s="17"/>
+      <c r="I73" s="16"/>
     </row>
     <row r="74" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I74" s="17"/>
+      <c r="I74" s="16"/>
     </row>
     <row r="75" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I75" s="17"/>
+      <c r="I75" s="16"/>
     </row>
     <row r="76" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I76" s="17"/>
+      <c r="I76" s="16"/>
     </row>
     <row r="77" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I77" s="17"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I78" s="17"/>
+      <c r="I78" s="16"/>
     </row>
     <row r="79" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I79" s="17"/>
+      <c r="I79" s="16"/>
     </row>
     <row r="80" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I80" s="17"/>
+      <c r="I80" s="16"/>
     </row>
     <row r="81" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I81" s="17"/>
+      <c r="I81" s="16"/>
     </row>
     <row r="82" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I82" s="17"/>
+      <c r="I82" s="16"/>
     </row>
     <row r="83" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I83" s="17"/>
+      <c r="I83" s="16"/>
     </row>
     <row r="84" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I84" s="17"/>
+      <c r="I84" s="16"/>
     </row>
     <row r="85" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I85" s="17"/>
+      <c r="I85" s="16"/>
     </row>
     <row r="86" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I86" s="17"/>
+      <c r="I86" s="16"/>
     </row>
     <row r="87" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I87" s="17"/>
+      <c r="I87" s="16"/>
     </row>
     <row r="88" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I88" s="17"/>
+      <c r="I88" s="16"/>
     </row>
     <row r="89" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I89" s="17"/>
+      <c r="I89" s="16"/>
     </row>
     <row r="90" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I90" s="17"/>
+      <c r="I90" s="16"/>
     </row>
     <row r="91" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I91" s="17"/>
+      <c r="I91" s="16"/>
     </row>
     <row r="92" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="E92" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I92" s="17"/>
+      <c r="I92" s="16"/>
     </row>
     <row r="93" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I93" s="17"/>
+      <c r="I93" s="16"/>
     </row>
     <row r="94" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I94" s="17"/>
+      <c r="I94" s="16"/>
     </row>
     <row r="95" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I95" s="17"/>
+      <c r="I95" s="16"/>
     </row>
     <row r="96" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I96" s="17"/>
+      <c r="I96" s="16"/>
     </row>
     <row r="97" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I97" s="17"/>
+      <c r="I97" s="16"/>
     </row>
     <row r="98" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I98" s="17"/>
+      <c r="I98" s="16"/>
     </row>
     <row r="99" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I99" s="17"/>
+      <c r="I99" s="16"/>
     </row>
     <row r="100" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I100" s="17"/>
+      <c r="I100" s="16"/>
     </row>
     <row r="101" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I101" s="17"/>
+      <c r="I101" s="16"/>
     </row>
     <row r="102" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I102" s="17"/>
+      <c r="I102" s="16"/>
     </row>
     <row r="103" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I103" s="17"/>
+      <c r="I103" s="16"/>
     </row>
     <row r="104" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I104" s="17"/>
+      <c r="I104" s="16"/>
     </row>
     <row r="105" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I105" s="17"/>
+      <c r="I105" s="16"/>
     </row>
     <row r="106" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I106" s="17"/>
+      <c r="I106" s="16"/>
     </row>
     <row r="107" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I107" s="17"/>
+      <c r="I107" s="16"/>
     </row>
     <row r="108" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I108" s="17"/>
+      <c r="I108" s="16"/>
     </row>
     <row r="109" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I109" s="17"/>
+      <c r="I109" s="16"/>
     </row>
     <row r="110" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I110" s="17"/>
+      <c r="I110" s="16"/>
     </row>
     <row r="111" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I111" s="17"/>
+      <c r="I111" s="16"/>
     </row>
     <row r="112" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I112" s="17"/>
+      <c r="I112" s="16"/>
     </row>
     <row r="113" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I113" s="17"/>
+      <c r="I113" s="16"/>
     </row>
     <row r="114" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I114" s="17"/>
+      <c r="I114" s="16"/>
     </row>
     <row r="115" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I115" s="17"/>
+      <c r="I115" s="16"/>
     </row>
     <row r="116" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C116" s="17" t="s">
+      <c r="C116" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I116" s="17"/>
+      <c r="I116" s="16"/>
     </row>
     <row r="117" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I117" s="17"/>
+      <c r="I117" s="16"/>
     </row>
     <row r="118" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I118" s="17"/>
+      <c r="I118" s="16"/>
     </row>
     <row r="119" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I119" s="17"/>
+      <c r="I119" s="16"/>
     </row>
     <row r="120" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I120" s="17"/>
+      <c r="I120" s="16"/>
     </row>
     <row r="121" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D121" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I121" s="17"/>
+      <c r="I121" s="16"/>
     </row>
     <row r="122" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I122" s="17"/>
+      <c r="I122" s="16"/>
     </row>
     <row r="123" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I123" s="17"/>
+      <c r="I123" s="16"/>
     </row>
     <row r="124" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C124" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I124" s="17"/>
+      <c r="I124" s="16"/>
     </row>
     <row r="125" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I125" s="17"/>
+      <c r="I125" s="16"/>
     </row>
     <row r="126" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="C126" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I126" s="17"/>
+      <c r="I126" s="16"/>
     </row>
     <row r="127" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="E127" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I127" s="17"/>
+      <c r="I127" s="16"/>
     </row>
     <row r="128" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I128" s="17"/>
+      <c r="I128" s="16"/>
     </row>
     <row r="129" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I129" s="17"/>
+      <c r="I129" s="16"/>
     </row>
     <row r="130" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I130" s="17"/>
+      <c r="I130" s="16"/>
     </row>
     <row r="131" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I131" s="17"/>
+      <c r="I131" s="16"/>
     </row>
     <row r="132" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I132" s="17"/>
+      <c r="I132" s="16"/>
     </row>
     <row r="133" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I133" s="17"/>
+      <c r="I133" s="16"/>
     </row>
     <row r="134" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C134" s="17" t="s">
+      <c r="C134" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="E134" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I134" s="17"/>
+      <c r="I134" s="16"/>
     </row>
     <row r="135" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I135" s="17"/>
+      <c r="I135" s="16"/>
     </row>
     <row r="136" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D136" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E136" s="11" t="s">
+      <c r="E136" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I136" s="17"/>
+      <c r="I136" s="16"/>
     </row>
     <row r="137" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D137" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I137" s="17"/>
+      <c r="I137" s="16"/>
     </row>
     <row r="138" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I138" s="17"/>
+      <c r="I138" s="16"/>
     </row>
     <row r="139" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E139" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I139" s="17"/>
+      <c r="I139" s="16"/>
     </row>
     <row r="140" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I140" s="17"/>
+      <c r="I140" s="16"/>
     </row>
     <row r="141" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C141" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I141" s="17"/>
+      <c r="I141" s="16"/>
     </row>
     <row r="142" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I142" s="17"/>
+      <c r="I142" s="16"/>
     </row>
     <row r="143" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E143" s="11" t="s">
+      <c r="E143" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I143" s="17"/>
+      <c r="I143" s="16"/>
     </row>
     <row r="144" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I144" s="17"/>
+      <c r="I144" s="16"/>
     </row>
     <row r="145" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="D145" s="11" t="s">
+      <c r="D145" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I145" s="17"/>
+      <c r="I145" s="16"/>
     </row>
     <row r="146" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="D146" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="E146" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I146" s="17"/>
+      <c r="I146" s="16"/>
     </row>
     <row r="147" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="D147" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="E147" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I147" s="17"/>
+      <c r="I147" s="16"/>
     </row>
     <row r="148" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="E148" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I148" s="17"/>
+      <c r="I148" s="16"/>
     </row>
     <row r="149" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="D149" s="11" t="s">
+      <c r="D149" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E149" s="11" t="s">
+      <c r="E149" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I149" s="17"/>
+      <c r="I149" s="16"/>
     </row>
     <row r="150" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="D150" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E150" s="11" t="s">
+      <c r="E150" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I150" s="17"/>
+      <c r="I150" s="16"/>
     </row>
     <row r="151" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="D151" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="E151" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I151" s="17"/>
+      <c r="I151" s="16"/>
     </row>
     <row r="152" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C152" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="D152" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="E152" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I152" s="17"/>
+      <c r="I152" s="16"/>
     </row>
     <row r="153" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="E153" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I153" s="17"/>
+      <c r="I153" s="16"/>
     </row>
     <row r="154" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="D154" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E154" s="11" t="s">
+      <c r="E154" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I154" s="17"/>
+      <c r="I154" s="16"/>
     </row>
     <row r="155" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C155" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="D155" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="E155" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I155" s="17"/>
+      <c r="I155" s="16"/>
     </row>
     <row r="156" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D156" s="11" t="s">
+      <c r="D156" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E156" s="11" t="s">
+      <c r="E156" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I156" s="17"/>
+      <c r="I156" s="16"/>
     </row>
     <row r="157" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E157" s="11" t="s">
+      <c r="E157" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I157" s="17"/>
+      <c r="I157" s="16"/>
     </row>
     <row r="158" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="D158" s="11" t="s">
+      <c r="D158" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E158" s="11" t="s">
+      <c r="E158" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I158" s="17"/>
+      <c r="I158" s="16"/>
     </row>
     <row r="159" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E159" s="11" t="s">
+      <c r="E159" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I159" s="17"/>
+      <c r="I159" s="16"/>
     </row>
     <row r="160" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A160" s="11" t="s">
+      <c r="A160" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D160" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E160" s="11" t="s">
+      <c r="E160" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I160" s="17"/>
+      <c r="I160" s="16"/>
     </row>
     <row r="161" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C161" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D161" s="11" t="s">
+      <c r="D161" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E161" s="11" t="s">
+      <c r="E161" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I161" s="17"/>
+      <c r="I161" s="16"/>
     </row>
     <row r="162" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="D162" s="11" t="s">
+      <c r="D162" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E162" s="11" t="s">
+      <c r="E162" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I162" s="17"/>
+      <c r="I162" s="16"/>
     </row>
     <row r="163" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A163" s="11" t="s">
+      <c r="A163" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C163" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="E163" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I163" s="17"/>
+      <c r="I163" s="16"/>
     </row>
     <row r="164" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D164" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="E164" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I164" s="17"/>
+      <c r="I164" s="16"/>
     </row>
     <row r="165" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="D165" s="11" t="s">
+      <c r="D165" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E165" s="11" t="s">
+      <c r="E165" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I165" s="17"/>
+      <c r="I165" s="16"/>
     </row>
     <row r="166" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A166" s="11" t="s">
+      <c r="A166" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E166" s="11" t="s">
+      <c r="E166" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I166" s="17"/>
+      <c r="I166" s="16"/>
     </row>
     <row r="167" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="D167" s="11" t="s">
+      <c r="D167" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E167" s="11" t="s">
+      <c r="E167" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I167" s="17"/>
+      <c r="I167" s="16"/>
     </row>
     <row r="168" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="D168" s="11" t="s">
+      <c r="D168" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E168" s="11" t="s">
+      <c r="E168" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I168" s="17"/>
+      <c r="I168" s="16"/>
     </row>
     <row r="169" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="D169" s="11" t="s">
+      <c r="D169" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E169" s="11" t="s">
+      <c r="E169" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I169" s="17"/>
+      <c r="I169" s="16"/>
     </row>
     <row r="170" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C170" s="17" t="s">
+      <c r="C170" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="D170" s="11" t="s">
+      <c r="D170" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E170" s="11" t="s">
+      <c r="E170" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I170" s="17"/>
+      <c r="I170" s="16"/>
     </row>
     <row r="171" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A171" s="11" t="s">
+      <c r="A171" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="C171" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="D171" s="11" t="s">
+      <c r="D171" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E171" s="11" t="s">
+      <c r="E171" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I171" s="17"/>
+      <c r="I171" s="16"/>
     </row>
     <row r="172" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="C172" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="D172" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E172" s="11" t="s">
+      <c r="E172" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I172" s="17"/>
+      <c r="I172" s="16"/>
     </row>
     <row r="173" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A173" s="11" t="s">
+      <c r="A173" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="C173" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="D173" s="11" t="s">
+      <c r="D173" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E173" s="11" t="s">
+      <c r="E173" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I173" s="17"/>
+      <c r="I173" s="16"/>
     </row>
     <row r="174" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A174" s="11" t="s">
+      <c r="A174" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E174" s="11" t="s">
+      <c r="E174" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I174" s="17"/>
+      <c r="I174" s="16"/>
     </row>
     <row r="175" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A175" s="11" t="s">
+      <c r="A175" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C175" s="17" t="s">
+      <c r="C175" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="D175" s="11" t="s">
+      <c r="D175" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="E175" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I175" s="17"/>
+      <c r="I175" s="16"/>
     </row>
     <row r="176" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A176" s="11" t="s">
+      <c r="A176" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="D176" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E176" s="11" t="s">
+      <c r="E176" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I176" s="17"/>
+      <c r="I176" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -26893,21 +26716,21 @@
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D126" sqref="D126"/>
+      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.10833333333333" style="11"/>
-    <col min="3" max="3" width="31.1666666666667" style="11"/>
-    <col min="4" max="4" width="8.78333333333333" style="11"/>
-    <col min="5" max="6" width="12.625" style="11"/>
-    <col min="7" max="1026" width="8.78333333333333" style="11"/>
+    <col min="1" max="1" width="36.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.10833333333333" style="1"/>
+    <col min="3" max="3" width="31.1666666666667" style="1"/>
+    <col min="4" max="4" width="8.78333333333333" style="1"/>
+    <col min="5" max="6" width="12.625" style="1"/>
+    <col min="7" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -27085,8 +26908,8 @@
         <v>609</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="4" t="s">
         <v>80</v>
       </c>
@@ -30354,9 +30177,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="8.78333333333333" style="11"/>
-    <col min="3" max="3" width="38.5666666666667" style="11"/>
-    <col min="4" max="1026" width="8.78333333333333" style="11"/>
+    <col min="1" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="38.5666666666667" style="1"/>
+    <col min="4" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:9">
@@ -30389,7 +30212,7 @@
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>739</v>
       </c>
       <c r="B2" s="7"/>
@@ -30405,7 +30228,7 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>741</v>
       </c>
       <c r="B3" s="4"/>
@@ -30421,7 +30244,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>743</v>
       </c>
       <c r="B4" s="4"/>
@@ -30437,7 +30260,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>745</v>
       </c>
       <c r="B5" s="4"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
     <t>Time units</t>
   </si>
   <si>
-    <t>s</t>
+    <t>second</t>
   </si>
   <si>
     <t>Database references</t>
@@ -484,7 +484,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -577,13 +577,13 @@
     <t>e</t>
   </si>
   <si>
-    <t>g</t>
+    <t>gram</t>
   </si>
   <si>
     <t>normal_distribution</t>
   </si>
   <si>
-    <t>l</t>
+    <t>liter</t>
   </si>
   <si>
     <t>density_c</t>
@@ -2223,7 +2223,7 @@
     <t>dist-init-conc-AD[e]</t>
   </si>
   <si>
-    <t>M</t>
+    <t>molar</t>
   </si>
   <si>
     <t>evidence_001</t>
@@ -2697,7 +2697,7 @@
     <t>AD[e] + H[e] ==&gt; AD[c] + H[c]</t>
   </si>
   <si>
-    <t>s^-1</t>
+    <t>1 / second</t>
   </si>
   <si>
     <t>AK_AMP</t>
@@ -5241,7 +5241,7 @@
     <t>ALA net component</t>
   </si>
   <si>
-    <t>M s^-1</t>
+    <t>molar / second</t>
   </si>
   <si>
     <t>test</t>
@@ -5454,7 +5454,7 @@
     <t>Avogadro</t>
   </si>
   <si>
-    <t>molecule mol^-1</t>
+    <t>molecule / mole</t>
   </si>
   <si>
     <t>carbonExchangeRate</t>
@@ -5463,7 +5463,7 @@
     <t>Carbon-containing metabolite exchange rate</t>
   </si>
   <si>
-    <t>mmol/gDCW/h</t>
+    <t>millimole / gDCW / hour</t>
   </si>
   <si>
     <t>Exchange rate upper bound for carbon-containing metabolites (mmol/gDCW/h). Maranas et al. used 5 mmol/gDCW/h for all carbon-containing metabolites [Ref_0004]. Feist et al. used 11.2 mmol/gDCW/h for glucose [Ref_0005].</t>
@@ -5475,7 +5475,7 @@
     <t>Cell cycle length</t>
   </si>
   <si>
-    <t>g l^-1</t>
+    <t>gram / liter</t>
   </si>
   <si>
     <t>fractionDryWeight</t>
@@ -5499,7 +5499,7 @@
     <t>k_cat</t>
   </si>
   <si>
-    <t>molecule^-1 s^-1</t>
+    <t>1 / molecule / second</t>
   </si>
   <si>
     <t>k_cat_for_ak</t>
@@ -5817,7 +5817,7 @@
     <t>k_cat_rev_ak</t>
   </si>
   <si>
-    <t>molecule^-2 s^-1</t>
+    <t>1 / molecule ** 2 / second</t>
   </si>
   <si>
     <t>k_cat_rev_aprt</t>
@@ -6509,10 +6509,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -6557,7 +6557,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6565,27 +6565,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6598,9 +6586,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6615,7 +6637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6623,43 +6645,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6674,6 +6667,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -6681,17 +6689,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6710,31 +6710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6746,13 +6728,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6770,19 +6800,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6794,7 +6854,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6806,91 +6890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6901,21 +6901,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6938,7 +6923,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6950,15 +6974,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6986,153 +7001,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7593,10 +7593,10 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -7731,7 +7731,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7860,7 +7860,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12790,11 +12790,11 @@
   <dimension ref="A1:L168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15715,7 +15715,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -15804,7 +15804,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -15905,7 +15905,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16677,11 +16677,11 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C90" sqref="C90:C92"/>
+      <selection pane="bottomRight" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -18563,7 +18563,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18680,7 +18680,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:10">
+    <row r="3" ht="15.1" customHeight="1" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>1862</v>
       </c>
@@ -18701,9 +18701,8 @@
         <v>1859</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:10">
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>1865</v>
       </c>
@@ -18724,9 +18723,8 @@
         <v>1859</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:10">
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>1868</v>
       </c>
@@ -18747,7 +18745,6 @@
         <v>1859</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
@@ -18851,7 +18848,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18987,7 +18984,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C8" sqref="$A1:$XFD1048576"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -19901,7 +19898,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -19984,7 +19981,7 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -20113,7 +20110,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -26716,11 +26713,11 @@
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -30172,7 +30169,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="2068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4681" uniqueCount="2067">
   <si>
     <t>Table</t>
   </si>
@@ -518,7 +518,7 @@
     <t>second</t>
   </si>
   <si>
-    <t>Database references</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>Comments</t>
@@ -6575,9 +6575,6 @@
   </si>
   <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>ORCID</t>
   </si>
   <si>
     <t>Target</t>
@@ -6609,13 +6606,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6681,7 +6678,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6696,6 +6701,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -6703,7 +6769,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6717,24 +6783,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6749,67 +6799,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6836,7 +6826,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6852,174 +7010,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -7030,11 +7020,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7042,8 +7038,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7073,6 +7069,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -7083,21 +7094,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7113,149 +7109,143 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7736,7 +7726,7 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -20376,14 +20366,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -20391,7 +20381,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -20423,12 +20413,9 @@
         <v>2058</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>2059</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -20467,25 +20454,25 @@
         <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2060</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2061</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2063</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2064</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2065</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2066</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -20506,7 +20493,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/example-model.xlsx
+++ b/tests/fixtures/example-model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Parameters" sheetId="15" r:id="rId17"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId18"/>
     <sheet name="Evidence" sheetId="17" r:id="rId19"/>
-    <sheet name="Interpretations" sheetId="20" r:id="rId20"/>
+    <sheet name="Conclusions" sheetId="20" r:id="rId20"/>
     <sheet name="References" sheetId="18" r:id="rId21"/>
     <sheet name="Authors" sheetId="21" r:id="rId22"/>
     <sheet name="Changes" sheetId="22" r:id="rId23"/>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="2009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4636" uniqueCount="2009">
   <si>
     <t>Table</t>
   </si>
@@ -461,7 +461,7 @@
     <t>Evidence</t>
   </si>
   <si>
-    <t>Interpretations</t>
+    <t>Conclusions</t>
   </si>
   <si>
     <t>References</t>
@@ -5815,10 +5815,10 @@
     <t>Genotype</t>
   </si>
   <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
+    <t>Data generation process</t>
+  </si>
+  <si>
+    <t>Data analysis process</t>
   </si>
   <si>
     <t>Variant</t>
@@ -5923,13 +5923,16 @@
     <t>Homo sapiens</t>
   </si>
   <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>interpretation_001</t>
-  </si>
-  <si>
-    <t>Interpretation 001</t>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>conclusion_001</t>
+  </si>
+  <si>
+    <t>Conclusion 001</t>
   </si>
   <si>
     <t>0.1</t>
@@ -5938,7 +5941,7 @@
     <t>assumption</t>
   </si>
   <si>
-    <t>interpretation_002</t>
+    <t>conclusion_002</t>
   </si>
   <si>
     <t>10</t>
@@ -6422,9 +6425,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -6433,10 +6433,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6503,17 +6503,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6527,16 +6533,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6551,33 +6588,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6588,22 +6601,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6617,17 +6617,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6652,7 +6652,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6664,13 +6706,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6682,151 +6820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6846,6 +6846,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6861,22 +6879,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6898,9 +6911,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6919,159 +6943,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7552,10 +7552,10 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
@@ -7797,7 +7797,7 @@
     <hyperlink ref="A17" location="'Parameters'!A1" display="Parameters" tooltip="Click to view parameters"/>
     <hyperlink ref="A18" location="'Stop conditions'!A1" display="Stop conditions" tooltip="Click to view stop conditions"/>
     <hyperlink ref="A19" location="'Evidence'!A1" display="Evidence" tooltip="Click to view evidence"/>
-    <hyperlink ref="A20" location="'Interpretations'!A1" display="Interpretations" tooltip="Click to view interpretations"/>
+    <hyperlink ref="A20" location="'Interpretations'!A1" display="Conclusions" tooltip="Click to view interpretations"/>
     <hyperlink ref="A21" location="'References'!A1" display="References" tooltip="Click to view references"/>
     <hyperlink ref="A22" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
     <hyperlink ref="A23" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
@@ -18782,7 +18782,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19209,14 +19209,14 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+    <row r="2" ht="15.1" customHeight="1" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -19275,25 +19275,28 @@
       <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="N2" s="5" t="s">
+        <v>1842</v>
+      </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1814</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>566</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>1818</v>
@@ -19301,13 +19304,13 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>1814</v>
@@ -19316,10 +19319,10 @@
         <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="3:4">
@@ -19388,46 +19391,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -19438,26 +19441,26 @@
     </row>
     <row r="2" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>2008</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -19471,35 +19474,35 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>2014</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -19509,124 +19512,124 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>2004</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="R4" s="1"/>
     </row>
     <row r="5" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>2009</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>2007</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>1814</v>
@@ -19636,7 +19639,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="R6" s="1"/>
     </row>
@@ -19645,24 +19648,24 @@
         <v>1652</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>2001</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -19672,7 +19675,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="R7" s="1"/>
     </row>
@@ -19681,26 +19684,26 @@
         <v>1666</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>2006</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -19710,37 +19713,37 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="R8" s="1"/>
     </row>
     <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>1993</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>1814</v>
@@ -19749,119 +19752,119 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="R9" s="1"/>
     </row>
     <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>2010</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="R10" s="1"/>
     </row>
     <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>2000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="R11" s="1"/>
     </row>
     <row r="12" customHeight="1" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>1999</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -19869,58 +19872,58 @@
         <v>1814</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="R12" s="1"/>
     </row>
     <row r="13" customHeight="1" spans="1:18">
       <c r="A13